--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -246,6 +246,12 @@
     <t>vmsession.md</t>
   </si>
   <si>
+    <t>windows_welcome1.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>container_ecosystem.md</t>
   </si>
   <si>
@@ -330,16 +336,10 @@
     <t>Handback transform failed</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>whats_new.md</t>
   </si>
   <si>
     <t>about_overview.md</t>
-  </si>
-  <si>
-    <t>windows_welcome1.md</t>
   </si>
   <si>
     <t>containers_welcome.md</t>
@@ -1110,6 +1110,15 @@
     <t>vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf</t>
   </si>
   <si>
+    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 06:03:18</t>
+  </si>
+  <si>
+    <t>2016-01-11 07:46:00</t>
+  </si>
+  <si>
     <t>container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf</t>
   </si>
   <si>
@@ -1217,15 +1226,6 @@
   </si>
   <si>
     <t>2016-01-08 13:50:01</t>
-  </si>
-  <si>
-    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 06:03:18</t>
-  </si>
-  <si>
-    <t>2016-01-08 17:38:30</t>
   </si>
   <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
@@ -3056,18 +3056,18 @@
         <v>6</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
@@ -3509,13 +3509,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>6</v>
@@ -3526,13 +3526,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="C100" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>6</v>
@@ -3546,10 +3546,10 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>6</v>
@@ -3560,13 +3560,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>6</v>
@@ -3577,19 +3577,19 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
@@ -3597,10 +3597,10 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>6</v>
@@ -6503,38 +6503,38 @@
     <hyperlink ref="A69" display="troubleshooting.md" r:id="rId69"/>
     <hyperlink ref="A70" display="user_guide_nav.md" r:id="rId70"/>
     <hyperlink ref="A71" display="vmsession.md" r:id="rId71"/>
-    <hyperlink ref="A72" display="container_ecosystem.md" r:id="rId72"/>
-    <hyperlink ref="A73" display="faq.md" r:id="rId73"/>
-    <hyperlink ref="A74" display="containerEcosystem.png" r:id="rId74"/>
-    <hyperlink ref="A75" display="containerfund.png" r:id="rId75"/>
-    <hyperlink ref="A76" display="work_in_progress.md" r:id="rId76"/>
-    <hyperlink ref="A77" display="EULA.md" r:id="rId77"/>
-    <hyperlink ref="A78" display="azure_setup.md" r:id="rId78"/>
-    <hyperlink ref="A79" display="container_setup.md" r:id="rId79"/>
-    <hyperlink ref="A80" display="inplace_setup.md" r:id="rId80"/>
-    <hyperlink ref="A81" display="manage_docker.md" r:id="rId81"/>
-    <hyperlink ref="A82" display="manage_powershell.md" r:id="rId82"/>
-    <hyperlink ref="A83" display="cmd.png" r:id="rId83"/>
-    <hyperlink ref="A84" display="containerhost2.png" r:id="rId84"/>
-    <hyperlink ref="A85" display="docker1.png" r:id="rId85"/>
-    <hyperlink ref="A86" display="hello.png" r:id="rId86"/>
-    <hyperlink ref="A87" display="newazure1.png" r:id="rId87"/>
-    <hyperlink ref="A88" display="newazure2.png" r:id="rId88"/>
-    <hyperlink ref="A89" display="newazure3.png" r:id="rId89"/>
-    <hyperlink ref="A90" display="newazure6.png" r:id="rId90"/>
-    <hyperlink ref="A91" display="newazure7.png" r:id="rId91"/>
-    <hyperlink ref="A92" display="newazure9.png" r:id="rId92"/>
-    <hyperlink ref="A93" display="nginx.png" r:id="rId93"/>
-    <hyperlink ref="A94" display="quickstart.md" r:id="rId94"/>
-    <hyperlink ref="A95" display="app_compat.md" r:id="rId95"/>
-    <hyperlink ref="A96" display="powershell_overview.md" r:id="rId96"/>
-    <hyperlink ref="A97" display="ps_docker_comparison.md" r:id="rId97"/>
-    <hyperlink ref="A98" display="TOC.md" r:id="rId98"/>
-    <hyperlink ref="A99" display="supported_guest_os.md" r:id="rId99"/>
-    <hyperlink ref="A100" display="whats_new.md" r:id="rId100"/>
-    <hyperlink ref="A101" display="about_overview.md" r:id="rId101"/>
-    <hyperlink ref="A102" display="TOC.md" r:id="rId102"/>
-    <hyperlink ref="A103" display="windows_welcome1.md" r:id="rId103"/>
+    <hyperlink ref="A72" display="windows_welcome1.md" r:id="rId72"/>
+    <hyperlink ref="A73" display="container_ecosystem.md" r:id="rId73"/>
+    <hyperlink ref="A74" display="faq.md" r:id="rId74"/>
+    <hyperlink ref="A75" display="containerEcosystem.png" r:id="rId75"/>
+    <hyperlink ref="A76" display="containerfund.png" r:id="rId76"/>
+    <hyperlink ref="A77" display="work_in_progress.md" r:id="rId77"/>
+    <hyperlink ref="A78" display="EULA.md" r:id="rId78"/>
+    <hyperlink ref="A79" display="azure_setup.md" r:id="rId79"/>
+    <hyperlink ref="A80" display="container_setup.md" r:id="rId80"/>
+    <hyperlink ref="A81" display="inplace_setup.md" r:id="rId81"/>
+    <hyperlink ref="A82" display="manage_docker.md" r:id="rId82"/>
+    <hyperlink ref="A83" display="manage_powershell.md" r:id="rId83"/>
+    <hyperlink ref="A84" display="cmd.png" r:id="rId84"/>
+    <hyperlink ref="A85" display="containerhost2.png" r:id="rId85"/>
+    <hyperlink ref="A86" display="docker1.png" r:id="rId86"/>
+    <hyperlink ref="A87" display="hello.png" r:id="rId87"/>
+    <hyperlink ref="A88" display="newazure1.png" r:id="rId88"/>
+    <hyperlink ref="A89" display="newazure2.png" r:id="rId89"/>
+    <hyperlink ref="A90" display="newazure3.png" r:id="rId90"/>
+    <hyperlink ref="A91" display="newazure6.png" r:id="rId91"/>
+    <hyperlink ref="A92" display="newazure7.png" r:id="rId92"/>
+    <hyperlink ref="A93" display="newazure9.png" r:id="rId93"/>
+    <hyperlink ref="A94" display="nginx.png" r:id="rId94"/>
+    <hyperlink ref="A95" display="quickstart.md" r:id="rId95"/>
+    <hyperlink ref="A96" display="app_compat.md" r:id="rId96"/>
+    <hyperlink ref="A97" display="powershell_overview.md" r:id="rId97"/>
+    <hyperlink ref="A98" display="ps_docker_comparison.md" r:id="rId98"/>
+    <hyperlink ref="A99" display="TOC.md" r:id="rId99"/>
+    <hyperlink ref="A100" display="supported_guest_os.md" r:id="rId100"/>
+    <hyperlink ref="A101" display="whats_new.md" r:id="rId101"/>
+    <hyperlink ref="A102" display="about_overview.md" r:id="rId102"/>
+    <hyperlink ref="A103" display="TOC.md" r:id="rId103"/>
     <hyperlink ref="A104" display="containers_welcome.md" r:id="rId104"/>
     <hyperlink ref="A105" display=".gitignore" r:id="rId105"/>
     <hyperlink ref="A106" display=".localization-config" r:id="rId106"/>
@@ -8664,7 +8664,7 @@
         <v>363</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>76</v>
@@ -8673,7 +8673,7 @@
         <v>363</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>280</v>
@@ -8681,22 +8681,22 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>279</v>
@@ -8707,51 +8707,48 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>279</v>
@@ -8760,53 +8757,56 @@
         <v>284</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>279</v>
@@ -8817,22 +8817,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>279</v>
@@ -8843,22 +8843,22 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>279</v>
@@ -8869,22 +8869,22 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>279</v>
@@ -8895,22 +8895,22 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>279</v>
@@ -8921,22 +8921,22 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>279</v>
@@ -8947,51 +8947,48 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>279</v>
@@ -9000,27 +8997,27 @@
         <v>284</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>279</v>
@@ -9029,27 +9026,27 @@
         <v>284</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>279</v>
@@ -9058,27 +9055,27 @@
         <v>284</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>279</v>
@@ -9087,27 +9084,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>279</v>
@@ -9116,27 +9113,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>279</v>
@@ -9145,27 +9142,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>279</v>
@@ -9174,27 +9171,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>279</v>
@@ -9203,27 +9200,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>279</v>
@@ -9232,27 +9229,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>279</v>
@@ -9261,53 +9258,56 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>279</v>
@@ -9318,22 +9318,22 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>279</v>
@@ -9344,22 +9344,22 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>279</v>
@@ -9370,22 +9370,22 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>279</v>
@@ -9396,28 +9396,37 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>103</v>
+        <v>6</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>316</v>
+        <v>278</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>396</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="D100" s="2" t="s">
         <v>316</v>
       </c>
@@ -9425,7 +9434,7 @@
         <v>316</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101">
@@ -9433,7 +9442,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>316</v>
@@ -9442,56 +9451,47 @@
         <v>316</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>397</v>
+        <v>105</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="G103" s="0" t="s">
-        <v>401</v>
+        <v>279</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>280</v>
@@ -9502,7 +9502,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>402</v>
@@ -9537,7 +9537,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -9554,7 +9554,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -9571,7 +9571,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -9588,7 +9588,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -9605,7 +9605,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -9622,7 +9622,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -9639,7 +9639,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -9656,7 +9656,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -9673,7 +9673,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -9690,7 +9690,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -9707,7 +9707,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -9724,7 +9724,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -9741,7 +9741,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -9758,7 +9758,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -9775,7 +9775,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -9792,7 +9792,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -9809,7 +9809,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -9826,7 +9826,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -9843,7 +9843,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -9860,7 +9860,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -9877,7 +9877,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -9894,7 +9894,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -9911,7 +9911,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -9928,7 +9928,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -9945,7 +9945,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -9962,7 +9962,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -9979,7 +9979,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -9996,7 +9996,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -10013,7 +10013,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -10030,7 +10030,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -10047,7 +10047,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -10064,7 +10064,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -10081,7 +10081,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -10098,7 +10098,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -10115,7 +10115,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -10132,7 +10132,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -10149,7 +10149,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -10166,7 +10166,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -10183,7 +10183,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -10200,7 +10200,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -10217,7 +10217,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -10234,7 +10234,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -10251,7 +10251,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -10268,7 +10268,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -10285,7 +10285,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -10302,7 +10302,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -10319,7 +10319,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -10336,7 +10336,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -10353,7 +10353,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -10370,7 +10370,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -10387,7 +10387,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -10404,7 +10404,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -10421,7 +10421,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -10438,7 +10438,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -10455,7 +10455,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -10472,7 +10472,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -10489,7 +10489,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -10506,7 +10506,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -10523,7 +10523,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -10540,7 +10540,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -10557,7 +10557,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -10574,7 +10574,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -10591,7 +10591,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -10608,7 +10608,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -10625,7 +10625,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -10642,7 +10642,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -10659,7 +10659,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -10676,7 +10676,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -10693,7 +10693,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -10710,7 +10710,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -10727,7 +10727,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -10744,7 +10744,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -10761,7 +10761,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -10778,7 +10778,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -10795,7 +10795,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -10812,7 +10812,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -10829,7 +10829,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -10846,7 +10846,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -10863,7 +10863,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -10880,7 +10880,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -10897,7 +10897,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -10914,7 +10914,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -10931,7 +10931,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -10948,7 +10948,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -10965,7 +10965,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -10982,7 +10982,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -10999,7 +10999,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -11016,7 +11016,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -11033,7 +11033,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -11050,7 +11050,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -11067,7 +11067,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -11084,7 +11084,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -11101,7 +11101,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -11118,7 +11118,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -11135,7 +11135,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -11152,7 +11152,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -11169,7 +11169,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -11186,7 +11186,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -11203,7 +11203,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -11220,7 +11220,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -11237,7 +11237,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -11254,7 +11254,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -11271,7 +11271,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -11288,7 +11288,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -11305,7 +11305,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -11322,7 +11322,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -11339,7 +11339,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -11356,7 +11356,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -11373,7 +11373,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -11390,7 +11390,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -11407,7 +11407,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -11424,7 +11424,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -11441,7 +11441,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -11458,7 +11458,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -11475,7 +11475,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -11492,7 +11492,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -11509,7 +11509,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -11526,7 +11526,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -11543,7 +11543,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -11560,7 +11560,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -11577,7 +11577,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -11594,7 +11594,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -11611,7 +11611,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -11628,7 +11628,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -11645,7 +11645,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -11662,7 +11662,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -11679,7 +11679,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -11696,7 +11696,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -11713,7 +11713,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -11730,7 +11730,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -11747,7 +11747,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -11764,7 +11764,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -11781,7 +11781,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -11798,7 +11798,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -11815,7 +11815,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -11832,7 +11832,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -11849,7 +11849,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -11866,7 +11866,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -11883,7 +11883,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -11900,7 +11900,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -11917,7 +11917,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -11934,7 +11934,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -11951,7 +11951,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -11968,7 +11968,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -11985,7 +11985,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -12002,7 +12002,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -12019,7 +12019,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -12036,7 +12036,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -12053,7 +12053,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -12070,7 +12070,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -12087,7 +12087,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -12104,7 +12104,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -12121,7 +12121,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -12138,7 +12138,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -12155,7 +12155,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -12172,7 +12172,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -12189,7 +12189,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -12206,7 +12206,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -12223,7 +12223,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -12240,7 +12240,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -12257,7 +12257,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -12274,7 +12274,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -12291,7 +12291,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -12308,7 +12308,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -12325,7 +12325,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -12342,7 +12342,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -12603,125 +12603,125 @@
     <hyperlink ref="C71" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId255"/>
     <hyperlink ref="E71" display="vmsession.md" r:id="rId256"/>
     <hyperlink ref="F71" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId257"/>
-    <hyperlink ref="A72" display="container_ecosystem.md" r:id="rId258"/>
-    <hyperlink ref="C72" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId259"/>
-    <hyperlink ref="E72" display="container_ecosystem.md" r:id="rId260"/>
-    <hyperlink ref="F72" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId261"/>
-    <hyperlink ref="A73" display="faq.md" r:id="rId262"/>
-    <hyperlink ref="C73" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId263"/>
-    <hyperlink ref="E73" display="faq.md" r:id="rId264"/>
-    <hyperlink ref="F73" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId265"/>
-    <hyperlink ref="A74" display="containerEcosystem.png" r:id="rId266"/>
-    <hyperlink ref="C74" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId267"/>
-    <hyperlink ref="E74" display="containerEcosystem.png" r:id="rId268"/>
-    <hyperlink ref="F74" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId269"/>
-    <hyperlink ref="A75" display="containerfund.png" r:id="rId270"/>
-    <hyperlink ref="C75" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId271"/>
-    <hyperlink ref="E75" display="containerfund.png" r:id="rId272"/>
-    <hyperlink ref="F75" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId273"/>
-    <hyperlink ref="A76" display="work_in_progress.md" r:id="rId274"/>
-    <hyperlink ref="C76" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId275"/>
-    <hyperlink ref="E76" display="work_in_progress.md" r:id="rId276"/>
-    <hyperlink ref="F76" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId277"/>
-    <hyperlink ref="A77" display="EULA.md" r:id="rId278"/>
-    <hyperlink ref="C77" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId279"/>
-    <hyperlink ref="E77" display="EULA.md" r:id="rId280"/>
-    <hyperlink ref="F77" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId281"/>
-    <hyperlink ref="A78" display="azure_setup.md" r:id="rId282"/>
-    <hyperlink ref="C78" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId283"/>
-    <hyperlink ref="E78" display="azure_setup.md" r:id="rId284"/>
-    <hyperlink ref="F78" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId285"/>
-    <hyperlink ref="A79" display="container_setup.md" r:id="rId286"/>
-    <hyperlink ref="C79" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId287"/>
-    <hyperlink ref="E79" display="container_setup.md" r:id="rId288"/>
-    <hyperlink ref="F79" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId289"/>
-    <hyperlink ref="A80" display="inplace_setup.md" r:id="rId290"/>
-    <hyperlink ref="C80" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId291"/>
-    <hyperlink ref="E80" display="inplace_setup.md" r:id="rId292"/>
-    <hyperlink ref="F80" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId293"/>
-    <hyperlink ref="A81" display="manage_docker.md" r:id="rId294"/>
-    <hyperlink ref="C81" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId295"/>
-    <hyperlink ref="E81" display="manage_docker.md" r:id="rId296"/>
-    <hyperlink ref="F81" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId297"/>
-    <hyperlink ref="A82" display="manage_powershell.md" r:id="rId298"/>
-    <hyperlink ref="C82" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId299"/>
-    <hyperlink ref="E82" display="manage_powershell.md" r:id="rId300"/>
-    <hyperlink ref="F82" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId301"/>
-    <hyperlink ref="A83" display="cmd.png" r:id="rId302"/>
-    <hyperlink ref="C83" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId303"/>
-    <hyperlink ref="E83" display="cmd.png" r:id="rId304"/>
-    <hyperlink ref="F83" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId305"/>
-    <hyperlink ref="A84" display="containerhost2.png" r:id="rId306"/>
-    <hyperlink ref="C84" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId307"/>
-    <hyperlink ref="E84" display="containerhost2.png" r:id="rId308"/>
-    <hyperlink ref="F84" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId309"/>
-    <hyperlink ref="A85" display="docker1.png" r:id="rId310"/>
-    <hyperlink ref="C85" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId311"/>
-    <hyperlink ref="E85" display="docker1.png" r:id="rId312"/>
-    <hyperlink ref="F85" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId313"/>
-    <hyperlink ref="A86" display="hello.png" r:id="rId314"/>
-    <hyperlink ref="C86" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId315"/>
-    <hyperlink ref="E86" display="hello.png" r:id="rId316"/>
-    <hyperlink ref="F86" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId317"/>
-    <hyperlink ref="A87" display="newazure1.png" r:id="rId318"/>
-    <hyperlink ref="C87" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId319"/>
-    <hyperlink ref="E87" display="newazure1.png" r:id="rId320"/>
-    <hyperlink ref="F87" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId321"/>
-    <hyperlink ref="A88" display="newazure2.png" r:id="rId322"/>
-    <hyperlink ref="C88" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId323"/>
-    <hyperlink ref="E88" display="newazure2.png" r:id="rId324"/>
-    <hyperlink ref="F88" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId325"/>
-    <hyperlink ref="A89" display="newazure3.png" r:id="rId326"/>
-    <hyperlink ref="C89" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId327"/>
-    <hyperlink ref="E89" display="newazure3.png" r:id="rId328"/>
-    <hyperlink ref="F89" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId329"/>
-    <hyperlink ref="A90" display="newazure6.png" r:id="rId330"/>
-    <hyperlink ref="C90" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId331"/>
-    <hyperlink ref="E90" display="newazure6.png" r:id="rId332"/>
-    <hyperlink ref="F90" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId333"/>
-    <hyperlink ref="A91" display="newazure7.png" r:id="rId334"/>
-    <hyperlink ref="C91" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId335"/>
-    <hyperlink ref="E91" display="newazure7.png" r:id="rId336"/>
-    <hyperlink ref="F91" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId337"/>
-    <hyperlink ref="A92" display="newazure9.png" r:id="rId338"/>
-    <hyperlink ref="C92" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId339"/>
-    <hyperlink ref="E92" display="newazure9.png" r:id="rId340"/>
-    <hyperlink ref="F92" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId341"/>
-    <hyperlink ref="A93" display="nginx.png" r:id="rId342"/>
-    <hyperlink ref="C93" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId343"/>
-    <hyperlink ref="E93" display="nginx.png" r:id="rId344"/>
-    <hyperlink ref="F93" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId345"/>
-    <hyperlink ref="A94" display="quickstart.md" r:id="rId346"/>
-    <hyperlink ref="C94" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId347"/>
-    <hyperlink ref="E94" display="quickstart.md" r:id="rId348"/>
-    <hyperlink ref="F94" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId349"/>
-    <hyperlink ref="A95" display="app_compat.md" r:id="rId350"/>
-    <hyperlink ref="C95" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId351"/>
-    <hyperlink ref="E95" display="app_compat.md" r:id="rId352"/>
-    <hyperlink ref="F95" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId353"/>
-    <hyperlink ref="A96" display="powershell_overview.md" r:id="rId354"/>
-    <hyperlink ref="C96" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId355"/>
-    <hyperlink ref="E96" display="powershell_overview.md" r:id="rId356"/>
-    <hyperlink ref="F96" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId357"/>
-    <hyperlink ref="A97" display="ps_docker_comparison.md" r:id="rId358"/>
-    <hyperlink ref="C97" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId359"/>
-    <hyperlink ref="E97" display="ps_docker_comparison.md" r:id="rId360"/>
-    <hyperlink ref="F97" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId361"/>
-    <hyperlink ref="A98" display="TOC.md" r:id="rId362"/>
-    <hyperlink ref="C98" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId363"/>
-    <hyperlink ref="E98" display="TOC.md" r:id="rId364"/>
-    <hyperlink ref="F98" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId365"/>
-    <hyperlink ref="A99" display="supported_guest_os.md" r:id="rId366"/>
-    <hyperlink ref="A100" display="whats_new.md" r:id="rId367"/>
-    <hyperlink ref="A101" display="about_overview.md" r:id="rId368"/>
-    <hyperlink ref="A102" display="TOC.md" r:id="rId369"/>
-    <hyperlink ref="C102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId370"/>
-    <hyperlink ref="E102" display="TOC.md" r:id="rId371"/>
-    <hyperlink ref="F102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId372"/>
-    <hyperlink ref="A103" display="windows_welcome1.md" r:id="rId373"/>
-    <hyperlink ref="C103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId374"/>
-    <hyperlink ref="E103" display="windows_welcome1.md" r:id="rId375"/>
-    <hyperlink ref="F103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId376"/>
+    <hyperlink ref="A72" display="windows_welcome1.md" r:id="rId258"/>
+    <hyperlink ref="C72" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId259"/>
+    <hyperlink ref="E72" display="windows_welcome1.md" r:id="rId260"/>
+    <hyperlink ref="F72" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId261"/>
+    <hyperlink ref="A73" display="container_ecosystem.md" r:id="rId262"/>
+    <hyperlink ref="C73" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId263"/>
+    <hyperlink ref="E73" display="container_ecosystem.md" r:id="rId264"/>
+    <hyperlink ref="F73" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId265"/>
+    <hyperlink ref="A74" display="faq.md" r:id="rId266"/>
+    <hyperlink ref="C74" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId267"/>
+    <hyperlink ref="E74" display="faq.md" r:id="rId268"/>
+    <hyperlink ref="F74" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId269"/>
+    <hyperlink ref="A75" display="containerEcosystem.png" r:id="rId270"/>
+    <hyperlink ref="C75" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId271"/>
+    <hyperlink ref="E75" display="containerEcosystem.png" r:id="rId272"/>
+    <hyperlink ref="F75" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId273"/>
+    <hyperlink ref="A76" display="containerfund.png" r:id="rId274"/>
+    <hyperlink ref="C76" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId275"/>
+    <hyperlink ref="E76" display="containerfund.png" r:id="rId276"/>
+    <hyperlink ref="F76" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId277"/>
+    <hyperlink ref="A77" display="work_in_progress.md" r:id="rId278"/>
+    <hyperlink ref="C77" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId279"/>
+    <hyperlink ref="E77" display="work_in_progress.md" r:id="rId280"/>
+    <hyperlink ref="F77" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId281"/>
+    <hyperlink ref="A78" display="EULA.md" r:id="rId282"/>
+    <hyperlink ref="C78" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId283"/>
+    <hyperlink ref="E78" display="EULA.md" r:id="rId284"/>
+    <hyperlink ref="F78" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId285"/>
+    <hyperlink ref="A79" display="azure_setup.md" r:id="rId286"/>
+    <hyperlink ref="C79" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId287"/>
+    <hyperlink ref="E79" display="azure_setup.md" r:id="rId288"/>
+    <hyperlink ref="F79" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId289"/>
+    <hyperlink ref="A80" display="container_setup.md" r:id="rId290"/>
+    <hyperlink ref="C80" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId291"/>
+    <hyperlink ref="E80" display="container_setup.md" r:id="rId292"/>
+    <hyperlink ref="F80" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId293"/>
+    <hyperlink ref="A81" display="inplace_setup.md" r:id="rId294"/>
+    <hyperlink ref="C81" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId295"/>
+    <hyperlink ref="E81" display="inplace_setup.md" r:id="rId296"/>
+    <hyperlink ref="F81" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId297"/>
+    <hyperlink ref="A82" display="manage_docker.md" r:id="rId298"/>
+    <hyperlink ref="C82" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId299"/>
+    <hyperlink ref="E82" display="manage_docker.md" r:id="rId300"/>
+    <hyperlink ref="F82" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId301"/>
+    <hyperlink ref="A83" display="manage_powershell.md" r:id="rId302"/>
+    <hyperlink ref="C83" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId303"/>
+    <hyperlink ref="E83" display="manage_powershell.md" r:id="rId304"/>
+    <hyperlink ref="F83" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId305"/>
+    <hyperlink ref="A84" display="cmd.png" r:id="rId306"/>
+    <hyperlink ref="C84" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId307"/>
+    <hyperlink ref="E84" display="cmd.png" r:id="rId308"/>
+    <hyperlink ref="F84" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId309"/>
+    <hyperlink ref="A85" display="containerhost2.png" r:id="rId310"/>
+    <hyperlink ref="C85" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId311"/>
+    <hyperlink ref="E85" display="containerhost2.png" r:id="rId312"/>
+    <hyperlink ref="F85" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId313"/>
+    <hyperlink ref="A86" display="docker1.png" r:id="rId314"/>
+    <hyperlink ref="C86" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId315"/>
+    <hyperlink ref="E86" display="docker1.png" r:id="rId316"/>
+    <hyperlink ref="F86" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId317"/>
+    <hyperlink ref="A87" display="hello.png" r:id="rId318"/>
+    <hyperlink ref="C87" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId319"/>
+    <hyperlink ref="E87" display="hello.png" r:id="rId320"/>
+    <hyperlink ref="F87" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId321"/>
+    <hyperlink ref="A88" display="newazure1.png" r:id="rId322"/>
+    <hyperlink ref="C88" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId323"/>
+    <hyperlink ref="E88" display="newazure1.png" r:id="rId324"/>
+    <hyperlink ref="F88" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId325"/>
+    <hyperlink ref="A89" display="newazure2.png" r:id="rId326"/>
+    <hyperlink ref="C89" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId327"/>
+    <hyperlink ref="E89" display="newazure2.png" r:id="rId328"/>
+    <hyperlink ref="F89" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId329"/>
+    <hyperlink ref="A90" display="newazure3.png" r:id="rId330"/>
+    <hyperlink ref="C90" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId331"/>
+    <hyperlink ref="E90" display="newazure3.png" r:id="rId332"/>
+    <hyperlink ref="F90" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId333"/>
+    <hyperlink ref="A91" display="newazure6.png" r:id="rId334"/>
+    <hyperlink ref="C91" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId335"/>
+    <hyperlink ref="E91" display="newazure6.png" r:id="rId336"/>
+    <hyperlink ref="F91" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId337"/>
+    <hyperlink ref="A92" display="newazure7.png" r:id="rId338"/>
+    <hyperlink ref="C92" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId339"/>
+    <hyperlink ref="E92" display="newazure7.png" r:id="rId340"/>
+    <hyperlink ref="F92" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId341"/>
+    <hyperlink ref="A93" display="newazure9.png" r:id="rId342"/>
+    <hyperlink ref="C93" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId343"/>
+    <hyperlink ref="E93" display="newazure9.png" r:id="rId344"/>
+    <hyperlink ref="F93" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId345"/>
+    <hyperlink ref="A94" display="nginx.png" r:id="rId346"/>
+    <hyperlink ref="C94" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId347"/>
+    <hyperlink ref="E94" display="nginx.png" r:id="rId348"/>
+    <hyperlink ref="F94" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId349"/>
+    <hyperlink ref="A95" display="quickstart.md" r:id="rId350"/>
+    <hyperlink ref="C95" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId351"/>
+    <hyperlink ref="E95" display="quickstart.md" r:id="rId352"/>
+    <hyperlink ref="F95" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId353"/>
+    <hyperlink ref="A96" display="app_compat.md" r:id="rId354"/>
+    <hyperlink ref="C96" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId355"/>
+    <hyperlink ref="E96" display="app_compat.md" r:id="rId356"/>
+    <hyperlink ref="F96" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId357"/>
+    <hyperlink ref="A97" display="powershell_overview.md" r:id="rId358"/>
+    <hyperlink ref="C97" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId359"/>
+    <hyperlink ref="E97" display="powershell_overview.md" r:id="rId360"/>
+    <hyperlink ref="F97" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId361"/>
+    <hyperlink ref="A98" display="ps_docker_comparison.md" r:id="rId362"/>
+    <hyperlink ref="C98" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId363"/>
+    <hyperlink ref="E98" display="ps_docker_comparison.md" r:id="rId364"/>
+    <hyperlink ref="F98" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId365"/>
+    <hyperlink ref="A99" display="TOC.md" r:id="rId366"/>
+    <hyperlink ref="C99" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId367"/>
+    <hyperlink ref="E99" display="TOC.md" r:id="rId368"/>
+    <hyperlink ref="F99" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId369"/>
+    <hyperlink ref="A100" display="supported_guest_os.md" r:id="rId370"/>
+    <hyperlink ref="A101" display="whats_new.md" r:id="rId371"/>
+    <hyperlink ref="A102" display="about_overview.md" r:id="rId372"/>
+    <hyperlink ref="A103" display="TOC.md" r:id="rId373"/>
+    <hyperlink ref="C103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId374"/>
+    <hyperlink ref="E103" display="TOC.md" r:id="rId375"/>
+    <hyperlink ref="F103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId376"/>
     <hyperlink ref="A104" display="containers_welcome.md" r:id="rId377"/>
     <hyperlink ref="C104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId378"/>
     <hyperlink ref="E104" display="containers_welcome.md" r:id="rId379"/>
@@ -14845,7 +14845,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>6</v>
@@ -14857,7 +14857,7 @@
         <v>408</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>431</v>
@@ -14871,7 +14871,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
@@ -14883,7 +14883,7 @@
         <v>408</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>432</v>
@@ -14897,22 +14897,22 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>409</v>
@@ -14921,27 +14921,27 @@
         <v>284</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>409</v>
@@ -14950,12 +14950,12 @@
         <v>284</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -14967,7 +14967,7 @@
         <v>408</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>433</v>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -14993,7 +14993,7 @@
         <v>408</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>434</v>
@@ -15007,7 +15007,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
@@ -15019,7 +15019,7 @@
         <v>436</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>435</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
@@ -15045,7 +15045,7 @@
         <v>408</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>438</v>
@@ -15059,7 +15059,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -15071,7 +15071,7 @@
         <v>408</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>439</v>
@@ -15085,7 +15085,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -15097,7 +15097,7 @@
         <v>408</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>440</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -15123,7 +15123,7 @@
         <v>408</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>441</v>
@@ -15137,22 +15137,22 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>409</v>
@@ -15161,27 +15161,27 @@
         <v>284</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>409</v>
@@ -15190,27 +15190,27 @@
         <v>284</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>409</v>
@@ -15219,27 +15219,27 @@
         <v>284</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>409</v>
@@ -15248,27 +15248,27 @@
         <v>284</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>409</v>
@@ -15277,27 +15277,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>409</v>
@@ -15306,27 +15306,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>409</v>
@@ -15335,27 +15335,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>409</v>
@@ -15364,27 +15364,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>409</v>
@@ -15393,27 +15393,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>409</v>
@@ -15422,27 +15422,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>409</v>
@@ -15451,12 +15451,12 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
@@ -15468,7 +15468,7 @@
         <v>408</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>442</v>
@@ -15482,7 +15482,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
@@ -15494,7 +15494,7 @@
         <v>408</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>443</v>
@@ -15508,7 +15508,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
@@ -15520,7 +15520,7 @@
         <v>408</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>444</v>
@@ -15534,7 +15534,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
@@ -15546,7 +15546,7 @@
         <v>408</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>445</v>
@@ -15586,10 +15586,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>447</v>
@@ -15598,7 +15598,7 @@
         <v>448</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>449</v>
@@ -15612,10 +15612,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>450</v>
@@ -15624,7 +15624,7 @@
         <v>448</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>451</v>
@@ -15641,7 +15641,7 @@
         <v>7</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>452</v>
@@ -15664,10 +15664,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>455</v>
@@ -15684,10 +15684,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>457</v>
@@ -15696,7 +15696,7 @@
         <v>458</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>459</v>
@@ -15713,7 +15713,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>460</v>
@@ -15748,7 +15748,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -15765,7 +15765,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -15782,7 +15782,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -15799,7 +15799,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -15816,7 +15816,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -15833,7 +15833,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -15850,7 +15850,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -15867,7 +15867,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -15884,7 +15884,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -15901,7 +15901,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -15918,7 +15918,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -15935,7 +15935,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -15952,7 +15952,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -15969,7 +15969,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -15986,7 +15986,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -16003,7 +16003,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -16020,7 +16020,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -16037,7 +16037,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -16054,7 +16054,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -16071,7 +16071,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -16088,7 +16088,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -16105,7 +16105,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -16122,7 +16122,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -16139,7 +16139,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -16156,7 +16156,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -16173,7 +16173,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -16190,7 +16190,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -16207,7 +16207,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -16224,7 +16224,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -16241,7 +16241,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -16258,7 +16258,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -16275,7 +16275,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -16292,7 +16292,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -16309,7 +16309,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -16326,7 +16326,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -16343,7 +16343,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -16360,7 +16360,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -16377,7 +16377,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -16394,7 +16394,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -16411,7 +16411,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -16428,7 +16428,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -16445,7 +16445,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -16462,7 +16462,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -16479,7 +16479,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -16496,7 +16496,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -16513,7 +16513,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -16530,7 +16530,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -16547,7 +16547,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -16564,7 +16564,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -16581,7 +16581,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -16598,7 +16598,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -16615,7 +16615,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -16632,7 +16632,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -16649,7 +16649,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -16666,7 +16666,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -16683,7 +16683,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -16700,7 +16700,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -16717,7 +16717,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -16734,7 +16734,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -16751,7 +16751,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -16768,7 +16768,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -16785,7 +16785,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -16802,7 +16802,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -16819,7 +16819,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -16836,7 +16836,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -16853,7 +16853,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -16870,7 +16870,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -16887,7 +16887,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -16904,7 +16904,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -16921,7 +16921,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -16938,7 +16938,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -16955,7 +16955,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -16972,7 +16972,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -16989,7 +16989,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -17006,7 +17006,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -17023,7 +17023,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -17040,7 +17040,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -17057,7 +17057,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -17074,7 +17074,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -17091,7 +17091,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -17108,7 +17108,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -17125,7 +17125,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -17142,7 +17142,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -17159,7 +17159,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -17176,7 +17176,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -17193,7 +17193,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -17210,7 +17210,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -17227,7 +17227,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -17244,7 +17244,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -17261,7 +17261,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -17278,7 +17278,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -17295,7 +17295,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -17312,7 +17312,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -17329,7 +17329,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -17346,7 +17346,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -17363,7 +17363,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -17380,7 +17380,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -17397,7 +17397,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -17414,7 +17414,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -17431,7 +17431,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -17448,7 +17448,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -17465,7 +17465,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -17482,7 +17482,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -17499,7 +17499,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -17516,7 +17516,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -17533,7 +17533,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -17550,7 +17550,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -17567,7 +17567,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -17584,7 +17584,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -17601,7 +17601,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -17618,7 +17618,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -17635,7 +17635,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -17652,7 +17652,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -17669,7 +17669,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -17686,7 +17686,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -17703,7 +17703,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -17720,7 +17720,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -17737,7 +17737,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -17754,7 +17754,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -17771,7 +17771,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -17788,7 +17788,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -17805,7 +17805,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -17822,7 +17822,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -17839,7 +17839,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -17856,7 +17856,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -17873,7 +17873,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -17890,7 +17890,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -17907,7 +17907,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -17924,7 +17924,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -17941,7 +17941,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -17958,7 +17958,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -17975,7 +17975,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -17992,7 +17992,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -18009,7 +18009,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -18026,7 +18026,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -18043,7 +18043,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -18060,7 +18060,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -18077,7 +18077,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -18094,7 +18094,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -18111,7 +18111,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -18128,7 +18128,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -18145,7 +18145,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -18162,7 +18162,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -18179,7 +18179,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -18196,7 +18196,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -18213,7 +18213,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -18230,7 +18230,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -18247,7 +18247,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -18264,7 +18264,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -18281,7 +18281,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -18298,7 +18298,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -18315,7 +18315,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -18332,7 +18332,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -18349,7 +18349,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -18366,7 +18366,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -18383,7 +18383,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -18400,7 +18400,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -18417,7 +18417,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -18434,7 +18434,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -18451,7 +18451,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -18468,7 +18468,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -18485,7 +18485,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -18502,7 +18502,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -18519,7 +18519,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -18536,7 +18536,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -18553,7 +18553,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -19275,7 +19275,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -19287,7 +19287,7 @@
         <v>464</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>469</v>
@@ -19301,7 +19301,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -19313,7 +19313,7 @@
         <v>464</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>470</v>
@@ -21141,7 +21141,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -21153,7 +21153,7 @@
         <v>464</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>492</v>
@@ -21167,7 +21167,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -21179,7 +21179,7 @@
         <v>464</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>493</v>
@@ -21193,7 +21193,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -21205,7 +21205,7 @@
         <v>464</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>494</v>
@@ -21219,22 +21219,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>465</v>
@@ -21243,27 +21243,27 @@
         <v>284</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>465</v>
@@ -21272,12 +21272,12 @@
         <v>284</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -21289,7 +21289,7 @@
         <v>464</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>495</v>
@@ -21329,7 +21329,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -21341,7 +21341,7 @@
         <v>464</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>497</v>
@@ -21355,7 +21355,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -21367,7 +21367,7 @@
         <v>464</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>498</v>
@@ -21381,7 +21381,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -21393,7 +21393,7 @@
         <v>464</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>499</v>
@@ -21407,7 +21407,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -21419,7 +21419,7 @@
         <v>464</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>500</v>
@@ -21433,7 +21433,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -21445,7 +21445,7 @@
         <v>464</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>501</v>
@@ -21459,7 +21459,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
@@ -21471,7 +21471,7 @@
         <v>464</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>502</v>
@@ -21485,22 +21485,22 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>465</v>
@@ -21509,27 +21509,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>465</v>
@@ -21538,27 +21538,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>465</v>
@@ -21567,27 +21567,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>465</v>
@@ -21596,27 +21596,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>465</v>
@@ -21625,27 +21625,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>465</v>
@@ -21654,27 +21654,27 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>465</v>
@@ -21683,27 +21683,27 @@
         <v>284</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>465</v>
@@ -21712,27 +21712,27 @@
         <v>284</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>465</v>
@@ -21741,27 +21741,27 @@
         <v>284</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>465</v>
@@ -21770,27 +21770,27 @@
         <v>284</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>465</v>
@@ -21799,12 +21799,12 @@
         <v>284</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
@@ -21816,7 +21816,7 @@
         <v>464</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>503</v>
@@ -21830,7 +21830,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
@@ -21842,7 +21842,7 @@
         <v>464</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>504</v>
@@ -21856,7 +21856,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
@@ -21868,7 +21868,7 @@
         <v>464</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>505</v>
@@ -21882,7 +21882,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>6</v>
@@ -21894,7 +21894,7 @@
         <v>464</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>506</v>
@@ -21934,10 +21934,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>508</v>
@@ -21946,7 +21946,7 @@
         <v>509</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>508</v>
@@ -21972,7 +21972,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -21989,7 +21989,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -22006,7 +22006,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -22023,7 +22023,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -22040,7 +22040,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -22057,7 +22057,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -22074,7 +22074,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -22091,7 +22091,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -22108,7 +22108,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -22125,7 +22125,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -22142,7 +22142,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -22159,7 +22159,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -22176,7 +22176,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -22193,7 +22193,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -22210,7 +22210,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -22227,7 +22227,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -22244,7 +22244,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -22261,7 +22261,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -22278,7 +22278,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -22295,7 +22295,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -22312,7 +22312,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -22329,7 +22329,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -22346,7 +22346,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -22363,7 +22363,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -22380,7 +22380,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -22397,7 +22397,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -22414,7 +22414,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -22431,7 +22431,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -22448,7 +22448,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -22465,7 +22465,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -22482,7 +22482,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -22499,7 +22499,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -22516,7 +22516,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -22533,7 +22533,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -22550,7 +22550,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -22567,7 +22567,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -22584,7 +22584,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -22601,7 +22601,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -22618,7 +22618,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -22635,7 +22635,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -22652,7 +22652,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -22669,7 +22669,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -22686,7 +22686,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -22703,7 +22703,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -22720,7 +22720,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -22737,7 +22737,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -22754,7 +22754,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -22771,7 +22771,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -22788,7 +22788,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -22805,7 +22805,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -22822,7 +22822,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -22839,7 +22839,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -22856,7 +22856,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -22873,7 +22873,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -22890,7 +22890,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -22907,7 +22907,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -22924,7 +22924,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -22941,7 +22941,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -22958,7 +22958,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -22975,7 +22975,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -22992,7 +22992,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -23009,7 +23009,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -23026,7 +23026,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -23043,7 +23043,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -23060,7 +23060,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -23077,7 +23077,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -23094,7 +23094,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -23111,7 +23111,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -23128,7 +23128,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -23145,7 +23145,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -23162,7 +23162,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -23179,7 +23179,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -23196,7 +23196,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -23213,7 +23213,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -23230,7 +23230,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -23247,7 +23247,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -23264,7 +23264,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -23281,7 +23281,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -23298,7 +23298,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -23315,7 +23315,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -23332,7 +23332,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -23349,7 +23349,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -23366,7 +23366,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -23383,7 +23383,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -23400,7 +23400,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -23417,7 +23417,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -23434,7 +23434,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -23451,7 +23451,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -23468,7 +23468,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -23485,7 +23485,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -23502,7 +23502,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -23519,7 +23519,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -23536,7 +23536,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -23553,7 +23553,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -23570,7 +23570,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -23587,7 +23587,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -23604,7 +23604,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -23621,7 +23621,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -23638,7 +23638,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -23655,7 +23655,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -23672,7 +23672,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -23689,7 +23689,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -23706,7 +23706,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -23723,7 +23723,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -23740,7 +23740,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -23757,7 +23757,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -23774,7 +23774,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -23791,7 +23791,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -23808,7 +23808,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -23825,7 +23825,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -23842,7 +23842,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -23859,7 +23859,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -23876,7 +23876,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -23893,7 +23893,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -23910,7 +23910,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -23927,7 +23927,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -23944,7 +23944,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -23961,7 +23961,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -23978,7 +23978,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -23995,7 +23995,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -24012,7 +24012,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -24029,7 +24029,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -24046,7 +24046,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -24063,7 +24063,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -24080,7 +24080,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -24097,7 +24097,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -24114,7 +24114,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -24131,7 +24131,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -24148,7 +24148,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -24165,7 +24165,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -24182,7 +24182,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -24199,7 +24199,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -24216,7 +24216,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -24233,7 +24233,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -24250,7 +24250,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -24267,7 +24267,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -24284,7 +24284,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -24301,7 +24301,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -24318,7 +24318,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -24335,7 +24335,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -24352,7 +24352,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -24369,7 +24369,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -24386,7 +24386,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -24403,7 +24403,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -24420,7 +24420,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -24437,7 +24437,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -24454,7 +24454,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -24471,7 +24471,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -24488,7 +24488,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -24505,7 +24505,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -24522,7 +24522,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -24539,7 +24539,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -24556,7 +24556,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -24573,7 +24573,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -24590,7 +24590,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -24607,7 +24607,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -24624,7 +24624,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -24641,7 +24641,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -24658,7 +24658,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -24675,7 +24675,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -24692,7 +24692,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -24709,7 +24709,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -24726,7 +24726,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -24743,7 +24743,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -24760,7 +24760,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -24777,7 +24777,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -25513,7 +25513,7 @@
         <v>511</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>515</v>
@@ -25527,7 +25527,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -25539,7 +25539,7 @@
         <v>511</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>516</v>
@@ -27367,7 +27367,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -27379,7 +27379,7 @@
         <v>511</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>537</v>
@@ -27393,7 +27393,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -27405,7 +27405,7 @@
         <v>511</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>538</v>
@@ -27419,7 +27419,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -27431,7 +27431,7 @@
         <v>511</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>539</v>
@@ -27445,22 +27445,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>512</v>
@@ -27469,27 +27469,27 @@
         <v>284</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>512</v>
@@ -27498,12 +27498,12 @@
         <v>284</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -27515,7 +27515,7 @@
         <v>511</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>540</v>
@@ -27555,7 +27555,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -27567,7 +27567,7 @@
         <v>511</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>542</v>
@@ -27581,7 +27581,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -27593,7 +27593,7 @@
         <v>511</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>543</v>
@@ -27607,7 +27607,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -27619,7 +27619,7 @@
         <v>511</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>544</v>
@@ -27633,7 +27633,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -27645,7 +27645,7 @@
         <v>511</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>545</v>
@@ -27659,7 +27659,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -27671,7 +27671,7 @@
         <v>511</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>546</v>
@@ -27685,7 +27685,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
@@ -27697,7 +27697,7 @@
         <v>511</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>547</v>
@@ -27711,22 +27711,22 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>512</v>
@@ -27735,27 +27735,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>512</v>
@@ -27764,27 +27764,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>512</v>
@@ -27793,27 +27793,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>512</v>
@@ -27822,27 +27822,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>512</v>
@@ -27851,27 +27851,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>512</v>
@@ -27880,27 +27880,27 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>512</v>
@@ -27909,27 +27909,27 @@
         <v>284</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>512</v>
@@ -27938,27 +27938,27 @@
         <v>284</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>512</v>
@@ -27967,27 +27967,27 @@
         <v>284</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>512</v>
@@ -27996,27 +27996,27 @@
         <v>284</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>512</v>
@@ -28025,12 +28025,12 @@
         <v>284</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
@@ -28042,7 +28042,7 @@
         <v>511</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>548</v>
@@ -28056,7 +28056,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
@@ -28068,7 +28068,7 @@
         <v>511</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>549</v>
@@ -28082,7 +28082,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
@@ -28094,7 +28094,7 @@
         <v>511</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>550</v>
@@ -28108,7 +28108,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>6</v>
@@ -28120,7 +28120,7 @@
         <v>511</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>551</v>
@@ -28160,10 +28160,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>553</v>
@@ -28172,7 +28172,7 @@
         <v>554</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>553</v>
@@ -28198,7 +28198,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -28215,7 +28215,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -28232,7 +28232,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -28249,7 +28249,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -28266,7 +28266,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -28283,7 +28283,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -28300,7 +28300,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -28317,7 +28317,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -28334,7 +28334,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -28351,7 +28351,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -28368,7 +28368,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -28385,7 +28385,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -28402,7 +28402,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -28419,7 +28419,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -28436,7 +28436,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -28453,7 +28453,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -28470,7 +28470,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -28487,7 +28487,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -28504,7 +28504,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -28521,7 +28521,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -28538,7 +28538,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -28555,7 +28555,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -28572,7 +28572,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -28589,7 +28589,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -28606,7 +28606,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -28623,7 +28623,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -28640,7 +28640,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -28657,7 +28657,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -28674,7 +28674,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -28691,7 +28691,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -28708,7 +28708,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -28725,7 +28725,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -28742,7 +28742,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -28759,7 +28759,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -28776,7 +28776,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -28793,7 +28793,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -28810,7 +28810,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -28827,7 +28827,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -28844,7 +28844,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -28861,7 +28861,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -28878,7 +28878,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -28895,7 +28895,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -28912,7 +28912,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -28929,7 +28929,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -28946,7 +28946,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -28963,7 +28963,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -28980,7 +28980,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -28997,7 +28997,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -29014,7 +29014,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -29031,7 +29031,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -29048,7 +29048,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -29065,7 +29065,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -29082,7 +29082,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -29099,7 +29099,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -29116,7 +29116,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -29133,7 +29133,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -29150,7 +29150,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -29167,7 +29167,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -29184,7 +29184,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -29201,7 +29201,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -29218,7 +29218,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -29235,7 +29235,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -29252,7 +29252,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -29269,7 +29269,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -29286,7 +29286,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -29303,7 +29303,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -29320,7 +29320,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -29337,7 +29337,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -29354,7 +29354,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -29371,7 +29371,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -29388,7 +29388,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -29405,7 +29405,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -29422,7 +29422,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -29439,7 +29439,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -29456,7 +29456,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -29473,7 +29473,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -29490,7 +29490,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -29507,7 +29507,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -29524,7 +29524,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -29541,7 +29541,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -29558,7 +29558,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -29575,7 +29575,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -29592,7 +29592,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -29609,7 +29609,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -29626,7 +29626,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -29643,7 +29643,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -29660,7 +29660,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -29677,7 +29677,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -29694,7 +29694,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -29711,7 +29711,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -29728,7 +29728,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -29745,7 +29745,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -29762,7 +29762,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -29779,7 +29779,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -29796,7 +29796,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -29813,7 +29813,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -29830,7 +29830,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -29847,7 +29847,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -29864,7 +29864,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -29881,7 +29881,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -29898,7 +29898,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -29915,7 +29915,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -29932,7 +29932,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -29949,7 +29949,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -29966,7 +29966,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -29983,7 +29983,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -30000,7 +30000,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -30017,7 +30017,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -30034,7 +30034,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -30051,7 +30051,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -30068,7 +30068,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -30085,7 +30085,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -30102,7 +30102,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -30119,7 +30119,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -30136,7 +30136,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -30153,7 +30153,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -30170,7 +30170,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -30187,7 +30187,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -30204,7 +30204,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -30221,7 +30221,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -30238,7 +30238,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -30255,7 +30255,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -30272,7 +30272,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -30289,7 +30289,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -30306,7 +30306,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -30323,7 +30323,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -30340,7 +30340,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -30357,7 +30357,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -30374,7 +30374,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -30391,7 +30391,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -30408,7 +30408,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -30425,7 +30425,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -30442,7 +30442,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -30459,7 +30459,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -30476,7 +30476,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -30493,7 +30493,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -30510,7 +30510,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -30527,7 +30527,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -30544,7 +30544,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -30561,7 +30561,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -30578,7 +30578,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -30595,7 +30595,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -30612,7 +30612,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -30629,7 +30629,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -30646,7 +30646,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -30663,7 +30663,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -30680,7 +30680,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -30697,7 +30697,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -30714,7 +30714,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -30731,7 +30731,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -30748,7 +30748,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -30765,7 +30765,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -30782,7 +30782,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -30799,7 +30799,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -30816,7 +30816,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -30833,7 +30833,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -30850,7 +30850,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -30867,7 +30867,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -30884,7 +30884,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -30901,7 +30901,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -30918,7 +30918,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -30935,7 +30935,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -30952,7 +30952,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -30969,7 +30969,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -30986,7 +30986,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -31003,7 +31003,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -246,6 +246,12 @@
     <t>vmsession.md</t>
   </si>
   <si>
+    <t>windows_welcome1.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>container_ecosystem.md</t>
   </si>
   <si>
@@ -330,16 +336,10 @@
     <t>Handback transform failed</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>whats_new.md</t>
   </si>
   <si>
     <t>about_overview.md</t>
-  </si>
-  <si>
-    <t>windows_welcome1.md</t>
   </si>
   <si>
     <t>containers_welcome.md</t>
@@ -1110,6 +1110,15 @@
     <t>vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf</t>
   </si>
   <si>
+    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 08:31:42</t>
+  </si>
+  <si>
+    <t>2016-01-11 08:33:53</t>
+  </si>
+  <si>
     <t>container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf</t>
   </si>
   <si>
@@ -1217,15 +1226,6 @@
   </si>
   <si>
     <t>2016-01-08 13:50:01</t>
-  </si>
-  <si>
-    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 08:31:42</t>
-  </si>
-  <si>
-    <t>2016-01-11 07:46:00</t>
   </si>
   <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
@@ -3056,18 +3056,18 @@
         <v>6</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
@@ -3509,13 +3509,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>6</v>
@@ -3526,13 +3526,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="C100" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>6</v>
@@ -3546,10 +3546,10 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>6</v>
@@ -3560,13 +3560,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>6</v>
@@ -3577,19 +3577,19 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
@@ -3597,10 +3597,10 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>6</v>
@@ -6503,38 +6503,38 @@
     <hyperlink ref="A69" display="troubleshooting.md" r:id="rId69"/>
     <hyperlink ref="A70" display="user_guide_nav.md" r:id="rId70"/>
     <hyperlink ref="A71" display="vmsession.md" r:id="rId71"/>
-    <hyperlink ref="A72" display="container_ecosystem.md" r:id="rId72"/>
-    <hyperlink ref="A73" display="faq.md" r:id="rId73"/>
-    <hyperlink ref="A74" display="containerEcosystem.png" r:id="rId74"/>
-    <hyperlink ref="A75" display="containerfund.png" r:id="rId75"/>
-    <hyperlink ref="A76" display="work_in_progress.md" r:id="rId76"/>
-    <hyperlink ref="A77" display="EULA.md" r:id="rId77"/>
-    <hyperlink ref="A78" display="azure_setup.md" r:id="rId78"/>
-    <hyperlink ref="A79" display="container_setup.md" r:id="rId79"/>
-    <hyperlink ref="A80" display="inplace_setup.md" r:id="rId80"/>
-    <hyperlink ref="A81" display="manage_docker.md" r:id="rId81"/>
-    <hyperlink ref="A82" display="manage_powershell.md" r:id="rId82"/>
-    <hyperlink ref="A83" display="cmd.png" r:id="rId83"/>
-    <hyperlink ref="A84" display="containerhost2.png" r:id="rId84"/>
-    <hyperlink ref="A85" display="docker1.png" r:id="rId85"/>
-    <hyperlink ref="A86" display="hello.png" r:id="rId86"/>
-    <hyperlink ref="A87" display="newazure1.png" r:id="rId87"/>
-    <hyperlink ref="A88" display="newazure2.png" r:id="rId88"/>
-    <hyperlink ref="A89" display="newazure3.png" r:id="rId89"/>
-    <hyperlink ref="A90" display="newazure6.png" r:id="rId90"/>
-    <hyperlink ref="A91" display="newazure7.png" r:id="rId91"/>
-    <hyperlink ref="A92" display="newazure9.png" r:id="rId92"/>
-    <hyperlink ref="A93" display="nginx.png" r:id="rId93"/>
-    <hyperlink ref="A94" display="quickstart.md" r:id="rId94"/>
-    <hyperlink ref="A95" display="app_compat.md" r:id="rId95"/>
-    <hyperlink ref="A96" display="powershell_overview.md" r:id="rId96"/>
-    <hyperlink ref="A97" display="ps_docker_comparison.md" r:id="rId97"/>
-    <hyperlink ref="A98" display="TOC.md" r:id="rId98"/>
-    <hyperlink ref="A99" display="supported_guest_os.md" r:id="rId99"/>
-    <hyperlink ref="A100" display="whats_new.md" r:id="rId100"/>
-    <hyperlink ref="A101" display="about_overview.md" r:id="rId101"/>
-    <hyperlink ref="A102" display="TOC.md" r:id="rId102"/>
-    <hyperlink ref="A103" display="windows_welcome1.md" r:id="rId103"/>
+    <hyperlink ref="A72" display="windows_welcome1.md" r:id="rId72"/>
+    <hyperlink ref="A73" display="container_ecosystem.md" r:id="rId73"/>
+    <hyperlink ref="A74" display="faq.md" r:id="rId74"/>
+    <hyperlink ref="A75" display="containerEcosystem.png" r:id="rId75"/>
+    <hyperlink ref="A76" display="containerfund.png" r:id="rId76"/>
+    <hyperlink ref="A77" display="work_in_progress.md" r:id="rId77"/>
+    <hyperlink ref="A78" display="EULA.md" r:id="rId78"/>
+    <hyperlink ref="A79" display="azure_setup.md" r:id="rId79"/>
+    <hyperlink ref="A80" display="container_setup.md" r:id="rId80"/>
+    <hyperlink ref="A81" display="inplace_setup.md" r:id="rId81"/>
+    <hyperlink ref="A82" display="manage_docker.md" r:id="rId82"/>
+    <hyperlink ref="A83" display="manage_powershell.md" r:id="rId83"/>
+    <hyperlink ref="A84" display="cmd.png" r:id="rId84"/>
+    <hyperlink ref="A85" display="containerhost2.png" r:id="rId85"/>
+    <hyperlink ref="A86" display="docker1.png" r:id="rId86"/>
+    <hyperlink ref="A87" display="hello.png" r:id="rId87"/>
+    <hyperlink ref="A88" display="newazure1.png" r:id="rId88"/>
+    <hyperlink ref="A89" display="newazure2.png" r:id="rId89"/>
+    <hyperlink ref="A90" display="newazure3.png" r:id="rId90"/>
+    <hyperlink ref="A91" display="newazure6.png" r:id="rId91"/>
+    <hyperlink ref="A92" display="newazure7.png" r:id="rId92"/>
+    <hyperlink ref="A93" display="newazure9.png" r:id="rId93"/>
+    <hyperlink ref="A94" display="nginx.png" r:id="rId94"/>
+    <hyperlink ref="A95" display="quickstart.md" r:id="rId95"/>
+    <hyperlink ref="A96" display="app_compat.md" r:id="rId96"/>
+    <hyperlink ref="A97" display="powershell_overview.md" r:id="rId97"/>
+    <hyperlink ref="A98" display="ps_docker_comparison.md" r:id="rId98"/>
+    <hyperlink ref="A99" display="TOC.md" r:id="rId99"/>
+    <hyperlink ref="A100" display="supported_guest_os.md" r:id="rId100"/>
+    <hyperlink ref="A101" display="whats_new.md" r:id="rId101"/>
+    <hyperlink ref="A102" display="about_overview.md" r:id="rId102"/>
+    <hyperlink ref="A103" display="TOC.md" r:id="rId103"/>
     <hyperlink ref="A104" display="containers_welcome.md" r:id="rId104"/>
     <hyperlink ref="A105" display=".gitignore" r:id="rId105"/>
     <hyperlink ref="A106" display=".localization-config" r:id="rId106"/>
@@ -8664,7 +8664,7 @@
         <v>363</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>76</v>
@@ -8673,7 +8673,7 @@
         <v>363</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>280</v>
@@ -8681,22 +8681,22 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>279</v>
@@ -8707,51 +8707,48 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>279</v>
@@ -8760,53 +8757,56 @@
         <v>284</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>279</v>
@@ -8817,22 +8817,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>279</v>
@@ -8843,22 +8843,22 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>279</v>
@@ -8869,22 +8869,22 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>279</v>
@@ -8895,22 +8895,22 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>279</v>
@@ -8921,22 +8921,22 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>279</v>
@@ -8947,51 +8947,48 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>279</v>
@@ -9000,27 +8997,27 @@
         <v>284</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>279</v>
@@ -9029,27 +9026,27 @@
         <v>284</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>279</v>
@@ -9058,27 +9055,27 @@
         <v>284</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>279</v>
@@ -9087,27 +9084,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>279</v>
@@ -9116,27 +9113,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>279</v>
@@ -9145,27 +9142,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>279</v>
@@ -9174,27 +9171,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>279</v>
@@ -9203,27 +9200,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>279</v>
@@ -9232,27 +9229,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>279</v>
@@ -9261,53 +9258,56 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>279</v>
@@ -9318,22 +9318,22 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>279</v>
@@ -9344,22 +9344,22 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>279</v>
@@ -9370,22 +9370,22 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>279</v>
@@ -9396,28 +9396,37 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>103</v>
+        <v>6</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>316</v>
+        <v>278</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>396</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="D100" s="2" t="s">
         <v>316</v>
       </c>
@@ -9425,7 +9434,7 @@
         <v>316</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101">
@@ -9433,7 +9442,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>316</v>
@@ -9442,56 +9451,47 @@
         <v>316</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>397</v>
+        <v>105</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="G103" s="0" t="s">
-        <v>401</v>
+        <v>279</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>280</v>
@@ -9502,7 +9502,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>402</v>
@@ -9537,7 +9537,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -9554,7 +9554,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -9571,7 +9571,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -9588,7 +9588,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -9605,7 +9605,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -9622,7 +9622,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -9639,7 +9639,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -9656,7 +9656,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -9673,7 +9673,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -9690,7 +9690,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -9707,7 +9707,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -9724,7 +9724,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -9741,7 +9741,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -9758,7 +9758,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -9775,7 +9775,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -9792,7 +9792,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -9809,7 +9809,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -9826,7 +9826,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -9843,7 +9843,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -9860,7 +9860,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -9877,7 +9877,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -9894,7 +9894,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -9911,7 +9911,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -9928,7 +9928,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -9945,7 +9945,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -9962,7 +9962,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -9979,7 +9979,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -9996,7 +9996,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -10013,7 +10013,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -10030,7 +10030,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -10047,7 +10047,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -10064,7 +10064,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -10081,7 +10081,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -10098,7 +10098,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -10115,7 +10115,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -10132,7 +10132,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -10149,7 +10149,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -10166,7 +10166,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -10183,7 +10183,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -10200,7 +10200,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -10217,7 +10217,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -10234,7 +10234,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -10251,7 +10251,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -10268,7 +10268,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -10285,7 +10285,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -10302,7 +10302,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -10319,7 +10319,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -10336,7 +10336,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -10353,7 +10353,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -10370,7 +10370,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -10387,7 +10387,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -10404,7 +10404,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -10421,7 +10421,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -10438,7 +10438,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -10455,7 +10455,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -10472,7 +10472,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -10489,7 +10489,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -10506,7 +10506,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -10523,7 +10523,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -10540,7 +10540,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -10557,7 +10557,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -10574,7 +10574,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -10591,7 +10591,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -10608,7 +10608,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -10625,7 +10625,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -10642,7 +10642,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -10659,7 +10659,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -10676,7 +10676,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -10693,7 +10693,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -10710,7 +10710,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -10727,7 +10727,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -10744,7 +10744,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -10761,7 +10761,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -10778,7 +10778,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -10795,7 +10795,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -10812,7 +10812,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -10829,7 +10829,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -10846,7 +10846,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -10863,7 +10863,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -10880,7 +10880,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -10897,7 +10897,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -10914,7 +10914,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -10931,7 +10931,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -10948,7 +10948,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -10965,7 +10965,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -10982,7 +10982,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -10999,7 +10999,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -11016,7 +11016,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -11033,7 +11033,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -11050,7 +11050,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -11067,7 +11067,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -11084,7 +11084,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -11101,7 +11101,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -11118,7 +11118,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -11135,7 +11135,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -11152,7 +11152,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -11169,7 +11169,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -11186,7 +11186,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -11203,7 +11203,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -11220,7 +11220,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -11237,7 +11237,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -11254,7 +11254,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -11271,7 +11271,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -11288,7 +11288,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -11305,7 +11305,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -11322,7 +11322,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -11339,7 +11339,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -11356,7 +11356,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -11373,7 +11373,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -11390,7 +11390,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -11407,7 +11407,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -11424,7 +11424,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -11441,7 +11441,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -11458,7 +11458,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -11475,7 +11475,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -11492,7 +11492,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -11509,7 +11509,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -11526,7 +11526,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -11543,7 +11543,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -11560,7 +11560,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -11577,7 +11577,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -11594,7 +11594,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -11611,7 +11611,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -11628,7 +11628,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -11645,7 +11645,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -11662,7 +11662,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -11679,7 +11679,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -11696,7 +11696,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -11713,7 +11713,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -11730,7 +11730,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -11747,7 +11747,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -11764,7 +11764,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -11781,7 +11781,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -11798,7 +11798,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -11815,7 +11815,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -11832,7 +11832,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -11849,7 +11849,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -11866,7 +11866,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -11883,7 +11883,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -11900,7 +11900,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -11917,7 +11917,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -11934,7 +11934,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -11951,7 +11951,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -11968,7 +11968,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -11985,7 +11985,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -12002,7 +12002,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -12019,7 +12019,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -12036,7 +12036,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -12053,7 +12053,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -12070,7 +12070,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -12087,7 +12087,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -12104,7 +12104,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -12121,7 +12121,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -12138,7 +12138,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -12155,7 +12155,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -12172,7 +12172,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -12189,7 +12189,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -12206,7 +12206,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -12223,7 +12223,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -12240,7 +12240,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -12257,7 +12257,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -12274,7 +12274,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -12291,7 +12291,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -12308,7 +12308,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -12325,7 +12325,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -12342,7 +12342,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -12603,125 +12603,125 @@
     <hyperlink ref="C71" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId255"/>
     <hyperlink ref="E71" display="vmsession.md" r:id="rId256"/>
     <hyperlink ref="F71" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId257"/>
-    <hyperlink ref="A72" display="container_ecosystem.md" r:id="rId258"/>
-    <hyperlink ref="C72" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId259"/>
-    <hyperlink ref="E72" display="container_ecosystem.md" r:id="rId260"/>
-    <hyperlink ref="F72" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId261"/>
-    <hyperlink ref="A73" display="faq.md" r:id="rId262"/>
-    <hyperlink ref="C73" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId263"/>
-    <hyperlink ref="E73" display="faq.md" r:id="rId264"/>
-    <hyperlink ref="F73" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId265"/>
-    <hyperlink ref="A74" display="containerEcosystem.png" r:id="rId266"/>
-    <hyperlink ref="C74" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId267"/>
-    <hyperlink ref="E74" display="containerEcosystem.png" r:id="rId268"/>
-    <hyperlink ref="F74" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId269"/>
-    <hyperlink ref="A75" display="containerfund.png" r:id="rId270"/>
-    <hyperlink ref="C75" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId271"/>
-    <hyperlink ref="E75" display="containerfund.png" r:id="rId272"/>
-    <hyperlink ref="F75" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId273"/>
-    <hyperlink ref="A76" display="work_in_progress.md" r:id="rId274"/>
-    <hyperlink ref="C76" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId275"/>
-    <hyperlink ref="E76" display="work_in_progress.md" r:id="rId276"/>
-    <hyperlink ref="F76" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId277"/>
-    <hyperlink ref="A77" display="EULA.md" r:id="rId278"/>
-    <hyperlink ref="C77" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId279"/>
-    <hyperlink ref="E77" display="EULA.md" r:id="rId280"/>
-    <hyperlink ref="F77" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId281"/>
-    <hyperlink ref="A78" display="azure_setup.md" r:id="rId282"/>
-    <hyperlink ref="C78" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId283"/>
-    <hyperlink ref="E78" display="azure_setup.md" r:id="rId284"/>
-    <hyperlink ref="F78" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId285"/>
-    <hyperlink ref="A79" display="container_setup.md" r:id="rId286"/>
-    <hyperlink ref="C79" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId287"/>
-    <hyperlink ref="E79" display="container_setup.md" r:id="rId288"/>
-    <hyperlink ref="F79" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId289"/>
-    <hyperlink ref="A80" display="inplace_setup.md" r:id="rId290"/>
-    <hyperlink ref="C80" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId291"/>
-    <hyperlink ref="E80" display="inplace_setup.md" r:id="rId292"/>
-    <hyperlink ref="F80" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId293"/>
-    <hyperlink ref="A81" display="manage_docker.md" r:id="rId294"/>
-    <hyperlink ref="C81" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId295"/>
-    <hyperlink ref="E81" display="manage_docker.md" r:id="rId296"/>
-    <hyperlink ref="F81" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId297"/>
-    <hyperlink ref="A82" display="manage_powershell.md" r:id="rId298"/>
-    <hyperlink ref="C82" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId299"/>
-    <hyperlink ref="E82" display="manage_powershell.md" r:id="rId300"/>
-    <hyperlink ref="F82" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId301"/>
-    <hyperlink ref="A83" display="cmd.png" r:id="rId302"/>
-    <hyperlink ref="C83" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId303"/>
-    <hyperlink ref="E83" display="cmd.png" r:id="rId304"/>
-    <hyperlink ref="F83" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId305"/>
-    <hyperlink ref="A84" display="containerhost2.png" r:id="rId306"/>
-    <hyperlink ref="C84" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId307"/>
-    <hyperlink ref="E84" display="containerhost2.png" r:id="rId308"/>
-    <hyperlink ref="F84" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId309"/>
-    <hyperlink ref="A85" display="docker1.png" r:id="rId310"/>
-    <hyperlink ref="C85" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId311"/>
-    <hyperlink ref="E85" display="docker1.png" r:id="rId312"/>
-    <hyperlink ref="F85" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId313"/>
-    <hyperlink ref="A86" display="hello.png" r:id="rId314"/>
-    <hyperlink ref="C86" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId315"/>
-    <hyperlink ref="E86" display="hello.png" r:id="rId316"/>
-    <hyperlink ref="F86" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId317"/>
-    <hyperlink ref="A87" display="newazure1.png" r:id="rId318"/>
-    <hyperlink ref="C87" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId319"/>
-    <hyperlink ref="E87" display="newazure1.png" r:id="rId320"/>
-    <hyperlink ref="F87" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId321"/>
-    <hyperlink ref="A88" display="newazure2.png" r:id="rId322"/>
-    <hyperlink ref="C88" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId323"/>
-    <hyperlink ref="E88" display="newazure2.png" r:id="rId324"/>
-    <hyperlink ref="F88" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId325"/>
-    <hyperlink ref="A89" display="newazure3.png" r:id="rId326"/>
-    <hyperlink ref="C89" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId327"/>
-    <hyperlink ref="E89" display="newazure3.png" r:id="rId328"/>
-    <hyperlink ref="F89" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId329"/>
-    <hyperlink ref="A90" display="newazure6.png" r:id="rId330"/>
-    <hyperlink ref="C90" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId331"/>
-    <hyperlink ref="E90" display="newazure6.png" r:id="rId332"/>
-    <hyperlink ref="F90" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId333"/>
-    <hyperlink ref="A91" display="newazure7.png" r:id="rId334"/>
-    <hyperlink ref="C91" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId335"/>
-    <hyperlink ref="E91" display="newazure7.png" r:id="rId336"/>
-    <hyperlink ref="F91" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId337"/>
-    <hyperlink ref="A92" display="newazure9.png" r:id="rId338"/>
-    <hyperlink ref="C92" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId339"/>
-    <hyperlink ref="E92" display="newazure9.png" r:id="rId340"/>
-    <hyperlink ref="F92" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId341"/>
-    <hyperlink ref="A93" display="nginx.png" r:id="rId342"/>
-    <hyperlink ref="C93" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId343"/>
-    <hyperlink ref="E93" display="nginx.png" r:id="rId344"/>
-    <hyperlink ref="F93" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId345"/>
-    <hyperlink ref="A94" display="quickstart.md" r:id="rId346"/>
-    <hyperlink ref="C94" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId347"/>
-    <hyperlink ref="E94" display="quickstart.md" r:id="rId348"/>
-    <hyperlink ref="F94" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId349"/>
-    <hyperlink ref="A95" display="app_compat.md" r:id="rId350"/>
-    <hyperlink ref="C95" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId351"/>
-    <hyperlink ref="E95" display="app_compat.md" r:id="rId352"/>
-    <hyperlink ref="F95" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId353"/>
-    <hyperlink ref="A96" display="powershell_overview.md" r:id="rId354"/>
-    <hyperlink ref="C96" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId355"/>
-    <hyperlink ref="E96" display="powershell_overview.md" r:id="rId356"/>
-    <hyperlink ref="F96" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId357"/>
-    <hyperlink ref="A97" display="ps_docker_comparison.md" r:id="rId358"/>
-    <hyperlink ref="C97" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId359"/>
-    <hyperlink ref="E97" display="ps_docker_comparison.md" r:id="rId360"/>
-    <hyperlink ref="F97" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId361"/>
-    <hyperlink ref="A98" display="TOC.md" r:id="rId362"/>
-    <hyperlink ref="C98" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId363"/>
-    <hyperlink ref="E98" display="TOC.md" r:id="rId364"/>
-    <hyperlink ref="F98" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId365"/>
-    <hyperlink ref="A99" display="supported_guest_os.md" r:id="rId366"/>
-    <hyperlink ref="A100" display="whats_new.md" r:id="rId367"/>
-    <hyperlink ref="A101" display="about_overview.md" r:id="rId368"/>
-    <hyperlink ref="A102" display="TOC.md" r:id="rId369"/>
-    <hyperlink ref="C102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId370"/>
-    <hyperlink ref="E102" display="TOC.md" r:id="rId371"/>
-    <hyperlink ref="F102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId372"/>
-    <hyperlink ref="A103" display="windows_welcome1.md" r:id="rId373"/>
-    <hyperlink ref="C103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId374"/>
-    <hyperlink ref="E103" display="windows_welcome1.md" r:id="rId375"/>
-    <hyperlink ref="F103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId376"/>
+    <hyperlink ref="A72" display="windows_welcome1.md" r:id="rId258"/>
+    <hyperlink ref="C72" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId259"/>
+    <hyperlink ref="E72" display="windows_welcome1.md" r:id="rId260"/>
+    <hyperlink ref="F72" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId261"/>
+    <hyperlink ref="A73" display="container_ecosystem.md" r:id="rId262"/>
+    <hyperlink ref="C73" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId263"/>
+    <hyperlink ref="E73" display="container_ecosystem.md" r:id="rId264"/>
+    <hyperlink ref="F73" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId265"/>
+    <hyperlink ref="A74" display="faq.md" r:id="rId266"/>
+    <hyperlink ref="C74" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId267"/>
+    <hyperlink ref="E74" display="faq.md" r:id="rId268"/>
+    <hyperlink ref="F74" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId269"/>
+    <hyperlink ref="A75" display="containerEcosystem.png" r:id="rId270"/>
+    <hyperlink ref="C75" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId271"/>
+    <hyperlink ref="E75" display="containerEcosystem.png" r:id="rId272"/>
+    <hyperlink ref="F75" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId273"/>
+    <hyperlink ref="A76" display="containerfund.png" r:id="rId274"/>
+    <hyperlink ref="C76" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId275"/>
+    <hyperlink ref="E76" display="containerfund.png" r:id="rId276"/>
+    <hyperlink ref="F76" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId277"/>
+    <hyperlink ref="A77" display="work_in_progress.md" r:id="rId278"/>
+    <hyperlink ref="C77" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId279"/>
+    <hyperlink ref="E77" display="work_in_progress.md" r:id="rId280"/>
+    <hyperlink ref="F77" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId281"/>
+    <hyperlink ref="A78" display="EULA.md" r:id="rId282"/>
+    <hyperlink ref="C78" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId283"/>
+    <hyperlink ref="E78" display="EULA.md" r:id="rId284"/>
+    <hyperlink ref="F78" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId285"/>
+    <hyperlink ref="A79" display="azure_setup.md" r:id="rId286"/>
+    <hyperlink ref="C79" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId287"/>
+    <hyperlink ref="E79" display="azure_setup.md" r:id="rId288"/>
+    <hyperlink ref="F79" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId289"/>
+    <hyperlink ref="A80" display="container_setup.md" r:id="rId290"/>
+    <hyperlink ref="C80" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId291"/>
+    <hyperlink ref="E80" display="container_setup.md" r:id="rId292"/>
+    <hyperlink ref="F80" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId293"/>
+    <hyperlink ref="A81" display="inplace_setup.md" r:id="rId294"/>
+    <hyperlink ref="C81" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId295"/>
+    <hyperlink ref="E81" display="inplace_setup.md" r:id="rId296"/>
+    <hyperlink ref="F81" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId297"/>
+    <hyperlink ref="A82" display="manage_docker.md" r:id="rId298"/>
+    <hyperlink ref="C82" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId299"/>
+    <hyperlink ref="E82" display="manage_docker.md" r:id="rId300"/>
+    <hyperlink ref="F82" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId301"/>
+    <hyperlink ref="A83" display="manage_powershell.md" r:id="rId302"/>
+    <hyperlink ref="C83" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId303"/>
+    <hyperlink ref="E83" display="manage_powershell.md" r:id="rId304"/>
+    <hyperlink ref="F83" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId305"/>
+    <hyperlink ref="A84" display="cmd.png" r:id="rId306"/>
+    <hyperlink ref="C84" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId307"/>
+    <hyperlink ref="E84" display="cmd.png" r:id="rId308"/>
+    <hyperlink ref="F84" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId309"/>
+    <hyperlink ref="A85" display="containerhost2.png" r:id="rId310"/>
+    <hyperlink ref="C85" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId311"/>
+    <hyperlink ref="E85" display="containerhost2.png" r:id="rId312"/>
+    <hyperlink ref="F85" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId313"/>
+    <hyperlink ref="A86" display="docker1.png" r:id="rId314"/>
+    <hyperlink ref="C86" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId315"/>
+    <hyperlink ref="E86" display="docker1.png" r:id="rId316"/>
+    <hyperlink ref="F86" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId317"/>
+    <hyperlink ref="A87" display="hello.png" r:id="rId318"/>
+    <hyperlink ref="C87" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId319"/>
+    <hyperlink ref="E87" display="hello.png" r:id="rId320"/>
+    <hyperlink ref="F87" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId321"/>
+    <hyperlink ref="A88" display="newazure1.png" r:id="rId322"/>
+    <hyperlink ref="C88" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId323"/>
+    <hyperlink ref="E88" display="newazure1.png" r:id="rId324"/>
+    <hyperlink ref="F88" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId325"/>
+    <hyperlink ref="A89" display="newazure2.png" r:id="rId326"/>
+    <hyperlink ref="C89" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId327"/>
+    <hyperlink ref="E89" display="newazure2.png" r:id="rId328"/>
+    <hyperlink ref="F89" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId329"/>
+    <hyperlink ref="A90" display="newazure3.png" r:id="rId330"/>
+    <hyperlink ref="C90" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId331"/>
+    <hyperlink ref="E90" display="newazure3.png" r:id="rId332"/>
+    <hyperlink ref="F90" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId333"/>
+    <hyperlink ref="A91" display="newazure6.png" r:id="rId334"/>
+    <hyperlink ref="C91" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId335"/>
+    <hyperlink ref="E91" display="newazure6.png" r:id="rId336"/>
+    <hyperlink ref="F91" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId337"/>
+    <hyperlink ref="A92" display="newazure7.png" r:id="rId338"/>
+    <hyperlink ref="C92" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId339"/>
+    <hyperlink ref="E92" display="newazure7.png" r:id="rId340"/>
+    <hyperlink ref="F92" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId341"/>
+    <hyperlink ref="A93" display="newazure9.png" r:id="rId342"/>
+    <hyperlink ref="C93" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId343"/>
+    <hyperlink ref="E93" display="newazure9.png" r:id="rId344"/>
+    <hyperlink ref="F93" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId345"/>
+    <hyperlink ref="A94" display="nginx.png" r:id="rId346"/>
+    <hyperlink ref="C94" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId347"/>
+    <hyperlink ref="E94" display="nginx.png" r:id="rId348"/>
+    <hyperlink ref="F94" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId349"/>
+    <hyperlink ref="A95" display="quickstart.md" r:id="rId350"/>
+    <hyperlink ref="C95" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId351"/>
+    <hyperlink ref="E95" display="quickstart.md" r:id="rId352"/>
+    <hyperlink ref="F95" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId353"/>
+    <hyperlink ref="A96" display="app_compat.md" r:id="rId354"/>
+    <hyperlink ref="C96" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId355"/>
+    <hyperlink ref="E96" display="app_compat.md" r:id="rId356"/>
+    <hyperlink ref="F96" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId357"/>
+    <hyperlink ref="A97" display="powershell_overview.md" r:id="rId358"/>
+    <hyperlink ref="C97" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId359"/>
+    <hyperlink ref="E97" display="powershell_overview.md" r:id="rId360"/>
+    <hyperlink ref="F97" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId361"/>
+    <hyperlink ref="A98" display="ps_docker_comparison.md" r:id="rId362"/>
+    <hyperlink ref="C98" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId363"/>
+    <hyperlink ref="E98" display="ps_docker_comparison.md" r:id="rId364"/>
+    <hyperlink ref="F98" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId365"/>
+    <hyperlink ref="A99" display="TOC.md" r:id="rId366"/>
+    <hyperlink ref="C99" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId367"/>
+    <hyperlink ref="E99" display="TOC.md" r:id="rId368"/>
+    <hyperlink ref="F99" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId369"/>
+    <hyperlink ref="A100" display="supported_guest_os.md" r:id="rId370"/>
+    <hyperlink ref="A101" display="whats_new.md" r:id="rId371"/>
+    <hyperlink ref="A102" display="about_overview.md" r:id="rId372"/>
+    <hyperlink ref="A103" display="TOC.md" r:id="rId373"/>
+    <hyperlink ref="C103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId374"/>
+    <hyperlink ref="E103" display="TOC.md" r:id="rId375"/>
+    <hyperlink ref="F103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId376"/>
     <hyperlink ref="A104" display="containers_welcome.md" r:id="rId377"/>
     <hyperlink ref="C104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId378"/>
     <hyperlink ref="E104" display="containers_welcome.md" r:id="rId379"/>
@@ -14845,7 +14845,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>6</v>
@@ -14857,7 +14857,7 @@
         <v>408</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>431</v>
@@ -14871,7 +14871,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
@@ -14883,7 +14883,7 @@
         <v>408</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>432</v>
@@ -14897,22 +14897,22 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>409</v>
@@ -14921,27 +14921,27 @@
         <v>284</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>409</v>
@@ -14950,12 +14950,12 @@
         <v>284</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -14967,7 +14967,7 @@
         <v>408</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>433</v>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -14993,7 +14993,7 @@
         <v>408</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>434</v>
@@ -15007,7 +15007,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
@@ -15019,7 +15019,7 @@
         <v>436</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>435</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
@@ -15045,7 +15045,7 @@
         <v>408</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>438</v>
@@ -15059,7 +15059,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -15071,7 +15071,7 @@
         <v>408</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>439</v>
@@ -15085,7 +15085,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -15097,7 +15097,7 @@
         <v>408</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>440</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -15123,7 +15123,7 @@
         <v>408</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>441</v>
@@ -15137,22 +15137,22 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>409</v>
@@ -15161,27 +15161,27 @@
         <v>284</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>409</v>
@@ -15190,27 +15190,27 @@
         <v>284</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>409</v>
@@ -15219,27 +15219,27 @@
         <v>284</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>409</v>
@@ -15248,27 +15248,27 @@
         <v>284</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>409</v>
@@ -15277,27 +15277,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>409</v>
@@ -15306,27 +15306,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>409</v>
@@ -15335,27 +15335,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>409</v>
@@ -15364,27 +15364,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>409</v>
@@ -15393,27 +15393,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>409</v>
@@ -15422,27 +15422,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>409</v>
@@ -15451,12 +15451,12 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
@@ -15468,7 +15468,7 @@
         <v>408</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>442</v>
@@ -15482,7 +15482,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
@@ -15494,7 +15494,7 @@
         <v>408</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>443</v>
@@ -15508,7 +15508,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
@@ -15520,7 +15520,7 @@
         <v>408</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>444</v>
@@ -15534,7 +15534,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
@@ -15546,7 +15546,7 @@
         <v>408</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>445</v>
@@ -15586,10 +15586,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>447</v>
@@ -15598,7 +15598,7 @@
         <v>448</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>449</v>
@@ -15612,10 +15612,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>450</v>
@@ -15624,7 +15624,7 @@
         <v>448</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>451</v>
@@ -15641,7 +15641,7 @@
         <v>7</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>452</v>
@@ -15664,10 +15664,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>455</v>
@@ -15684,10 +15684,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>457</v>
@@ -15696,7 +15696,7 @@
         <v>458</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>459</v>
@@ -15713,7 +15713,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>460</v>
@@ -15748,7 +15748,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -15765,7 +15765,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -15782,7 +15782,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -15799,7 +15799,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -15816,7 +15816,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -15833,7 +15833,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -15850,7 +15850,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -15867,7 +15867,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -15884,7 +15884,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -15901,7 +15901,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -15918,7 +15918,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -15935,7 +15935,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -15952,7 +15952,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -15969,7 +15969,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -15986,7 +15986,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -16003,7 +16003,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -16020,7 +16020,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -16037,7 +16037,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -16054,7 +16054,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -16071,7 +16071,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -16088,7 +16088,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -16105,7 +16105,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -16122,7 +16122,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -16139,7 +16139,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -16156,7 +16156,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -16173,7 +16173,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -16190,7 +16190,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -16207,7 +16207,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -16224,7 +16224,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -16241,7 +16241,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -16258,7 +16258,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -16275,7 +16275,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -16292,7 +16292,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -16309,7 +16309,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -16326,7 +16326,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -16343,7 +16343,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -16360,7 +16360,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -16377,7 +16377,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -16394,7 +16394,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -16411,7 +16411,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -16428,7 +16428,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -16445,7 +16445,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -16462,7 +16462,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -16479,7 +16479,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -16496,7 +16496,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -16513,7 +16513,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -16530,7 +16530,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -16547,7 +16547,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -16564,7 +16564,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -16581,7 +16581,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -16598,7 +16598,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -16615,7 +16615,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -16632,7 +16632,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -16649,7 +16649,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -16666,7 +16666,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -16683,7 +16683,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -16700,7 +16700,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -16717,7 +16717,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -16734,7 +16734,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -16751,7 +16751,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -16768,7 +16768,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -16785,7 +16785,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -16802,7 +16802,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -16819,7 +16819,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -16836,7 +16836,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -16853,7 +16853,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -16870,7 +16870,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -16887,7 +16887,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -16904,7 +16904,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -16921,7 +16921,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -16938,7 +16938,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -16955,7 +16955,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -16972,7 +16972,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -16989,7 +16989,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -17006,7 +17006,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -17023,7 +17023,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -17040,7 +17040,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -17057,7 +17057,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -17074,7 +17074,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -17091,7 +17091,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -17108,7 +17108,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -17125,7 +17125,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -17142,7 +17142,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -17159,7 +17159,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -17176,7 +17176,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -17193,7 +17193,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -17210,7 +17210,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -17227,7 +17227,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -17244,7 +17244,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -17261,7 +17261,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -17278,7 +17278,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -17295,7 +17295,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -17312,7 +17312,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -17329,7 +17329,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -17346,7 +17346,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -17363,7 +17363,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -17380,7 +17380,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -17397,7 +17397,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -17414,7 +17414,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -17431,7 +17431,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -17448,7 +17448,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -17465,7 +17465,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -17482,7 +17482,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -17499,7 +17499,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -17516,7 +17516,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -17533,7 +17533,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -17550,7 +17550,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -17567,7 +17567,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -17584,7 +17584,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -17601,7 +17601,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -17618,7 +17618,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -17635,7 +17635,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -17652,7 +17652,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -17669,7 +17669,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -17686,7 +17686,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -17703,7 +17703,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -17720,7 +17720,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -17737,7 +17737,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -17754,7 +17754,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -17771,7 +17771,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -17788,7 +17788,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -17805,7 +17805,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -17822,7 +17822,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -17839,7 +17839,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -17856,7 +17856,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -17873,7 +17873,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -17890,7 +17890,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -17907,7 +17907,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -17924,7 +17924,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -17941,7 +17941,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -17958,7 +17958,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -17975,7 +17975,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -17992,7 +17992,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -18009,7 +18009,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -18026,7 +18026,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -18043,7 +18043,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -18060,7 +18060,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -18077,7 +18077,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -18094,7 +18094,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -18111,7 +18111,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -18128,7 +18128,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -18145,7 +18145,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -18162,7 +18162,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -18179,7 +18179,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -18196,7 +18196,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -18213,7 +18213,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -18230,7 +18230,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -18247,7 +18247,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -18264,7 +18264,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -18281,7 +18281,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -18298,7 +18298,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -18315,7 +18315,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -18332,7 +18332,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -18349,7 +18349,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -18366,7 +18366,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -18383,7 +18383,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -18400,7 +18400,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -18417,7 +18417,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -18434,7 +18434,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -18451,7 +18451,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -18468,7 +18468,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -18485,7 +18485,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -18502,7 +18502,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -18519,7 +18519,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -18536,7 +18536,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -18553,7 +18553,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -19275,7 +19275,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -19287,7 +19287,7 @@
         <v>464</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>469</v>
@@ -19301,7 +19301,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -19313,7 +19313,7 @@
         <v>464</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>470</v>
@@ -21141,7 +21141,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -21153,7 +21153,7 @@
         <v>464</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>492</v>
@@ -21167,7 +21167,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -21179,7 +21179,7 @@
         <v>464</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>493</v>
@@ -21193,7 +21193,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -21205,7 +21205,7 @@
         <v>464</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>494</v>
@@ -21219,22 +21219,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>465</v>
@@ -21243,27 +21243,27 @@
         <v>284</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>465</v>
@@ -21272,12 +21272,12 @@
         <v>284</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -21289,7 +21289,7 @@
         <v>464</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>495</v>
@@ -21329,7 +21329,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -21341,7 +21341,7 @@
         <v>464</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>497</v>
@@ -21355,7 +21355,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -21367,7 +21367,7 @@
         <v>464</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>498</v>
@@ -21381,7 +21381,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -21393,7 +21393,7 @@
         <v>464</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>499</v>
@@ -21407,7 +21407,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -21419,7 +21419,7 @@
         <v>464</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>500</v>
@@ -21433,7 +21433,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -21445,7 +21445,7 @@
         <v>464</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>501</v>
@@ -21459,7 +21459,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
@@ -21471,7 +21471,7 @@
         <v>464</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>502</v>
@@ -21485,22 +21485,22 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>465</v>
@@ -21509,27 +21509,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>465</v>
@@ -21538,27 +21538,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>465</v>
@@ -21567,27 +21567,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>465</v>
@@ -21596,27 +21596,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>465</v>
@@ -21625,27 +21625,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>465</v>
@@ -21654,27 +21654,27 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>465</v>
@@ -21683,27 +21683,27 @@
         <v>284</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>465</v>
@@ -21712,27 +21712,27 @@
         <v>284</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>465</v>
@@ -21741,27 +21741,27 @@
         <v>284</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>465</v>
@@ -21770,27 +21770,27 @@
         <v>284</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>465</v>
@@ -21799,12 +21799,12 @@
         <v>284</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
@@ -21816,7 +21816,7 @@
         <v>464</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>503</v>
@@ -21830,7 +21830,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
@@ -21842,7 +21842,7 @@
         <v>464</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>504</v>
@@ -21856,7 +21856,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
@@ -21868,7 +21868,7 @@
         <v>464</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>505</v>
@@ -21882,7 +21882,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>6</v>
@@ -21894,7 +21894,7 @@
         <v>464</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>506</v>
@@ -21934,10 +21934,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>508</v>
@@ -21946,7 +21946,7 @@
         <v>509</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>508</v>
@@ -21972,7 +21972,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -21989,7 +21989,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -22006,7 +22006,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -22023,7 +22023,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -22040,7 +22040,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -22057,7 +22057,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -22074,7 +22074,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -22091,7 +22091,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -22108,7 +22108,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -22125,7 +22125,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -22142,7 +22142,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -22159,7 +22159,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -22176,7 +22176,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -22193,7 +22193,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -22210,7 +22210,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -22227,7 +22227,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -22244,7 +22244,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -22261,7 +22261,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -22278,7 +22278,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -22295,7 +22295,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -22312,7 +22312,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -22329,7 +22329,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -22346,7 +22346,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -22363,7 +22363,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -22380,7 +22380,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -22397,7 +22397,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -22414,7 +22414,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -22431,7 +22431,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -22448,7 +22448,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -22465,7 +22465,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -22482,7 +22482,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -22499,7 +22499,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -22516,7 +22516,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -22533,7 +22533,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -22550,7 +22550,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -22567,7 +22567,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -22584,7 +22584,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -22601,7 +22601,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -22618,7 +22618,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -22635,7 +22635,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -22652,7 +22652,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -22669,7 +22669,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -22686,7 +22686,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -22703,7 +22703,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -22720,7 +22720,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -22737,7 +22737,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -22754,7 +22754,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -22771,7 +22771,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -22788,7 +22788,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -22805,7 +22805,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -22822,7 +22822,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -22839,7 +22839,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -22856,7 +22856,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -22873,7 +22873,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -22890,7 +22890,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -22907,7 +22907,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -22924,7 +22924,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -22941,7 +22941,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -22958,7 +22958,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -22975,7 +22975,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -22992,7 +22992,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -23009,7 +23009,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -23026,7 +23026,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -23043,7 +23043,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -23060,7 +23060,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -23077,7 +23077,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -23094,7 +23094,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -23111,7 +23111,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -23128,7 +23128,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -23145,7 +23145,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -23162,7 +23162,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -23179,7 +23179,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -23196,7 +23196,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -23213,7 +23213,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -23230,7 +23230,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -23247,7 +23247,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -23264,7 +23264,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -23281,7 +23281,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -23298,7 +23298,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -23315,7 +23315,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -23332,7 +23332,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -23349,7 +23349,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -23366,7 +23366,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -23383,7 +23383,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -23400,7 +23400,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -23417,7 +23417,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -23434,7 +23434,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -23451,7 +23451,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -23468,7 +23468,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -23485,7 +23485,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -23502,7 +23502,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -23519,7 +23519,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -23536,7 +23536,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -23553,7 +23553,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -23570,7 +23570,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -23587,7 +23587,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -23604,7 +23604,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -23621,7 +23621,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -23638,7 +23638,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -23655,7 +23655,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -23672,7 +23672,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -23689,7 +23689,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -23706,7 +23706,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -23723,7 +23723,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -23740,7 +23740,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -23757,7 +23757,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -23774,7 +23774,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -23791,7 +23791,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -23808,7 +23808,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -23825,7 +23825,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -23842,7 +23842,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -23859,7 +23859,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -23876,7 +23876,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -23893,7 +23893,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -23910,7 +23910,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -23927,7 +23927,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -23944,7 +23944,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -23961,7 +23961,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -23978,7 +23978,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -23995,7 +23995,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -24012,7 +24012,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -24029,7 +24029,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -24046,7 +24046,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -24063,7 +24063,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -24080,7 +24080,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -24097,7 +24097,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -24114,7 +24114,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -24131,7 +24131,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -24148,7 +24148,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -24165,7 +24165,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -24182,7 +24182,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -24199,7 +24199,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -24216,7 +24216,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -24233,7 +24233,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -24250,7 +24250,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -24267,7 +24267,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -24284,7 +24284,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -24301,7 +24301,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -24318,7 +24318,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -24335,7 +24335,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -24352,7 +24352,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -24369,7 +24369,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -24386,7 +24386,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -24403,7 +24403,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -24420,7 +24420,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -24437,7 +24437,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -24454,7 +24454,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -24471,7 +24471,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -24488,7 +24488,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -24505,7 +24505,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -24522,7 +24522,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -24539,7 +24539,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -24556,7 +24556,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -24573,7 +24573,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -24590,7 +24590,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -24607,7 +24607,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -24624,7 +24624,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -24641,7 +24641,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -24658,7 +24658,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -24675,7 +24675,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -24692,7 +24692,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -24709,7 +24709,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -24726,7 +24726,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -24743,7 +24743,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -24760,7 +24760,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -24777,7 +24777,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -25513,7 +25513,7 @@
         <v>511</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>515</v>
@@ -25527,7 +25527,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -25539,7 +25539,7 @@
         <v>511</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>516</v>
@@ -27367,7 +27367,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -27379,7 +27379,7 @@
         <v>511</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>537</v>
@@ -27393,7 +27393,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -27405,7 +27405,7 @@
         <v>511</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>538</v>
@@ -27419,7 +27419,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -27431,7 +27431,7 @@
         <v>511</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>539</v>
@@ -27445,22 +27445,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>512</v>
@@ -27469,27 +27469,27 @@
         <v>284</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>512</v>
@@ -27498,12 +27498,12 @@
         <v>284</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -27515,7 +27515,7 @@
         <v>511</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>540</v>
@@ -27555,7 +27555,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -27567,7 +27567,7 @@
         <v>511</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>542</v>
@@ -27581,7 +27581,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -27593,7 +27593,7 @@
         <v>511</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>543</v>
@@ -27607,7 +27607,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -27619,7 +27619,7 @@
         <v>511</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>544</v>
@@ -27633,7 +27633,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -27645,7 +27645,7 @@
         <v>511</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>545</v>
@@ -27659,7 +27659,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -27671,7 +27671,7 @@
         <v>511</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>546</v>
@@ -27685,7 +27685,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
@@ -27697,7 +27697,7 @@
         <v>511</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>547</v>
@@ -27711,22 +27711,22 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>512</v>
@@ -27735,27 +27735,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>512</v>
@@ -27764,27 +27764,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>512</v>
@@ -27793,27 +27793,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>512</v>
@@ -27822,27 +27822,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>512</v>
@@ -27851,27 +27851,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>512</v>
@@ -27880,27 +27880,27 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>512</v>
@@ -27909,27 +27909,27 @@
         <v>284</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>512</v>
@@ -27938,27 +27938,27 @@
         <v>284</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>512</v>
@@ -27967,27 +27967,27 @@
         <v>284</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>512</v>
@@ -27996,27 +27996,27 @@
         <v>284</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>511</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>512</v>
@@ -28025,12 +28025,12 @@
         <v>284</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
@@ -28042,7 +28042,7 @@
         <v>511</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>548</v>
@@ -28056,7 +28056,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
@@ -28068,7 +28068,7 @@
         <v>511</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>549</v>
@@ -28082,7 +28082,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
@@ -28094,7 +28094,7 @@
         <v>511</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>550</v>
@@ -28108,7 +28108,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>6</v>
@@ -28120,7 +28120,7 @@
         <v>511</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>551</v>
@@ -28160,10 +28160,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>553</v>
@@ -28172,7 +28172,7 @@
         <v>554</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>553</v>
@@ -28198,7 +28198,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -28215,7 +28215,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -28232,7 +28232,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -28249,7 +28249,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -28266,7 +28266,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -28283,7 +28283,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -28300,7 +28300,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -28317,7 +28317,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -28334,7 +28334,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -28351,7 +28351,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -28368,7 +28368,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -28385,7 +28385,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -28402,7 +28402,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -28419,7 +28419,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -28436,7 +28436,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -28453,7 +28453,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -28470,7 +28470,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -28487,7 +28487,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -28504,7 +28504,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -28521,7 +28521,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -28538,7 +28538,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -28555,7 +28555,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -28572,7 +28572,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -28589,7 +28589,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -28606,7 +28606,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -28623,7 +28623,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -28640,7 +28640,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -28657,7 +28657,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -28674,7 +28674,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -28691,7 +28691,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -28708,7 +28708,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -28725,7 +28725,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -28742,7 +28742,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -28759,7 +28759,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -28776,7 +28776,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -28793,7 +28793,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -28810,7 +28810,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -28827,7 +28827,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -28844,7 +28844,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -28861,7 +28861,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -28878,7 +28878,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -28895,7 +28895,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -28912,7 +28912,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -28929,7 +28929,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -28946,7 +28946,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -28963,7 +28963,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -28980,7 +28980,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -28997,7 +28997,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -29014,7 +29014,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -29031,7 +29031,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -29048,7 +29048,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -29065,7 +29065,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -29082,7 +29082,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -29099,7 +29099,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -29116,7 +29116,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -29133,7 +29133,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -29150,7 +29150,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -29167,7 +29167,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -29184,7 +29184,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -29201,7 +29201,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -29218,7 +29218,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -29235,7 +29235,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -29252,7 +29252,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -29269,7 +29269,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -29286,7 +29286,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -29303,7 +29303,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -29320,7 +29320,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -29337,7 +29337,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -29354,7 +29354,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -29371,7 +29371,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -29388,7 +29388,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -29405,7 +29405,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -29422,7 +29422,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -29439,7 +29439,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -29456,7 +29456,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -29473,7 +29473,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -29490,7 +29490,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -29507,7 +29507,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -29524,7 +29524,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -29541,7 +29541,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -29558,7 +29558,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -29575,7 +29575,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -29592,7 +29592,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -29609,7 +29609,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -29626,7 +29626,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -29643,7 +29643,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -29660,7 +29660,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -29677,7 +29677,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -29694,7 +29694,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -29711,7 +29711,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -29728,7 +29728,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -29745,7 +29745,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -29762,7 +29762,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -29779,7 +29779,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -29796,7 +29796,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -29813,7 +29813,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -29830,7 +29830,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -29847,7 +29847,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -29864,7 +29864,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -29881,7 +29881,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -29898,7 +29898,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -29915,7 +29915,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -29932,7 +29932,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -29949,7 +29949,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -29966,7 +29966,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -29983,7 +29983,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -30000,7 +30000,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -30017,7 +30017,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -30034,7 +30034,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -30051,7 +30051,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -30068,7 +30068,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -30085,7 +30085,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -30102,7 +30102,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -30119,7 +30119,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -30136,7 +30136,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -30153,7 +30153,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -30170,7 +30170,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -30187,7 +30187,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -30204,7 +30204,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -30221,7 +30221,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -30238,7 +30238,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -30255,7 +30255,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -30272,7 +30272,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -30289,7 +30289,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -30306,7 +30306,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -30323,7 +30323,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -30340,7 +30340,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -30357,7 +30357,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -30374,7 +30374,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -30391,7 +30391,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -30408,7 +30408,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -30425,7 +30425,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -30442,7 +30442,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -30459,7 +30459,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -30476,7 +30476,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -30493,7 +30493,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -30510,7 +30510,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -30527,7 +30527,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -30544,7 +30544,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -30561,7 +30561,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -30578,7 +30578,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -30595,7 +30595,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -30612,7 +30612,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -30629,7 +30629,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -30646,7 +30646,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -30663,7 +30663,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -30680,7 +30680,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -30697,7 +30697,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -30714,7 +30714,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -30731,7 +30731,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -30748,7 +30748,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -30765,7 +30765,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -30782,7 +30782,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -30799,7 +30799,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -30816,7 +30816,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -30833,7 +30833,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -30850,7 +30850,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -30867,7 +30867,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -30884,7 +30884,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -30901,7 +30901,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -30918,7 +30918,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -30935,7 +30935,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -30952,7 +30952,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -30969,7 +30969,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -30986,7 +30986,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -31003,7 +31003,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="557">
   <si>
     <t>File Name</t>
   </si>
@@ -1231,7 +1231,7 @@
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 13:32:00</t>
+    <t>2016-01-11 08:35:50</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf</t>
@@ -1405,7 +1405,7 @@
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 13:32:17</t>
+    <t>2016-01-11 08:36:06</t>
   </si>
   <si>
     <t>2015-10-26 10:59:07</t>
@@ -1510,46 +1510,49 @@
     <t>work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf</t>
   </si>
   <si>
+    <t>EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 08:32:10</t>
+  </si>
+  <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf</t>
   </si>
   <si>
-    <t>EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 08:32:10</t>
+    <t>2016-01-11 08:36:22</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf</t>
@@ -1646,46 +1649,49 @@
     <t>work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf</t>
   </si>
   <si>
+    <t>EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 08:32:26</t>
+  </si>
+  <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf</t>
   </si>
   <si>
-    <t>EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 08:32:26</t>
+    <t>2016-01-11 08:36:41</t>
   </si>
 </sst>
 </file>
@@ -3603,10 +3609,10 @@
         <v>77</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
@@ -21303,7 +21309,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -21312,16 +21318,16 @@
         <v>496</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>496</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>280</v>
@@ -21329,7 +21335,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -21341,7 +21347,7 @@
         <v>464</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>497</v>
@@ -21355,7 +21361,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -21367,7 +21373,7 @@
         <v>464</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>498</v>
@@ -21381,7 +21387,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -21393,7 +21399,7 @@
         <v>464</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>499</v>
@@ -21407,7 +21413,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -21419,7 +21425,7 @@
         <v>464</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>500</v>
@@ -21433,7 +21439,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -21445,7 +21451,7 @@
         <v>464</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>501</v>
@@ -21459,48 +21465,51 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>502</v>
+        <v>379</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>502</v>
+        <v>379</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>465</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>465</v>
@@ -21509,27 +21518,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>465</v>
@@ -21538,27 +21547,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>465</v>
@@ -21567,27 +21576,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>465</v>
@@ -21596,27 +21605,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>465</v>
@@ -21630,22 +21639,22 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>465</v>
@@ -21659,22 +21668,22 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>465</v>
@@ -21688,22 +21697,22 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>465</v>
@@ -21717,22 +21726,22 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>465</v>
@@ -21741,27 +21750,27 @@
         <v>284</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>465</v>
@@ -21775,36 +21784,33 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>393</v>
+        <v>502</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>393</v>
+        <v>502</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>465</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
@@ -21816,7 +21822,7 @@
         <v>464</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>503</v>
@@ -21830,7 +21836,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
@@ -21842,7 +21848,7 @@
         <v>464</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>504</v>
@@ -21856,7 +21862,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
@@ -21868,7 +21874,7 @@
         <v>464</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>505</v>
@@ -21882,7 +21888,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>6</v>
@@ -21894,7 +21900,7 @@
         <v>464</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>506</v>
@@ -21908,25 +21914,25 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>507</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>507</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>280</v>
@@ -21934,22 +21940,22 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>484</v>
@@ -25074,102 +25080,102 @@
     <hyperlink ref="C80" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId291"/>
     <hyperlink ref="E80" display="work_in_progress.md" r:id="rId292"/>
     <hyperlink ref="F80" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId293"/>
-    <hyperlink ref="A81" display="containers_welcome.md" r:id="rId294"/>
-    <hyperlink ref="C81" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId295"/>
-    <hyperlink ref="E81" display="containers_welcome.md" r:id="rId296"/>
-    <hyperlink ref="F81" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId297"/>
-    <hyperlink ref="A82" display="EULA.md" r:id="rId298"/>
-    <hyperlink ref="C82" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId299"/>
-    <hyperlink ref="E82" display="EULA.md" r:id="rId300"/>
-    <hyperlink ref="F82" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId301"/>
-    <hyperlink ref="A83" display="azure_setup.md" r:id="rId302"/>
-    <hyperlink ref="C83" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId303"/>
-    <hyperlink ref="E83" display="azure_setup.md" r:id="rId304"/>
-    <hyperlink ref="F83" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId305"/>
-    <hyperlink ref="A84" display="container_setup.md" r:id="rId306"/>
-    <hyperlink ref="C84" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId307"/>
-    <hyperlink ref="E84" display="container_setup.md" r:id="rId308"/>
-    <hyperlink ref="F84" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId309"/>
-    <hyperlink ref="A85" display="inplace_setup.md" r:id="rId310"/>
-    <hyperlink ref="C85" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId311"/>
-    <hyperlink ref="E85" display="inplace_setup.md" r:id="rId312"/>
-    <hyperlink ref="F85" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId313"/>
-    <hyperlink ref="A86" display="manage_docker.md" r:id="rId314"/>
-    <hyperlink ref="C86" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId315"/>
-    <hyperlink ref="E86" display="manage_docker.md" r:id="rId316"/>
-    <hyperlink ref="F86" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId317"/>
-    <hyperlink ref="A87" display="manage_powershell.md" r:id="rId318"/>
-    <hyperlink ref="C87" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId319"/>
-    <hyperlink ref="E87" display="manage_powershell.md" r:id="rId320"/>
-    <hyperlink ref="F87" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId321"/>
-    <hyperlink ref="A88" display="cmd.png" r:id="rId322"/>
-    <hyperlink ref="C88" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId323"/>
-    <hyperlink ref="E88" display="cmd.png" r:id="rId324"/>
-    <hyperlink ref="F88" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId325"/>
-    <hyperlink ref="A89" display="containerhost2.png" r:id="rId326"/>
-    <hyperlink ref="C89" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId327"/>
-    <hyperlink ref="E89" display="containerhost2.png" r:id="rId328"/>
-    <hyperlink ref="F89" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId329"/>
-    <hyperlink ref="A90" display="docker1.png" r:id="rId330"/>
-    <hyperlink ref="C90" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId331"/>
-    <hyperlink ref="E90" display="docker1.png" r:id="rId332"/>
-    <hyperlink ref="F90" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId333"/>
-    <hyperlink ref="A91" display="hello.png" r:id="rId334"/>
-    <hyperlink ref="C91" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId335"/>
-    <hyperlink ref="E91" display="hello.png" r:id="rId336"/>
-    <hyperlink ref="F91" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId337"/>
-    <hyperlink ref="A92" display="newazure1.png" r:id="rId338"/>
-    <hyperlink ref="C92" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId339"/>
-    <hyperlink ref="E92" display="newazure1.png" r:id="rId340"/>
-    <hyperlink ref="F92" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId341"/>
-    <hyperlink ref="A93" display="newazure2.png" r:id="rId342"/>
-    <hyperlink ref="C93" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId343"/>
-    <hyperlink ref="E93" display="newazure2.png" r:id="rId344"/>
-    <hyperlink ref="F93" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId345"/>
-    <hyperlink ref="A94" display="newazure3.png" r:id="rId346"/>
-    <hyperlink ref="C94" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId347"/>
-    <hyperlink ref="E94" display="newazure3.png" r:id="rId348"/>
-    <hyperlink ref="F94" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId349"/>
-    <hyperlink ref="A95" display="newazure6.png" r:id="rId350"/>
-    <hyperlink ref="C95" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId351"/>
-    <hyperlink ref="E95" display="newazure6.png" r:id="rId352"/>
-    <hyperlink ref="F95" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId353"/>
-    <hyperlink ref="A96" display="newazure7.png" r:id="rId354"/>
-    <hyperlink ref="C96" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId355"/>
-    <hyperlink ref="E96" display="newazure7.png" r:id="rId356"/>
-    <hyperlink ref="F96" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId357"/>
-    <hyperlink ref="A97" display="newazure9.png" r:id="rId358"/>
-    <hyperlink ref="C97" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId359"/>
-    <hyperlink ref="E97" display="newazure9.png" r:id="rId360"/>
-    <hyperlink ref="F97" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId361"/>
-    <hyperlink ref="A98" display="nginx.png" r:id="rId362"/>
-    <hyperlink ref="C98" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId363"/>
-    <hyperlink ref="E98" display="nginx.png" r:id="rId364"/>
-    <hyperlink ref="F98" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId365"/>
-    <hyperlink ref="A99" display="quickstart.md" r:id="rId366"/>
-    <hyperlink ref="C99" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId367"/>
-    <hyperlink ref="E99" display="quickstart.md" r:id="rId368"/>
-    <hyperlink ref="F99" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId369"/>
-    <hyperlink ref="A100" display="app_compat.md" r:id="rId370"/>
-    <hyperlink ref="C100" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId371"/>
-    <hyperlink ref="E100" display="app_compat.md" r:id="rId372"/>
-    <hyperlink ref="F100" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId373"/>
-    <hyperlink ref="A101" display="powershell_overview.md" r:id="rId374"/>
-    <hyperlink ref="C101" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId375"/>
-    <hyperlink ref="E101" display="powershell_overview.md" r:id="rId376"/>
-    <hyperlink ref="F101" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId377"/>
-    <hyperlink ref="A102" display="ps_docker_comparison.md" r:id="rId378"/>
-    <hyperlink ref="C102" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId379"/>
-    <hyperlink ref="E102" display="ps_docker_comparison.md" r:id="rId380"/>
-    <hyperlink ref="F102" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId381"/>
-    <hyperlink ref="A103" display="TOC.md" r:id="rId382"/>
-    <hyperlink ref="C103" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId383"/>
-    <hyperlink ref="E103" display="TOC.md" r:id="rId384"/>
-    <hyperlink ref="F103" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId385"/>
-    <hyperlink ref="A104" display="windows_welcome1.md" r:id="rId386"/>
-    <hyperlink ref="C104" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf" r:id="rId387"/>
-    <hyperlink ref="E104" display="windows_welcome1.md" r:id="rId388"/>
-    <hyperlink ref="F104" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf" r:id="rId389"/>
+    <hyperlink ref="A81" display="EULA.md" r:id="rId294"/>
+    <hyperlink ref="C81" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId295"/>
+    <hyperlink ref="E81" display="EULA.md" r:id="rId296"/>
+    <hyperlink ref="F81" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId297"/>
+    <hyperlink ref="A82" display="azure_setup.md" r:id="rId298"/>
+    <hyperlink ref="C82" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId299"/>
+    <hyperlink ref="E82" display="azure_setup.md" r:id="rId300"/>
+    <hyperlink ref="F82" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId301"/>
+    <hyperlink ref="A83" display="container_setup.md" r:id="rId302"/>
+    <hyperlink ref="C83" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId303"/>
+    <hyperlink ref="E83" display="container_setup.md" r:id="rId304"/>
+    <hyperlink ref="F83" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId305"/>
+    <hyperlink ref="A84" display="inplace_setup.md" r:id="rId306"/>
+    <hyperlink ref="C84" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId307"/>
+    <hyperlink ref="E84" display="inplace_setup.md" r:id="rId308"/>
+    <hyperlink ref="F84" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId309"/>
+    <hyperlink ref="A85" display="manage_docker.md" r:id="rId310"/>
+    <hyperlink ref="C85" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId311"/>
+    <hyperlink ref="E85" display="manage_docker.md" r:id="rId312"/>
+    <hyperlink ref="F85" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId313"/>
+    <hyperlink ref="A86" display="manage_powershell.md" r:id="rId314"/>
+    <hyperlink ref="C86" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId315"/>
+    <hyperlink ref="E86" display="manage_powershell.md" r:id="rId316"/>
+    <hyperlink ref="F86" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId317"/>
+    <hyperlink ref="A87" display="cmd.png" r:id="rId318"/>
+    <hyperlink ref="C87" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId319"/>
+    <hyperlink ref="E87" display="cmd.png" r:id="rId320"/>
+    <hyperlink ref="F87" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId321"/>
+    <hyperlink ref="A88" display="containerhost2.png" r:id="rId322"/>
+    <hyperlink ref="C88" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId323"/>
+    <hyperlink ref="E88" display="containerhost2.png" r:id="rId324"/>
+    <hyperlink ref="F88" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId325"/>
+    <hyperlink ref="A89" display="docker1.png" r:id="rId326"/>
+    <hyperlink ref="C89" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId327"/>
+    <hyperlink ref="E89" display="docker1.png" r:id="rId328"/>
+    <hyperlink ref="F89" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId329"/>
+    <hyperlink ref="A90" display="hello.png" r:id="rId330"/>
+    <hyperlink ref="C90" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId331"/>
+    <hyperlink ref="E90" display="hello.png" r:id="rId332"/>
+    <hyperlink ref="F90" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId333"/>
+    <hyperlink ref="A91" display="newazure1.png" r:id="rId334"/>
+    <hyperlink ref="C91" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId335"/>
+    <hyperlink ref="E91" display="newazure1.png" r:id="rId336"/>
+    <hyperlink ref="F91" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId337"/>
+    <hyperlink ref="A92" display="newazure2.png" r:id="rId338"/>
+    <hyperlink ref="C92" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId339"/>
+    <hyperlink ref="E92" display="newazure2.png" r:id="rId340"/>
+    <hyperlink ref="F92" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId341"/>
+    <hyperlink ref="A93" display="newazure3.png" r:id="rId342"/>
+    <hyperlink ref="C93" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId343"/>
+    <hyperlink ref="E93" display="newazure3.png" r:id="rId344"/>
+    <hyperlink ref="F93" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId345"/>
+    <hyperlink ref="A94" display="newazure6.png" r:id="rId346"/>
+    <hyperlink ref="C94" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId347"/>
+    <hyperlink ref="E94" display="newazure6.png" r:id="rId348"/>
+    <hyperlink ref="F94" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId349"/>
+    <hyperlink ref="A95" display="newazure7.png" r:id="rId350"/>
+    <hyperlink ref="C95" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId351"/>
+    <hyperlink ref="E95" display="newazure7.png" r:id="rId352"/>
+    <hyperlink ref="F95" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId353"/>
+    <hyperlink ref="A96" display="newazure9.png" r:id="rId354"/>
+    <hyperlink ref="C96" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId355"/>
+    <hyperlink ref="E96" display="newazure9.png" r:id="rId356"/>
+    <hyperlink ref="F96" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId357"/>
+    <hyperlink ref="A97" display="nginx.png" r:id="rId358"/>
+    <hyperlink ref="C97" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId359"/>
+    <hyperlink ref="E97" display="nginx.png" r:id="rId360"/>
+    <hyperlink ref="F97" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId361"/>
+    <hyperlink ref="A98" display="quickstart.md" r:id="rId362"/>
+    <hyperlink ref="C98" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId363"/>
+    <hyperlink ref="E98" display="quickstart.md" r:id="rId364"/>
+    <hyperlink ref="F98" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId365"/>
+    <hyperlink ref="A99" display="app_compat.md" r:id="rId366"/>
+    <hyperlink ref="C99" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId367"/>
+    <hyperlink ref="E99" display="app_compat.md" r:id="rId368"/>
+    <hyperlink ref="F99" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId369"/>
+    <hyperlink ref="A100" display="powershell_overview.md" r:id="rId370"/>
+    <hyperlink ref="C100" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId371"/>
+    <hyperlink ref="E100" display="powershell_overview.md" r:id="rId372"/>
+    <hyperlink ref="F100" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId373"/>
+    <hyperlink ref="A101" display="ps_docker_comparison.md" r:id="rId374"/>
+    <hyperlink ref="C101" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId375"/>
+    <hyperlink ref="E101" display="ps_docker_comparison.md" r:id="rId376"/>
+    <hyperlink ref="F101" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId377"/>
+    <hyperlink ref="A102" display="TOC.md" r:id="rId378"/>
+    <hyperlink ref="C102" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId379"/>
+    <hyperlink ref="E102" display="TOC.md" r:id="rId380"/>
+    <hyperlink ref="F102" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId381"/>
+    <hyperlink ref="A103" display="windows_welcome1.md" r:id="rId382"/>
+    <hyperlink ref="C103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf" r:id="rId383"/>
+    <hyperlink ref="E103" display="windows_welcome1.md" r:id="rId384"/>
+    <hyperlink ref="F103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf" r:id="rId385"/>
+    <hyperlink ref="A104" display="containers_welcome.md" r:id="rId386"/>
+    <hyperlink ref="C104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId387"/>
+    <hyperlink ref="E104" display="containers_welcome.md" r:id="rId388"/>
+    <hyperlink ref="F104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId389"/>
     <hyperlink ref="A105" display=".gitignore" r:id="rId390"/>
     <hyperlink ref="A106" display=".localization-config" r:id="rId391"/>
     <hyperlink ref="A107" display="localization.json" r:id="rId392"/>
@@ -25400,19 +25406,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>280</v>
@@ -25426,19 +25432,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>513</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>512</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>280</v>
@@ -25452,19 +25458,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>280</v>
@@ -25481,7 +25487,7 @@
         <v>283</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -25490,7 +25496,7 @@
         <v>283</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>284</v>
@@ -25507,19 +25513,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>280</v>
@@ -25533,19 +25539,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>280</v>
@@ -25559,19 +25565,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>280</v>
@@ -25585,19 +25591,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>280</v>
@@ -25614,7 +25620,7 @@
         <v>288</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -25623,13 +25629,13 @@
         <v>288</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11">
@@ -25643,7 +25649,7 @@
         <v>290</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -25652,7 +25658,7 @@
         <v>290</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>284</v>
@@ -25672,7 +25678,7 @@
         <v>292</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -25681,7 +25687,7 @@
         <v>292</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>284</v>
@@ -25701,7 +25707,7 @@
         <v>293</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -25710,7 +25716,7 @@
         <v>293</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>284</v>
@@ -25730,7 +25736,7 @@
         <v>295</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -25739,7 +25745,7 @@
         <v>295</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>284</v>
@@ -25759,7 +25765,7 @@
         <v>296</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
@@ -25768,7 +25774,7 @@
         <v>296</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>284</v>
@@ -25788,7 +25794,7 @@
         <v>297</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
@@ -25797,7 +25803,7 @@
         <v>297</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>284</v>
@@ -25817,7 +25823,7 @@
         <v>299</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -25826,7 +25832,7 @@
         <v>299</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>284</v>
@@ -25846,7 +25852,7 @@
         <v>301</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>20</v>
@@ -25855,7 +25861,7 @@
         <v>301</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>284</v>
@@ -25875,7 +25881,7 @@
         <v>302</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>21</v>
@@ -25884,7 +25890,7 @@
         <v>302</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>284</v>
@@ -25904,7 +25910,7 @@
         <v>303</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>22</v>
@@ -25913,7 +25919,7 @@
         <v>303</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>284</v>
@@ -25933,7 +25939,7 @@
         <v>304</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>23</v>
@@ -25942,7 +25948,7 @@
         <v>304</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>284</v>
@@ -25962,7 +25968,7 @@
         <v>305</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>24</v>
@@ -25971,7 +25977,7 @@
         <v>305</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>284</v>
@@ -25991,7 +25997,7 @@
         <v>306</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
@@ -26000,7 +26006,7 @@
         <v>306</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>284</v>
@@ -26020,7 +26026,7 @@
         <v>307</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>26</v>
@@ -26029,7 +26035,7 @@
         <v>307</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>284</v>
@@ -26049,7 +26055,7 @@
         <v>308</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>27</v>
@@ -26058,7 +26064,7 @@
         <v>308</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>284</v>
@@ -26078,7 +26084,7 @@
         <v>309</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>28</v>
@@ -26087,7 +26093,7 @@
         <v>309</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>284</v>
@@ -26107,7 +26113,7 @@
         <v>311</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>29</v>
@@ -26116,7 +26122,7 @@
         <v>311</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>284</v>
@@ -26136,7 +26142,7 @@
         <v>313</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>30</v>
@@ -26145,7 +26151,7 @@
         <v>313</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>284</v>
@@ -26165,7 +26171,7 @@
         <v>314</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>31</v>
@@ -26174,7 +26180,7 @@
         <v>314</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>284</v>
@@ -26194,7 +26200,7 @@
         <v>315</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>316</v>
@@ -26217,7 +26223,7 @@
         <v>317</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
@@ -26226,7 +26232,7 @@
         <v>317</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>284</v>
@@ -26246,7 +26252,7 @@
         <v>318</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>34</v>
@@ -26255,7 +26261,7 @@
         <v>318</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>284</v>
@@ -26275,7 +26281,7 @@
         <v>319</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>35</v>
@@ -26284,7 +26290,7 @@
         <v>319</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>284</v>
@@ -26304,7 +26310,7 @@
         <v>320</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>36</v>
@@ -26313,7 +26319,7 @@
         <v>320</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>284</v>
@@ -26333,7 +26339,7 @@
         <v>321</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>37</v>
@@ -26342,7 +26348,7 @@
         <v>321</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>284</v>
@@ -26362,7 +26368,7 @@
         <v>322</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>38</v>
@@ -26371,7 +26377,7 @@
         <v>322</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>284</v>
@@ -26391,7 +26397,7 @@
         <v>323</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>316</v>
@@ -26414,7 +26420,7 @@
         <v>324</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>40</v>
@@ -26423,7 +26429,7 @@
         <v>324</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>284</v>
@@ -26443,7 +26449,7 @@
         <v>325</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>316</v>
@@ -26466,7 +26472,7 @@
         <v>326</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>316</v>
@@ -26489,7 +26495,7 @@
         <v>327</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>43</v>
@@ -26498,7 +26504,7 @@
         <v>327</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>284</v>
@@ -26518,7 +26524,7 @@
         <v>328</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>316</v>
@@ -26541,7 +26547,7 @@
         <v>329</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>45</v>
@@ -26550,7 +26556,7 @@
         <v>329</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>284</v>
@@ -26570,7 +26576,7 @@
         <v>330</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>316</v>
@@ -26593,7 +26599,7 @@
         <v>331</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>316</v>
@@ -26616,7 +26622,7 @@
         <v>332</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>48</v>
@@ -26625,7 +26631,7 @@
         <v>332</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>284</v>
@@ -26645,7 +26651,7 @@
         <v>333</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>49</v>
@@ -26654,7 +26660,7 @@
         <v>333</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>284</v>
@@ -26674,7 +26680,7 @@
         <v>334</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>50</v>
@@ -26683,7 +26689,7 @@
         <v>334</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>284</v>
@@ -26703,7 +26709,7 @@
         <v>335</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>51</v>
@@ -26712,7 +26718,7 @@
         <v>335</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>284</v>
@@ -26732,7 +26738,7 @@
         <v>336</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>316</v>
@@ -26755,7 +26761,7 @@
         <v>338</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>53</v>
@@ -26764,7 +26770,7 @@
         <v>338</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>284</v>
@@ -26784,7 +26790,7 @@
         <v>340</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>316</v>
@@ -26807,7 +26813,7 @@
         <v>341</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>55</v>
@@ -26816,7 +26822,7 @@
         <v>341</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>284</v>
@@ -26833,19 +26839,19 @@
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>280</v>
@@ -26859,19 +26865,19 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>280</v>
@@ -26885,19 +26891,19 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>280</v>
@@ -26911,19 +26917,19 @@
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>280</v>
@@ -26937,19 +26943,19 @@
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>280</v>
@@ -26963,19 +26969,19 @@
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>280</v>
@@ -26989,19 +26995,19 @@
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>280</v>
@@ -27015,19 +27021,19 @@
         <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>280</v>
@@ -27041,19 +27047,19 @@
         <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>280</v>
@@ -27067,19 +27073,19 @@
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>280</v>
@@ -27093,19 +27099,19 @@
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>280</v>
@@ -27119,19 +27125,19 @@
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>280</v>
@@ -27148,7 +27154,7 @@
         <v>353</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>316</v>
@@ -27171,7 +27177,7 @@
         <v>355</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>316</v>
@@ -27194,7 +27200,7 @@
         <v>356</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>316</v>
@@ -27217,7 +27223,7 @@
         <v>357</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>70</v>
@@ -27226,7 +27232,7 @@
         <v>357</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>284</v>
@@ -27243,19 +27249,19 @@
         <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>280</v>
@@ -27269,19 +27275,19 @@
         <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>280</v>
@@ -27295,19 +27301,19 @@
         <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>280</v>
@@ -27321,19 +27327,19 @@
         <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>280</v>
@@ -27347,19 +27353,19 @@
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>280</v>
@@ -27373,19 +27379,19 @@
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>280</v>
@@ -27399,19 +27405,19 @@
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>280</v>
@@ -27425,19 +27431,19 @@
         <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>280</v>
@@ -27454,7 +27460,7 @@
         <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>80</v>
@@ -27463,7 +27469,7 @@
         <v>368</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>284</v>
@@ -27483,7 +27489,7 @@
         <v>370</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>81</v>
@@ -27492,7 +27498,7 @@
         <v>370</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>284</v>
@@ -27509,19 +27515,19 @@
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>280</v>
@@ -27529,25 +27535,25 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>280</v>
@@ -27555,25 +27561,25 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>280</v>
@@ -27581,25 +27587,25 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>280</v>
@@ -27607,25 +27613,25 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>280</v>
@@ -27633,25 +27639,25 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>280</v>
@@ -27659,25 +27665,25 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>280</v>
@@ -27685,167 +27691,170 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>547</v>
+        <v>379</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>547</v>
+        <v>379</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>284</v>
@@ -27856,25 +27865,25 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>284</v>
@@ -27885,25 +27894,25 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>284</v>
@@ -27914,25 +27923,25 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>284</v>
@@ -27943,54 +27952,54 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>284</v>
@@ -28001,54 +28010,51 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>393</v>
+        <v>548</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>393</v>
+        <v>548</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>280</v>
@@ -28056,25 +28062,25 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>280</v>
@@ -28082,25 +28088,25 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>280</v>
@@ -28108,25 +28114,25 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>280</v>
@@ -28134,25 +28140,25 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>280</v>
@@ -28160,25 +28166,25 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>280</v>
@@ -31300,102 +31306,102 @@
     <hyperlink ref="C80" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf" r:id="rId291"/>
     <hyperlink ref="E80" display="work_in_progress.md" r:id="rId292"/>
     <hyperlink ref="F80" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf" r:id="rId293"/>
-    <hyperlink ref="A81" display="containers_welcome.md" r:id="rId294"/>
-    <hyperlink ref="C81" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId295"/>
-    <hyperlink ref="E81" display="containers_welcome.md" r:id="rId296"/>
-    <hyperlink ref="F81" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId297"/>
-    <hyperlink ref="A82" display="EULA.md" r:id="rId298"/>
-    <hyperlink ref="C82" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId299"/>
-    <hyperlink ref="E82" display="EULA.md" r:id="rId300"/>
-    <hyperlink ref="F82" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId301"/>
-    <hyperlink ref="A83" display="azure_setup.md" r:id="rId302"/>
-    <hyperlink ref="C83" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-tw.xlf" r:id="rId303"/>
-    <hyperlink ref="E83" display="azure_setup.md" r:id="rId304"/>
-    <hyperlink ref="F83" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-tw.xlf" r:id="rId305"/>
-    <hyperlink ref="A84" display="container_setup.md" r:id="rId306"/>
-    <hyperlink ref="C84" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-tw.xlf" r:id="rId307"/>
-    <hyperlink ref="E84" display="container_setup.md" r:id="rId308"/>
-    <hyperlink ref="F84" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-tw.xlf" r:id="rId309"/>
-    <hyperlink ref="A85" display="inplace_setup.md" r:id="rId310"/>
-    <hyperlink ref="C85" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-tw.xlf" r:id="rId311"/>
-    <hyperlink ref="E85" display="inplace_setup.md" r:id="rId312"/>
-    <hyperlink ref="F85" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-tw.xlf" r:id="rId313"/>
-    <hyperlink ref="A86" display="manage_docker.md" r:id="rId314"/>
-    <hyperlink ref="C86" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-tw.xlf" r:id="rId315"/>
-    <hyperlink ref="E86" display="manage_docker.md" r:id="rId316"/>
-    <hyperlink ref="F86" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-tw.xlf" r:id="rId317"/>
-    <hyperlink ref="A87" display="manage_powershell.md" r:id="rId318"/>
-    <hyperlink ref="C87" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId319"/>
-    <hyperlink ref="E87" display="manage_powershell.md" r:id="rId320"/>
-    <hyperlink ref="F87" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId321"/>
-    <hyperlink ref="A88" display="cmd.png" r:id="rId322"/>
-    <hyperlink ref="C88" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId323"/>
-    <hyperlink ref="E88" display="cmd.png" r:id="rId324"/>
-    <hyperlink ref="F88" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId325"/>
-    <hyperlink ref="A89" display="containerhost2.png" r:id="rId326"/>
-    <hyperlink ref="C89" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId327"/>
-    <hyperlink ref="E89" display="containerhost2.png" r:id="rId328"/>
-    <hyperlink ref="F89" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId329"/>
-    <hyperlink ref="A90" display="docker1.png" r:id="rId330"/>
-    <hyperlink ref="C90" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId331"/>
-    <hyperlink ref="E90" display="docker1.png" r:id="rId332"/>
-    <hyperlink ref="F90" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId333"/>
-    <hyperlink ref="A91" display="hello.png" r:id="rId334"/>
-    <hyperlink ref="C91" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId335"/>
-    <hyperlink ref="E91" display="hello.png" r:id="rId336"/>
-    <hyperlink ref="F91" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId337"/>
-    <hyperlink ref="A92" display="newazure1.png" r:id="rId338"/>
-    <hyperlink ref="C92" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId339"/>
-    <hyperlink ref="E92" display="newazure1.png" r:id="rId340"/>
-    <hyperlink ref="F92" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId341"/>
-    <hyperlink ref="A93" display="newazure2.png" r:id="rId342"/>
-    <hyperlink ref="C93" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId343"/>
-    <hyperlink ref="E93" display="newazure2.png" r:id="rId344"/>
-    <hyperlink ref="F93" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId345"/>
-    <hyperlink ref="A94" display="newazure3.png" r:id="rId346"/>
-    <hyperlink ref="C94" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId347"/>
-    <hyperlink ref="E94" display="newazure3.png" r:id="rId348"/>
-    <hyperlink ref="F94" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId349"/>
-    <hyperlink ref="A95" display="newazure6.png" r:id="rId350"/>
-    <hyperlink ref="C95" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId351"/>
-    <hyperlink ref="E95" display="newazure6.png" r:id="rId352"/>
-    <hyperlink ref="F95" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId353"/>
-    <hyperlink ref="A96" display="newazure7.png" r:id="rId354"/>
-    <hyperlink ref="C96" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId355"/>
-    <hyperlink ref="E96" display="newazure7.png" r:id="rId356"/>
-    <hyperlink ref="F96" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId357"/>
-    <hyperlink ref="A97" display="newazure9.png" r:id="rId358"/>
-    <hyperlink ref="C97" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId359"/>
-    <hyperlink ref="E97" display="newazure9.png" r:id="rId360"/>
-    <hyperlink ref="F97" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId361"/>
-    <hyperlink ref="A98" display="nginx.png" r:id="rId362"/>
-    <hyperlink ref="C98" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId363"/>
-    <hyperlink ref="E98" display="nginx.png" r:id="rId364"/>
-    <hyperlink ref="F98" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId365"/>
-    <hyperlink ref="A99" display="quickstart.md" r:id="rId366"/>
-    <hyperlink ref="C99" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId367"/>
-    <hyperlink ref="E99" display="quickstart.md" r:id="rId368"/>
-    <hyperlink ref="F99" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId369"/>
-    <hyperlink ref="A100" display="app_compat.md" r:id="rId370"/>
-    <hyperlink ref="C100" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-tw.xlf" r:id="rId371"/>
-    <hyperlink ref="E100" display="app_compat.md" r:id="rId372"/>
-    <hyperlink ref="F100" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-tw.xlf" r:id="rId373"/>
-    <hyperlink ref="A101" display="powershell_overview.md" r:id="rId374"/>
-    <hyperlink ref="C101" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-tw.xlf" r:id="rId375"/>
-    <hyperlink ref="E101" display="powershell_overview.md" r:id="rId376"/>
-    <hyperlink ref="F101" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-tw.xlf" r:id="rId377"/>
-    <hyperlink ref="A102" display="ps_docker_comparison.md" r:id="rId378"/>
-    <hyperlink ref="C102" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-tw.xlf" r:id="rId379"/>
-    <hyperlink ref="E102" display="ps_docker_comparison.md" r:id="rId380"/>
-    <hyperlink ref="F102" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-tw.xlf" r:id="rId381"/>
-    <hyperlink ref="A103" display="TOC.md" r:id="rId382"/>
-    <hyperlink ref="C103" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf" r:id="rId383"/>
-    <hyperlink ref="E103" display="TOC.md" r:id="rId384"/>
-    <hyperlink ref="F103" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf" r:id="rId385"/>
-    <hyperlink ref="A104" display="windows_welcome1.md" r:id="rId386"/>
-    <hyperlink ref="C104" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf" r:id="rId387"/>
-    <hyperlink ref="E104" display="windows_welcome1.md" r:id="rId388"/>
-    <hyperlink ref="F104" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf" r:id="rId389"/>
+    <hyperlink ref="A81" display="EULA.md" r:id="rId294"/>
+    <hyperlink ref="C81" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId295"/>
+    <hyperlink ref="E81" display="EULA.md" r:id="rId296"/>
+    <hyperlink ref="F81" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId297"/>
+    <hyperlink ref="A82" display="azure_setup.md" r:id="rId298"/>
+    <hyperlink ref="C82" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-tw.xlf" r:id="rId299"/>
+    <hyperlink ref="E82" display="azure_setup.md" r:id="rId300"/>
+    <hyperlink ref="F82" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-tw.xlf" r:id="rId301"/>
+    <hyperlink ref="A83" display="container_setup.md" r:id="rId302"/>
+    <hyperlink ref="C83" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-tw.xlf" r:id="rId303"/>
+    <hyperlink ref="E83" display="container_setup.md" r:id="rId304"/>
+    <hyperlink ref="F83" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-tw.xlf" r:id="rId305"/>
+    <hyperlink ref="A84" display="inplace_setup.md" r:id="rId306"/>
+    <hyperlink ref="C84" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-tw.xlf" r:id="rId307"/>
+    <hyperlink ref="E84" display="inplace_setup.md" r:id="rId308"/>
+    <hyperlink ref="F84" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-tw.xlf" r:id="rId309"/>
+    <hyperlink ref="A85" display="manage_docker.md" r:id="rId310"/>
+    <hyperlink ref="C85" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-tw.xlf" r:id="rId311"/>
+    <hyperlink ref="E85" display="manage_docker.md" r:id="rId312"/>
+    <hyperlink ref="F85" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-tw.xlf" r:id="rId313"/>
+    <hyperlink ref="A86" display="manage_powershell.md" r:id="rId314"/>
+    <hyperlink ref="C86" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId315"/>
+    <hyperlink ref="E86" display="manage_powershell.md" r:id="rId316"/>
+    <hyperlink ref="F86" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId317"/>
+    <hyperlink ref="A87" display="cmd.png" r:id="rId318"/>
+    <hyperlink ref="C87" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId319"/>
+    <hyperlink ref="E87" display="cmd.png" r:id="rId320"/>
+    <hyperlink ref="F87" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId321"/>
+    <hyperlink ref="A88" display="containerhost2.png" r:id="rId322"/>
+    <hyperlink ref="C88" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId323"/>
+    <hyperlink ref="E88" display="containerhost2.png" r:id="rId324"/>
+    <hyperlink ref="F88" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId325"/>
+    <hyperlink ref="A89" display="docker1.png" r:id="rId326"/>
+    <hyperlink ref="C89" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId327"/>
+    <hyperlink ref="E89" display="docker1.png" r:id="rId328"/>
+    <hyperlink ref="F89" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId329"/>
+    <hyperlink ref="A90" display="hello.png" r:id="rId330"/>
+    <hyperlink ref="C90" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId331"/>
+    <hyperlink ref="E90" display="hello.png" r:id="rId332"/>
+    <hyperlink ref="F90" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId333"/>
+    <hyperlink ref="A91" display="newazure1.png" r:id="rId334"/>
+    <hyperlink ref="C91" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId335"/>
+    <hyperlink ref="E91" display="newazure1.png" r:id="rId336"/>
+    <hyperlink ref="F91" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId337"/>
+    <hyperlink ref="A92" display="newazure2.png" r:id="rId338"/>
+    <hyperlink ref="C92" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId339"/>
+    <hyperlink ref="E92" display="newazure2.png" r:id="rId340"/>
+    <hyperlink ref="F92" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId341"/>
+    <hyperlink ref="A93" display="newazure3.png" r:id="rId342"/>
+    <hyperlink ref="C93" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId343"/>
+    <hyperlink ref="E93" display="newazure3.png" r:id="rId344"/>
+    <hyperlink ref="F93" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId345"/>
+    <hyperlink ref="A94" display="newazure6.png" r:id="rId346"/>
+    <hyperlink ref="C94" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId347"/>
+    <hyperlink ref="E94" display="newazure6.png" r:id="rId348"/>
+    <hyperlink ref="F94" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId349"/>
+    <hyperlink ref="A95" display="newazure7.png" r:id="rId350"/>
+    <hyperlink ref="C95" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId351"/>
+    <hyperlink ref="E95" display="newazure7.png" r:id="rId352"/>
+    <hyperlink ref="F95" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId353"/>
+    <hyperlink ref="A96" display="newazure9.png" r:id="rId354"/>
+    <hyperlink ref="C96" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId355"/>
+    <hyperlink ref="E96" display="newazure9.png" r:id="rId356"/>
+    <hyperlink ref="F96" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId357"/>
+    <hyperlink ref="A97" display="nginx.png" r:id="rId358"/>
+    <hyperlink ref="C97" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId359"/>
+    <hyperlink ref="E97" display="nginx.png" r:id="rId360"/>
+    <hyperlink ref="F97" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId361"/>
+    <hyperlink ref="A98" display="quickstart.md" r:id="rId362"/>
+    <hyperlink ref="C98" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId363"/>
+    <hyperlink ref="E98" display="quickstart.md" r:id="rId364"/>
+    <hyperlink ref="F98" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId365"/>
+    <hyperlink ref="A99" display="app_compat.md" r:id="rId366"/>
+    <hyperlink ref="C99" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-tw.xlf" r:id="rId367"/>
+    <hyperlink ref="E99" display="app_compat.md" r:id="rId368"/>
+    <hyperlink ref="F99" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-tw.xlf" r:id="rId369"/>
+    <hyperlink ref="A100" display="powershell_overview.md" r:id="rId370"/>
+    <hyperlink ref="C100" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-tw.xlf" r:id="rId371"/>
+    <hyperlink ref="E100" display="powershell_overview.md" r:id="rId372"/>
+    <hyperlink ref="F100" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-tw.xlf" r:id="rId373"/>
+    <hyperlink ref="A101" display="ps_docker_comparison.md" r:id="rId374"/>
+    <hyperlink ref="C101" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-tw.xlf" r:id="rId375"/>
+    <hyperlink ref="E101" display="ps_docker_comparison.md" r:id="rId376"/>
+    <hyperlink ref="F101" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-tw.xlf" r:id="rId377"/>
+    <hyperlink ref="A102" display="TOC.md" r:id="rId378"/>
+    <hyperlink ref="C102" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf" r:id="rId379"/>
+    <hyperlink ref="E102" display="TOC.md" r:id="rId380"/>
+    <hyperlink ref="F102" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf" r:id="rId381"/>
+    <hyperlink ref="A103" display="windows_welcome1.md" r:id="rId382"/>
+    <hyperlink ref="C103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf" r:id="rId383"/>
+    <hyperlink ref="E103" display="windows_welcome1.md" r:id="rId384"/>
+    <hyperlink ref="F103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf" r:id="rId385"/>
+    <hyperlink ref="A104" display="containers_welcome.md" r:id="rId386"/>
+    <hyperlink ref="C104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId387"/>
+    <hyperlink ref="E104" display="containers_welcome.md" r:id="rId388"/>
+    <hyperlink ref="F104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId389"/>
     <hyperlink ref="A105" display=".gitignore" r:id="rId390"/>
     <hyperlink ref="A106" display=".localization-config" r:id="rId391"/>
     <hyperlink ref="A107" display="localization.json" r:id="rId392"/>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -246,6 +246,12 @@
     <t>vmsession.md</t>
   </si>
   <si>
+    <t>windows_welcome1.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>container_ecosystem.md</t>
   </si>
   <si>
@@ -330,16 +336,10 @@
     <t>Handback transform failed</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>whats_new.md</t>
   </si>
   <si>
     <t>about_overview.md</t>
-  </si>
-  <si>
-    <t>windows_welcome1.md</t>
   </si>
   <si>
     <t>containers_welcome.md</t>
@@ -1110,6 +1110,15 @@
     <t>vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf</t>
   </si>
   <si>
+    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 09:29:29</t>
+  </si>
+  <si>
+    <t>2016-01-11 09:43:30</t>
+  </si>
+  <si>
     <t>container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf</t>
   </si>
   <si>
@@ -1217,15 +1226,6 @@
   </si>
   <si>
     <t>2016-01-08 13:50:01</t>
-  </si>
-  <si>
-    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 09:29:29</t>
-  </si>
-  <si>
-    <t>2016-01-11 08:33:53</t>
   </si>
   <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
@@ -3062,18 +3062,18 @@
         <v>6</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
@@ -3515,13 +3515,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>6</v>
@@ -3532,13 +3532,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="C100" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>6</v>
@@ -3552,10 +3552,10 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>6</v>
@@ -3566,13 +3566,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>6</v>
@@ -3583,19 +3583,19 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
@@ -3603,16 +3603,16 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
@@ -6509,38 +6509,38 @@
     <hyperlink ref="A69" display="troubleshooting.md" r:id="rId69"/>
     <hyperlink ref="A70" display="user_guide_nav.md" r:id="rId70"/>
     <hyperlink ref="A71" display="vmsession.md" r:id="rId71"/>
-    <hyperlink ref="A72" display="container_ecosystem.md" r:id="rId72"/>
-    <hyperlink ref="A73" display="faq.md" r:id="rId73"/>
-    <hyperlink ref="A74" display="containerEcosystem.png" r:id="rId74"/>
-    <hyperlink ref="A75" display="containerfund.png" r:id="rId75"/>
-    <hyperlink ref="A76" display="work_in_progress.md" r:id="rId76"/>
-    <hyperlink ref="A77" display="EULA.md" r:id="rId77"/>
-    <hyperlink ref="A78" display="azure_setup.md" r:id="rId78"/>
-    <hyperlink ref="A79" display="container_setup.md" r:id="rId79"/>
-    <hyperlink ref="A80" display="inplace_setup.md" r:id="rId80"/>
-    <hyperlink ref="A81" display="manage_docker.md" r:id="rId81"/>
-    <hyperlink ref="A82" display="manage_powershell.md" r:id="rId82"/>
-    <hyperlink ref="A83" display="cmd.png" r:id="rId83"/>
-    <hyperlink ref="A84" display="containerhost2.png" r:id="rId84"/>
-    <hyperlink ref="A85" display="docker1.png" r:id="rId85"/>
-    <hyperlink ref="A86" display="hello.png" r:id="rId86"/>
-    <hyperlink ref="A87" display="newazure1.png" r:id="rId87"/>
-    <hyperlink ref="A88" display="newazure2.png" r:id="rId88"/>
-    <hyperlink ref="A89" display="newazure3.png" r:id="rId89"/>
-    <hyperlink ref="A90" display="newazure6.png" r:id="rId90"/>
-    <hyperlink ref="A91" display="newazure7.png" r:id="rId91"/>
-    <hyperlink ref="A92" display="newazure9.png" r:id="rId92"/>
-    <hyperlink ref="A93" display="nginx.png" r:id="rId93"/>
-    <hyperlink ref="A94" display="quickstart.md" r:id="rId94"/>
-    <hyperlink ref="A95" display="app_compat.md" r:id="rId95"/>
-    <hyperlink ref="A96" display="powershell_overview.md" r:id="rId96"/>
-    <hyperlink ref="A97" display="ps_docker_comparison.md" r:id="rId97"/>
-    <hyperlink ref="A98" display="TOC.md" r:id="rId98"/>
-    <hyperlink ref="A99" display="supported_guest_os.md" r:id="rId99"/>
-    <hyperlink ref="A100" display="whats_new.md" r:id="rId100"/>
-    <hyperlink ref="A101" display="about_overview.md" r:id="rId101"/>
-    <hyperlink ref="A102" display="TOC.md" r:id="rId102"/>
-    <hyperlink ref="A103" display="windows_welcome1.md" r:id="rId103"/>
+    <hyperlink ref="A72" display="windows_welcome1.md" r:id="rId72"/>
+    <hyperlink ref="A73" display="container_ecosystem.md" r:id="rId73"/>
+    <hyperlink ref="A74" display="faq.md" r:id="rId74"/>
+    <hyperlink ref="A75" display="containerEcosystem.png" r:id="rId75"/>
+    <hyperlink ref="A76" display="containerfund.png" r:id="rId76"/>
+    <hyperlink ref="A77" display="work_in_progress.md" r:id="rId77"/>
+    <hyperlink ref="A78" display="EULA.md" r:id="rId78"/>
+    <hyperlink ref="A79" display="azure_setup.md" r:id="rId79"/>
+    <hyperlink ref="A80" display="container_setup.md" r:id="rId80"/>
+    <hyperlink ref="A81" display="inplace_setup.md" r:id="rId81"/>
+    <hyperlink ref="A82" display="manage_docker.md" r:id="rId82"/>
+    <hyperlink ref="A83" display="manage_powershell.md" r:id="rId83"/>
+    <hyperlink ref="A84" display="cmd.png" r:id="rId84"/>
+    <hyperlink ref="A85" display="containerhost2.png" r:id="rId85"/>
+    <hyperlink ref="A86" display="docker1.png" r:id="rId86"/>
+    <hyperlink ref="A87" display="hello.png" r:id="rId87"/>
+    <hyperlink ref="A88" display="newazure1.png" r:id="rId88"/>
+    <hyperlink ref="A89" display="newazure2.png" r:id="rId89"/>
+    <hyperlink ref="A90" display="newazure3.png" r:id="rId90"/>
+    <hyperlink ref="A91" display="newazure6.png" r:id="rId91"/>
+    <hyperlink ref="A92" display="newazure7.png" r:id="rId92"/>
+    <hyperlink ref="A93" display="newazure9.png" r:id="rId93"/>
+    <hyperlink ref="A94" display="nginx.png" r:id="rId94"/>
+    <hyperlink ref="A95" display="quickstart.md" r:id="rId95"/>
+    <hyperlink ref="A96" display="app_compat.md" r:id="rId96"/>
+    <hyperlink ref="A97" display="powershell_overview.md" r:id="rId97"/>
+    <hyperlink ref="A98" display="ps_docker_comparison.md" r:id="rId98"/>
+    <hyperlink ref="A99" display="TOC.md" r:id="rId99"/>
+    <hyperlink ref="A100" display="supported_guest_os.md" r:id="rId100"/>
+    <hyperlink ref="A101" display="whats_new.md" r:id="rId101"/>
+    <hyperlink ref="A102" display="about_overview.md" r:id="rId102"/>
+    <hyperlink ref="A103" display="TOC.md" r:id="rId103"/>
     <hyperlink ref="A104" display="containers_welcome.md" r:id="rId104"/>
     <hyperlink ref="A105" display=".gitignore" r:id="rId105"/>
     <hyperlink ref="A106" display=".localization-config" r:id="rId106"/>
@@ -8670,7 +8670,7 @@
         <v>363</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>76</v>
@@ -8679,7 +8679,7 @@
         <v>363</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>280</v>
@@ -8687,22 +8687,22 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>279</v>
@@ -8713,51 +8713,48 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>279</v>
@@ -8766,53 +8763,56 @@
         <v>284</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>279</v>
@@ -8823,22 +8823,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>279</v>
@@ -8849,22 +8849,22 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>279</v>
@@ -8875,22 +8875,22 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>279</v>
@@ -8901,22 +8901,22 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>279</v>
@@ -8927,22 +8927,22 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>279</v>
@@ -8953,51 +8953,48 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>279</v>
@@ -9006,27 +9003,27 @@
         <v>284</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>279</v>
@@ -9035,27 +9032,27 @@
         <v>284</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>279</v>
@@ -9064,27 +9061,27 @@
         <v>284</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>279</v>
@@ -9093,27 +9090,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>279</v>
@@ -9122,27 +9119,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>279</v>
@@ -9151,27 +9148,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>279</v>
@@ -9180,27 +9177,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>279</v>
@@ -9209,27 +9206,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>279</v>
@@ -9238,27 +9235,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>279</v>
@@ -9267,53 +9264,56 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>279</v>
@@ -9324,22 +9324,22 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>279</v>
@@ -9350,22 +9350,22 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>279</v>
@@ -9376,22 +9376,22 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>279</v>
@@ -9402,28 +9402,37 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>103</v>
+        <v>6</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>316</v>
+        <v>278</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>396</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="D100" s="2" t="s">
         <v>316</v>
       </c>
@@ -9431,7 +9440,7 @@
         <v>316</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101">
@@ -9439,7 +9448,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>316</v>
@@ -9448,56 +9457,47 @@
         <v>316</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>397</v>
+        <v>105</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="G103" s="0" t="s">
-        <v>401</v>
+        <v>279</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>280</v>
@@ -9508,7 +9508,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>402</v>
@@ -9543,7 +9543,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -9560,7 +9560,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -9577,7 +9577,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -9594,7 +9594,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -9611,7 +9611,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -9628,7 +9628,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -9645,7 +9645,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -9662,7 +9662,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -9679,7 +9679,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -9696,7 +9696,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -9713,7 +9713,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -9730,7 +9730,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -9747,7 +9747,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -9764,7 +9764,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -9781,7 +9781,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -9798,7 +9798,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -9815,7 +9815,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -9832,7 +9832,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -9849,7 +9849,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -9866,7 +9866,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -9883,7 +9883,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -9900,7 +9900,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -9917,7 +9917,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -9934,7 +9934,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -9951,7 +9951,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -9968,7 +9968,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -9985,7 +9985,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -10002,7 +10002,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -10019,7 +10019,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -10036,7 +10036,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -10053,7 +10053,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -10070,7 +10070,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -10087,7 +10087,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -10104,7 +10104,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -10121,7 +10121,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -10138,7 +10138,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -10155,7 +10155,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -10172,7 +10172,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -10189,7 +10189,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -10206,7 +10206,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -10223,7 +10223,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -10240,7 +10240,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -10257,7 +10257,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -10274,7 +10274,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -10291,7 +10291,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -10308,7 +10308,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -10325,7 +10325,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -10342,7 +10342,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -10359,7 +10359,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -10376,7 +10376,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -10393,7 +10393,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -10410,7 +10410,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -10427,7 +10427,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -10444,7 +10444,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -10461,7 +10461,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -10478,7 +10478,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -10495,7 +10495,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -10512,7 +10512,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -10529,7 +10529,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -10546,7 +10546,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -10563,7 +10563,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -10580,7 +10580,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -10597,7 +10597,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -10614,7 +10614,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -10631,7 +10631,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -10648,7 +10648,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -10665,7 +10665,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -10682,7 +10682,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -10699,7 +10699,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -10716,7 +10716,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -10733,7 +10733,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -10750,7 +10750,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -10767,7 +10767,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -10784,7 +10784,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -10801,7 +10801,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -10818,7 +10818,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -10835,7 +10835,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -10852,7 +10852,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -10869,7 +10869,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -10886,7 +10886,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -10903,7 +10903,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -10920,7 +10920,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -10937,7 +10937,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -10954,7 +10954,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -10971,7 +10971,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -10988,7 +10988,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -11005,7 +11005,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -11022,7 +11022,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -11039,7 +11039,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -11056,7 +11056,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -11073,7 +11073,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -11090,7 +11090,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -11107,7 +11107,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -11124,7 +11124,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -11141,7 +11141,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -11158,7 +11158,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -11175,7 +11175,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -11192,7 +11192,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -11209,7 +11209,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -11226,7 +11226,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -11243,7 +11243,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -11260,7 +11260,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -11277,7 +11277,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -11294,7 +11294,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -11311,7 +11311,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -11328,7 +11328,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -11345,7 +11345,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -11362,7 +11362,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -11379,7 +11379,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -11396,7 +11396,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -11413,7 +11413,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -11430,7 +11430,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -11447,7 +11447,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -11464,7 +11464,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -11481,7 +11481,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -11498,7 +11498,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -11515,7 +11515,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -11532,7 +11532,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -11549,7 +11549,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -11566,7 +11566,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -11583,7 +11583,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -11600,7 +11600,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -11617,7 +11617,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -11634,7 +11634,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -11651,7 +11651,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -11668,7 +11668,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -11685,7 +11685,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -11702,7 +11702,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -11719,7 +11719,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -11736,7 +11736,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -11753,7 +11753,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -11770,7 +11770,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -11787,7 +11787,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -11804,7 +11804,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -11821,7 +11821,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -11838,7 +11838,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -11855,7 +11855,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -11872,7 +11872,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -11889,7 +11889,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -11906,7 +11906,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -11923,7 +11923,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -11940,7 +11940,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -11957,7 +11957,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -11974,7 +11974,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -11991,7 +11991,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -12008,7 +12008,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -12025,7 +12025,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -12042,7 +12042,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -12059,7 +12059,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -12076,7 +12076,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -12093,7 +12093,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -12110,7 +12110,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -12127,7 +12127,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -12144,7 +12144,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -12161,7 +12161,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -12178,7 +12178,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -12195,7 +12195,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -12212,7 +12212,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -12229,7 +12229,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -12246,7 +12246,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -12263,7 +12263,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -12280,7 +12280,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -12297,7 +12297,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -12314,7 +12314,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -12331,7 +12331,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -12348,7 +12348,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -12609,125 +12609,125 @@
     <hyperlink ref="C71" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId255"/>
     <hyperlink ref="E71" display="vmsession.md" r:id="rId256"/>
     <hyperlink ref="F71" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId257"/>
-    <hyperlink ref="A72" display="container_ecosystem.md" r:id="rId258"/>
-    <hyperlink ref="C72" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId259"/>
-    <hyperlink ref="E72" display="container_ecosystem.md" r:id="rId260"/>
-    <hyperlink ref="F72" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId261"/>
-    <hyperlink ref="A73" display="faq.md" r:id="rId262"/>
-    <hyperlink ref="C73" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId263"/>
-    <hyperlink ref="E73" display="faq.md" r:id="rId264"/>
-    <hyperlink ref="F73" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId265"/>
-    <hyperlink ref="A74" display="containerEcosystem.png" r:id="rId266"/>
-    <hyperlink ref="C74" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId267"/>
-    <hyperlink ref="E74" display="containerEcosystem.png" r:id="rId268"/>
-    <hyperlink ref="F74" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId269"/>
-    <hyperlink ref="A75" display="containerfund.png" r:id="rId270"/>
-    <hyperlink ref="C75" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId271"/>
-    <hyperlink ref="E75" display="containerfund.png" r:id="rId272"/>
-    <hyperlink ref="F75" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId273"/>
-    <hyperlink ref="A76" display="work_in_progress.md" r:id="rId274"/>
-    <hyperlink ref="C76" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId275"/>
-    <hyperlink ref="E76" display="work_in_progress.md" r:id="rId276"/>
-    <hyperlink ref="F76" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId277"/>
-    <hyperlink ref="A77" display="EULA.md" r:id="rId278"/>
-    <hyperlink ref="C77" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId279"/>
-    <hyperlink ref="E77" display="EULA.md" r:id="rId280"/>
-    <hyperlink ref="F77" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId281"/>
-    <hyperlink ref="A78" display="azure_setup.md" r:id="rId282"/>
-    <hyperlink ref="C78" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId283"/>
-    <hyperlink ref="E78" display="azure_setup.md" r:id="rId284"/>
-    <hyperlink ref="F78" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId285"/>
-    <hyperlink ref="A79" display="container_setup.md" r:id="rId286"/>
-    <hyperlink ref="C79" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId287"/>
-    <hyperlink ref="E79" display="container_setup.md" r:id="rId288"/>
-    <hyperlink ref="F79" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId289"/>
-    <hyperlink ref="A80" display="inplace_setup.md" r:id="rId290"/>
-    <hyperlink ref="C80" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId291"/>
-    <hyperlink ref="E80" display="inplace_setup.md" r:id="rId292"/>
-    <hyperlink ref="F80" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId293"/>
-    <hyperlink ref="A81" display="manage_docker.md" r:id="rId294"/>
-    <hyperlink ref="C81" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId295"/>
-    <hyperlink ref="E81" display="manage_docker.md" r:id="rId296"/>
-    <hyperlink ref="F81" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId297"/>
-    <hyperlink ref="A82" display="manage_powershell.md" r:id="rId298"/>
-    <hyperlink ref="C82" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId299"/>
-    <hyperlink ref="E82" display="manage_powershell.md" r:id="rId300"/>
-    <hyperlink ref="F82" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId301"/>
-    <hyperlink ref="A83" display="cmd.png" r:id="rId302"/>
-    <hyperlink ref="C83" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId303"/>
-    <hyperlink ref="E83" display="cmd.png" r:id="rId304"/>
-    <hyperlink ref="F83" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId305"/>
-    <hyperlink ref="A84" display="containerhost2.png" r:id="rId306"/>
-    <hyperlink ref="C84" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId307"/>
-    <hyperlink ref="E84" display="containerhost2.png" r:id="rId308"/>
-    <hyperlink ref="F84" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId309"/>
-    <hyperlink ref="A85" display="docker1.png" r:id="rId310"/>
-    <hyperlink ref="C85" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId311"/>
-    <hyperlink ref="E85" display="docker1.png" r:id="rId312"/>
-    <hyperlink ref="F85" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId313"/>
-    <hyperlink ref="A86" display="hello.png" r:id="rId314"/>
-    <hyperlink ref="C86" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId315"/>
-    <hyperlink ref="E86" display="hello.png" r:id="rId316"/>
-    <hyperlink ref="F86" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId317"/>
-    <hyperlink ref="A87" display="newazure1.png" r:id="rId318"/>
-    <hyperlink ref="C87" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId319"/>
-    <hyperlink ref="E87" display="newazure1.png" r:id="rId320"/>
-    <hyperlink ref="F87" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId321"/>
-    <hyperlink ref="A88" display="newazure2.png" r:id="rId322"/>
-    <hyperlink ref="C88" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId323"/>
-    <hyperlink ref="E88" display="newazure2.png" r:id="rId324"/>
-    <hyperlink ref="F88" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId325"/>
-    <hyperlink ref="A89" display="newazure3.png" r:id="rId326"/>
-    <hyperlink ref="C89" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId327"/>
-    <hyperlink ref="E89" display="newazure3.png" r:id="rId328"/>
-    <hyperlink ref="F89" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId329"/>
-    <hyperlink ref="A90" display="newazure6.png" r:id="rId330"/>
-    <hyperlink ref="C90" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId331"/>
-    <hyperlink ref="E90" display="newazure6.png" r:id="rId332"/>
-    <hyperlink ref="F90" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId333"/>
-    <hyperlink ref="A91" display="newazure7.png" r:id="rId334"/>
-    <hyperlink ref="C91" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId335"/>
-    <hyperlink ref="E91" display="newazure7.png" r:id="rId336"/>
-    <hyperlink ref="F91" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId337"/>
-    <hyperlink ref="A92" display="newazure9.png" r:id="rId338"/>
-    <hyperlink ref="C92" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId339"/>
-    <hyperlink ref="E92" display="newazure9.png" r:id="rId340"/>
-    <hyperlink ref="F92" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId341"/>
-    <hyperlink ref="A93" display="nginx.png" r:id="rId342"/>
-    <hyperlink ref="C93" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId343"/>
-    <hyperlink ref="E93" display="nginx.png" r:id="rId344"/>
-    <hyperlink ref="F93" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId345"/>
-    <hyperlink ref="A94" display="quickstart.md" r:id="rId346"/>
-    <hyperlink ref="C94" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId347"/>
-    <hyperlink ref="E94" display="quickstart.md" r:id="rId348"/>
-    <hyperlink ref="F94" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId349"/>
-    <hyperlink ref="A95" display="app_compat.md" r:id="rId350"/>
-    <hyperlink ref="C95" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId351"/>
-    <hyperlink ref="E95" display="app_compat.md" r:id="rId352"/>
-    <hyperlink ref="F95" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId353"/>
-    <hyperlink ref="A96" display="powershell_overview.md" r:id="rId354"/>
-    <hyperlink ref="C96" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId355"/>
-    <hyperlink ref="E96" display="powershell_overview.md" r:id="rId356"/>
-    <hyperlink ref="F96" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId357"/>
-    <hyperlink ref="A97" display="ps_docker_comparison.md" r:id="rId358"/>
-    <hyperlink ref="C97" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId359"/>
-    <hyperlink ref="E97" display="ps_docker_comparison.md" r:id="rId360"/>
-    <hyperlink ref="F97" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId361"/>
-    <hyperlink ref="A98" display="TOC.md" r:id="rId362"/>
-    <hyperlink ref="C98" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId363"/>
-    <hyperlink ref="E98" display="TOC.md" r:id="rId364"/>
-    <hyperlink ref="F98" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId365"/>
-    <hyperlink ref="A99" display="supported_guest_os.md" r:id="rId366"/>
-    <hyperlink ref="A100" display="whats_new.md" r:id="rId367"/>
-    <hyperlink ref="A101" display="about_overview.md" r:id="rId368"/>
-    <hyperlink ref="A102" display="TOC.md" r:id="rId369"/>
-    <hyperlink ref="C102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId370"/>
-    <hyperlink ref="E102" display="TOC.md" r:id="rId371"/>
-    <hyperlink ref="F102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId372"/>
-    <hyperlink ref="A103" display="windows_welcome1.md" r:id="rId373"/>
-    <hyperlink ref="C103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId374"/>
-    <hyperlink ref="E103" display="windows_welcome1.md" r:id="rId375"/>
-    <hyperlink ref="F103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId376"/>
+    <hyperlink ref="A72" display="windows_welcome1.md" r:id="rId258"/>
+    <hyperlink ref="C72" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId259"/>
+    <hyperlink ref="E72" display="windows_welcome1.md" r:id="rId260"/>
+    <hyperlink ref="F72" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId261"/>
+    <hyperlink ref="A73" display="container_ecosystem.md" r:id="rId262"/>
+    <hyperlink ref="C73" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId263"/>
+    <hyperlink ref="E73" display="container_ecosystem.md" r:id="rId264"/>
+    <hyperlink ref="F73" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId265"/>
+    <hyperlink ref="A74" display="faq.md" r:id="rId266"/>
+    <hyperlink ref="C74" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId267"/>
+    <hyperlink ref="E74" display="faq.md" r:id="rId268"/>
+    <hyperlink ref="F74" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId269"/>
+    <hyperlink ref="A75" display="containerEcosystem.png" r:id="rId270"/>
+    <hyperlink ref="C75" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId271"/>
+    <hyperlink ref="E75" display="containerEcosystem.png" r:id="rId272"/>
+    <hyperlink ref="F75" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId273"/>
+    <hyperlink ref="A76" display="containerfund.png" r:id="rId274"/>
+    <hyperlink ref="C76" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId275"/>
+    <hyperlink ref="E76" display="containerfund.png" r:id="rId276"/>
+    <hyperlink ref="F76" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId277"/>
+    <hyperlink ref="A77" display="work_in_progress.md" r:id="rId278"/>
+    <hyperlink ref="C77" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId279"/>
+    <hyperlink ref="E77" display="work_in_progress.md" r:id="rId280"/>
+    <hyperlink ref="F77" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId281"/>
+    <hyperlink ref="A78" display="EULA.md" r:id="rId282"/>
+    <hyperlink ref="C78" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId283"/>
+    <hyperlink ref="E78" display="EULA.md" r:id="rId284"/>
+    <hyperlink ref="F78" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId285"/>
+    <hyperlink ref="A79" display="azure_setup.md" r:id="rId286"/>
+    <hyperlink ref="C79" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId287"/>
+    <hyperlink ref="E79" display="azure_setup.md" r:id="rId288"/>
+    <hyperlink ref="F79" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId289"/>
+    <hyperlink ref="A80" display="container_setup.md" r:id="rId290"/>
+    <hyperlink ref="C80" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId291"/>
+    <hyperlink ref="E80" display="container_setup.md" r:id="rId292"/>
+    <hyperlink ref="F80" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId293"/>
+    <hyperlink ref="A81" display="inplace_setup.md" r:id="rId294"/>
+    <hyperlink ref="C81" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId295"/>
+    <hyperlink ref="E81" display="inplace_setup.md" r:id="rId296"/>
+    <hyperlink ref="F81" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId297"/>
+    <hyperlink ref="A82" display="manage_docker.md" r:id="rId298"/>
+    <hyperlink ref="C82" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId299"/>
+    <hyperlink ref="E82" display="manage_docker.md" r:id="rId300"/>
+    <hyperlink ref="F82" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId301"/>
+    <hyperlink ref="A83" display="manage_powershell.md" r:id="rId302"/>
+    <hyperlink ref="C83" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId303"/>
+    <hyperlink ref="E83" display="manage_powershell.md" r:id="rId304"/>
+    <hyperlink ref="F83" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId305"/>
+    <hyperlink ref="A84" display="cmd.png" r:id="rId306"/>
+    <hyperlink ref="C84" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId307"/>
+    <hyperlink ref="E84" display="cmd.png" r:id="rId308"/>
+    <hyperlink ref="F84" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId309"/>
+    <hyperlink ref="A85" display="containerhost2.png" r:id="rId310"/>
+    <hyperlink ref="C85" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId311"/>
+    <hyperlink ref="E85" display="containerhost2.png" r:id="rId312"/>
+    <hyperlink ref="F85" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId313"/>
+    <hyperlink ref="A86" display="docker1.png" r:id="rId314"/>
+    <hyperlink ref="C86" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId315"/>
+    <hyperlink ref="E86" display="docker1.png" r:id="rId316"/>
+    <hyperlink ref="F86" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId317"/>
+    <hyperlink ref="A87" display="hello.png" r:id="rId318"/>
+    <hyperlink ref="C87" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId319"/>
+    <hyperlink ref="E87" display="hello.png" r:id="rId320"/>
+    <hyperlink ref="F87" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId321"/>
+    <hyperlink ref="A88" display="newazure1.png" r:id="rId322"/>
+    <hyperlink ref="C88" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId323"/>
+    <hyperlink ref="E88" display="newazure1.png" r:id="rId324"/>
+    <hyperlink ref="F88" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId325"/>
+    <hyperlink ref="A89" display="newazure2.png" r:id="rId326"/>
+    <hyperlink ref="C89" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId327"/>
+    <hyperlink ref="E89" display="newazure2.png" r:id="rId328"/>
+    <hyperlink ref="F89" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId329"/>
+    <hyperlink ref="A90" display="newazure3.png" r:id="rId330"/>
+    <hyperlink ref="C90" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId331"/>
+    <hyperlink ref="E90" display="newazure3.png" r:id="rId332"/>
+    <hyperlink ref="F90" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId333"/>
+    <hyperlink ref="A91" display="newazure6.png" r:id="rId334"/>
+    <hyperlink ref="C91" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId335"/>
+    <hyperlink ref="E91" display="newazure6.png" r:id="rId336"/>
+    <hyperlink ref="F91" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId337"/>
+    <hyperlink ref="A92" display="newazure7.png" r:id="rId338"/>
+    <hyperlink ref="C92" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId339"/>
+    <hyperlink ref="E92" display="newazure7.png" r:id="rId340"/>
+    <hyperlink ref="F92" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId341"/>
+    <hyperlink ref="A93" display="newazure9.png" r:id="rId342"/>
+    <hyperlink ref="C93" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId343"/>
+    <hyperlink ref="E93" display="newazure9.png" r:id="rId344"/>
+    <hyperlink ref="F93" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId345"/>
+    <hyperlink ref="A94" display="nginx.png" r:id="rId346"/>
+    <hyperlink ref="C94" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId347"/>
+    <hyperlink ref="E94" display="nginx.png" r:id="rId348"/>
+    <hyperlink ref="F94" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId349"/>
+    <hyperlink ref="A95" display="quickstart.md" r:id="rId350"/>
+    <hyperlink ref="C95" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId351"/>
+    <hyperlink ref="E95" display="quickstart.md" r:id="rId352"/>
+    <hyperlink ref="F95" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId353"/>
+    <hyperlink ref="A96" display="app_compat.md" r:id="rId354"/>
+    <hyperlink ref="C96" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId355"/>
+    <hyperlink ref="E96" display="app_compat.md" r:id="rId356"/>
+    <hyperlink ref="F96" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId357"/>
+    <hyperlink ref="A97" display="powershell_overview.md" r:id="rId358"/>
+    <hyperlink ref="C97" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId359"/>
+    <hyperlink ref="E97" display="powershell_overview.md" r:id="rId360"/>
+    <hyperlink ref="F97" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId361"/>
+    <hyperlink ref="A98" display="ps_docker_comparison.md" r:id="rId362"/>
+    <hyperlink ref="C98" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId363"/>
+    <hyperlink ref="E98" display="ps_docker_comparison.md" r:id="rId364"/>
+    <hyperlink ref="F98" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId365"/>
+    <hyperlink ref="A99" display="TOC.md" r:id="rId366"/>
+    <hyperlink ref="C99" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId367"/>
+    <hyperlink ref="E99" display="TOC.md" r:id="rId368"/>
+    <hyperlink ref="F99" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId369"/>
+    <hyperlink ref="A100" display="supported_guest_os.md" r:id="rId370"/>
+    <hyperlink ref="A101" display="whats_new.md" r:id="rId371"/>
+    <hyperlink ref="A102" display="about_overview.md" r:id="rId372"/>
+    <hyperlink ref="A103" display="TOC.md" r:id="rId373"/>
+    <hyperlink ref="C103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId374"/>
+    <hyperlink ref="E103" display="TOC.md" r:id="rId375"/>
+    <hyperlink ref="F103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId376"/>
     <hyperlink ref="A104" display="containers_welcome.md" r:id="rId377"/>
     <hyperlink ref="C104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId378"/>
     <hyperlink ref="E104" display="containers_welcome.md" r:id="rId379"/>
@@ -14851,7 +14851,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>6</v>
@@ -14863,7 +14863,7 @@
         <v>408</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>431</v>
@@ -14877,7 +14877,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
@@ -14889,7 +14889,7 @@
         <v>408</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>432</v>
@@ -14903,22 +14903,22 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>409</v>
@@ -14927,27 +14927,27 @@
         <v>284</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>409</v>
@@ -14956,12 +14956,12 @@
         <v>284</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -14973,7 +14973,7 @@
         <v>408</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>433</v>
@@ -14987,7 +14987,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -14999,7 +14999,7 @@
         <v>408</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>434</v>
@@ -15013,7 +15013,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
@@ -15025,7 +15025,7 @@
         <v>436</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>435</v>
@@ -15039,7 +15039,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
@@ -15051,7 +15051,7 @@
         <v>408</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>438</v>
@@ -15065,7 +15065,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -15077,7 +15077,7 @@
         <v>408</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>439</v>
@@ -15091,7 +15091,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -15103,7 +15103,7 @@
         <v>408</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>440</v>
@@ -15117,7 +15117,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -15129,7 +15129,7 @@
         <v>408</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>441</v>
@@ -15143,22 +15143,22 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>409</v>
@@ -15167,27 +15167,27 @@
         <v>284</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>409</v>
@@ -15196,27 +15196,27 @@
         <v>284</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>409</v>
@@ -15225,27 +15225,27 @@
         <v>284</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>409</v>
@@ -15254,27 +15254,27 @@
         <v>284</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>409</v>
@@ -15283,27 +15283,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>409</v>
@@ -15312,27 +15312,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>409</v>
@@ -15341,27 +15341,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>409</v>
@@ -15370,27 +15370,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>409</v>
@@ -15399,27 +15399,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>409</v>
@@ -15428,27 +15428,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>409</v>
@@ -15457,12 +15457,12 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
@@ -15474,7 +15474,7 @@
         <v>408</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>442</v>
@@ -15488,7 +15488,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
@@ -15500,7 +15500,7 @@
         <v>408</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>443</v>
@@ -15514,7 +15514,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
@@ -15526,7 +15526,7 @@
         <v>408</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>444</v>
@@ -15540,7 +15540,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
@@ -15552,7 +15552,7 @@
         <v>408</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>445</v>
@@ -15592,10 +15592,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>447</v>
@@ -15604,7 +15604,7 @@
         <v>448</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>449</v>
@@ -15618,10 +15618,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>450</v>
@@ -15630,7 +15630,7 @@
         <v>448</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>451</v>
@@ -15647,7 +15647,7 @@
         <v>7</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>452</v>
@@ -15670,10 +15670,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>455</v>
@@ -15690,10 +15690,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>457</v>
@@ -15702,7 +15702,7 @@
         <v>458</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>459</v>
@@ -15719,7 +15719,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>460</v>
@@ -15754,7 +15754,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -15771,7 +15771,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -15788,7 +15788,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -15805,7 +15805,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -15822,7 +15822,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -15839,7 +15839,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -15856,7 +15856,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -15873,7 +15873,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -15890,7 +15890,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -15907,7 +15907,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -15924,7 +15924,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -15941,7 +15941,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -15958,7 +15958,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -15975,7 +15975,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -15992,7 +15992,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -16009,7 +16009,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -16026,7 +16026,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -16043,7 +16043,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -16060,7 +16060,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -16077,7 +16077,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -16094,7 +16094,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -16111,7 +16111,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -16128,7 +16128,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -16145,7 +16145,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -16162,7 +16162,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -16179,7 +16179,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -16196,7 +16196,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -16213,7 +16213,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -16230,7 +16230,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -16247,7 +16247,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -16264,7 +16264,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -16281,7 +16281,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -16298,7 +16298,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -16315,7 +16315,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -16332,7 +16332,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -16349,7 +16349,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -16366,7 +16366,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -16383,7 +16383,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -16400,7 +16400,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -16417,7 +16417,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -16434,7 +16434,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -16451,7 +16451,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -16468,7 +16468,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -16485,7 +16485,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -16502,7 +16502,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -16519,7 +16519,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -16536,7 +16536,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -16553,7 +16553,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -16570,7 +16570,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -16587,7 +16587,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -16604,7 +16604,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -16621,7 +16621,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -16638,7 +16638,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -16655,7 +16655,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -16672,7 +16672,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -16689,7 +16689,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -16706,7 +16706,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -16723,7 +16723,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -16740,7 +16740,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -16757,7 +16757,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -16774,7 +16774,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -16791,7 +16791,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -16808,7 +16808,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -16825,7 +16825,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -16842,7 +16842,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -16859,7 +16859,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -16876,7 +16876,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -16893,7 +16893,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -16910,7 +16910,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -16927,7 +16927,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -16944,7 +16944,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -16961,7 +16961,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -16978,7 +16978,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -16995,7 +16995,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -17012,7 +17012,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -17029,7 +17029,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -17046,7 +17046,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -17063,7 +17063,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -17080,7 +17080,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -17097,7 +17097,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -17114,7 +17114,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -17131,7 +17131,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -17148,7 +17148,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -17165,7 +17165,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -17182,7 +17182,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -17199,7 +17199,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -17216,7 +17216,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -17233,7 +17233,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -17250,7 +17250,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -17267,7 +17267,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -17284,7 +17284,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -17301,7 +17301,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -17318,7 +17318,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -17335,7 +17335,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -17352,7 +17352,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -17369,7 +17369,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -17386,7 +17386,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -17403,7 +17403,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -17420,7 +17420,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -17437,7 +17437,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -17454,7 +17454,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -17471,7 +17471,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -17488,7 +17488,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -17505,7 +17505,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -17522,7 +17522,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -17539,7 +17539,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -17556,7 +17556,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -17573,7 +17573,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -17590,7 +17590,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -17607,7 +17607,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -17624,7 +17624,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -17641,7 +17641,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -17658,7 +17658,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -17675,7 +17675,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -17692,7 +17692,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -17709,7 +17709,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -17726,7 +17726,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -17743,7 +17743,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -17760,7 +17760,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -17777,7 +17777,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -17794,7 +17794,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -17811,7 +17811,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -17828,7 +17828,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -17845,7 +17845,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -17862,7 +17862,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -17879,7 +17879,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -17896,7 +17896,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -17913,7 +17913,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -17930,7 +17930,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -17947,7 +17947,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -17964,7 +17964,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -17981,7 +17981,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -17998,7 +17998,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -18015,7 +18015,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -18032,7 +18032,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -18049,7 +18049,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -18066,7 +18066,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -18083,7 +18083,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -18100,7 +18100,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -18117,7 +18117,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -18134,7 +18134,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -18151,7 +18151,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -18168,7 +18168,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -18185,7 +18185,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -18202,7 +18202,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -18219,7 +18219,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -18236,7 +18236,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -18253,7 +18253,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -18270,7 +18270,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -18287,7 +18287,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -18304,7 +18304,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -18321,7 +18321,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -18338,7 +18338,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -18355,7 +18355,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -18372,7 +18372,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -18389,7 +18389,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -18406,7 +18406,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -18423,7 +18423,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -18440,7 +18440,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -18457,7 +18457,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -18474,7 +18474,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -18491,7 +18491,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -18508,7 +18508,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -18525,7 +18525,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -18542,7 +18542,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -18559,7 +18559,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -19281,7 +19281,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -19293,7 +19293,7 @@
         <v>464</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>469</v>
@@ -19307,7 +19307,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -19319,7 +19319,7 @@
         <v>464</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>470</v>
@@ -21147,7 +21147,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -21159,7 +21159,7 @@
         <v>464</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>492</v>
@@ -21173,7 +21173,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -21185,7 +21185,7 @@
         <v>464</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>493</v>
@@ -21199,7 +21199,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -21211,7 +21211,7 @@
         <v>464</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>494</v>
@@ -21225,22 +21225,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>465</v>
@@ -21249,27 +21249,27 @@
         <v>284</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>465</v>
@@ -21278,12 +21278,12 @@
         <v>284</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -21295,7 +21295,7 @@
         <v>464</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>495</v>
@@ -21309,7 +21309,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -21321,7 +21321,7 @@
         <v>464</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>496</v>
@@ -21335,7 +21335,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -21347,7 +21347,7 @@
         <v>464</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>497</v>
@@ -21361,7 +21361,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -21373,7 +21373,7 @@
         <v>464</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>498</v>
@@ -21387,7 +21387,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -21399,7 +21399,7 @@
         <v>464</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>499</v>
@@ -21413,7 +21413,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -21425,7 +21425,7 @@
         <v>464</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>500</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -21451,7 +21451,7 @@
         <v>464</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>501</v>
@@ -21465,22 +21465,22 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>465</v>
@@ -21489,27 +21489,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>465</v>
@@ -21518,27 +21518,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>465</v>
@@ -21547,27 +21547,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>465</v>
@@ -21576,27 +21576,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>465</v>
@@ -21605,27 +21605,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>465</v>
@@ -21634,27 +21634,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>465</v>
@@ -21663,27 +21663,27 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>465</v>
@@ -21692,27 +21692,27 @@
         <v>284</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>465</v>
@@ -21721,27 +21721,27 @@
         <v>284</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>465</v>
@@ -21750,27 +21750,27 @@
         <v>284</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>465</v>
@@ -21779,12 +21779,12 @@
         <v>284</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
@@ -21796,7 +21796,7 @@
         <v>464</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>502</v>
@@ -21810,7 +21810,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
@@ -21822,7 +21822,7 @@
         <v>464</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>503</v>
@@ -21836,7 +21836,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
@@ -21848,7 +21848,7 @@
         <v>464</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>504</v>
@@ -21862,7 +21862,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
@@ -21874,7 +21874,7 @@
         <v>464</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>505</v>
@@ -21914,10 +21914,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>507</v>
@@ -21926,7 +21926,7 @@
         <v>508</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>507</v>
@@ -21943,7 +21943,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>509</v>
@@ -21978,7 +21978,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -21995,7 +21995,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -22012,7 +22012,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -22029,7 +22029,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -22046,7 +22046,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -22063,7 +22063,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -22080,7 +22080,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -22097,7 +22097,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -22114,7 +22114,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -22131,7 +22131,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -22148,7 +22148,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -22165,7 +22165,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -22182,7 +22182,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -22199,7 +22199,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -22216,7 +22216,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -22233,7 +22233,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -22250,7 +22250,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -22267,7 +22267,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -22284,7 +22284,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -22301,7 +22301,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -22318,7 +22318,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -22335,7 +22335,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -22352,7 +22352,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -22369,7 +22369,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -22386,7 +22386,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -22403,7 +22403,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -22420,7 +22420,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -22437,7 +22437,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -22454,7 +22454,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -22471,7 +22471,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -22488,7 +22488,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -22505,7 +22505,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -22522,7 +22522,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -22539,7 +22539,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -22556,7 +22556,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -22573,7 +22573,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -22590,7 +22590,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -22607,7 +22607,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -22624,7 +22624,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -22641,7 +22641,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -22658,7 +22658,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -22675,7 +22675,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -22692,7 +22692,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -22709,7 +22709,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -22726,7 +22726,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -22743,7 +22743,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -22760,7 +22760,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -22777,7 +22777,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -22794,7 +22794,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -22811,7 +22811,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -22828,7 +22828,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -22845,7 +22845,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -22862,7 +22862,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -22879,7 +22879,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -22896,7 +22896,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -22913,7 +22913,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -22930,7 +22930,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -22947,7 +22947,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -22964,7 +22964,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -22981,7 +22981,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -22998,7 +22998,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -23015,7 +23015,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -23032,7 +23032,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -23049,7 +23049,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -23066,7 +23066,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -23083,7 +23083,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -23100,7 +23100,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -23117,7 +23117,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -23134,7 +23134,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -23151,7 +23151,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -23168,7 +23168,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -23185,7 +23185,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -23202,7 +23202,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -23219,7 +23219,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -23236,7 +23236,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -23253,7 +23253,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -23270,7 +23270,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -23287,7 +23287,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -23304,7 +23304,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -23321,7 +23321,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -23338,7 +23338,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -23355,7 +23355,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -23372,7 +23372,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -23389,7 +23389,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -23406,7 +23406,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -23423,7 +23423,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -23440,7 +23440,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -23457,7 +23457,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -23474,7 +23474,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -23491,7 +23491,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -23508,7 +23508,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -23525,7 +23525,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -23542,7 +23542,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -23559,7 +23559,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -23576,7 +23576,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -23593,7 +23593,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -23610,7 +23610,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -23627,7 +23627,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -23644,7 +23644,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -23661,7 +23661,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -23678,7 +23678,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -23695,7 +23695,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -23712,7 +23712,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -23729,7 +23729,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -23746,7 +23746,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -23763,7 +23763,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -23780,7 +23780,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -23797,7 +23797,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -23814,7 +23814,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -23831,7 +23831,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -23848,7 +23848,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -23865,7 +23865,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -23882,7 +23882,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -23899,7 +23899,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -23916,7 +23916,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -23933,7 +23933,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -23950,7 +23950,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -23967,7 +23967,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -23984,7 +23984,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -24001,7 +24001,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -24018,7 +24018,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -24035,7 +24035,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -24052,7 +24052,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -24069,7 +24069,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -24086,7 +24086,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -24103,7 +24103,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -24120,7 +24120,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -24137,7 +24137,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -24154,7 +24154,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -24171,7 +24171,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -24188,7 +24188,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -24205,7 +24205,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -24222,7 +24222,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -24239,7 +24239,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -24256,7 +24256,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -24273,7 +24273,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -24290,7 +24290,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -24307,7 +24307,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -24324,7 +24324,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -24341,7 +24341,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -24358,7 +24358,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -24375,7 +24375,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -24392,7 +24392,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -24409,7 +24409,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -24426,7 +24426,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -24443,7 +24443,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -24460,7 +24460,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -24477,7 +24477,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -24494,7 +24494,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -24511,7 +24511,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -24528,7 +24528,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -24545,7 +24545,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -24562,7 +24562,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -24579,7 +24579,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -24596,7 +24596,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -24613,7 +24613,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -24630,7 +24630,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -24647,7 +24647,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -24664,7 +24664,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -24681,7 +24681,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -24698,7 +24698,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -24715,7 +24715,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -24732,7 +24732,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -24749,7 +24749,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -24766,7 +24766,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -24783,7 +24783,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -25507,7 +25507,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -25519,7 +25519,7 @@
         <v>512</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>516</v>
@@ -25533,7 +25533,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -25545,7 +25545,7 @@
         <v>512</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>517</v>
@@ -27373,7 +27373,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -27385,7 +27385,7 @@
         <v>512</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>538</v>
@@ -27399,7 +27399,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -27411,7 +27411,7 @@
         <v>512</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>539</v>
@@ -27425,7 +27425,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -27437,7 +27437,7 @@
         <v>512</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>540</v>
@@ -27451,22 +27451,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>513</v>
@@ -27475,27 +27475,27 @@
         <v>284</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>513</v>
@@ -27504,12 +27504,12 @@
         <v>284</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -27521,7 +27521,7 @@
         <v>512</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>541</v>
@@ -27535,7 +27535,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -27547,7 +27547,7 @@
         <v>512</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>542</v>
@@ -27561,7 +27561,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -27573,7 +27573,7 @@
         <v>512</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>543</v>
@@ -27587,7 +27587,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -27599,7 +27599,7 @@
         <v>512</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>544</v>
@@ -27613,7 +27613,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -27625,7 +27625,7 @@
         <v>512</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>545</v>
@@ -27639,7 +27639,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -27651,7 +27651,7 @@
         <v>512</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>546</v>
@@ -27665,7 +27665,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -27677,7 +27677,7 @@
         <v>512</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>547</v>
@@ -27691,22 +27691,22 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>513</v>
@@ -27715,27 +27715,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>513</v>
@@ -27744,27 +27744,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>513</v>
@@ -27773,27 +27773,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>513</v>
@@ -27802,27 +27802,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>513</v>
@@ -27831,27 +27831,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>513</v>
@@ -27860,27 +27860,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>513</v>
@@ -27889,27 +27889,27 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>513</v>
@@ -27918,27 +27918,27 @@
         <v>284</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>513</v>
@@ -27947,27 +27947,27 @@
         <v>284</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>513</v>
@@ -27976,27 +27976,27 @@
         <v>284</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>513</v>
@@ -28005,12 +28005,12 @@
         <v>284</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
@@ -28022,7 +28022,7 @@
         <v>512</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>548</v>
@@ -28036,7 +28036,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
@@ -28048,7 +28048,7 @@
         <v>512</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>549</v>
@@ -28062,7 +28062,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
@@ -28074,7 +28074,7 @@
         <v>512</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>550</v>
@@ -28088,7 +28088,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
@@ -28100,7 +28100,7 @@
         <v>512</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>551</v>
@@ -28140,10 +28140,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>553</v>
@@ -28152,7 +28152,7 @@
         <v>554</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>553</v>
@@ -28169,7 +28169,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>555</v>
@@ -28204,7 +28204,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -28221,7 +28221,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -28238,7 +28238,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -28255,7 +28255,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -28272,7 +28272,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -28289,7 +28289,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -28306,7 +28306,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -28323,7 +28323,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -28340,7 +28340,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -28357,7 +28357,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -28374,7 +28374,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -28391,7 +28391,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -28408,7 +28408,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -28425,7 +28425,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -28442,7 +28442,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -28459,7 +28459,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -28476,7 +28476,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -28493,7 +28493,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -28510,7 +28510,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -28527,7 +28527,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -28544,7 +28544,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -28561,7 +28561,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -28578,7 +28578,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -28595,7 +28595,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -28612,7 +28612,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -28629,7 +28629,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -28646,7 +28646,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -28663,7 +28663,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -28680,7 +28680,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -28697,7 +28697,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -28714,7 +28714,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -28731,7 +28731,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -28748,7 +28748,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -28765,7 +28765,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -28782,7 +28782,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -28799,7 +28799,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -28816,7 +28816,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -28833,7 +28833,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -28850,7 +28850,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -28867,7 +28867,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -28884,7 +28884,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -28901,7 +28901,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -28918,7 +28918,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -28935,7 +28935,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -28952,7 +28952,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -28969,7 +28969,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -28986,7 +28986,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -29003,7 +29003,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -29020,7 +29020,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -29037,7 +29037,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -29054,7 +29054,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -29071,7 +29071,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -29088,7 +29088,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -29105,7 +29105,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -29122,7 +29122,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -29139,7 +29139,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -29156,7 +29156,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -29173,7 +29173,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -29190,7 +29190,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -29207,7 +29207,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -29224,7 +29224,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -29241,7 +29241,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -29258,7 +29258,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -29275,7 +29275,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -29292,7 +29292,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -29309,7 +29309,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -29326,7 +29326,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -29343,7 +29343,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -29360,7 +29360,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -29377,7 +29377,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -29394,7 +29394,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -29411,7 +29411,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -29428,7 +29428,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -29445,7 +29445,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -29462,7 +29462,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -29479,7 +29479,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -29496,7 +29496,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -29513,7 +29513,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -29530,7 +29530,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -29547,7 +29547,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -29564,7 +29564,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -29581,7 +29581,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -29598,7 +29598,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -29615,7 +29615,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -29632,7 +29632,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -29649,7 +29649,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -29666,7 +29666,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -29683,7 +29683,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -29700,7 +29700,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -29717,7 +29717,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -29734,7 +29734,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -29751,7 +29751,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -29768,7 +29768,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -29785,7 +29785,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -29802,7 +29802,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -29819,7 +29819,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -29836,7 +29836,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -29853,7 +29853,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -29870,7 +29870,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -29887,7 +29887,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -29904,7 +29904,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -29921,7 +29921,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -29938,7 +29938,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -29955,7 +29955,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -29972,7 +29972,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -29989,7 +29989,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -30006,7 +30006,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -30023,7 +30023,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -30040,7 +30040,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -30057,7 +30057,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -30074,7 +30074,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -30091,7 +30091,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -30108,7 +30108,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -30125,7 +30125,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -30142,7 +30142,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -30159,7 +30159,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -30176,7 +30176,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -30193,7 +30193,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -30210,7 +30210,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -30227,7 +30227,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -30244,7 +30244,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -30261,7 +30261,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -30278,7 +30278,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -30295,7 +30295,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -30312,7 +30312,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -30329,7 +30329,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -30346,7 +30346,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -30363,7 +30363,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -30380,7 +30380,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -30397,7 +30397,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -30414,7 +30414,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -30431,7 +30431,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -30448,7 +30448,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -30465,7 +30465,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -30482,7 +30482,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -30499,7 +30499,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -30516,7 +30516,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -30533,7 +30533,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -30550,7 +30550,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -30567,7 +30567,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -30584,7 +30584,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -30601,7 +30601,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -30618,7 +30618,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -30635,7 +30635,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -30652,7 +30652,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -30669,7 +30669,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -30686,7 +30686,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -30703,7 +30703,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -30720,7 +30720,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -30737,7 +30737,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -30754,7 +30754,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -30771,7 +30771,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -30788,7 +30788,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -30805,7 +30805,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -30822,7 +30822,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -30839,7 +30839,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -30856,7 +30856,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -30873,7 +30873,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -30890,7 +30890,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -30907,7 +30907,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -30924,7 +30924,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -30941,7 +30941,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -30958,7 +30958,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -30975,7 +30975,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -30992,7 +30992,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -31009,7 +31009,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -246,6 +246,12 @@
     <t>vmsession.md</t>
   </si>
   <si>
+    <t>windows_welcome1.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>container_ecosystem.md</t>
   </si>
   <si>
@@ -330,16 +336,10 @@
     <t>Handback transform failed</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>whats_new.md</t>
   </si>
   <si>
     <t>about_overview.md</t>
-  </si>
-  <si>
-    <t>windows_welcome1.md</t>
   </si>
   <si>
     <t>containers_welcome.md</t>
@@ -1110,6 +1110,15 @@
     <t>vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf</t>
   </si>
   <si>
+    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 14:53:51</t>
+  </si>
+  <si>
+    <t>2016-01-11 15:01:44</t>
+  </si>
+  <si>
     <t>container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf</t>
   </si>
   <si>
@@ -1217,15 +1226,6 @@
   </si>
   <si>
     <t>2016-01-08 13:50:01</t>
-  </si>
-  <si>
-    <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-11 14:53:51</t>
-  </si>
-  <si>
-    <t>2016-01-11 09:43:30</t>
   </si>
   <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
@@ -3062,18 +3062,18 @@
         <v>6</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
@@ -3515,13 +3515,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>6</v>
@@ -3532,13 +3532,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="C100" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>6</v>
@@ -3552,10 +3552,10 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>6</v>
@@ -3566,13 +3566,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>6</v>
@@ -3583,19 +3583,19 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
@@ -3603,16 +3603,16 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
@@ -6509,38 +6509,38 @@
     <hyperlink ref="A69" display="troubleshooting.md" r:id="rId69"/>
     <hyperlink ref="A70" display="user_guide_nav.md" r:id="rId70"/>
     <hyperlink ref="A71" display="vmsession.md" r:id="rId71"/>
-    <hyperlink ref="A72" display="container_ecosystem.md" r:id="rId72"/>
-    <hyperlink ref="A73" display="faq.md" r:id="rId73"/>
-    <hyperlink ref="A74" display="containerEcosystem.png" r:id="rId74"/>
-    <hyperlink ref="A75" display="containerfund.png" r:id="rId75"/>
-    <hyperlink ref="A76" display="work_in_progress.md" r:id="rId76"/>
-    <hyperlink ref="A77" display="EULA.md" r:id="rId77"/>
-    <hyperlink ref="A78" display="azure_setup.md" r:id="rId78"/>
-    <hyperlink ref="A79" display="container_setup.md" r:id="rId79"/>
-    <hyperlink ref="A80" display="inplace_setup.md" r:id="rId80"/>
-    <hyperlink ref="A81" display="manage_docker.md" r:id="rId81"/>
-    <hyperlink ref="A82" display="manage_powershell.md" r:id="rId82"/>
-    <hyperlink ref="A83" display="cmd.png" r:id="rId83"/>
-    <hyperlink ref="A84" display="containerhost2.png" r:id="rId84"/>
-    <hyperlink ref="A85" display="docker1.png" r:id="rId85"/>
-    <hyperlink ref="A86" display="hello.png" r:id="rId86"/>
-    <hyperlink ref="A87" display="newazure1.png" r:id="rId87"/>
-    <hyperlink ref="A88" display="newazure2.png" r:id="rId88"/>
-    <hyperlink ref="A89" display="newazure3.png" r:id="rId89"/>
-    <hyperlink ref="A90" display="newazure6.png" r:id="rId90"/>
-    <hyperlink ref="A91" display="newazure7.png" r:id="rId91"/>
-    <hyperlink ref="A92" display="newazure9.png" r:id="rId92"/>
-    <hyperlink ref="A93" display="nginx.png" r:id="rId93"/>
-    <hyperlink ref="A94" display="quickstart.md" r:id="rId94"/>
-    <hyperlink ref="A95" display="app_compat.md" r:id="rId95"/>
-    <hyperlink ref="A96" display="powershell_overview.md" r:id="rId96"/>
-    <hyperlink ref="A97" display="ps_docker_comparison.md" r:id="rId97"/>
-    <hyperlink ref="A98" display="TOC.md" r:id="rId98"/>
-    <hyperlink ref="A99" display="supported_guest_os.md" r:id="rId99"/>
-    <hyperlink ref="A100" display="whats_new.md" r:id="rId100"/>
-    <hyperlink ref="A101" display="about_overview.md" r:id="rId101"/>
-    <hyperlink ref="A102" display="TOC.md" r:id="rId102"/>
-    <hyperlink ref="A103" display="windows_welcome1.md" r:id="rId103"/>
+    <hyperlink ref="A72" display="windows_welcome1.md" r:id="rId72"/>
+    <hyperlink ref="A73" display="container_ecosystem.md" r:id="rId73"/>
+    <hyperlink ref="A74" display="faq.md" r:id="rId74"/>
+    <hyperlink ref="A75" display="containerEcosystem.png" r:id="rId75"/>
+    <hyperlink ref="A76" display="containerfund.png" r:id="rId76"/>
+    <hyperlink ref="A77" display="work_in_progress.md" r:id="rId77"/>
+    <hyperlink ref="A78" display="EULA.md" r:id="rId78"/>
+    <hyperlink ref="A79" display="azure_setup.md" r:id="rId79"/>
+    <hyperlink ref="A80" display="container_setup.md" r:id="rId80"/>
+    <hyperlink ref="A81" display="inplace_setup.md" r:id="rId81"/>
+    <hyperlink ref="A82" display="manage_docker.md" r:id="rId82"/>
+    <hyperlink ref="A83" display="manage_powershell.md" r:id="rId83"/>
+    <hyperlink ref="A84" display="cmd.png" r:id="rId84"/>
+    <hyperlink ref="A85" display="containerhost2.png" r:id="rId85"/>
+    <hyperlink ref="A86" display="docker1.png" r:id="rId86"/>
+    <hyperlink ref="A87" display="hello.png" r:id="rId87"/>
+    <hyperlink ref="A88" display="newazure1.png" r:id="rId88"/>
+    <hyperlink ref="A89" display="newazure2.png" r:id="rId89"/>
+    <hyperlink ref="A90" display="newazure3.png" r:id="rId90"/>
+    <hyperlink ref="A91" display="newazure6.png" r:id="rId91"/>
+    <hyperlink ref="A92" display="newazure7.png" r:id="rId92"/>
+    <hyperlink ref="A93" display="newazure9.png" r:id="rId93"/>
+    <hyperlink ref="A94" display="nginx.png" r:id="rId94"/>
+    <hyperlink ref="A95" display="quickstart.md" r:id="rId95"/>
+    <hyperlink ref="A96" display="app_compat.md" r:id="rId96"/>
+    <hyperlink ref="A97" display="powershell_overview.md" r:id="rId97"/>
+    <hyperlink ref="A98" display="ps_docker_comparison.md" r:id="rId98"/>
+    <hyperlink ref="A99" display="TOC.md" r:id="rId99"/>
+    <hyperlink ref="A100" display="supported_guest_os.md" r:id="rId100"/>
+    <hyperlink ref="A101" display="whats_new.md" r:id="rId101"/>
+    <hyperlink ref="A102" display="about_overview.md" r:id="rId102"/>
+    <hyperlink ref="A103" display="TOC.md" r:id="rId103"/>
     <hyperlink ref="A104" display="containers_welcome.md" r:id="rId104"/>
     <hyperlink ref="A105" display=".gitignore" r:id="rId105"/>
     <hyperlink ref="A106" display=".localization-config" r:id="rId106"/>
@@ -8670,7 +8670,7 @@
         <v>363</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>76</v>
@@ -8679,7 +8679,7 @@
         <v>363</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>280</v>
@@ -8687,22 +8687,22 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>279</v>
@@ -8713,51 +8713,48 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>279</v>
@@ -8766,53 +8763,56 @@
         <v>284</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>279</v>
@@ -8823,22 +8823,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>279</v>
@@ -8849,22 +8849,22 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>279</v>
@@ -8875,22 +8875,22 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>279</v>
@@ -8901,22 +8901,22 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>279</v>
@@ -8927,22 +8927,22 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>279</v>
@@ -8953,51 +8953,48 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>279</v>
@@ -9006,27 +9003,27 @@
         <v>284</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>279</v>
@@ -9035,27 +9032,27 @@
         <v>284</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>279</v>
@@ -9064,27 +9061,27 @@
         <v>284</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>279</v>
@@ -9093,27 +9090,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>279</v>
@@ -9122,27 +9119,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>279</v>
@@ -9151,27 +9148,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>279</v>
@@ -9180,27 +9177,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>279</v>
@@ -9209,27 +9206,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>279</v>
@@ -9238,27 +9235,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>279</v>
@@ -9267,53 +9264,56 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>279</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>279</v>
@@ -9324,22 +9324,22 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>279</v>
@@ -9350,22 +9350,22 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>279</v>
@@ -9376,22 +9376,22 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>279</v>
@@ -9402,28 +9402,37 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>103</v>
+        <v>6</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>316</v>
+        <v>278</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>396</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="D100" s="2" t="s">
         <v>316</v>
       </c>
@@ -9431,7 +9440,7 @@
         <v>316</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101">
@@ -9439,7 +9448,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>316</v>
@@ -9448,56 +9457,47 @@
         <v>316</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>397</v>
+        <v>105</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="G103" s="0" t="s">
-        <v>401</v>
+        <v>279</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>280</v>
@@ -9508,7 +9508,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>402</v>
@@ -9543,7 +9543,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -9560,7 +9560,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -9577,7 +9577,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -9594,7 +9594,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -9611,7 +9611,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -9628,7 +9628,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -9645,7 +9645,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -9662,7 +9662,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -9679,7 +9679,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -9696,7 +9696,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -9713,7 +9713,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -9730,7 +9730,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -9747,7 +9747,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -9764,7 +9764,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -9781,7 +9781,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -9798,7 +9798,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -9815,7 +9815,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -9832,7 +9832,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -9849,7 +9849,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -9866,7 +9866,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -9883,7 +9883,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -9900,7 +9900,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -9917,7 +9917,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -9934,7 +9934,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -9951,7 +9951,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -9968,7 +9968,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -9985,7 +9985,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -10002,7 +10002,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -10019,7 +10019,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -10036,7 +10036,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -10053,7 +10053,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -10070,7 +10070,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -10087,7 +10087,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -10104,7 +10104,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -10121,7 +10121,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -10138,7 +10138,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -10155,7 +10155,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -10172,7 +10172,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -10189,7 +10189,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -10206,7 +10206,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -10223,7 +10223,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -10240,7 +10240,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -10257,7 +10257,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -10274,7 +10274,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -10291,7 +10291,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -10308,7 +10308,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -10325,7 +10325,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -10342,7 +10342,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -10359,7 +10359,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -10376,7 +10376,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -10393,7 +10393,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -10410,7 +10410,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -10427,7 +10427,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -10444,7 +10444,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -10461,7 +10461,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -10478,7 +10478,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -10495,7 +10495,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -10512,7 +10512,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -10529,7 +10529,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -10546,7 +10546,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -10563,7 +10563,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -10580,7 +10580,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -10597,7 +10597,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -10614,7 +10614,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -10631,7 +10631,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -10648,7 +10648,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -10665,7 +10665,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -10682,7 +10682,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -10699,7 +10699,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -10716,7 +10716,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -10733,7 +10733,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -10750,7 +10750,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -10767,7 +10767,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -10784,7 +10784,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -10801,7 +10801,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -10818,7 +10818,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -10835,7 +10835,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -10852,7 +10852,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -10869,7 +10869,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -10886,7 +10886,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -10903,7 +10903,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -10920,7 +10920,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -10937,7 +10937,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -10954,7 +10954,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -10971,7 +10971,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -10988,7 +10988,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -11005,7 +11005,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -11022,7 +11022,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -11039,7 +11039,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -11056,7 +11056,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -11073,7 +11073,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -11090,7 +11090,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -11107,7 +11107,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -11124,7 +11124,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -11141,7 +11141,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -11158,7 +11158,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -11175,7 +11175,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -11192,7 +11192,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -11209,7 +11209,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -11226,7 +11226,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -11243,7 +11243,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -11260,7 +11260,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -11277,7 +11277,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -11294,7 +11294,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -11311,7 +11311,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -11328,7 +11328,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -11345,7 +11345,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -11362,7 +11362,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -11379,7 +11379,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -11396,7 +11396,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -11413,7 +11413,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -11430,7 +11430,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -11447,7 +11447,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -11464,7 +11464,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -11481,7 +11481,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -11498,7 +11498,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -11515,7 +11515,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -11532,7 +11532,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -11549,7 +11549,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -11566,7 +11566,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -11583,7 +11583,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -11600,7 +11600,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -11617,7 +11617,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -11634,7 +11634,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -11651,7 +11651,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -11668,7 +11668,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -11685,7 +11685,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -11702,7 +11702,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -11719,7 +11719,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -11736,7 +11736,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -11753,7 +11753,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -11770,7 +11770,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -11787,7 +11787,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -11804,7 +11804,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -11821,7 +11821,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -11838,7 +11838,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -11855,7 +11855,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -11872,7 +11872,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -11889,7 +11889,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -11906,7 +11906,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -11923,7 +11923,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -11940,7 +11940,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -11957,7 +11957,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -11974,7 +11974,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -11991,7 +11991,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -12008,7 +12008,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -12025,7 +12025,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -12042,7 +12042,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -12059,7 +12059,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -12076,7 +12076,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -12093,7 +12093,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -12110,7 +12110,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -12127,7 +12127,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -12144,7 +12144,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -12161,7 +12161,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -12178,7 +12178,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -12195,7 +12195,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -12212,7 +12212,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -12229,7 +12229,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -12246,7 +12246,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -12263,7 +12263,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -12280,7 +12280,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -12297,7 +12297,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -12314,7 +12314,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -12331,7 +12331,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -12348,7 +12348,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -12609,125 +12609,125 @@
     <hyperlink ref="C71" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId255"/>
     <hyperlink ref="E71" display="vmsession.md" r:id="rId256"/>
     <hyperlink ref="F71" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId257"/>
-    <hyperlink ref="A72" display="container_ecosystem.md" r:id="rId258"/>
-    <hyperlink ref="C72" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId259"/>
-    <hyperlink ref="E72" display="container_ecosystem.md" r:id="rId260"/>
-    <hyperlink ref="F72" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId261"/>
-    <hyperlink ref="A73" display="faq.md" r:id="rId262"/>
-    <hyperlink ref="C73" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId263"/>
-    <hyperlink ref="E73" display="faq.md" r:id="rId264"/>
-    <hyperlink ref="F73" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId265"/>
-    <hyperlink ref="A74" display="containerEcosystem.png" r:id="rId266"/>
-    <hyperlink ref="C74" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId267"/>
-    <hyperlink ref="E74" display="containerEcosystem.png" r:id="rId268"/>
-    <hyperlink ref="F74" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId269"/>
-    <hyperlink ref="A75" display="containerfund.png" r:id="rId270"/>
-    <hyperlink ref="C75" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId271"/>
-    <hyperlink ref="E75" display="containerfund.png" r:id="rId272"/>
-    <hyperlink ref="F75" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId273"/>
-    <hyperlink ref="A76" display="work_in_progress.md" r:id="rId274"/>
-    <hyperlink ref="C76" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId275"/>
-    <hyperlink ref="E76" display="work_in_progress.md" r:id="rId276"/>
-    <hyperlink ref="F76" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId277"/>
-    <hyperlink ref="A77" display="EULA.md" r:id="rId278"/>
-    <hyperlink ref="C77" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId279"/>
-    <hyperlink ref="E77" display="EULA.md" r:id="rId280"/>
-    <hyperlink ref="F77" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId281"/>
-    <hyperlink ref="A78" display="azure_setup.md" r:id="rId282"/>
-    <hyperlink ref="C78" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId283"/>
-    <hyperlink ref="E78" display="azure_setup.md" r:id="rId284"/>
-    <hyperlink ref="F78" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId285"/>
-    <hyperlink ref="A79" display="container_setup.md" r:id="rId286"/>
-    <hyperlink ref="C79" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId287"/>
-    <hyperlink ref="E79" display="container_setup.md" r:id="rId288"/>
-    <hyperlink ref="F79" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId289"/>
-    <hyperlink ref="A80" display="inplace_setup.md" r:id="rId290"/>
-    <hyperlink ref="C80" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId291"/>
-    <hyperlink ref="E80" display="inplace_setup.md" r:id="rId292"/>
-    <hyperlink ref="F80" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId293"/>
-    <hyperlink ref="A81" display="manage_docker.md" r:id="rId294"/>
-    <hyperlink ref="C81" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId295"/>
-    <hyperlink ref="E81" display="manage_docker.md" r:id="rId296"/>
-    <hyperlink ref="F81" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId297"/>
-    <hyperlink ref="A82" display="manage_powershell.md" r:id="rId298"/>
-    <hyperlink ref="C82" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId299"/>
-    <hyperlink ref="E82" display="manage_powershell.md" r:id="rId300"/>
-    <hyperlink ref="F82" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId301"/>
-    <hyperlink ref="A83" display="cmd.png" r:id="rId302"/>
-    <hyperlink ref="C83" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId303"/>
-    <hyperlink ref="E83" display="cmd.png" r:id="rId304"/>
-    <hyperlink ref="F83" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId305"/>
-    <hyperlink ref="A84" display="containerhost2.png" r:id="rId306"/>
-    <hyperlink ref="C84" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId307"/>
-    <hyperlink ref="E84" display="containerhost2.png" r:id="rId308"/>
-    <hyperlink ref="F84" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId309"/>
-    <hyperlink ref="A85" display="docker1.png" r:id="rId310"/>
-    <hyperlink ref="C85" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId311"/>
-    <hyperlink ref="E85" display="docker1.png" r:id="rId312"/>
-    <hyperlink ref="F85" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId313"/>
-    <hyperlink ref="A86" display="hello.png" r:id="rId314"/>
-    <hyperlink ref="C86" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId315"/>
-    <hyperlink ref="E86" display="hello.png" r:id="rId316"/>
-    <hyperlink ref="F86" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId317"/>
-    <hyperlink ref="A87" display="newazure1.png" r:id="rId318"/>
-    <hyperlink ref="C87" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId319"/>
-    <hyperlink ref="E87" display="newazure1.png" r:id="rId320"/>
-    <hyperlink ref="F87" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId321"/>
-    <hyperlink ref="A88" display="newazure2.png" r:id="rId322"/>
-    <hyperlink ref="C88" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId323"/>
-    <hyperlink ref="E88" display="newazure2.png" r:id="rId324"/>
-    <hyperlink ref="F88" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId325"/>
-    <hyperlink ref="A89" display="newazure3.png" r:id="rId326"/>
-    <hyperlink ref="C89" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId327"/>
-    <hyperlink ref="E89" display="newazure3.png" r:id="rId328"/>
-    <hyperlink ref="F89" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId329"/>
-    <hyperlink ref="A90" display="newazure6.png" r:id="rId330"/>
-    <hyperlink ref="C90" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId331"/>
-    <hyperlink ref="E90" display="newazure6.png" r:id="rId332"/>
-    <hyperlink ref="F90" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId333"/>
-    <hyperlink ref="A91" display="newazure7.png" r:id="rId334"/>
-    <hyperlink ref="C91" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId335"/>
-    <hyperlink ref="E91" display="newazure7.png" r:id="rId336"/>
-    <hyperlink ref="F91" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId337"/>
-    <hyperlink ref="A92" display="newazure9.png" r:id="rId338"/>
-    <hyperlink ref="C92" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId339"/>
-    <hyperlink ref="E92" display="newazure9.png" r:id="rId340"/>
-    <hyperlink ref="F92" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId341"/>
-    <hyperlink ref="A93" display="nginx.png" r:id="rId342"/>
-    <hyperlink ref="C93" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId343"/>
-    <hyperlink ref="E93" display="nginx.png" r:id="rId344"/>
-    <hyperlink ref="F93" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId345"/>
-    <hyperlink ref="A94" display="quickstart.md" r:id="rId346"/>
-    <hyperlink ref="C94" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId347"/>
-    <hyperlink ref="E94" display="quickstart.md" r:id="rId348"/>
-    <hyperlink ref="F94" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId349"/>
-    <hyperlink ref="A95" display="app_compat.md" r:id="rId350"/>
-    <hyperlink ref="C95" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId351"/>
-    <hyperlink ref="E95" display="app_compat.md" r:id="rId352"/>
-    <hyperlink ref="F95" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId353"/>
-    <hyperlink ref="A96" display="powershell_overview.md" r:id="rId354"/>
-    <hyperlink ref="C96" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId355"/>
-    <hyperlink ref="E96" display="powershell_overview.md" r:id="rId356"/>
-    <hyperlink ref="F96" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId357"/>
-    <hyperlink ref="A97" display="ps_docker_comparison.md" r:id="rId358"/>
-    <hyperlink ref="C97" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId359"/>
-    <hyperlink ref="E97" display="ps_docker_comparison.md" r:id="rId360"/>
-    <hyperlink ref="F97" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId361"/>
-    <hyperlink ref="A98" display="TOC.md" r:id="rId362"/>
-    <hyperlink ref="C98" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId363"/>
-    <hyperlink ref="E98" display="TOC.md" r:id="rId364"/>
-    <hyperlink ref="F98" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId365"/>
-    <hyperlink ref="A99" display="supported_guest_os.md" r:id="rId366"/>
-    <hyperlink ref="A100" display="whats_new.md" r:id="rId367"/>
-    <hyperlink ref="A101" display="about_overview.md" r:id="rId368"/>
-    <hyperlink ref="A102" display="TOC.md" r:id="rId369"/>
-    <hyperlink ref="C102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId370"/>
-    <hyperlink ref="E102" display="TOC.md" r:id="rId371"/>
-    <hyperlink ref="F102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId372"/>
-    <hyperlink ref="A103" display="windows_welcome1.md" r:id="rId373"/>
-    <hyperlink ref="C103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId374"/>
-    <hyperlink ref="E103" display="windows_welcome1.md" r:id="rId375"/>
-    <hyperlink ref="F103" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId376"/>
+    <hyperlink ref="A72" display="windows_welcome1.md" r:id="rId258"/>
+    <hyperlink ref="C72" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId259"/>
+    <hyperlink ref="E72" display="windows_welcome1.md" r:id="rId260"/>
+    <hyperlink ref="F72" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf" r:id="rId261"/>
+    <hyperlink ref="A73" display="container_ecosystem.md" r:id="rId262"/>
+    <hyperlink ref="C73" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId263"/>
+    <hyperlink ref="E73" display="container_ecosystem.md" r:id="rId264"/>
+    <hyperlink ref="F73" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId265"/>
+    <hyperlink ref="A74" display="faq.md" r:id="rId266"/>
+    <hyperlink ref="C74" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId267"/>
+    <hyperlink ref="E74" display="faq.md" r:id="rId268"/>
+    <hyperlink ref="F74" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId269"/>
+    <hyperlink ref="A75" display="containerEcosystem.png" r:id="rId270"/>
+    <hyperlink ref="C75" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId271"/>
+    <hyperlink ref="E75" display="containerEcosystem.png" r:id="rId272"/>
+    <hyperlink ref="F75" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId273"/>
+    <hyperlink ref="A76" display="containerfund.png" r:id="rId274"/>
+    <hyperlink ref="C76" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId275"/>
+    <hyperlink ref="E76" display="containerfund.png" r:id="rId276"/>
+    <hyperlink ref="F76" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId277"/>
+    <hyperlink ref="A77" display="work_in_progress.md" r:id="rId278"/>
+    <hyperlink ref="C77" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId279"/>
+    <hyperlink ref="E77" display="work_in_progress.md" r:id="rId280"/>
+    <hyperlink ref="F77" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId281"/>
+    <hyperlink ref="A78" display="EULA.md" r:id="rId282"/>
+    <hyperlink ref="C78" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId283"/>
+    <hyperlink ref="E78" display="EULA.md" r:id="rId284"/>
+    <hyperlink ref="F78" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId285"/>
+    <hyperlink ref="A79" display="azure_setup.md" r:id="rId286"/>
+    <hyperlink ref="C79" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId287"/>
+    <hyperlink ref="E79" display="azure_setup.md" r:id="rId288"/>
+    <hyperlink ref="F79" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId289"/>
+    <hyperlink ref="A80" display="container_setup.md" r:id="rId290"/>
+    <hyperlink ref="C80" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId291"/>
+    <hyperlink ref="E80" display="container_setup.md" r:id="rId292"/>
+    <hyperlink ref="F80" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId293"/>
+    <hyperlink ref="A81" display="inplace_setup.md" r:id="rId294"/>
+    <hyperlink ref="C81" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId295"/>
+    <hyperlink ref="E81" display="inplace_setup.md" r:id="rId296"/>
+    <hyperlink ref="F81" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId297"/>
+    <hyperlink ref="A82" display="manage_docker.md" r:id="rId298"/>
+    <hyperlink ref="C82" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId299"/>
+    <hyperlink ref="E82" display="manage_docker.md" r:id="rId300"/>
+    <hyperlink ref="F82" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId301"/>
+    <hyperlink ref="A83" display="manage_powershell.md" r:id="rId302"/>
+    <hyperlink ref="C83" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId303"/>
+    <hyperlink ref="E83" display="manage_powershell.md" r:id="rId304"/>
+    <hyperlink ref="F83" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId305"/>
+    <hyperlink ref="A84" display="cmd.png" r:id="rId306"/>
+    <hyperlink ref="C84" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId307"/>
+    <hyperlink ref="E84" display="cmd.png" r:id="rId308"/>
+    <hyperlink ref="F84" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId309"/>
+    <hyperlink ref="A85" display="containerhost2.png" r:id="rId310"/>
+    <hyperlink ref="C85" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId311"/>
+    <hyperlink ref="E85" display="containerhost2.png" r:id="rId312"/>
+    <hyperlink ref="F85" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId313"/>
+    <hyperlink ref="A86" display="docker1.png" r:id="rId314"/>
+    <hyperlink ref="C86" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId315"/>
+    <hyperlink ref="E86" display="docker1.png" r:id="rId316"/>
+    <hyperlink ref="F86" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId317"/>
+    <hyperlink ref="A87" display="hello.png" r:id="rId318"/>
+    <hyperlink ref="C87" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId319"/>
+    <hyperlink ref="E87" display="hello.png" r:id="rId320"/>
+    <hyperlink ref="F87" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId321"/>
+    <hyperlink ref="A88" display="newazure1.png" r:id="rId322"/>
+    <hyperlink ref="C88" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId323"/>
+    <hyperlink ref="E88" display="newazure1.png" r:id="rId324"/>
+    <hyperlink ref="F88" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId325"/>
+    <hyperlink ref="A89" display="newazure2.png" r:id="rId326"/>
+    <hyperlink ref="C89" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId327"/>
+    <hyperlink ref="E89" display="newazure2.png" r:id="rId328"/>
+    <hyperlink ref="F89" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId329"/>
+    <hyperlink ref="A90" display="newazure3.png" r:id="rId330"/>
+    <hyperlink ref="C90" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId331"/>
+    <hyperlink ref="E90" display="newazure3.png" r:id="rId332"/>
+    <hyperlink ref="F90" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId333"/>
+    <hyperlink ref="A91" display="newazure6.png" r:id="rId334"/>
+    <hyperlink ref="C91" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId335"/>
+    <hyperlink ref="E91" display="newazure6.png" r:id="rId336"/>
+    <hyperlink ref="F91" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId337"/>
+    <hyperlink ref="A92" display="newazure7.png" r:id="rId338"/>
+    <hyperlink ref="C92" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId339"/>
+    <hyperlink ref="E92" display="newazure7.png" r:id="rId340"/>
+    <hyperlink ref="F92" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId341"/>
+    <hyperlink ref="A93" display="newazure9.png" r:id="rId342"/>
+    <hyperlink ref="C93" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId343"/>
+    <hyperlink ref="E93" display="newazure9.png" r:id="rId344"/>
+    <hyperlink ref="F93" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId345"/>
+    <hyperlink ref="A94" display="nginx.png" r:id="rId346"/>
+    <hyperlink ref="C94" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId347"/>
+    <hyperlink ref="E94" display="nginx.png" r:id="rId348"/>
+    <hyperlink ref="F94" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId349"/>
+    <hyperlink ref="A95" display="quickstart.md" r:id="rId350"/>
+    <hyperlink ref="C95" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId351"/>
+    <hyperlink ref="E95" display="quickstart.md" r:id="rId352"/>
+    <hyperlink ref="F95" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId353"/>
+    <hyperlink ref="A96" display="app_compat.md" r:id="rId354"/>
+    <hyperlink ref="C96" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId355"/>
+    <hyperlink ref="E96" display="app_compat.md" r:id="rId356"/>
+    <hyperlink ref="F96" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId357"/>
+    <hyperlink ref="A97" display="powershell_overview.md" r:id="rId358"/>
+    <hyperlink ref="C97" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId359"/>
+    <hyperlink ref="E97" display="powershell_overview.md" r:id="rId360"/>
+    <hyperlink ref="F97" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId361"/>
+    <hyperlink ref="A98" display="ps_docker_comparison.md" r:id="rId362"/>
+    <hyperlink ref="C98" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId363"/>
+    <hyperlink ref="E98" display="ps_docker_comparison.md" r:id="rId364"/>
+    <hyperlink ref="F98" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId365"/>
+    <hyperlink ref="A99" display="TOC.md" r:id="rId366"/>
+    <hyperlink ref="C99" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId367"/>
+    <hyperlink ref="E99" display="TOC.md" r:id="rId368"/>
+    <hyperlink ref="F99" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId369"/>
+    <hyperlink ref="A100" display="supported_guest_os.md" r:id="rId370"/>
+    <hyperlink ref="A101" display="whats_new.md" r:id="rId371"/>
+    <hyperlink ref="A102" display="about_overview.md" r:id="rId372"/>
+    <hyperlink ref="A103" display="TOC.md" r:id="rId373"/>
+    <hyperlink ref="C103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId374"/>
+    <hyperlink ref="E103" display="TOC.md" r:id="rId375"/>
+    <hyperlink ref="F103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId376"/>
     <hyperlink ref="A104" display="containers_welcome.md" r:id="rId377"/>
     <hyperlink ref="C104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId378"/>
     <hyperlink ref="E104" display="containers_welcome.md" r:id="rId379"/>
@@ -14851,7 +14851,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>6</v>
@@ -14863,7 +14863,7 @@
         <v>408</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>431</v>
@@ -14877,7 +14877,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
@@ -14889,7 +14889,7 @@
         <v>408</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>432</v>
@@ -14903,22 +14903,22 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>409</v>
@@ -14927,27 +14927,27 @@
         <v>284</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>409</v>
@@ -14956,12 +14956,12 @@
         <v>284</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -14973,7 +14973,7 @@
         <v>408</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>433</v>
@@ -14987,7 +14987,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -14999,7 +14999,7 @@
         <v>408</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>434</v>
@@ -15013,7 +15013,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
@@ -15025,7 +15025,7 @@
         <v>436</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>435</v>
@@ -15039,7 +15039,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
@@ -15051,7 +15051,7 @@
         <v>408</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>438</v>
@@ -15065,7 +15065,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -15077,7 +15077,7 @@
         <v>408</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>439</v>
@@ -15091,7 +15091,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -15103,7 +15103,7 @@
         <v>408</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>440</v>
@@ -15117,7 +15117,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -15129,7 +15129,7 @@
         <v>408</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>441</v>
@@ -15143,22 +15143,22 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>409</v>
@@ -15167,27 +15167,27 @@
         <v>284</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>409</v>
@@ -15196,27 +15196,27 @@
         <v>284</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>409</v>
@@ -15225,27 +15225,27 @@
         <v>284</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>409</v>
@@ -15254,27 +15254,27 @@
         <v>284</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>409</v>
@@ -15283,27 +15283,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>409</v>
@@ -15312,27 +15312,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>409</v>
@@ -15341,27 +15341,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>409</v>
@@ -15370,27 +15370,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>409</v>
@@ -15399,27 +15399,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>409</v>
@@ -15428,27 +15428,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>409</v>
@@ -15457,12 +15457,12 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
@@ -15474,7 +15474,7 @@
         <v>408</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>442</v>
@@ -15488,7 +15488,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
@@ -15500,7 +15500,7 @@
         <v>408</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>443</v>
@@ -15514,7 +15514,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
@@ -15526,7 +15526,7 @@
         <v>408</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>444</v>
@@ -15540,7 +15540,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
@@ -15552,7 +15552,7 @@
         <v>408</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>445</v>
@@ -15592,10 +15592,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>447</v>
@@ -15604,7 +15604,7 @@
         <v>448</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>449</v>
@@ -15618,10 +15618,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>450</v>
@@ -15630,7 +15630,7 @@
         <v>448</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>451</v>
@@ -15647,7 +15647,7 @@
         <v>7</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>452</v>
@@ -15670,10 +15670,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>455</v>
@@ -15690,10 +15690,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>457</v>
@@ -15702,7 +15702,7 @@
         <v>458</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>459</v>
@@ -15719,7 +15719,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>460</v>
@@ -15754,7 +15754,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -15771,7 +15771,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -15788,7 +15788,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -15805,7 +15805,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -15822,7 +15822,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -15839,7 +15839,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -15856,7 +15856,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -15873,7 +15873,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -15890,7 +15890,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -15907,7 +15907,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -15924,7 +15924,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -15941,7 +15941,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -15958,7 +15958,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -15975,7 +15975,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -15992,7 +15992,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -16009,7 +16009,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -16026,7 +16026,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -16043,7 +16043,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -16060,7 +16060,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -16077,7 +16077,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -16094,7 +16094,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -16111,7 +16111,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -16128,7 +16128,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -16145,7 +16145,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -16162,7 +16162,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -16179,7 +16179,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -16196,7 +16196,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -16213,7 +16213,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -16230,7 +16230,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -16247,7 +16247,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -16264,7 +16264,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -16281,7 +16281,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -16298,7 +16298,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -16315,7 +16315,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -16332,7 +16332,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -16349,7 +16349,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -16366,7 +16366,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -16383,7 +16383,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -16400,7 +16400,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -16417,7 +16417,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -16434,7 +16434,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -16451,7 +16451,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -16468,7 +16468,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -16485,7 +16485,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -16502,7 +16502,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -16519,7 +16519,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -16536,7 +16536,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -16553,7 +16553,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -16570,7 +16570,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -16587,7 +16587,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -16604,7 +16604,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -16621,7 +16621,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -16638,7 +16638,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -16655,7 +16655,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -16672,7 +16672,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -16689,7 +16689,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -16706,7 +16706,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -16723,7 +16723,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -16740,7 +16740,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -16757,7 +16757,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -16774,7 +16774,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -16791,7 +16791,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -16808,7 +16808,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -16825,7 +16825,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -16842,7 +16842,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -16859,7 +16859,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -16876,7 +16876,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -16893,7 +16893,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -16910,7 +16910,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -16927,7 +16927,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -16944,7 +16944,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -16961,7 +16961,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -16978,7 +16978,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -16995,7 +16995,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -17012,7 +17012,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -17029,7 +17029,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -17046,7 +17046,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -17063,7 +17063,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -17080,7 +17080,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -17097,7 +17097,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -17114,7 +17114,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -17131,7 +17131,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -17148,7 +17148,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -17165,7 +17165,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -17182,7 +17182,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -17199,7 +17199,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -17216,7 +17216,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -17233,7 +17233,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -17250,7 +17250,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -17267,7 +17267,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -17284,7 +17284,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -17301,7 +17301,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -17318,7 +17318,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -17335,7 +17335,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -17352,7 +17352,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -17369,7 +17369,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -17386,7 +17386,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -17403,7 +17403,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -17420,7 +17420,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -17437,7 +17437,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -17454,7 +17454,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -17471,7 +17471,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -17488,7 +17488,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -17505,7 +17505,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -17522,7 +17522,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -17539,7 +17539,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -17556,7 +17556,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -17573,7 +17573,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -17590,7 +17590,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -17607,7 +17607,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -17624,7 +17624,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -17641,7 +17641,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -17658,7 +17658,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -17675,7 +17675,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -17692,7 +17692,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -17709,7 +17709,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -17726,7 +17726,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -17743,7 +17743,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -17760,7 +17760,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -17777,7 +17777,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -17794,7 +17794,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -17811,7 +17811,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -17828,7 +17828,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -17845,7 +17845,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -17862,7 +17862,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -17879,7 +17879,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -17896,7 +17896,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -17913,7 +17913,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -17930,7 +17930,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -17947,7 +17947,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -17964,7 +17964,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -17981,7 +17981,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -17998,7 +17998,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -18015,7 +18015,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -18032,7 +18032,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -18049,7 +18049,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -18066,7 +18066,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -18083,7 +18083,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -18100,7 +18100,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -18117,7 +18117,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -18134,7 +18134,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -18151,7 +18151,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -18168,7 +18168,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -18185,7 +18185,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -18202,7 +18202,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -18219,7 +18219,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -18236,7 +18236,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -18253,7 +18253,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -18270,7 +18270,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -18287,7 +18287,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -18304,7 +18304,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -18321,7 +18321,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -18338,7 +18338,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -18355,7 +18355,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -18372,7 +18372,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -18389,7 +18389,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -18406,7 +18406,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -18423,7 +18423,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -18440,7 +18440,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -18457,7 +18457,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -18474,7 +18474,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -18491,7 +18491,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -18508,7 +18508,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -18525,7 +18525,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -18542,7 +18542,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -18559,7 +18559,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -19281,7 +19281,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -19293,7 +19293,7 @@
         <v>464</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>469</v>
@@ -19307,7 +19307,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -19319,7 +19319,7 @@
         <v>464</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>470</v>
@@ -21147,7 +21147,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -21159,7 +21159,7 @@
         <v>464</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>492</v>
@@ -21173,7 +21173,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -21185,7 +21185,7 @@
         <v>464</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>493</v>
@@ -21199,7 +21199,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -21211,7 +21211,7 @@
         <v>464</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>494</v>
@@ -21225,22 +21225,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>465</v>
@@ -21249,27 +21249,27 @@
         <v>284</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>465</v>
@@ -21278,12 +21278,12 @@
         <v>284</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -21295,7 +21295,7 @@
         <v>464</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>495</v>
@@ -21309,7 +21309,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -21321,7 +21321,7 @@
         <v>464</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>496</v>
@@ -21335,7 +21335,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -21347,7 +21347,7 @@
         <v>464</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>497</v>
@@ -21361,7 +21361,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -21373,7 +21373,7 @@
         <v>464</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>498</v>
@@ -21387,7 +21387,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -21399,7 +21399,7 @@
         <v>464</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>499</v>
@@ -21413,7 +21413,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -21425,7 +21425,7 @@
         <v>464</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>500</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -21451,7 +21451,7 @@
         <v>464</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>501</v>
@@ -21465,22 +21465,22 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>465</v>
@@ -21489,27 +21489,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>465</v>
@@ -21518,27 +21518,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>465</v>
@@ -21547,27 +21547,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>465</v>
@@ -21576,27 +21576,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>465</v>
@@ -21605,27 +21605,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>465</v>
@@ -21634,27 +21634,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>465</v>
@@ -21663,27 +21663,27 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>465</v>
@@ -21692,27 +21692,27 @@
         <v>284</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>465</v>
@@ -21721,27 +21721,27 @@
         <v>284</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>465</v>
@@ -21750,27 +21750,27 @@
         <v>284</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>468</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>465</v>
@@ -21779,12 +21779,12 @@
         <v>284</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
@@ -21796,7 +21796,7 @@
         <v>464</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>502</v>
@@ -21810,7 +21810,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
@@ -21822,7 +21822,7 @@
         <v>464</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>503</v>
@@ -21836,7 +21836,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
@@ -21848,7 +21848,7 @@
         <v>464</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>504</v>
@@ -21862,7 +21862,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
@@ -21874,7 +21874,7 @@
         <v>464</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>505</v>
@@ -21914,10 +21914,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>507</v>
@@ -21926,7 +21926,7 @@
         <v>508</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>507</v>
@@ -21943,7 +21943,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>509</v>
@@ -21978,7 +21978,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -21995,7 +21995,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -22012,7 +22012,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -22029,7 +22029,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -22046,7 +22046,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -22063,7 +22063,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -22080,7 +22080,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -22097,7 +22097,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -22114,7 +22114,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -22131,7 +22131,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -22148,7 +22148,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -22165,7 +22165,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -22182,7 +22182,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -22199,7 +22199,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -22216,7 +22216,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -22233,7 +22233,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -22250,7 +22250,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -22267,7 +22267,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -22284,7 +22284,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -22301,7 +22301,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -22318,7 +22318,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -22335,7 +22335,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -22352,7 +22352,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -22369,7 +22369,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -22386,7 +22386,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -22403,7 +22403,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -22420,7 +22420,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -22437,7 +22437,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -22454,7 +22454,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -22471,7 +22471,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -22488,7 +22488,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -22505,7 +22505,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -22522,7 +22522,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -22539,7 +22539,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -22556,7 +22556,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -22573,7 +22573,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -22590,7 +22590,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -22607,7 +22607,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -22624,7 +22624,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -22641,7 +22641,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -22658,7 +22658,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -22675,7 +22675,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -22692,7 +22692,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -22709,7 +22709,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -22726,7 +22726,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -22743,7 +22743,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -22760,7 +22760,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -22777,7 +22777,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -22794,7 +22794,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -22811,7 +22811,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -22828,7 +22828,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -22845,7 +22845,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -22862,7 +22862,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -22879,7 +22879,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -22896,7 +22896,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -22913,7 +22913,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -22930,7 +22930,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -22947,7 +22947,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -22964,7 +22964,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -22981,7 +22981,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -22998,7 +22998,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -23015,7 +23015,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -23032,7 +23032,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -23049,7 +23049,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -23066,7 +23066,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -23083,7 +23083,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -23100,7 +23100,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -23117,7 +23117,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -23134,7 +23134,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -23151,7 +23151,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -23168,7 +23168,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -23185,7 +23185,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -23202,7 +23202,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -23219,7 +23219,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -23236,7 +23236,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -23253,7 +23253,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -23270,7 +23270,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -23287,7 +23287,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -23304,7 +23304,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -23321,7 +23321,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -23338,7 +23338,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -23355,7 +23355,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -23372,7 +23372,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -23389,7 +23389,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -23406,7 +23406,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -23423,7 +23423,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -23440,7 +23440,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -23457,7 +23457,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -23474,7 +23474,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -23491,7 +23491,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -23508,7 +23508,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -23525,7 +23525,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -23542,7 +23542,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -23559,7 +23559,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -23576,7 +23576,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -23593,7 +23593,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -23610,7 +23610,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -23627,7 +23627,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -23644,7 +23644,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -23661,7 +23661,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -23678,7 +23678,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -23695,7 +23695,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -23712,7 +23712,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -23729,7 +23729,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -23746,7 +23746,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -23763,7 +23763,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -23780,7 +23780,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -23797,7 +23797,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -23814,7 +23814,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -23831,7 +23831,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -23848,7 +23848,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -23865,7 +23865,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -23882,7 +23882,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -23899,7 +23899,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -23916,7 +23916,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -23933,7 +23933,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -23950,7 +23950,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -23967,7 +23967,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -23984,7 +23984,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -24001,7 +24001,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -24018,7 +24018,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -24035,7 +24035,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -24052,7 +24052,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -24069,7 +24069,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -24086,7 +24086,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -24103,7 +24103,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -24120,7 +24120,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -24137,7 +24137,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -24154,7 +24154,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -24171,7 +24171,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -24188,7 +24188,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -24205,7 +24205,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -24222,7 +24222,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -24239,7 +24239,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -24256,7 +24256,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -24273,7 +24273,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -24290,7 +24290,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -24307,7 +24307,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -24324,7 +24324,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -24341,7 +24341,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -24358,7 +24358,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -24375,7 +24375,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -24392,7 +24392,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -24409,7 +24409,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -24426,7 +24426,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -24443,7 +24443,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -24460,7 +24460,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -24477,7 +24477,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -24494,7 +24494,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -24511,7 +24511,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -24528,7 +24528,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -24545,7 +24545,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -24562,7 +24562,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -24579,7 +24579,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -24596,7 +24596,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -24613,7 +24613,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -24630,7 +24630,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -24647,7 +24647,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -24664,7 +24664,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -24681,7 +24681,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -24698,7 +24698,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -24715,7 +24715,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -24732,7 +24732,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -24749,7 +24749,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -24766,7 +24766,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -24783,7 +24783,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -25507,7 +25507,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -25519,7 +25519,7 @@
         <v>512</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>516</v>
@@ -25533,7 +25533,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -25545,7 +25545,7 @@
         <v>512</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>517</v>
@@ -27373,7 +27373,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -27385,7 +27385,7 @@
         <v>512</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>538</v>
@@ -27399,7 +27399,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -27411,7 +27411,7 @@
         <v>512</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>539</v>
@@ -27425,7 +27425,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -27437,7 +27437,7 @@
         <v>512</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>540</v>
@@ -27451,22 +27451,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>513</v>
@@ -27475,27 +27475,27 @@
         <v>284</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>513</v>
@@ -27504,12 +27504,12 @@
         <v>284</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -27521,7 +27521,7 @@
         <v>512</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>541</v>
@@ -27535,7 +27535,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -27547,7 +27547,7 @@
         <v>512</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>542</v>
@@ -27561,7 +27561,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
@@ -27573,7 +27573,7 @@
         <v>512</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>543</v>
@@ -27587,7 +27587,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
@@ -27599,7 +27599,7 @@
         <v>512</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>544</v>
@@ -27613,7 +27613,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -27625,7 +27625,7 @@
         <v>512</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>545</v>
@@ -27639,7 +27639,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -27651,7 +27651,7 @@
         <v>512</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>546</v>
@@ -27665,7 +27665,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
@@ -27677,7 +27677,7 @@
         <v>512</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>547</v>
@@ -27691,22 +27691,22 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>513</v>
@@ -27715,27 +27715,27 @@
         <v>284</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>513</v>
@@ -27744,27 +27744,27 @@
         <v>284</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>513</v>
@@ -27773,27 +27773,27 @@
         <v>284</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>513</v>
@@ -27802,27 +27802,27 @@
         <v>284</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>513</v>
@@ -27831,27 +27831,27 @@
         <v>284</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>513</v>
@@ -27860,27 +27860,27 @@
         <v>284</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>513</v>
@@ -27889,27 +27889,27 @@
         <v>284</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>513</v>
@@ -27918,27 +27918,27 @@
         <v>284</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>513</v>
@@ -27947,27 +27947,27 @@
         <v>284</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>513</v>
@@ -27976,27 +27976,27 @@
         <v>284</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>513</v>
@@ -28005,12 +28005,12 @@
         <v>284</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
@@ -28022,7 +28022,7 @@
         <v>512</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>548</v>
@@ -28036,7 +28036,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
@@ -28048,7 +28048,7 @@
         <v>512</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>549</v>
@@ -28062,7 +28062,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
@@ -28074,7 +28074,7 @@
         <v>512</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>550</v>
@@ -28088,7 +28088,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
@@ -28100,7 +28100,7 @@
         <v>512</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>551</v>
@@ -28140,10 +28140,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>553</v>
@@ -28152,7 +28152,7 @@
         <v>554</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>553</v>
@@ -28169,7 +28169,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>555</v>
@@ -28204,7 +28204,7 @@
         <v>316</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -28221,7 +28221,7 @@
         <v>316</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107">
@@ -28238,7 +28238,7 @@
         <v>316</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108">
@@ -28255,7 +28255,7 @@
         <v>316</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109">
@@ -28272,7 +28272,7 @@
         <v>316</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110">
@@ -28289,7 +28289,7 @@
         <v>316</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111">
@@ -28306,7 +28306,7 @@
         <v>316</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112">
@@ -28323,7 +28323,7 @@
         <v>316</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113">
@@ -28340,7 +28340,7 @@
         <v>316</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114">
@@ -28357,7 +28357,7 @@
         <v>316</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115">
@@ -28374,7 +28374,7 @@
         <v>316</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116">
@@ -28391,7 +28391,7 @@
         <v>316</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117">
@@ -28408,7 +28408,7 @@
         <v>316</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -28425,7 +28425,7 @@
         <v>316</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
@@ -28442,7 +28442,7 @@
         <v>316</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120">
@@ -28459,7 +28459,7 @@
         <v>316</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121">
@@ -28476,7 +28476,7 @@
         <v>316</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122">
@@ -28493,7 +28493,7 @@
         <v>316</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -28510,7 +28510,7 @@
         <v>316</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124">
@@ -28527,7 +28527,7 @@
         <v>316</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125">
@@ -28544,7 +28544,7 @@
         <v>316</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126">
@@ -28561,7 +28561,7 @@
         <v>316</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127">
@@ -28578,7 +28578,7 @@
         <v>316</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128">
@@ -28595,7 +28595,7 @@
         <v>316</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129">
@@ -28612,7 +28612,7 @@
         <v>316</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130">
@@ -28629,7 +28629,7 @@
         <v>316</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -28646,7 +28646,7 @@
         <v>316</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132">
@@ -28663,7 +28663,7 @@
         <v>316</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133">
@@ -28680,7 +28680,7 @@
         <v>316</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
@@ -28697,7 +28697,7 @@
         <v>316</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135">
@@ -28714,7 +28714,7 @@
         <v>316</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -28731,7 +28731,7 @@
         <v>316</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137">
@@ -28748,7 +28748,7 @@
         <v>316</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138">
@@ -28765,7 +28765,7 @@
         <v>316</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139">
@@ -28782,7 +28782,7 @@
         <v>316</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140">
@@ -28799,7 +28799,7 @@
         <v>316</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141">
@@ -28816,7 +28816,7 @@
         <v>316</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -28833,7 +28833,7 @@
         <v>316</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143">
@@ -28850,7 +28850,7 @@
         <v>316</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
@@ -28867,7 +28867,7 @@
         <v>316</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
@@ -28884,7 +28884,7 @@
         <v>316</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146">
@@ -28901,7 +28901,7 @@
         <v>316</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
@@ -28918,7 +28918,7 @@
         <v>316</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148">
@@ -28935,7 +28935,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149">
@@ -28952,7 +28952,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150">
@@ -28969,7 +28969,7 @@
         <v>316</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151">
@@ -28986,7 +28986,7 @@
         <v>316</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152">
@@ -29003,7 +29003,7 @@
         <v>316</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153">
@@ -29020,7 +29020,7 @@
         <v>316</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154">
@@ -29037,7 +29037,7 @@
         <v>316</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155">
@@ -29054,7 +29054,7 @@
         <v>316</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156">
@@ -29071,7 +29071,7 @@
         <v>316</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157">
@@ -29088,7 +29088,7 @@
         <v>316</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158">
@@ -29105,7 +29105,7 @@
         <v>316</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159">
@@ -29122,7 +29122,7 @@
         <v>316</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160">
@@ -29139,7 +29139,7 @@
         <v>316</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161">
@@ -29156,7 +29156,7 @@
         <v>316</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -29173,7 +29173,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163">
@@ -29190,7 +29190,7 @@
         <v>316</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164">
@@ -29207,7 +29207,7 @@
         <v>316</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165">
@@ -29224,7 +29224,7 @@
         <v>316</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166">
@@ -29241,7 +29241,7 @@
         <v>316</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167">
@@ -29258,7 +29258,7 @@
         <v>316</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -29275,7 +29275,7 @@
         <v>316</v>
       </c>
       <c r="H168" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169">
@@ -29292,7 +29292,7 @@
         <v>316</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170">
@@ -29309,7 +29309,7 @@
         <v>316</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171">
@@ -29326,7 +29326,7 @@
         <v>316</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172">
@@ -29343,7 +29343,7 @@
         <v>316</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173">
@@ -29360,7 +29360,7 @@
         <v>316</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174">
@@ -29377,7 +29377,7 @@
         <v>316</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175">
@@ -29394,7 +29394,7 @@
         <v>316</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176">
@@ -29411,7 +29411,7 @@
         <v>316</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
@@ -29428,7 +29428,7 @@
         <v>316</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178">
@@ -29445,7 +29445,7 @@
         <v>316</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179">
@@ -29462,7 +29462,7 @@
         <v>316</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180">
@@ -29479,7 +29479,7 @@
         <v>316</v>
       </c>
       <c r="H180" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181">
@@ -29496,7 +29496,7 @@
         <v>316</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182">
@@ -29513,7 +29513,7 @@
         <v>316</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183">
@@ -29530,7 +29530,7 @@
         <v>316</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184">
@@ -29547,7 +29547,7 @@
         <v>316</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185">
@@ -29564,7 +29564,7 @@
         <v>316</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186">
@@ -29581,7 +29581,7 @@
         <v>316</v>
       </c>
       <c r="H186" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -29598,7 +29598,7 @@
         <v>316</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -29615,7 +29615,7 @@
         <v>316</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -29632,7 +29632,7 @@
         <v>316</v>
       </c>
       <c r="H189" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -29649,7 +29649,7 @@
         <v>316</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191">
@@ -29666,7 +29666,7 @@
         <v>316</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192">
@@ -29683,7 +29683,7 @@
         <v>316</v>
       </c>
       <c r="H192" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193">
@@ -29700,7 +29700,7 @@
         <v>316</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194">
@@ -29717,7 +29717,7 @@
         <v>316</v>
       </c>
       <c r="H194" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195">
@@ -29734,7 +29734,7 @@
         <v>316</v>
       </c>
       <c r="H195" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196">
@@ -29751,7 +29751,7 @@
         <v>316</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
@@ -29768,7 +29768,7 @@
         <v>316</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198">
@@ -29785,7 +29785,7 @@
         <v>316</v>
       </c>
       <c r="H198" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199">
@@ -29802,7 +29802,7 @@
         <v>316</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200">
@@ -29819,7 +29819,7 @@
         <v>316</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -29836,7 +29836,7 @@
         <v>316</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202">
@@ -29853,7 +29853,7 @@
         <v>316</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
@@ -29870,7 +29870,7 @@
         <v>316</v>
       </c>
       <c r="H203" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204">
@@ -29887,7 +29887,7 @@
         <v>316</v>
       </c>
       <c r="H204" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205">
@@ -29904,7 +29904,7 @@
         <v>316</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206">
@@ -29921,7 +29921,7 @@
         <v>316</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -29938,7 +29938,7 @@
         <v>316</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208">
@@ -29955,7 +29955,7 @@
         <v>316</v>
       </c>
       <c r="H208" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209">
@@ -29972,7 +29972,7 @@
         <v>316</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210">
@@ -29989,7 +29989,7 @@
         <v>316</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211">
@@ -30006,7 +30006,7 @@
         <v>316</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212">
@@ -30023,7 +30023,7 @@
         <v>316</v>
       </c>
       <c r="H212" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213">
@@ -30040,7 +30040,7 @@
         <v>316</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214">
@@ -30057,7 +30057,7 @@
         <v>316</v>
       </c>
       <c r="H214" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215">
@@ -30074,7 +30074,7 @@
         <v>316</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216">
@@ -30091,7 +30091,7 @@
         <v>316</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217">
@@ -30108,7 +30108,7 @@
         <v>316</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="218">
@@ -30125,7 +30125,7 @@
         <v>316</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219">
@@ -30142,7 +30142,7 @@
         <v>316</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220">
@@ -30159,7 +30159,7 @@
         <v>316</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221">
@@ -30176,7 +30176,7 @@
         <v>316</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222">
@@ -30193,7 +30193,7 @@
         <v>316</v>
       </c>
       <c r="H222" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223">
@@ -30210,7 +30210,7 @@
         <v>316</v>
       </c>
       <c r="H223" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
@@ -30227,7 +30227,7 @@
         <v>316</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225">
@@ -30244,7 +30244,7 @@
         <v>316</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226">
@@ -30261,7 +30261,7 @@
         <v>316</v>
       </c>
       <c r="H226" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
@@ -30278,7 +30278,7 @@
         <v>316</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228">
@@ -30295,7 +30295,7 @@
         <v>316</v>
       </c>
       <c r="H228" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
@@ -30312,7 +30312,7 @@
         <v>316</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230">
@@ -30329,7 +30329,7 @@
         <v>316</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231">
@@ -30346,7 +30346,7 @@
         <v>316</v>
       </c>
       <c r="H231" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232">
@@ -30363,7 +30363,7 @@
         <v>316</v>
       </c>
       <c r="H232" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233">
@@ -30380,7 +30380,7 @@
         <v>316</v>
       </c>
       <c r="H233" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234">
@@ -30397,7 +30397,7 @@
         <v>316</v>
       </c>
       <c r="H234" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235">
@@ -30414,7 +30414,7 @@
         <v>316</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236">
@@ -30431,7 +30431,7 @@
         <v>316</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
@@ -30448,7 +30448,7 @@
         <v>316</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238">
@@ -30465,7 +30465,7 @@
         <v>316</v>
       </c>
       <c r="H238" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239">
@@ -30482,7 +30482,7 @@
         <v>316</v>
       </c>
       <c r="H239" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240">
@@ -30499,7 +30499,7 @@
         <v>316</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241">
@@ -30516,7 +30516,7 @@
         <v>316</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242">
@@ -30533,7 +30533,7 @@
         <v>316</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243">
@@ -30550,7 +30550,7 @@
         <v>316</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -30567,7 +30567,7 @@
         <v>316</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245">
@@ -30584,7 +30584,7 @@
         <v>316</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246">
@@ -30601,7 +30601,7 @@
         <v>316</v>
       </c>
       <c r="H246" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247">
@@ -30618,7 +30618,7 @@
         <v>316</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248">
@@ -30635,7 +30635,7 @@
         <v>316</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249">
@@ -30652,7 +30652,7 @@
         <v>316</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250">
@@ -30669,7 +30669,7 @@
         <v>316</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251">
@@ -30686,7 +30686,7 @@
         <v>316</v>
       </c>
       <c r="H251" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252">
@@ -30703,7 +30703,7 @@
         <v>316</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253">
@@ -30720,7 +30720,7 @@
         <v>316</v>
       </c>
       <c r="H253" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254">
@@ -30737,7 +30737,7 @@
         <v>316</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255">
@@ -30754,7 +30754,7 @@
         <v>316</v>
       </c>
       <c r="H255" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256">
@@ -30771,7 +30771,7 @@
         <v>316</v>
       </c>
       <c r="H256" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257">
@@ -30788,7 +30788,7 @@
         <v>316</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258">
@@ -30805,7 +30805,7 @@
         <v>316</v>
       </c>
       <c r="H258" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259">
@@ -30822,7 +30822,7 @@
         <v>316</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260">
@@ -30839,7 +30839,7 @@
         <v>316</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="261">
@@ -30856,7 +30856,7 @@
         <v>316</v>
       </c>
       <c r="H261" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262">
@@ -30873,7 +30873,7 @@
         <v>316</v>
       </c>
       <c r="H262" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="263">
@@ -30890,7 +30890,7 @@
         <v>316</v>
       </c>
       <c r="H263" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264">
@@ -30907,7 +30907,7 @@
         <v>316</v>
       </c>
       <c r="H264" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265">
@@ -30924,7 +30924,7 @@
         <v>316</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266">
@@ -30941,7 +30941,7 @@
         <v>316</v>
       </c>
       <c r="H266" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267">
@@ -30958,7 +30958,7 @@
         <v>316</v>
       </c>
       <c r="H267" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268">
@@ -30975,7 +30975,7 @@
         <v>316</v>
       </c>
       <c r="H268" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269">
@@ -30992,7 +30992,7 @@
         <v>316</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="270">
@@ -31009,7 +31009,7 @@
         <v>316</v>
       </c>
       <c r="H270" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="569">
   <si>
     <t>File Name</t>
   </si>
@@ -1233,10 +1233,10 @@
     <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 06:45:58</t>
-  </si>
-  <si>
-    <t>2016-01-27 06:06:31</t>
+    <t>2016-01-27 07:05:56</t>
+  </si>
+  <si>
+    <t>2016-01-27 06:56:20</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf</t>
@@ -1299,6 +1299,9 @@
     <t>2c002b52f06d990a5f2dcad7d189fa870a6f55ff.xlf</t>
   </si>
   <si>
+    <t>0291267af91e0eb2f2bcc068176fe822a7727df3.xlf</t>
+  </si>
+  <si>
     <t>f1d4a5b13433e56c846ff8029a17813ff8d4477b.xlf</t>
   </si>
   <si>
@@ -1398,15 +1401,6 @@
     <t>0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf</t>
   </si>
   <si>
-    <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 06:46:10</t>
-  </si>
-  <si>
-    <t>0291267af91e0eb2f2bcc068176fe822a7727df3.xlf</t>
-  </si>
-  <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.de-de.xlf</t>
   </si>
   <si>
@@ -1485,6 +1479,9 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.ja-jp.xlf</t>
   </si>
   <si>
+    <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.ja-jp.xlf</t>
+  </si>
+  <si>
     <t>walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.ja-jp.xlf</t>
   </si>
   <si>
@@ -1573,12 +1570,6 @@
   </si>
   <si>
     <t>TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 06:46:23</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf</t>
@@ -1636,6 +1627,9 @@
     <t>walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-tw.xlf</t>
   </si>
   <si>
+    <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf</t>
+  </si>
+  <si>
     <t>walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-tw.xlf</t>
   </si>
   <si>
@@ -1718,12 +1712,6 @@
   </si>
   <si>
     <t>TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-27 06:46:35</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf</t>
@@ -3622,13 +3610,13 @@
         <v>76</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -14525,7 +14513,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>6</v>
@@ -14537,7 +14525,7 @@
         <v>416</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>425</v>
@@ -14551,7 +14539,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>6</v>
@@ -14563,7 +14551,7 @@
         <v>416</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>426</v>
@@ -14577,7 +14565,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>6</v>
@@ -14589,7 +14577,7 @@
         <v>416</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>427</v>
@@ -14603,7 +14591,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>6</v>
@@ -14615,7 +14603,7 @@
         <v>416</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>428</v>
@@ -14629,7 +14617,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>6</v>
@@ -14641,7 +14629,7 @@
         <v>416</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>429</v>
@@ -14655,7 +14643,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>6</v>
@@ -14667,7 +14655,7 @@
         <v>416</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>430</v>
@@ -14681,7 +14669,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>6</v>
@@ -14693,7 +14681,7 @@
         <v>416</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>431</v>
@@ -14707,36 +14695,39 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>416</v>
       </c>
+      <c r="E62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="G62" s="0" t="s">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>416</v>
@@ -14753,13 +14744,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>416</v>
@@ -14776,25 +14767,19 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="G65" s="0" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>285</v>
@@ -14805,33 +14790,36 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>432</v>
+        <v>356</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>432</v>
+        <v>356</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>417</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>6</v>
@@ -14843,7 +14831,7 @@
         <v>416</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>433</v>
@@ -14857,7 +14845,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>6</v>
@@ -14869,7 +14857,7 @@
         <v>416</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>434</v>
@@ -14883,7 +14871,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>6</v>
@@ -14895,7 +14883,7 @@
         <v>416</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>435</v>
@@ -14909,7 +14897,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>6</v>
@@ -14921,7 +14909,7 @@
         <v>416</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>436</v>
@@ -14935,7 +14923,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>6</v>
@@ -14947,7 +14935,7 @@
         <v>416</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>437</v>
@@ -14961,7 +14949,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>6</v>
@@ -14973,7 +14961,7 @@
         <v>416</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>438</v>
@@ -14987,51 +14975,48 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>367</v>
+        <v>439</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>367</v>
+        <v>439</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>417</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>417</v>
@@ -15040,38 +15025,41 @@
         <v>285</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>417</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
@@ -15083,7 +15071,7 @@
         <v>416</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>440</v>
@@ -15097,7 +15085,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
@@ -15106,16 +15094,16 @@
         <v>441</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>441</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>281</v>
@@ -15123,25 +15111,25 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G78" s="0" t="s">
         <v>444</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>417</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>281</v>
@@ -15149,7 +15137,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
@@ -15161,7 +15149,7 @@
         <v>416</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>445</v>
@@ -15175,7 +15163,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -15187,7 +15175,7 @@
         <v>416</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>446</v>
@@ -15201,7 +15189,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -15213,7 +15201,7 @@
         <v>416</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>447</v>
@@ -15227,51 +15215,48 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>417</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>379</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>417</v>
@@ -15280,27 +15265,27 @@
         <v>285</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>417</v>
@@ -15309,27 +15294,27 @@
         <v>285</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>417</v>
@@ -15338,27 +15323,27 @@
         <v>285</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>417</v>
@@ -15367,27 +15352,27 @@
         <v>285</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>417</v>
@@ -15401,22 +15386,22 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>417</v>
@@ -15430,22 +15415,22 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>417</v>
@@ -15459,22 +15444,22 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>417</v>
@@ -15488,22 +15473,22 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>417</v>
@@ -15512,27 +15497,27 @@
         <v>285</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>417</v>
@@ -15546,33 +15531,36 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>417</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
@@ -15584,7 +15572,7 @@
         <v>416</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>449</v>
@@ -15598,7 +15586,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
@@ -15610,7 +15598,7 @@
         <v>416</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>450</v>
@@ -15624,7 +15612,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
@@ -15636,7 +15624,7 @@
         <v>416</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>451</v>
@@ -15650,7 +15638,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
@@ -15662,7 +15650,7 @@
         <v>416</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>452</v>
@@ -15676,22 +15664,22 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>453</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>417</v>
@@ -15702,22 +15690,22 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>417</v>
@@ -15728,22 +15716,22 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>76</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>417</v>
@@ -15760,16 +15748,16 @@
         <v>76</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>417</v>
@@ -15786,16 +15774,16 @@
         <v>76</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>417</v>
@@ -15812,10 +15800,10 @@
         <v>76</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>317</v>
@@ -15832,16 +15820,16 @@
         <v>76</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>417</v>
@@ -15858,19 +15846,19 @@
         <v>76</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F105" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G105" s="0" t="s">
         <v>472</v>
-      </c>
-      <c r="G105" s="0" t="s">
-        <v>474</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>281</v>
@@ -18894,184 +18882,184 @@
     <hyperlink ref="C54" display="2c002b52f06d990a5f2dcad7d189fa870a6f55ff.xlf" r:id="rId193"/>
     <hyperlink ref="E54" display="walkthrough_checkpoints.md" r:id="rId194"/>
     <hyperlink ref="F54" display="2c002b52f06d990a5f2dcad7d189fa870a6f55ff.xlf" r:id="rId195"/>
-    <hyperlink ref="A55" display="walkthrough_export_import.md" r:id="rId196"/>
-    <hyperlink ref="C55" display="f1d4a5b13433e56c846ff8029a17813ff8d4477b.xlf" r:id="rId197"/>
-    <hyperlink ref="E55" display="walkthrough_export_import.md" r:id="rId198"/>
-    <hyperlink ref="F55" display="f1d4a5b13433e56c846ff8029a17813ff8d4477b.xlf" r:id="rId199"/>
-    <hyperlink ref="A56" display="walkthrough_install.md" r:id="rId200"/>
-    <hyperlink ref="C56" display="ac40b986711bfbb497347d664480dffc56630be3.xlf" r:id="rId201"/>
-    <hyperlink ref="E56" display="walkthrough_install.md" r:id="rId202"/>
-    <hyperlink ref="F56" display="ac40b986711bfbb497347d664480dffc56630be3.xlf" r:id="rId203"/>
-    <hyperlink ref="A57" display="walkthrough_powershell.md" r:id="rId204"/>
-    <hyperlink ref="C57" display="d5ff93f76a16632d5909862b698bee3b388b3e9d.xlf" r:id="rId205"/>
-    <hyperlink ref="E57" display="walkthrough_powershell.md" r:id="rId206"/>
-    <hyperlink ref="F57" display="d5ff93f76a16632d5909862b698bee3b388b3e9d.xlf" r:id="rId207"/>
-    <hyperlink ref="A58" display="walkthrough_virtual_switch.md" r:id="rId208"/>
-    <hyperlink ref="C58" display="12593a84a3881dd6f3e343af2777976f1505c9fc.xlf" r:id="rId209"/>
-    <hyperlink ref="E58" display="walkthrough_virtual_switch.md" r:id="rId210"/>
-    <hyperlink ref="F58" display="12593a84a3881dd6f3e343af2777976f1505c9fc.xlf" r:id="rId211"/>
-    <hyperlink ref="A59" display="walkthrough_vmconnect.md" r:id="rId212"/>
-    <hyperlink ref="C59" display="03fe1e66908d536b310a1e4e8da4d58551243ede.xlf" r:id="rId213"/>
-    <hyperlink ref="E59" display="walkthrough_vmconnect.md" r:id="rId214"/>
-    <hyperlink ref="F59" display="03fe1e66908d536b310a1e4e8da4d58551243ede.xlf" r:id="rId215"/>
-    <hyperlink ref="A60" display="checkpoints.md" r:id="rId216"/>
-    <hyperlink ref="C60" display="15ca83a671c5bc684c7d4c7634b537c068af3643.xlf" r:id="rId217"/>
-    <hyperlink ref="E60" display="checkpoints.md" r:id="rId218"/>
-    <hyperlink ref="F60" display="15ca83a671c5bc684c7d4c7634b537c068af3643.xlf" r:id="rId219"/>
-    <hyperlink ref="A61" display="export_import.md" r:id="rId220"/>
-    <hyperlink ref="C61" display="5e973d501f7a3e3598bc3f8b966d79cc5e79b1b9.xlf" r:id="rId221"/>
-    <hyperlink ref="E61" display="export_import.md" r:id="rId222"/>
-    <hyperlink ref="F61" display="5e973d501f7a3e3598bc3f8b966d79cc5e79b1b9.xlf" r:id="rId223"/>
-    <hyperlink ref="A62" display="HyperVManager-ConnectToHost.PNG" r:id="rId224"/>
-    <hyperlink ref="C62" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId225"/>
-    <hyperlink ref="A63" display="HyperVManager-ConnectToLocalHost.PNG" r:id="rId226"/>
-    <hyperlink ref="C63" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId227"/>
-    <hyperlink ref="A64" display="HyperVManager-ConnectToRemoteHost.PNG" r:id="rId228"/>
-    <hyperlink ref="C64" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId229"/>
-    <hyperlink ref="A65" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId230"/>
-    <hyperlink ref="C65" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId231"/>
-    <hyperlink ref="E65" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId232"/>
-    <hyperlink ref="F65" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId233"/>
-    <hyperlink ref="A66" display="migrating_vms.md" r:id="rId234"/>
-    <hyperlink ref="C66" display="b481c00b278cb366330919c9dd0b76cb7f61d425.xlf" r:id="rId235"/>
-    <hyperlink ref="E66" display="migrating_vms.md" r:id="rId236"/>
-    <hyperlink ref="F66" display="b481c00b278cb366330919c9dd0b76cb7f61d425.xlf" r:id="rId237"/>
-    <hyperlink ref="A67" display="remote_host_management.md" r:id="rId238"/>
-    <hyperlink ref="C67" display="fc9e1361210658701cbe2d2a6fbc05ef6b448eab.xlf" r:id="rId239"/>
-    <hyperlink ref="E67" display="remote_host_management.md" r:id="rId240"/>
-    <hyperlink ref="F67" display="fc9e1361210658701cbe2d2a6fbc05ef6b448eab.xlf" r:id="rId241"/>
-    <hyperlink ref="A68" display="troubleshooting.md" r:id="rId242"/>
-    <hyperlink ref="C68" display="033950f25a30f7bccb308c22d6fa96b166d7ed01.xlf" r:id="rId243"/>
-    <hyperlink ref="E68" display="troubleshooting.md" r:id="rId244"/>
-    <hyperlink ref="F68" display="033950f25a30f7bccb308c22d6fa96b166d7ed01.xlf" r:id="rId245"/>
-    <hyperlink ref="A69" display="user_guide_nav.md" r:id="rId246"/>
-    <hyperlink ref="C69" display="aa52aec3f340382372099f311751e7efe7284749.xlf" r:id="rId247"/>
-    <hyperlink ref="E69" display="user_guide_nav.md" r:id="rId248"/>
-    <hyperlink ref="F69" display="aa52aec3f340382372099f311751e7efe7284749.xlf" r:id="rId249"/>
-    <hyperlink ref="A70" display="vmsession.md" r:id="rId250"/>
-    <hyperlink ref="C70" display="8038edc8eac0a017e688401c61e5a78787f26bd6.xlf" r:id="rId251"/>
-    <hyperlink ref="E70" display="vmsession.md" r:id="rId252"/>
-    <hyperlink ref="F70" display="8038edc8eac0a017e688401c61e5a78787f26bd6.xlf" r:id="rId253"/>
-    <hyperlink ref="A71" display="container_ecosystem.md" r:id="rId254"/>
-    <hyperlink ref="C71" display="6c0ebd80ac08763eafebe935b08194a526ad59fa.xlf" r:id="rId255"/>
-    <hyperlink ref="E71" display="container_ecosystem.md" r:id="rId256"/>
-    <hyperlink ref="F71" display="6c0ebd80ac08763eafebe935b08194a526ad59fa.xlf" r:id="rId257"/>
-    <hyperlink ref="A72" display="faq.md" r:id="rId258"/>
-    <hyperlink ref="C72" display="f176f83a5f5bc76e32b5687866d2ced7d0a91d57.xlf" r:id="rId259"/>
-    <hyperlink ref="E72" display="faq.md" r:id="rId260"/>
-    <hyperlink ref="F72" display="f176f83a5f5bc76e32b5687866d2ced7d0a91d57.xlf" r:id="rId261"/>
-    <hyperlink ref="A73" display="containerEcosystem.png" r:id="rId262"/>
-    <hyperlink ref="C73" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId263"/>
-    <hyperlink ref="E73" display="containerEcosystem.png" r:id="rId264"/>
-    <hyperlink ref="F73" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId265"/>
-    <hyperlink ref="A74" display="containerfund.png" r:id="rId266"/>
-    <hyperlink ref="C74" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId267"/>
-    <hyperlink ref="E74" display="containerfund.png" r:id="rId268"/>
-    <hyperlink ref="F74" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId269"/>
-    <hyperlink ref="A75" display="work_in_progress.md" r:id="rId270"/>
-    <hyperlink ref="C75" display="090e2dccc937df4c7a80f63b447cb733af5020a3.xlf" r:id="rId271"/>
-    <hyperlink ref="E75" display="work_in_progress.md" r:id="rId272"/>
-    <hyperlink ref="F75" display="090e2dccc937df4c7a80f63b447cb733af5020a3.xlf" r:id="rId273"/>
-    <hyperlink ref="A76" display="EULA.md" r:id="rId274"/>
-    <hyperlink ref="C76" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId275"/>
-    <hyperlink ref="E76" display="EULA.md" r:id="rId276"/>
-    <hyperlink ref="F76" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId277"/>
-    <hyperlink ref="A77" display="azure_setup.md" r:id="rId278"/>
-    <hyperlink ref="C77" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.de-de.xlf" r:id="rId279"/>
-    <hyperlink ref="E77" display="azure_setup.md" r:id="rId280"/>
-    <hyperlink ref="F77" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.de-de.xlf" r:id="rId281"/>
-    <hyperlink ref="A78" display="container_setup.md" r:id="rId282"/>
-    <hyperlink ref="C78" display="bca267ee574504e3cb6d2c42f2aa095a3ace3619.xlf" r:id="rId283"/>
-    <hyperlink ref="E78" display="container_setup.md" r:id="rId284"/>
-    <hyperlink ref="F78" display="bca267ee574504e3cb6d2c42f2aa095a3ace3619.xlf" r:id="rId285"/>
-    <hyperlink ref="A79" display="inplace_setup.md" r:id="rId286"/>
-    <hyperlink ref="C79" display="8ff71abc14066d1fcaf3324d44c3e6be492a93cc.xlf" r:id="rId287"/>
-    <hyperlink ref="E79" display="inplace_setup.md" r:id="rId288"/>
-    <hyperlink ref="F79" display="8ff71abc14066d1fcaf3324d44c3e6be492a93cc.xlf" r:id="rId289"/>
-    <hyperlink ref="A80" display="manage_docker.md" r:id="rId290"/>
-    <hyperlink ref="C80" display="f33e1b71d387e12b9baf442cdbf79912961da149.xlf" r:id="rId291"/>
-    <hyperlink ref="E80" display="manage_docker.md" r:id="rId292"/>
-    <hyperlink ref="F80" display="f33e1b71d387e12b9baf442cdbf79912961da149.xlf" r:id="rId293"/>
-    <hyperlink ref="A81" display="manage_powershell.md" r:id="rId294"/>
-    <hyperlink ref="C81" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId295"/>
-    <hyperlink ref="E81" display="manage_powershell.md" r:id="rId296"/>
-    <hyperlink ref="F81" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId297"/>
-    <hyperlink ref="A82" display="cmd.png" r:id="rId298"/>
-    <hyperlink ref="C82" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId299"/>
-    <hyperlink ref="E82" display="cmd.png" r:id="rId300"/>
-    <hyperlink ref="F82" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId301"/>
-    <hyperlink ref="A83" display="containerhost2.png" r:id="rId302"/>
-    <hyperlink ref="C83" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId303"/>
-    <hyperlink ref="E83" display="containerhost2.png" r:id="rId304"/>
-    <hyperlink ref="F83" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId305"/>
-    <hyperlink ref="A84" display="docker1.png" r:id="rId306"/>
-    <hyperlink ref="C84" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId307"/>
-    <hyperlink ref="E84" display="docker1.png" r:id="rId308"/>
-    <hyperlink ref="F84" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId309"/>
-    <hyperlink ref="A85" display="hello.png" r:id="rId310"/>
-    <hyperlink ref="C85" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId311"/>
-    <hyperlink ref="E85" display="hello.png" r:id="rId312"/>
-    <hyperlink ref="F85" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId313"/>
-    <hyperlink ref="A86" display="newazure1.png" r:id="rId314"/>
-    <hyperlink ref="C86" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId315"/>
-    <hyperlink ref="E86" display="newazure1.png" r:id="rId316"/>
-    <hyperlink ref="F86" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId317"/>
-    <hyperlink ref="A87" display="newazure2.png" r:id="rId318"/>
-    <hyperlink ref="C87" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId319"/>
-    <hyperlink ref="E87" display="newazure2.png" r:id="rId320"/>
-    <hyperlink ref="F87" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId321"/>
-    <hyperlink ref="A88" display="newazure3.png" r:id="rId322"/>
-    <hyperlink ref="C88" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId323"/>
-    <hyperlink ref="E88" display="newazure3.png" r:id="rId324"/>
-    <hyperlink ref="F88" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId325"/>
-    <hyperlink ref="A89" display="newazure6.png" r:id="rId326"/>
-    <hyperlink ref="C89" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId327"/>
-    <hyperlink ref="E89" display="newazure6.png" r:id="rId328"/>
-    <hyperlink ref="F89" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId329"/>
-    <hyperlink ref="A90" display="newazure7.png" r:id="rId330"/>
-    <hyperlink ref="C90" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId331"/>
-    <hyperlink ref="E90" display="newazure7.png" r:id="rId332"/>
-    <hyperlink ref="F90" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId333"/>
-    <hyperlink ref="A91" display="newazure9.png" r:id="rId334"/>
-    <hyperlink ref="C91" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId335"/>
-    <hyperlink ref="E91" display="newazure9.png" r:id="rId336"/>
-    <hyperlink ref="F91" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId337"/>
-    <hyperlink ref="A92" display="nginx.png" r:id="rId338"/>
-    <hyperlink ref="C92" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId339"/>
-    <hyperlink ref="E92" display="nginx.png" r:id="rId340"/>
-    <hyperlink ref="F92" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId341"/>
-    <hyperlink ref="A93" display="quickstart.md" r:id="rId342"/>
-    <hyperlink ref="C93" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId343"/>
-    <hyperlink ref="E93" display="quickstart.md" r:id="rId344"/>
-    <hyperlink ref="F93" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId345"/>
-    <hyperlink ref="A94" display="app_compat.md" r:id="rId346"/>
-    <hyperlink ref="C94" display="72f87d2e53fca40a971aaf3a64bed0cc84d3de03.xlf" r:id="rId347"/>
-    <hyperlink ref="E94" display="app_compat.md" r:id="rId348"/>
-    <hyperlink ref="F94" display="72f87d2e53fca40a971aaf3a64bed0cc84d3de03.xlf" r:id="rId349"/>
-    <hyperlink ref="A95" display="powershell_overview.md" r:id="rId350"/>
-    <hyperlink ref="C95" display="041b88830b633f85459d3b5be24b0d68ba8071bd.xlf" r:id="rId351"/>
-    <hyperlink ref="E95" display="powershell_overview.md" r:id="rId352"/>
-    <hyperlink ref="F95" display="041b88830b633f85459d3b5be24b0d68ba8071bd.xlf" r:id="rId353"/>
-    <hyperlink ref="A96" display="ps_docker_comparison.md" r:id="rId354"/>
-    <hyperlink ref="C96" display="a9225b180b1df05d803b0ba2f23be237d7176f4d.xlf" r:id="rId355"/>
-    <hyperlink ref="E96" display="ps_docker_comparison.md" r:id="rId356"/>
-    <hyperlink ref="F96" display="a9225b180b1df05d803b0ba2f23be237d7176f4d.xlf" r:id="rId357"/>
-    <hyperlink ref="A97" display="TOC.md" r:id="rId358"/>
-    <hyperlink ref="C97" display="c9a613b41195c01471a39d59e0fccdb2e226b08a.xlf" r:id="rId359"/>
-    <hyperlink ref="E97" display="TOC.md" r:id="rId360"/>
-    <hyperlink ref="F97" display="c9a613b41195c01471a39d59e0fccdb2e226b08a.xlf" r:id="rId361"/>
-    <hyperlink ref="A98" display="supported_guest_os.md" r:id="rId362"/>
-    <hyperlink ref="C98" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.de-de.xlf" r:id="rId363"/>
-    <hyperlink ref="E98" display="supported_guest_os.md" r:id="rId364"/>
-    <hyperlink ref="F98" display="b2c94ac52ef618490102103406d0ed0e4366a42b.xlf" r:id="rId365"/>
-    <hyperlink ref="A99" display="whats_new.md" r:id="rId366"/>
-    <hyperlink ref="C99" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.de-de.xlf" r:id="rId367"/>
-    <hyperlink ref="E99" display="whats_new.md" r:id="rId368"/>
-    <hyperlink ref="F99" display="0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf" r:id="rId369"/>
-    <hyperlink ref="A100" display="walkthrough_compatibility.md" r:id="rId370"/>
-    <hyperlink ref="C100" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.de-de.xlf" r:id="rId371"/>
-    <hyperlink ref="E100" display="walkthrough_compatibility.md" r:id="rId372"/>
-    <hyperlink ref="F100" display="0291267af91e0eb2f2bcc068176fe822a7727df3.xlf" r:id="rId373"/>
+    <hyperlink ref="A55" display="walkthrough_compatibility.md" r:id="rId196"/>
+    <hyperlink ref="C55" display="0291267af91e0eb2f2bcc068176fe822a7727df3.xlf" r:id="rId197"/>
+    <hyperlink ref="E55" display="walkthrough_compatibility.md" r:id="rId198"/>
+    <hyperlink ref="F55" display="0291267af91e0eb2f2bcc068176fe822a7727df3.xlf" r:id="rId199"/>
+    <hyperlink ref="A56" display="walkthrough_export_import.md" r:id="rId200"/>
+    <hyperlink ref="C56" display="f1d4a5b13433e56c846ff8029a17813ff8d4477b.xlf" r:id="rId201"/>
+    <hyperlink ref="E56" display="walkthrough_export_import.md" r:id="rId202"/>
+    <hyperlink ref="F56" display="f1d4a5b13433e56c846ff8029a17813ff8d4477b.xlf" r:id="rId203"/>
+    <hyperlink ref="A57" display="walkthrough_install.md" r:id="rId204"/>
+    <hyperlink ref="C57" display="ac40b986711bfbb497347d664480dffc56630be3.xlf" r:id="rId205"/>
+    <hyperlink ref="E57" display="walkthrough_install.md" r:id="rId206"/>
+    <hyperlink ref="F57" display="ac40b986711bfbb497347d664480dffc56630be3.xlf" r:id="rId207"/>
+    <hyperlink ref="A58" display="walkthrough_powershell.md" r:id="rId208"/>
+    <hyperlink ref="C58" display="d5ff93f76a16632d5909862b698bee3b388b3e9d.xlf" r:id="rId209"/>
+    <hyperlink ref="E58" display="walkthrough_powershell.md" r:id="rId210"/>
+    <hyperlink ref="F58" display="d5ff93f76a16632d5909862b698bee3b388b3e9d.xlf" r:id="rId211"/>
+    <hyperlink ref="A59" display="walkthrough_virtual_switch.md" r:id="rId212"/>
+    <hyperlink ref="C59" display="12593a84a3881dd6f3e343af2777976f1505c9fc.xlf" r:id="rId213"/>
+    <hyperlink ref="E59" display="walkthrough_virtual_switch.md" r:id="rId214"/>
+    <hyperlink ref="F59" display="12593a84a3881dd6f3e343af2777976f1505c9fc.xlf" r:id="rId215"/>
+    <hyperlink ref="A60" display="walkthrough_vmconnect.md" r:id="rId216"/>
+    <hyperlink ref="C60" display="03fe1e66908d536b310a1e4e8da4d58551243ede.xlf" r:id="rId217"/>
+    <hyperlink ref="E60" display="walkthrough_vmconnect.md" r:id="rId218"/>
+    <hyperlink ref="F60" display="03fe1e66908d536b310a1e4e8da4d58551243ede.xlf" r:id="rId219"/>
+    <hyperlink ref="A61" display="checkpoints.md" r:id="rId220"/>
+    <hyperlink ref="C61" display="15ca83a671c5bc684c7d4c7634b537c068af3643.xlf" r:id="rId221"/>
+    <hyperlink ref="E61" display="checkpoints.md" r:id="rId222"/>
+    <hyperlink ref="F61" display="15ca83a671c5bc684c7d4c7634b537c068af3643.xlf" r:id="rId223"/>
+    <hyperlink ref="A62" display="export_import.md" r:id="rId224"/>
+    <hyperlink ref="C62" display="5e973d501f7a3e3598bc3f8b966d79cc5e79b1b9.xlf" r:id="rId225"/>
+    <hyperlink ref="E62" display="export_import.md" r:id="rId226"/>
+    <hyperlink ref="F62" display="5e973d501f7a3e3598bc3f8b966d79cc5e79b1b9.xlf" r:id="rId227"/>
+    <hyperlink ref="A63" display="HyperVManager-ConnectToHost.PNG" r:id="rId228"/>
+    <hyperlink ref="C63" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId229"/>
+    <hyperlink ref="A64" display="HyperVManager-ConnectToLocalHost.PNG" r:id="rId230"/>
+    <hyperlink ref="C64" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId231"/>
+    <hyperlink ref="A65" display="HyperVManager-ConnectToRemoteHost.PNG" r:id="rId232"/>
+    <hyperlink ref="C65" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId233"/>
+    <hyperlink ref="A66" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId234"/>
+    <hyperlink ref="C66" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId235"/>
+    <hyperlink ref="E66" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId236"/>
+    <hyperlink ref="F66" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId237"/>
+    <hyperlink ref="A67" display="migrating_vms.md" r:id="rId238"/>
+    <hyperlink ref="C67" display="b481c00b278cb366330919c9dd0b76cb7f61d425.xlf" r:id="rId239"/>
+    <hyperlink ref="E67" display="migrating_vms.md" r:id="rId240"/>
+    <hyperlink ref="F67" display="b481c00b278cb366330919c9dd0b76cb7f61d425.xlf" r:id="rId241"/>
+    <hyperlink ref="A68" display="remote_host_management.md" r:id="rId242"/>
+    <hyperlink ref="C68" display="fc9e1361210658701cbe2d2a6fbc05ef6b448eab.xlf" r:id="rId243"/>
+    <hyperlink ref="E68" display="remote_host_management.md" r:id="rId244"/>
+    <hyperlink ref="F68" display="fc9e1361210658701cbe2d2a6fbc05ef6b448eab.xlf" r:id="rId245"/>
+    <hyperlink ref="A69" display="troubleshooting.md" r:id="rId246"/>
+    <hyperlink ref="C69" display="033950f25a30f7bccb308c22d6fa96b166d7ed01.xlf" r:id="rId247"/>
+    <hyperlink ref="E69" display="troubleshooting.md" r:id="rId248"/>
+    <hyperlink ref="F69" display="033950f25a30f7bccb308c22d6fa96b166d7ed01.xlf" r:id="rId249"/>
+    <hyperlink ref="A70" display="user_guide_nav.md" r:id="rId250"/>
+    <hyperlink ref="C70" display="aa52aec3f340382372099f311751e7efe7284749.xlf" r:id="rId251"/>
+    <hyperlink ref="E70" display="user_guide_nav.md" r:id="rId252"/>
+    <hyperlink ref="F70" display="aa52aec3f340382372099f311751e7efe7284749.xlf" r:id="rId253"/>
+    <hyperlink ref="A71" display="vmsession.md" r:id="rId254"/>
+    <hyperlink ref="C71" display="8038edc8eac0a017e688401c61e5a78787f26bd6.xlf" r:id="rId255"/>
+    <hyperlink ref="E71" display="vmsession.md" r:id="rId256"/>
+    <hyperlink ref="F71" display="8038edc8eac0a017e688401c61e5a78787f26bd6.xlf" r:id="rId257"/>
+    <hyperlink ref="A72" display="container_ecosystem.md" r:id="rId258"/>
+    <hyperlink ref="C72" display="6c0ebd80ac08763eafebe935b08194a526ad59fa.xlf" r:id="rId259"/>
+    <hyperlink ref="E72" display="container_ecosystem.md" r:id="rId260"/>
+    <hyperlink ref="F72" display="6c0ebd80ac08763eafebe935b08194a526ad59fa.xlf" r:id="rId261"/>
+    <hyperlink ref="A73" display="faq.md" r:id="rId262"/>
+    <hyperlink ref="C73" display="f176f83a5f5bc76e32b5687866d2ced7d0a91d57.xlf" r:id="rId263"/>
+    <hyperlink ref="E73" display="faq.md" r:id="rId264"/>
+    <hyperlink ref="F73" display="f176f83a5f5bc76e32b5687866d2ced7d0a91d57.xlf" r:id="rId265"/>
+    <hyperlink ref="A74" display="containerEcosystem.png" r:id="rId266"/>
+    <hyperlink ref="C74" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId267"/>
+    <hyperlink ref="E74" display="containerEcosystem.png" r:id="rId268"/>
+    <hyperlink ref="F74" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId269"/>
+    <hyperlink ref="A75" display="containerfund.png" r:id="rId270"/>
+    <hyperlink ref="C75" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId271"/>
+    <hyperlink ref="E75" display="containerfund.png" r:id="rId272"/>
+    <hyperlink ref="F75" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId273"/>
+    <hyperlink ref="A76" display="work_in_progress.md" r:id="rId274"/>
+    <hyperlink ref="C76" display="090e2dccc937df4c7a80f63b447cb733af5020a3.xlf" r:id="rId275"/>
+    <hyperlink ref="E76" display="work_in_progress.md" r:id="rId276"/>
+    <hyperlink ref="F76" display="090e2dccc937df4c7a80f63b447cb733af5020a3.xlf" r:id="rId277"/>
+    <hyperlink ref="A77" display="EULA.md" r:id="rId278"/>
+    <hyperlink ref="C77" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId279"/>
+    <hyperlink ref="E77" display="EULA.md" r:id="rId280"/>
+    <hyperlink ref="F77" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId281"/>
+    <hyperlink ref="A78" display="azure_setup.md" r:id="rId282"/>
+    <hyperlink ref="C78" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.de-de.xlf" r:id="rId283"/>
+    <hyperlink ref="E78" display="azure_setup.md" r:id="rId284"/>
+    <hyperlink ref="F78" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.de-de.xlf" r:id="rId285"/>
+    <hyperlink ref="A79" display="container_setup.md" r:id="rId286"/>
+    <hyperlink ref="C79" display="bca267ee574504e3cb6d2c42f2aa095a3ace3619.xlf" r:id="rId287"/>
+    <hyperlink ref="E79" display="container_setup.md" r:id="rId288"/>
+    <hyperlink ref="F79" display="bca267ee574504e3cb6d2c42f2aa095a3ace3619.xlf" r:id="rId289"/>
+    <hyperlink ref="A80" display="inplace_setup.md" r:id="rId290"/>
+    <hyperlink ref="C80" display="8ff71abc14066d1fcaf3324d44c3e6be492a93cc.xlf" r:id="rId291"/>
+    <hyperlink ref="E80" display="inplace_setup.md" r:id="rId292"/>
+    <hyperlink ref="F80" display="8ff71abc14066d1fcaf3324d44c3e6be492a93cc.xlf" r:id="rId293"/>
+    <hyperlink ref="A81" display="manage_docker.md" r:id="rId294"/>
+    <hyperlink ref="C81" display="f33e1b71d387e12b9baf442cdbf79912961da149.xlf" r:id="rId295"/>
+    <hyperlink ref="E81" display="manage_docker.md" r:id="rId296"/>
+    <hyperlink ref="F81" display="f33e1b71d387e12b9baf442cdbf79912961da149.xlf" r:id="rId297"/>
+    <hyperlink ref="A82" display="manage_powershell.md" r:id="rId298"/>
+    <hyperlink ref="C82" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId299"/>
+    <hyperlink ref="E82" display="manage_powershell.md" r:id="rId300"/>
+    <hyperlink ref="F82" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId301"/>
+    <hyperlink ref="A83" display="cmd.png" r:id="rId302"/>
+    <hyperlink ref="C83" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId303"/>
+    <hyperlink ref="E83" display="cmd.png" r:id="rId304"/>
+    <hyperlink ref="F83" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId305"/>
+    <hyperlink ref="A84" display="containerhost2.png" r:id="rId306"/>
+    <hyperlink ref="C84" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId307"/>
+    <hyperlink ref="E84" display="containerhost2.png" r:id="rId308"/>
+    <hyperlink ref="F84" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId309"/>
+    <hyperlink ref="A85" display="docker1.png" r:id="rId310"/>
+    <hyperlink ref="C85" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId311"/>
+    <hyperlink ref="E85" display="docker1.png" r:id="rId312"/>
+    <hyperlink ref="F85" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId313"/>
+    <hyperlink ref="A86" display="hello.png" r:id="rId314"/>
+    <hyperlink ref="C86" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId315"/>
+    <hyperlink ref="E86" display="hello.png" r:id="rId316"/>
+    <hyperlink ref="F86" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId317"/>
+    <hyperlink ref="A87" display="newazure1.png" r:id="rId318"/>
+    <hyperlink ref="C87" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId319"/>
+    <hyperlink ref="E87" display="newazure1.png" r:id="rId320"/>
+    <hyperlink ref="F87" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId321"/>
+    <hyperlink ref="A88" display="newazure2.png" r:id="rId322"/>
+    <hyperlink ref="C88" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId323"/>
+    <hyperlink ref="E88" display="newazure2.png" r:id="rId324"/>
+    <hyperlink ref="F88" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId325"/>
+    <hyperlink ref="A89" display="newazure3.png" r:id="rId326"/>
+    <hyperlink ref="C89" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId327"/>
+    <hyperlink ref="E89" display="newazure3.png" r:id="rId328"/>
+    <hyperlink ref="F89" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId329"/>
+    <hyperlink ref="A90" display="newazure6.png" r:id="rId330"/>
+    <hyperlink ref="C90" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId331"/>
+    <hyperlink ref="E90" display="newazure6.png" r:id="rId332"/>
+    <hyperlink ref="F90" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId333"/>
+    <hyperlink ref="A91" display="newazure7.png" r:id="rId334"/>
+    <hyperlink ref="C91" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId335"/>
+    <hyperlink ref="E91" display="newazure7.png" r:id="rId336"/>
+    <hyperlink ref="F91" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId337"/>
+    <hyperlink ref="A92" display="newazure9.png" r:id="rId338"/>
+    <hyperlink ref="C92" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId339"/>
+    <hyperlink ref="E92" display="newazure9.png" r:id="rId340"/>
+    <hyperlink ref="F92" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId341"/>
+    <hyperlink ref="A93" display="nginx.png" r:id="rId342"/>
+    <hyperlink ref="C93" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId343"/>
+    <hyperlink ref="E93" display="nginx.png" r:id="rId344"/>
+    <hyperlink ref="F93" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId345"/>
+    <hyperlink ref="A94" display="quickstart.md" r:id="rId346"/>
+    <hyperlink ref="C94" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId347"/>
+    <hyperlink ref="E94" display="quickstart.md" r:id="rId348"/>
+    <hyperlink ref="F94" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId349"/>
+    <hyperlink ref="A95" display="app_compat.md" r:id="rId350"/>
+    <hyperlink ref="C95" display="72f87d2e53fca40a971aaf3a64bed0cc84d3de03.xlf" r:id="rId351"/>
+    <hyperlink ref="E95" display="app_compat.md" r:id="rId352"/>
+    <hyperlink ref="F95" display="72f87d2e53fca40a971aaf3a64bed0cc84d3de03.xlf" r:id="rId353"/>
+    <hyperlink ref="A96" display="powershell_overview.md" r:id="rId354"/>
+    <hyperlink ref="C96" display="041b88830b633f85459d3b5be24b0d68ba8071bd.xlf" r:id="rId355"/>
+    <hyperlink ref="E96" display="powershell_overview.md" r:id="rId356"/>
+    <hyperlink ref="F96" display="041b88830b633f85459d3b5be24b0d68ba8071bd.xlf" r:id="rId357"/>
+    <hyperlink ref="A97" display="ps_docker_comparison.md" r:id="rId358"/>
+    <hyperlink ref="C97" display="a9225b180b1df05d803b0ba2f23be237d7176f4d.xlf" r:id="rId359"/>
+    <hyperlink ref="E97" display="ps_docker_comparison.md" r:id="rId360"/>
+    <hyperlink ref="F97" display="a9225b180b1df05d803b0ba2f23be237d7176f4d.xlf" r:id="rId361"/>
+    <hyperlink ref="A98" display="TOC.md" r:id="rId362"/>
+    <hyperlink ref="C98" display="c9a613b41195c01471a39d59e0fccdb2e226b08a.xlf" r:id="rId363"/>
+    <hyperlink ref="E98" display="TOC.md" r:id="rId364"/>
+    <hyperlink ref="F98" display="c9a613b41195c01471a39d59e0fccdb2e226b08a.xlf" r:id="rId365"/>
+    <hyperlink ref="A99" display="supported_guest_os.md" r:id="rId366"/>
+    <hyperlink ref="C99" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.de-de.xlf" r:id="rId367"/>
+    <hyperlink ref="E99" display="supported_guest_os.md" r:id="rId368"/>
+    <hyperlink ref="F99" display="b2c94ac52ef618490102103406d0ed0e4366a42b.xlf" r:id="rId369"/>
+    <hyperlink ref="A100" display="whats_new.md" r:id="rId370"/>
+    <hyperlink ref="C100" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.de-de.xlf" r:id="rId371"/>
+    <hyperlink ref="E100" display="whats_new.md" r:id="rId372"/>
+    <hyperlink ref="F100" display="0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf" r:id="rId373"/>
     <hyperlink ref="A101" display="walkthrough_create_vm.md" r:id="rId374"/>
     <hyperlink ref="C101" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.de-de.xlf" r:id="rId375"/>
     <hyperlink ref="E101" display="walkthrough_create_vm.md" r:id="rId376"/>
@@ -19320,19 +19308,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>475</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>477</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>281</v>
@@ -19346,19 +19334,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>281</v>
@@ -19372,19 +19360,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>281</v>
@@ -19401,7 +19389,7 @@
         <v>284</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -19410,7 +19398,7 @@
         <v>284</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>285</v>
@@ -19427,19 +19415,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>281</v>
@@ -19453,19 +19441,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>281</v>
@@ -19479,19 +19467,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>281</v>
@@ -19505,19 +19493,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>281</v>
@@ -19534,7 +19522,7 @@
         <v>289</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -19543,7 +19531,7 @@
         <v>289</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>285</v>
@@ -19563,7 +19551,7 @@
         <v>291</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -19572,7 +19560,7 @@
         <v>291</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>285</v>
@@ -19592,7 +19580,7 @@
         <v>293</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -19601,7 +19589,7 @@
         <v>293</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>285</v>
@@ -19621,7 +19609,7 @@
         <v>294</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -19630,7 +19618,7 @@
         <v>294</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>285</v>
@@ -19650,7 +19638,7 @@
         <v>296</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -19659,7 +19647,7 @@
         <v>296</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>285</v>
@@ -19679,7 +19667,7 @@
         <v>297</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
@@ -19688,7 +19676,7 @@
         <v>297</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>285</v>
@@ -19708,7 +19696,7 @@
         <v>298</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
@@ -19717,7 +19705,7 @@
         <v>298</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>285</v>
@@ -19737,7 +19725,7 @@
         <v>300</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -19746,7 +19734,7 @@
         <v>300</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>285</v>
@@ -19766,7 +19754,7 @@
         <v>302</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>20</v>
@@ -19775,7 +19763,7 @@
         <v>302</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>285</v>
@@ -19795,7 +19783,7 @@
         <v>303</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>21</v>
@@ -19804,7 +19792,7 @@
         <v>303</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>285</v>
@@ -19824,7 +19812,7 @@
         <v>304</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>22</v>
@@ -19833,7 +19821,7 @@
         <v>304</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>285</v>
@@ -19853,7 +19841,7 @@
         <v>305</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>23</v>
@@ -19862,7 +19850,7 @@
         <v>305</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>285</v>
@@ -19882,7 +19870,7 @@
         <v>306</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>24</v>
@@ -19891,7 +19879,7 @@
         <v>306</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>285</v>
@@ -19911,7 +19899,7 @@
         <v>307</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
@@ -19920,7 +19908,7 @@
         <v>307</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>285</v>
@@ -19940,7 +19928,7 @@
         <v>308</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>26</v>
@@ -19949,7 +19937,7 @@
         <v>308</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>285</v>
@@ -19969,7 +19957,7 @@
         <v>309</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>27</v>
@@ -19978,7 +19966,7 @@
         <v>309</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>285</v>
@@ -19998,7 +19986,7 @@
         <v>310</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>28</v>
@@ -20007,7 +19995,7 @@
         <v>310</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>285</v>
@@ -20027,7 +20015,7 @@
         <v>312</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>29</v>
@@ -20036,7 +20024,7 @@
         <v>312</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>285</v>
@@ -20056,7 +20044,7 @@
         <v>314</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>30</v>
@@ -20065,7 +20053,7 @@
         <v>314</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>285</v>
@@ -20085,7 +20073,7 @@
         <v>315</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>31</v>
@@ -20094,7 +20082,7 @@
         <v>315</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>285</v>
@@ -20114,7 +20102,7 @@
         <v>316</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>317</v>
@@ -20137,7 +20125,7 @@
         <v>318</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
@@ -20146,7 +20134,7 @@
         <v>318</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>285</v>
@@ -20166,7 +20154,7 @@
         <v>319</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>34</v>
@@ -20175,7 +20163,7 @@
         <v>319</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>285</v>
@@ -20195,7 +20183,7 @@
         <v>320</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>35</v>
@@ -20204,7 +20192,7 @@
         <v>320</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>285</v>
@@ -20224,7 +20212,7 @@
         <v>321</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>36</v>
@@ -20233,7 +20221,7 @@
         <v>321</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>285</v>
@@ -20253,7 +20241,7 @@
         <v>322</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>37</v>
@@ -20262,7 +20250,7 @@
         <v>322</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>285</v>
@@ -20282,7 +20270,7 @@
         <v>323</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>38</v>
@@ -20291,7 +20279,7 @@
         <v>323</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>285</v>
@@ -20311,7 +20299,7 @@
         <v>324</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>317</v>
@@ -20334,7 +20322,7 @@
         <v>325</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>40</v>
@@ -20343,7 +20331,7 @@
         <v>325</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>285</v>
@@ -20363,7 +20351,7 @@
         <v>326</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>317</v>
@@ -20386,7 +20374,7 @@
         <v>327</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>317</v>
@@ -20409,7 +20397,7 @@
         <v>328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>43</v>
@@ -20418,7 +20406,7 @@
         <v>328</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>285</v>
@@ -20438,7 +20426,7 @@
         <v>329</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>317</v>
@@ -20461,7 +20449,7 @@
         <v>330</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>45</v>
@@ -20470,7 +20458,7 @@
         <v>330</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>285</v>
@@ -20490,7 +20478,7 @@
         <v>331</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>317</v>
@@ -20513,7 +20501,7 @@
         <v>332</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>317</v>
@@ -20536,7 +20524,7 @@
         <v>333</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>48</v>
@@ -20545,7 +20533,7 @@
         <v>333</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>285</v>
@@ -20565,7 +20553,7 @@
         <v>334</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>49</v>
@@ -20574,7 +20562,7 @@
         <v>334</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>285</v>
@@ -20594,7 +20582,7 @@
         <v>335</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>50</v>
@@ -20603,7 +20591,7 @@
         <v>335</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>285</v>
@@ -20623,7 +20611,7 @@
         <v>336</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>51</v>
@@ -20632,7 +20620,7 @@
         <v>336</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>285</v>
@@ -20652,7 +20640,7 @@
         <v>337</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>317</v>
@@ -20675,7 +20663,7 @@
         <v>339</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>53</v>
@@ -20684,7 +20672,7 @@
         <v>339</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>285</v>
@@ -20704,7 +20692,7 @@
         <v>341</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>317</v>
@@ -20727,7 +20715,7 @@
         <v>342</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>55</v>
@@ -20736,7 +20724,7 @@
         <v>342</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>285</v>
@@ -20753,19 +20741,19 @@
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>281</v>
@@ -20779,19 +20767,19 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>281</v>
@@ -20805,19 +20793,19 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>281</v>
@@ -20825,25 +20813,25 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>281</v>
@@ -20851,25 +20839,25 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>281</v>
@@ -20877,25 +20865,25 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>281</v>
@@ -20903,25 +20891,25 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>281</v>
@@ -20929,25 +20917,25 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>281</v>
@@ -20955,25 +20943,25 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>281</v>
@@ -20981,25 +20969,25 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>281</v>
@@ -21007,25 +20995,25 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>281</v>
@@ -21033,39 +21021,42 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>352</v>
+        <v>495</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>317</v>
+        <v>475</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>317</v>
@@ -21079,16 +21070,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>317</v>
@@ -21102,25 +21093,19 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>356</v>
+        <v>478</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>477</v>
+        <v>317</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>285</v>
@@ -21131,51 +21116,54 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>497</v>
+        <v>356</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>497</v>
+        <v>356</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>281</v>
@@ -21183,25 +21171,25 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>281</v>
@@ -21209,25 +21197,25 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>281</v>
@@ -21235,25 +21223,25 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>281</v>
@@ -21261,25 +21249,25 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>281</v>
@@ -21287,25 +21275,25 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>281</v>
@@ -21313,25 +21301,25 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>281</v>
@@ -21339,109 +21327,109 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>367</v>
+        <v>503</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>367</v>
+        <v>503</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>505</v>
+        <v>369</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>505</v>
+        <v>369</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>281</v>
@@ -21449,25 +21437,25 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>281</v>
@@ -21475,25 +21463,25 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>281</v>
@@ -21501,25 +21489,25 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>281</v>
@@ -21527,25 +21515,25 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>281</v>
@@ -21553,25 +21541,25 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>281</v>
@@ -21579,170 +21567,167 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>378</v>
+        <v>510</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>378</v>
+        <v>510</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>379</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>285</v>
@@ -21753,25 +21738,25 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>285</v>
@@ -21782,25 +21767,25 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>285</v>
@@ -21811,25 +21796,25 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>285</v>
@@ -21840,54 +21825,54 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>285</v>
@@ -21898,51 +21883,54 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>512</v>
+        <v>392</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>512</v>
+        <v>392</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>281</v>
@@ -21950,25 +21938,25 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>281</v>
@@ -21976,25 +21964,25 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>281</v>
@@ -22002,25 +21990,25 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>281</v>
@@ -22028,25 +22016,25 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>281</v>
@@ -22060,19 +22048,19 @@
         <v>76</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>281</v>
@@ -22086,19 +22074,19 @@
         <v>76</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>281</v>
@@ -22112,19 +22100,19 @@
         <v>76</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>281</v>
@@ -25156,184 +25144,184 @@
     <hyperlink ref="C56" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.ja-jp.xlf" r:id="rId201"/>
     <hyperlink ref="E56" display="walkthrough_checkpoints.md" r:id="rId202"/>
     <hyperlink ref="F56" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.ja-jp.xlf" r:id="rId203"/>
-    <hyperlink ref="A57" display="walkthrough_export_import.md" r:id="rId204"/>
-    <hyperlink ref="C57" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.ja-jp.xlf" r:id="rId205"/>
-    <hyperlink ref="E57" display="walkthrough_export_import.md" r:id="rId206"/>
-    <hyperlink ref="F57" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.ja-jp.xlf" r:id="rId207"/>
-    <hyperlink ref="A58" display="walkthrough_install.md" r:id="rId208"/>
-    <hyperlink ref="C58" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.ja-jp.xlf" r:id="rId209"/>
-    <hyperlink ref="E58" display="walkthrough_install.md" r:id="rId210"/>
-    <hyperlink ref="F58" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.ja-jp.xlf" r:id="rId211"/>
-    <hyperlink ref="A59" display="walkthrough_powershell.md" r:id="rId212"/>
-    <hyperlink ref="C59" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.ja-jp.xlf" r:id="rId213"/>
-    <hyperlink ref="E59" display="walkthrough_powershell.md" r:id="rId214"/>
-    <hyperlink ref="F59" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.ja-jp.xlf" r:id="rId215"/>
-    <hyperlink ref="A60" display="walkthrough_virtual_switch.md" r:id="rId216"/>
-    <hyperlink ref="C60" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.ja-jp.xlf" r:id="rId217"/>
-    <hyperlink ref="E60" display="walkthrough_virtual_switch.md" r:id="rId218"/>
-    <hyperlink ref="F60" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.ja-jp.xlf" r:id="rId219"/>
-    <hyperlink ref="A61" display="walkthrough_vmconnect.md" r:id="rId220"/>
-    <hyperlink ref="C61" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.ja-jp.xlf" r:id="rId221"/>
-    <hyperlink ref="E61" display="walkthrough_vmconnect.md" r:id="rId222"/>
-    <hyperlink ref="F61" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.ja-jp.xlf" r:id="rId223"/>
-    <hyperlink ref="A62" display="TOC.md" r:id="rId224"/>
-    <hyperlink ref="C62" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId225"/>
-    <hyperlink ref="E62" display="TOC.md" r:id="rId226"/>
-    <hyperlink ref="F62" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId227"/>
-    <hyperlink ref="A63" display="checkpoints.md" r:id="rId228"/>
-    <hyperlink ref="C63" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId229"/>
-    <hyperlink ref="E63" display="checkpoints.md" r:id="rId230"/>
-    <hyperlink ref="F63" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId231"/>
-    <hyperlink ref="A64" display="export_import.md" r:id="rId232"/>
-    <hyperlink ref="C64" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId233"/>
-    <hyperlink ref="E64" display="export_import.md" r:id="rId234"/>
-    <hyperlink ref="F64" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId235"/>
-    <hyperlink ref="A65" display="HyperVManager-ConnectToHost.PNG" r:id="rId236"/>
-    <hyperlink ref="C65" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId237"/>
-    <hyperlink ref="A66" display="HyperVManager-ConnectToLocalHost.PNG" r:id="rId238"/>
-    <hyperlink ref="C66" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId239"/>
-    <hyperlink ref="A67" display="HyperVManager-ConnectToRemoteHost.PNG" r:id="rId240"/>
-    <hyperlink ref="C67" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId241"/>
-    <hyperlink ref="A68" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId242"/>
-    <hyperlink ref="C68" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId243"/>
-    <hyperlink ref="E68" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId244"/>
-    <hyperlink ref="F68" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId245"/>
-    <hyperlink ref="A69" display="migrating_vms.md" r:id="rId246"/>
-    <hyperlink ref="C69" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId247"/>
-    <hyperlink ref="E69" display="migrating_vms.md" r:id="rId248"/>
-    <hyperlink ref="F69" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId249"/>
-    <hyperlink ref="A70" display="remote_host_management.md" r:id="rId250"/>
-    <hyperlink ref="C70" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId251"/>
-    <hyperlink ref="E70" display="remote_host_management.md" r:id="rId252"/>
-    <hyperlink ref="F70" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId253"/>
-    <hyperlink ref="A71" display="troubleshooting.md" r:id="rId254"/>
-    <hyperlink ref="C71" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId255"/>
-    <hyperlink ref="E71" display="troubleshooting.md" r:id="rId256"/>
-    <hyperlink ref="F71" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId257"/>
-    <hyperlink ref="A72" display="user_guide_nav.md" r:id="rId258"/>
-    <hyperlink ref="C72" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId259"/>
-    <hyperlink ref="E72" display="user_guide_nav.md" r:id="rId260"/>
-    <hyperlink ref="F72" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId261"/>
-    <hyperlink ref="A73" display="vmsession.md" r:id="rId262"/>
-    <hyperlink ref="C73" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId263"/>
-    <hyperlink ref="E73" display="vmsession.md" r:id="rId264"/>
-    <hyperlink ref="F73" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId265"/>
-    <hyperlink ref="A74" display="about_overview.md" r:id="rId266"/>
-    <hyperlink ref="C74" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId267"/>
-    <hyperlink ref="E74" display="about_overview.md" r:id="rId268"/>
-    <hyperlink ref="F74" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId269"/>
-    <hyperlink ref="A75" display="container_ecosystem.md" r:id="rId270"/>
-    <hyperlink ref="C75" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId271"/>
-    <hyperlink ref="E75" display="container_ecosystem.md" r:id="rId272"/>
-    <hyperlink ref="F75" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId273"/>
-    <hyperlink ref="A76" display="faq.md" r:id="rId274"/>
-    <hyperlink ref="C76" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId275"/>
-    <hyperlink ref="E76" display="faq.md" r:id="rId276"/>
-    <hyperlink ref="F76" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId277"/>
-    <hyperlink ref="A77" display="containerEcosystem.png" r:id="rId278"/>
-    <hyperlink ref="C77" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId279"/>
-    <hyperlink ref="E77" display="containerEcosystem.png" r:id="rId280"/>
-    <hyperlink ref="F77" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId281"/>
-    <hyperlink ref="A78" display="containerfund.png" r:id="rId282"/>
-    <hyperlink ref="C78" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId283"/>
-    <hyperlink ref="E78" display="containerfund.png" r:id="rId284"/>
-    <hyperlink ref="F78" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId285"/>
-    <hyperlink ref="A79" display="work_in_progress.md" r:id="rId286"/>
-    <hyperlink ref="C79" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId287"/>
-    <hyperlink ref="E79" display="work_in_progress.md" r:id="rId288"/>
-    <hyperlink ref="F79" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId289"/>
-    <hyperlink ref="A80" display="EULA.md" r:id="rId290"/>
-    <hyperlink ref="C80" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId291"/>
-    <hyperlink ref="E80" display="EULA.md" r:id="rId292"/>
-    <hyperlink ref="F80" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId293"/>
-    <hyperlink ref="A81" display="azure_setup.md" r:id="rId294"/>
-    <hyperlink ref="C81" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId295"/>
-    <hyperlink ref="E81" display="azure_setup.md" r:id="rId296"/>
-    <hyperlink ref="F81" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId297"/>
-    <hyperlink ref="A82" display="container_setup.md" r:id="rId298"/>
-    <hyperlink ref="C82" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId299"/>
-    <hyperlink ref="E82" display="container_setup.md" r:id="rId300"/>
-    <hyperlink ref="F82" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId301"/>
-    <hyperlink ref="A83" display="inplace_setup.md" r:id="rId302"/>
-    <hyperlink ref="C83" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId303"/>
-    <hyperlink ref="E83" display="inplace_setup.md" r:id="rId304"/>
-    <hyperlink ref="F83" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId305"/>
-    <hyperlink ref="A84" display="manage_docker.md" r:id="rId306"/>
-    <hyperlink ref="C84" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId307"/>
-    <hyperlink ref="E84" display="manage_docker.md" r:id="rId308"/>
-    <hyperlink ref="F84" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId309"/>
-    <hyperlink ref="A85" display="manage_powershell.md" r:id="rId310"/>
-    <hyperlink ref="C85" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId311"/>
-    <hyperlink ref="E85" display="manage_powershell.md" r:id="rId312"/>
-    <hyperlink ref="F85" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId313"/>
-    <hyperlink ref="A86" display="cmd.png" r:id="rId314"/>
-    <hyperlink ref="C86" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId315"/>
-    <hyperlink ref="E86" display="cmd.png" r:id="rId316"/>
-    <hyperlink ref="F86" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId317"/>
-    <hyperlink ref="A87" display="containerhost2.png" r:id="rId318"/>
-    <hyperlink ref="C87" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId319"/>
-    <hyperlink ref="E87" display="containerhost2.png" r:id="rId320"/>
-    <hyperlink ref="F87" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId321"/>
-    <hyperlink ref="A88" display="docker1.png" r:id="rId322"/>
-    <hyperlink ref="C88" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId323"/>
-    <hyperlink ref="E88" display="docker1.png" r:id="rId324"/>
-    <hyperlink ref="F88" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId325"/>
-    <hyperlink ref="A89" display="hello.png" r:id="rId326"/>
-    <hyperlink ref="C89" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId327"/>
-    <hyperlink ref="E89" display="hello.png" r:id="rId328"/>
-    <hyperlink ref="F89" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId329"/>
-    <hyperlink ref="A90" display="newazure1.png" r:id="rId330"/>
-    <hyperlink ref="C90" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId331"/>
-    <hyperlink ref="E90" display="newazure1.png" r:id="rId332"/>
-    <hyperlink ref="F90" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId333"/>
-    <hyperlink ref="A91" display="newazure2.png" r:id="rId334"/>
-    <hyperlink ref="C91" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId335"/>
-    <hyperlink ref="E91" display="newazure2.png" r:id="rId336"/>
-    <hyperlink ref="F91" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId337"/>
-    <hyperlink ref="A92" display="newazure3.png" r:id="rId338"/>
-    <hyperlink ref="C92" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId339"/>
-    <hyperlink ref="E92" display="newazure3.png" r:id="rId340"/>
-    <hyperlink ref="F92" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId341"/>
-    <hyperlink ref="A93" display="newazure6.png" r:id="rId342"/>
-    <hyperlink ref="C93" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId343"/>
-    <hyperlink ref="E93" display="newazure6.png" r:id="rId344"/>
-    <hyperlink ref="F93" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId345"/>
-    <hyperlink ref="A94" display="newazure7.png" r:id="rId346"/>
-    <hyperlink ref="C94" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId347"/>
-    <hyperlink ref="E94" display="newazure7.png" r:id="rId348"/>
-    <hyperlink ref="F94" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId349"/>
-    <hyperlink ref="A95" display="newazure9.png" r:id="rId350"/>
-    <hyperlink ref="C95" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId351"/>
-    <hyperlink ref="E95" display="newazure9.png" r:id="rId352"/>
-    <hyperlink ref="F95" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId353"/>
-    <hyperlink ref="A96" display="nginx.png" r:id="rId354"/>
-    <hyperlink ref="C96" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId355"/>
-    <hyperlink ref="E96" display="nginx.png" r:id="rId356"/>
-    <hyperlink ref="F96" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId357"/>
-    <hyperlink ref="A97" display="quickstart.md" r:id="rId358"/>
-    <hyperlink ref="C97" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId359"/>
-    <hyperlink ref="E97" display="quickstart.md" r:id="rId360"/>
-    <hyperlink ref="F97" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId361"/>
-    <hyperlink ref="A98" display="app_compat.md" r:id="rId362"/>
-    <hyperlink ref="C98" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId363"/>
-    <hyperlink ref="E98" display="app_compat.md" r:id="rId364"/>
-    <hyperlink ref="F98" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId365"/>
-    <hyperlink ref="A99" display="powershell_overview.md" r:id="rId366"/>
-    <hyperlink ref="C99" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId367"/>
-    <hyperlink ref="E99" display="powershell_overview.md" r:id="rId368"/>
-    <hyperlink ref="F99" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId369"/>
-    <hyperlink ref="A100" display="ps_docker_comparison.md" r:id="rId370"/>
-    <hyperlink ref="C100" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId371"/>
-    <hyperlink ref="E100" display="ps_docker_comparison.md" r:id="rId372"/>
-    <hyperlink ref="F100" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId373"/>
-    <hyperlink ref="A101" display="TOC.md" r:id="rId374"/>
-    <hyperlink ref="C101" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId375"/>
-    <hyperlink ref="E101" display="TOC.md" r:id="rId376"/>
-    <hyperlink ref="F101" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId377"/>
-    <hyperlink ref="A102" display="walkthrough_compatibility.md" r:id="rId378"/>
-    <hyperlink ref="C102" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.ja-jp.xlf" r:id="rId379"/>
-    <hyperlink ref="E102" display="walkthrough_compatibility.md" r:id="rId380"/>
-    <hyperlink ref="F102" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.ja-jp.xlf" r:id="rId381"/>
+    <hyperlink ref="A57" display="walkthrough_compatibility.md" r:id="rId204"/>
+    <hyperlink ref="C57" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.ja-jp.xlf" r:id="rId205"/>
+    <hyperlink ref="E57" display="walkthrough_compatibility.md" r:id="rId206"/>
+    <hyperlink ref="F57" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.ja-jp.xlf" r:id="rId207"/>
+    <hyperlink ref="A58" display="walkthrough_export_import.md" r:id="rId208"/>
+    <hyperlink ref="C58" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.ja-jp.xlf" r:id="rId209"/>
+    <hyperlink ref="E58" display="walkthrough_export_import.md" r:id="rId210"/>
+    <hyperlink ref="F58" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.ja-jp.xlf" r:id="rId211"/>
+    <hyperlink ref="A59" display="walkthrough_install.md" r:id="rId212"/>
+    <hyperlink ref="C59" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.ja-jp.xlf" r:id="rId213"/>
+    <hyperlink ref="E59" display="walkthrough_install.md" r:id="rId214"/>
+    <hyperlink ref="F59" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.ja-jp.xlf" r:id="rId215"/>
+    <hyperlink ref="A60" display="walkthrough_powershell.md" r:id="rId216"/>
+    <hyperlink ref="C60" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.ja-jp.xlf" r:id="rId217"/>
+    <hyperlink ref="E60" display="walkthrough_powershell.md" r:id="rId218"/>
+    <hyperlink ref="F60" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.ja-jp.xlf" r:id="rId219"/>
+    <hyperlink ref="A61" display="walkthrough_virtual_switch.md" r:id="rId220"/>
+    <hyperlink ref="C61" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.ja-jp.xlf" r:id="rId221"/>
+    <hyperlink ref="E61" display="walkthrough_virtual_switch.md" r:id="rId222"/>
+    <hyperlink ref="F61" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.ja-jp.xlf" r:id="rId223"/>
+    <hyperlink ref="A62" display="walkthrough_vmconnect.md" r:id="rId224"/>
+    <hyperlink ref="C62" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.ja-jp.xlf" r:id="rId225"/>
+    <hyperlink ref="E62" display="walkthrough_vmconnect.md" r:id="rId226"/>
+    <hyperlink ref="F62" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.ja-jp.xlf" r:id="rId227"/>
+    <hyperlink ref="A63" display="TOC.md" r:id="rId228"/>
+    <hyperlink ref="C63" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId229"/>
+    <hyperlink ref="E63" display="TOC.md" r:id="rId230"/>
+    <hyperlink ref="F63" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId231"/>
+    <hyperlink ref="A64" display="checkpoints.md" r:id="rId232"/>
+    <hyperlink ref="C64" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId233"/>
+    <hyperlink ref="E64" display="checkpoints.md" r:id="rId234"/>
+    <hyperlink ref="F64" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId235"/>
+    <hyperlink ref="A65" display="export_import.md" r:id="rId236"/>
+    <hyperlink ref="C65" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId237"/>
+    <hyperlink ref="E65" display="export_import.md" r:id="rId238"/>
+    <hyperlink ref="F65" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId239"/>
+    <hyperlink ref="A66" display="HyperVManager-ConnectToHost.PNG" r:id="rId240"/>
+    <hyperlink ref="C66" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId241"/>
+    <hyperlink ref="A67" display="HyperVManager-ConnectToLocalHost.PNG" r:id="rId242"/>
+    <hyperlink ref="C67" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId243"/>
+    <hyperlink ref="A68" display="HyperVManager-ConnectToRemoteHost.PNG" r:id="rId244"/>
+    <hyperlink ref="C68" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId245"/>
+    <hyperlink ref="A69" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId246"/>
+    <hyperlink ref="C69" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId247"/>
+    <hyperlink ref="E69" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId248"/>
+    <hyperlink ref="F69" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId249"/>
+    <hyperlink ref="A70" display="migrating_vms.md" r:id="rId250"/>
+    <hyperlink ref="C70" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId251"/>
+    <hyperlink ref="E70" display="migrating_vms.md" r:id="rId252"/>
+    <hyperlink ref="F70" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId253"/>
+    <hyperlink ref="A71" display="remote_host_management.md" r:id="rId254"/>
+    <hyperlink ref="C71" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId255"/>
+    <hyperlink ref="E71" display="remote_host_management.md" r:id="rId256"/>
+    <hyperlink ref="F71" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId257"/>
+    <hyperlink ref="A72" display="troubleshooting.md" r:id="rId258"/>
+    <hyperlink ref="C72" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId259"/>
+    <hyperlink ref="E72" display="troubleshooting.md" r:id="rId260"/>
+    <hyperlink ref="F72" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId261"/>
+    <hyperlink ref="A73" display="user_guide_nav.md" r:id="rId262"/>
+    <hyperlink ref="C73" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId263"/>
+    <hyperlink ref="E73" display="user_guide_nav.md" r:id="rId264"/>
+    <hyperlink ref="F73" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId265"/>
+    <hyperlink ref="A74" display="vmsession.md" r:id="rId266"/>
+    <hyperlink ref="C74" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId267"/>
+    <hyperlink ref="E74" display="vmsession.md" r:id="rId268"/>
+    <hyperlink ref="F74" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId269"/>
+    <hyperlink ref="A75" display="about_overview.md" r:id="rId270"/>
+    <hyperlink ref="C75" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId271"/>
+    <hyperlink ref="E75" display="about_overview.md" r:id="rId272"/>
+    <hyperlink ref="F75" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId273"/>
+    <hyperlink ref="A76" display="container_ecosystem.md" r:id="rId274"/>
+    <hyperlink ref="C76" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId275"/>
+    <hyperlink ref="E76" display="container_ecosystem.md" r:id="rId276"/>
+    <hyperlink ref="F76" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId277"/>
+    <hyperlink ref="A77" display="faq.md" r:id="rId278"/>
+    <hyperlink ref="C77" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId279"/>
+    <hyperlink ref="E77" display="faq.md" r:id="rId280"/>
+    <hyperlink ref="F77" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId281"/>
+    <hyperlink ref="A78" display="containerEcosystem.png" r:id="rId282"/>
+    <hyperlink ref="C78" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId283"/>
+    <hyperlink ref="E78" display="containerEcosystem.png" r:id="rId284"/>
+    <hyperlink ref="F78" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId285"/>
+    <hyperlink ref="A79" display="containerfund.png" r:id="rId286"/>
+    <hyperlink ref="C79" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId287"/>
+    <hyperlink ref="E79" display="containerfund.png" r:id="rId288"/>
+    <hyperlink ref="F79" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId289"/>
+    <hyperlink ref="A80" display="work_in_progress.md" r:id="rId290"/>
+    <hyperlink ref="C80" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId291"/>
+    <hyperlink ref="E80" display="work_in_progress.md" r:id="rId292"/>
+    <hyperlink ref="F80" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId293"/>
+    <hyperlink ref="A81" display="EULA.md" r:id="rId294"/>
+    <hyperlink ref="C81" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId295"/>
+    <hyperlink ref="E81" display="EULA.md" r:id="rId296"/>
+    <hyperlink ref="F81" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId297"/>
+    <hyperlink ref="A82" display="azure_setup.md" r:id="rId298"/>
+    <hyperlink ref="C82" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId299"/>
+    <hyperlink ref="E82" display="azure_setup.md" r:id="rId300"/>
+    <hyperlink ref="F82" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.ja-jp.xlf" r:id="rId301"/>
+    <hyperlink ref="A83" display="container_setup.md" r:id="rId302"/>
+    <hyperlink ref="C83" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId303"/>
+    <hyperlink ref="E83" display="container_setup.md" r:id="rId304"/>
+    <hyperlink ref="F83" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.ja-jp.xlf" r:id="rId305"/>
+    <hyperlink ref="A84" display="inplace_setup.md" r:id="rId306"/>
+    <hyperlink ref="C84" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId307"/>
+    <hyperlink ref="E84" display="inplace_setup.md" r:id="rId308"/>
+    <hyperlink ref="F84" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.ja-jp.xlf" r:id="rId309"/>
+    <hyperlink ref="A85" display="manage_docker.md" r:id="rId310"/>
+    <hyperlink ref="C85" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId311"/>
+    <hyperlink ref="E85" display="manage_docker.md" r:id="rId312"/>
+    <hyperlink ref="F85" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.ja-jp.xlf" r:id="rId313"/>
+    <hyperlink ref="A86" display="manage_powershell.md" r:id="rId314"/>
+    <hyperlink ref="C86" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId315"/>
+    <hyperlink ref="E86" display="manage_powershell.md" r:id="rId316"/>
+    <hyperlink ref="F86" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf" r:id="rId317"/>
+    <hyperlink ref="A87" display="cmd.png" r:id="rId318"/>
+    <hyperlink ref="C87" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId319"/>
+    <hyperlink ref="E87" display="cmd.png" r:id="rId320"/>
+    <hyperlink ref="F87" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId321"/>
+    <hyperlink ref="A88" display="containerhost2.png" r:id="rId322"/>
+    <hyperlink ref="C88" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId323"/>
+    <hyperlink ref="E88" display="containerhost2.png" r:id="rId324"/>
+    <hyperlink ref="F88" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId325"/>
+    <hyperlink ref="A89" display="docker1.png" r:id="rId326"/>
+    <hyperlink ref="C89" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId327"/>
+    <hyperlink ref="E89" display="docker1.png" r:id="rId328"/>
+    <hyperlink ref="F89" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId329"/>
+    <hyperlink ref="A90" display="hello.png" r:id="rId330"/>
+    <hyperlink ref="C90" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId331"/>
+    <hyperlink ref="E90" display="hello.png" r:id="rId332"/>
+    <hyperlink ref="F90" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId333"/>
+    <hyperlink ref="A91" display="newazure1.png" r:id="rId334"/>
+    <hyperlink ref="C91" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId335"/>
+    <hyperlink ref="E91" display="newazure1.png" r:id="rId336"/>
+    <hyperlink ref="F91" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId337"/>
+    <hyperlink ref="A92" display="newazure2.png" r:id="rId338"/>
+    <hyperlink ref="C92" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId339"/>
+    <hyperlink ref="E92" display="newazure2.png" r:id="rId340"/>
+    <hyperlink ref="F92" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId341"/>
+    <hyperlink ref="A93" display="newazure3.png" r:id="rId342"/>
+    <hyperlink ref="C93" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId343"/>
+    <hyperlink ref="E93" display="newazure3.png" r:id="rId344"/>
+    <hyperlink ref="F93" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId345"/>
+    <hyperlink ref="A94" display="newazure6.png" r:id="rId346"/>
+    <hyperlink ref="C94" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId347"/>
+    <hyperlink ref="E94" display="newazure6.png" r:id="rId348"/>
+    <hyperlink ref="F94" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId349"/>
+    <hyperlink ref="A95" display="newazure7.png" r:id="rId350"/>
+    <hyperlink ref="C95" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId351"/>
+    <hyperlink ref="E95" display="newazure7.png" r:id="rId352"/>
+    <hyperlink ref="F95" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId353"/>
+    <hyperlink ref="A96" display="newazure9.png" r:id="rId354"/>
+    <hyperlink ref="C96" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId355"/>
+    <hyperlink ref="E96" display="newazure9.png" r:id="rId356"/>
+    <hyperlink ref="F96" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId357"/>
+    <hyperlink ref="A97" display="nginx.png" r:id="rId358"/>
+    <hyperlink ref="C97" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId359"/>
+    <hyperlink ref="E97" display="nginx.png" r:id="rId360"/>
+    <hyperlink ref="F97" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId361"/>
+    <hyperlink ref="A98" display="quickstart.md" r:id="rId362"/>
+    <hyperlink ref="C98" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId363"/>
+    <hyperlink ref="E98" display="quickstart.md" r:id="rId364"/>
+    <hyperlink ref="F98" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.ja-jp.xlf" r:id="rId365"/>
+    <hyperlink ref="A99" display="app_compat.md" r:id="rId366"/>
+    <hyperlink ref="C99" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId367"/>
+    <hyperlink ref="E99" display="app_compat.md" r:id="rId368"/>
+    <hyperlink ref="F99" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.ja-jp.xlf" r:id="rId369"/>
+    <hyperlink ref="A100" display="powershell_overview.md" r:id="rId370"/>
+    <hyperlink ref="C100" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId371"/>
+    <hyperlink ref="E100" display="powershell_overview.md" r:id="rId372"/>
+    <hyperlink ref="F100" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.ja-jp.xlf" r:id="rId373"/>
+    <hyperlink ref="A101" display="ps_docker_comparison.md" r:id="rId374"/>
+    <hyperlink ref="C101" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId375"/>
+    <hyperlink ref="E101" display="ps_docker_comparison.md" r:id="rId376"/>
+    <hyperlink ref="F101" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.ja-jp.xlf" r:id="rId377"/>
+    <hyperlink ref="A102" display="TOC.md" r:id="rId378"/>
+    <hyperlink ref="C102" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId379"/>
+    <hyperlink ref="E102" display="TOC.md" r:id="rId380"/>
+    <hyperlink ref="F102" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf" r:id="rId381"/>
     <hyperlink ref="A103" display="walkthrough_create_vm.md" r:id="rId382"/>
     <hyperlink ref="C103" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf" r:id="rId383"/>
     <hyperlink ref="E103" display="walkthrough_create_vm.md" r:id="rId384"/>
@@ -25576,19 +25564,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>281</v>
@@ -25602,19 +25590,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>281</v>
@@ -25628,19 +25616,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>281</v>
@@ -25657,7 +25645,7 @@
         <v>284</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -25666,7 +25654,7 @@
         <v>284</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>285</v>
@@ -25683,19 +25671,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>281</v>
@@ -25709,19 +25697,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>281</v>
@@ -25735,19 +25723,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>281</v>
@@ -25761,19 +25749,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>281</v>
@@ -25790,7 +25778,7 @@
         <v>289</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -25799,13 +25787,13 @@
         <v>289</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11">
@@ -25819,7 +25807,7 @@
         <v>291</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -25828,7 +25816,7 @@
         <v>291</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>285</v>
@@ -25848,7 +25836,7 @@
         <v>293</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -25857,7 +25845,7 @@
         <v>293</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>285</v>
@@ -25877,7 +25865,7 @@
         <v>294</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -25886,7 +25874,7 @@
         <v>294</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>285</v>
@@ -25906,7 +25894,7 @@
         <v>296</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -25915,7 +25903,7 @@
         <v>296</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>285</v>
@@ -25935,7 +25923,7 @@
         <v>297</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
@@ -25944,7 +25932,7 @@
         <v>297</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>285</v>
@@ -25964,7 +25952,7 @@
         <v>298</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
@@ -25973,7 +25961,7 @@
         <v>298</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>285</v>
@@ -25993,7 +25981,7 @@
         <v>300</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -26002,7 +25990,7 @@
         <v>300</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>285</v>
@@ -26022,7 +26010,7 @@
         <v>302</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>20</v>
@@ -26031,7 +26019,7 @@
         <v>302</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>285</v>
@@ -26051,7 +26039,7 @@
         <v>303</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>21</v>
@@ -26060,7 +26048,7 @@
         <v>303</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>285</v>
@@ -26080,7 +26068,7 @@
         <v>304</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>22</v>
@@ -26089,7 +26077,7 @@
         <v>304</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>285</v>
@@ -26109,7 +26097,7 @@
         <v>305</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>23</v>
@@ -26118,7 +26106,7 @@
         <v>305</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>285</v>
@@ -26138,7 +26126,7 @@
         <v>306</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>24</v>
@@ -26147,7 +26135,7 @@
         <v>306</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>285</v>
@@ -26167,7 +26155,7 @@
         <v>307</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
@@ -26176,7 +26164,7 @@
         <v>307</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>285</v>
@@ -26196,7 +26184,7 @@
         <v>308</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>26</v>
@@ -26205,7 +26193,7 @@
         <v>308</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>285</v>
@@ -26225,7 +26213,7 @@
         <v>309</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>27</v>
@@ -26234,7 +26222,7 @@
         <v>309</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>285</v>
@@ -26254,7 +26242,7 @@
         <v>310</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>28</v>
@@ -26263,7 +26251,7 @@
         <v>310</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>285</v>
@@ -26283,7 +26271,7 @@
         <v>312</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>29</v>
@@ -26292,7 +26280,7 @@
         <v>312</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>285</v>
@@ -26312,7 +26300,7 @@
         <v>314</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>30</v>
@@ -26321,7 +26309,7 @@
         <v>314</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>285</v>
@@ -26341,7 +26329,7 @@
         <v>315</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>31</v>
@@ -26350,7 +26338,7 @@
         <v>315</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>285</v>
@@ -26370,7 +26358,7 @@
         <v>316</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>317</v>
@@ -26393,7 +26381,7 @@
         <v>318</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
@@ -26402,7 +26390,7 @@
         <v>318</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>285</v>
@@ -26422,7 +26410,7 @@
         <v>319</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>34</v>
@@ -26431,7 +26419,7 @@
         <v>319</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>285</v>
@@ -26451,7 +26439,7 @@
         <v>320</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>35</v>
@@ -26460,7 +26448,7 @@
         <v>320</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>285</v>
@@ -26480,7 +26468,7 @@
         <v>321</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>36</v>
@@ -26489,7 +26477,7 @@
         <v>321</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>285</v>
@@ -26509,7 +26497,7 @@
         <v>322</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>37</v>
@@ -26518,7 +26506,7 @@
         <v>322</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>285</v>
@@ -26538,7 +26526,7 @@
         <v>323</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>38</v>
@@ -26547,7 +26535,7 @@
         <v>323</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>285</v>
@@ -26567,7 +26555,7 @@
         <v>324</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>317</v>
@@ -26590,7 +26578,7 @@
         <v>325</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>40</v>
@@ -26599,7 +26587,7 @@
         <v>325</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>285</v>
@@ -26619,7 +26607,7 @@
         <v>326</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>317</v>
@@ -26642,7 +26630,7 @@
         <v>327</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>317</v>
@@ -26665,7 +26653,7 @@
         <v>328</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>43</v>
@@ -26674,7 +26662,7 @@
         <v>328</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>285</v>
@@ -26694,7 +26682,7 @@
         <v>329</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>317</v>
@@ -26717,7 +26705,7 @@
         <v>330</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>45</v>
@@ -26726,7 +26714,7 @@
         <v>330</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>285</v>
@@ -26746,7 +26734,7 @@
         <v>331</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>317</v>
@@ -26769,7 +26757,7 @@
         <v>332</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>317</v>
@@ -26792,7 +26780,7 @@
         <v>333</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>48</v>
@@ -26801,7 +26789,7 @@
         <v>333</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>285</v>
@@ -26821,7 +26809,7 @@
         <v>334</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>49</v>
@@ -26830,7 +26818,7 @@
         <v>334</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>285</v>
@@ -26850,7 +26838,7 @@
         <v>335</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>50</v>
@@ -26859,7 +26847,7 @@
         <v>335</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>285</v>
@@ -26879,7 +26867,7 @@
         <v>336</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>51</v>
@@ -26888,7 +26876,7 @@
         <v>336</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>285</v>
@@ -26908,7 +26896,7 @@
         <v>337</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>317</v>
@@ -26931,7 +26919,7 @@
         <v>339</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>53</v>
@@ -26940,7 +26928,7 @@
         <v>339</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>285</v>
@@ -26960,7 +26948,7 @@
         <v>341</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>317</v>
@@ -26983,7 +26971,7 @@
         <v>342</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>55</v>
@@ -26992,7 +26980,7 @@
         <v>342</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>285</v>
@@ -27009,19 +26997,19 @@
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>281</v>
@@ -27035,19 +27023,19 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>281</v>
@@ -27061,19 +27049,19 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>281</v>
@@ -27081,25 +27069,25 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>281</v>
@@ -27107,25 +27095,25 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>281</v>
@@ -27133,25 +27121,25 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>281</v>
@@ -27159,25 +27147,25 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>281</v>
@@ -27185,25 +27173,25 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>281</v>
@@ -27211,25 +27199,25 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>281</v>
@@ -27237,25 +27225,25 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>281</v>
@@ -27263,25 +27251,25 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>281</v>
@@ -27289,39 +27277,42 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>352</v>
+        <v>542</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>317</v>
+        <v>524</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>317</v>
@@ -27335,16 +27326,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>317</v>
@@ -27358,25 +27349,19 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>356</v>
+        <v>523</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>527</v>
+        <v>317</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>285</v>
@@ -27387,51 +27372,54 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>545</v>
+        <v>356</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>545</v>
+        <v>356</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>281</v>
@@ -27439,25 +27427,25 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>281</v>
@@ -27465,25 +27453,25 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>281</v>
@@ -27491,25 +27479,25 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>281</v>
@@ -27517,25 +27505,25 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>281</v>
@@ -27543,25 +27531,25 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>281</v>
@@ -27569,25 +27557,25 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>281</v>
@@ -27595,109 +27583,109 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>367</v>
+        <v>550</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>367</v>
+        <v>550</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>553</v>
+        <v>369</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>553</v>
+        <v>369</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>281</v>
@@ -27705,25 +27693,25 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>281</v>
@@ -27731,25 +27719,25 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>281</v>
@@ -27757,25 +27745,25 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>281</v>
@@ -27783,25 +27771,25 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>281</v>
@@ -27809,25 +27797,25 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>281</v>
@@ -27835,170 +27823,167 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>378</v>
+        <v>557</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>378</v>
+        <v>557</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>379</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>285</v>
@@ -28009,25 +27994,25 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>285</v>
@@ -28038,25 +28023,25 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>285</v>
@@ -28067,25 +28052,25 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>285</v>
@@ -28096,54 +28081,54 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>285</v>
@@ -28154,51 +28139,54 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>560</v>
+        <v>392</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>560</v>
+        <v>392</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>281</v>
@@ -28206,25 +28194,25 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>281</v>
@@ -28232,25 +28220,25 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>281</v>
@@ -28258,25 +28246,25 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>281</v>
@@ -28284,25 +28272,25 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>281</v>
@@ -28316,19 +28304,19 @@
         <v>76</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>281</v>
@@ -28342,19 +28330,19 @@
         <v>76</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>281</v>
@@ -28368,19 +28356,19 @@
         <v>76</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>281</v>
@@ -31412,184 +31400,184 @@
     <hyperlink ref="C56" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-tw.xlf" r:id="rId201"/>
     <hyperlink ref="E56" display="walkthrough_checkpoints.md" r:id="rId202"/>
     <hyperlink ref="F56" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-tw.xlf" r:id="rId203"/>
-    <hyperlink ref="A57" display="walkthrough_export_import.md" r:id="rId204"/>
-    <hyperlink ref="C57" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-tw.xlf" r:id="rId205"/>
-    <hyperlink ref="E57" display="walkthrough_export_import.md" r:id="rId206"/>
-    <hyperlink ref="F57" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-tw.xlf" r:id="rId207"/>
-    <hyperlink ref="A58" display="walkthrough_install.md" r:id="rId208"/>
-    <hyperlink ref="C58" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-tw.xlf" r:id="rId209"/>
-    <hyperlink ref="E58" display="walkthrough_install.md" r:id="rId210"/>
-    <hyperlink ref="F58" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-tw.xlf" r:id="rId211"/>
-    <hyperlink ref="A59" display="walkthrough_powershell.md" r:id="rId212"/>
-    <hyperlink ref="C59" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-tw.xlf" r:id="rId213"/>
-    <hyperlink ref="E59" display="walkthrough_powershell.md" r:id="rId214"/>
-    <hyperlink ref="F59" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-tw.xlf" r:id="rId215"/>
-    <hyperlink ref="A60" display="walkthrough_virtual_switch.md" r:id="rId216"/>
-    <hyperlink ref="C60" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-tw.xlf" r:id="rId217"/>
-    <hyperlink ref="E60" display="walkthrough_virtual_switch.md" r:id="rId218"/>
-    <hyperlink ref="F60" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-tw.xlf" r:id="rId219"/>
-    <hyperlink ref="A61" display="walkthrough_vmconnect.md" r:id="rId220"/>
-    <hyperlink ref="C61" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-tw.xlf" r:id="rId221"/>
-    <hyperlink ref="E61" display="walkthrough_vmconnect.md" r:id="rId222"/>
-    <hyperlink ref="F61" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-tw.xlf" r:id="rId223"/>
-    <hyperlink ref="A62" display="TOC.md" r:id="rId224"/>
-    <hyperlink ref="C62" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId225"/>
-    <hyperlink ref="E62" display="TOC.md" r:id="rId226"/>
-    <hyperlink ref="F62" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId227"/>
-    <hyperlink ref="A63" display="checkpoints.md" r:id="rId228"/>
-    <hyperlink ref="C63" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-tw.xlf" r:id="rId229"/>
-    <hyperlink ref="E63" display="checkpoints.md" r:id="rId230"/>
-    <hyperlink ref="F63" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-tw.xlf" r:id="rId231"/>
-    <hyperlink ref="A64" display="export_import.md" r:id="rId232"/>
-    <hyperlink ref="C64" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-tw.xlf" r:id="rId233"/>
-    <hyperlink ref="E64" display="export_import.md" r:id="rId234"/>
-    <hyperlink ref="F64" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-tw.xlf" r:id="rId235"/>
-    <hyperlink ref="A65" display="HyperVManager-ConnectToHost.PNG" r:id="rId236"/>
-    <hyperlink ref="C65" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId237"/>
-    <hyperlink ref="A66" display="HyperVManager-ConnectToLocalHost.PNG" r:id="rId238"/>
-    <hyperlink ref="C66" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId239"/>
-    <hyperlink ref="A67" display="HyperVManager-ConnectToRemoteHost.PNG" r:id="rId240"/>
-    <hyperlink ref="C67" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId241"/>
-    <hyperlink ref="A68" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId242"/>
-    <hyperlink ref="C68" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId243"/>
-    <hyperlink ref="E68" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId244"/>
-    <hyperlink ref="F68" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId245"/>
-    <hyperlink ref="A69" display="migrating_vms.md" r:id="rId246"/>
-    <hyperlink ref="C69" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-tw.xlf" r:id="rId247"/>
-    <hyperlink ref="E69" display="migrating_vms.md" r:id="rId248"/>
-    <hyperlink ref="F69" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-tw.xlf" r:id="rId249"/>
-    <hyperlink ref="A70" display="remote_host_management.md" r:id="rId250"/>
-    <hyperlink ref="C70" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-tw.xlf" r:id="rId251"/>
-    <hyperlink ref="E70" display="remote_host_management.md" r:id="rId252"/>
-    <hyperlink ref="F70" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-tw.xlf" r:id="rId253"/>
-    <hyperlink ref="A71" display="troubleshooting.md" r:id="rId254"/>
-    <hyperlink ref="C71" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-tw.xlf" r:id="rId255"/>
-    <hyperlink ref="E71" display="troubleshooting.md" r:id="rId256"/>
-    <hyperlink ref="F71" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-tw.xlf" r:id="rId257"/>
-    <hyperlink ref="A72" display="user_guide_nav.md" r:id="rId258"/>
-    <hyperlink ref="C72" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-tw.xlf" r:id="rId259"/>
-    <hyperlink ref="E72" display="user_guide_nav.md" r:id="rId260"/>
-    <hyperlink ref="F72" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-tw.xlf" r:id="rId261"/>
-    <hyperlink ref="A73" display="vmsession.md" r:id="rId262"/>
-    <hyperlink ref="C73" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-tw.xlf" r:id="rId263"/>
-    <hyperlink ref="E73" display="vmsession.md" r:id="rId264"/>
-    <hyperlink ref="F73" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-tw.xlf" r:id="rId265"/>
-    <hyperlink ref="A74" display="about_overview.md" r:id="rId266"/>
-    <hyperlink ref="C74" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-tw.xlf" r:id="rId267"/>
-    <hyperlink ref="E74" display="about_overview.md" r:id="rId268"/>
-    <hyperlink ref="F74" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-tw.xlf" r:id="rId269"/>
-    <hyperlink ref="A75" display="container_ecosystem.md" r:id="rId270"/>
-    <hyperlink ref="C75" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-tw.xlf" r:id="rId271"/>
-    <hyperlink ref="E75" display="container_ecosystem.md" r:id="rId272"/>
-    <hyperlink ref="F75" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-tw.xlf" r:id="rId273"/>
-    <hyperlink ref="A76" display="faq.md" r:id="rId274"/>
-    <hyperlink ref="C76" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-tw.xlf" r:id="rId275"/>
-    <hyperlink ref="E76" display="faq.md" r:id="rId276"/>
-    <hyperlink ref="F76" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-tw.xlf" r:id="rId277"/>
-    <hyperlink ref="A77" display="containerEcosystem.png" r:id="rId278"/>
-    <hyperlink ref="C77" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId279"/>
-    <hyperlink ref="E77" display="containerEcosystem.png" r:id="rId280"/>
-    <hyperlink ref="F77" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId281"/>
-    <hyperlink ref="A78" display="containerfund.png" r:id="rId282"/>
-    <hyperlink ref="C78" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId283"/>
-    <hyperlink ref="E78" display="containerfund.png" r:id="rId284"/>
-    <hyperlink ref="F78" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId285"/>
-    <hyperlink ref="A79" display="work_in_progress.md" r:id="rId286"/>
-    <hyperlink ref="C79" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf" r:id="rId287"/>
-    <hyperlink ref="E79" display="work_in_progress.md" r:id="rId288"/>
-    <hyperlink ref="F79" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf" r:id="rId289"/>
-    <hyperlink ref="A80" display="EULA.md" r:id="rId290"/>
-    <hyperlink ref="C80" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId291"/>
-    <hyperlink ref="E80" display="EULA.md" r:id="rId292"/>
-    <hyperlink ref="F80" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId293"/>
-    <hyperlink ref="A81" display="azure_setup.md" r:id="rId294"/>
-    <hyperlink ref="C81" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-tw.xlf" r:id="rId295"/>
-    <hyperlink ref="E81" display="azure_setup.md" r:id="rId296"/>
-    <hyperlink ref="F81" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-tw.xlf" r:id="rId297"/>
-    <hyperlink ref="A82" display="container_setup.md" r:id="rId298"/>
-    <hyperlink ref="C82" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-tw.xlf" r:id="rId299"/>
-    <hyperlink ref="E82" display="container_setup.md" r:id="rId300"/>
-    <hyperlink ref="F82" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-tw.xlf" r:id="rId301"/>
-    <hyperlink ref="A83" display="inplace_setup.md" r:id="rId302"/>
-    <hyperlink ref="C83" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-tw.xlf" r:id="rId303"/>
-    <hyperlink ref="E83" display="inplace_setup.md" r:id="rId304"/>
-    <hyperlink ref="F83" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-tw.xlf" r:id="rId305"/>
-    <hyperlink ref="A84" display="manage_docker.md" r:id="rId306"/>
-    <hyperlink ref="C84" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-tw.xlf" r:id="rId307"/>
-    <hyperlink ref="E84" display="manage_docker.md" r:id="rId308"/>
-    <hyperlink ref="F84" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-tw.xlf" r:id="rId309"/>
-    <hyperlink ref="A85" display="manage_powershell.md" r:id="rId310"/>
-    <hyperlink ref="C85" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId311"/>
-    <hyperlink ref="E85" display="manage_powershell.md" r:id="rId312"/>
-    <hyperlink ref="F85" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId313"/>
-    <hyperlink ref="A86" display="cmd.png" r:id="rId314"/>
-    <hyperlink ref="C86" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId315"/>
-    <hyperlink ref="E86" display="cmd.png" r:id="rId316"/>
-    <hyperlink ref="F86" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId317"/>
-    <hyperlink ref="A87" display="containerhost2.png" r:id="rId318"/>
-    <hyperlink ref="C87" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId319"/>
-    <hyperlink ref="E87" display="containerhost2.png" r:id="rId320"/>
-    <hyperlink ref="F87" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId321"/>
-    <hyperlink ref="A88" display="docker1.png" r:id="rId322"/>
-    <hyperlink ref="C88" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId323"/>
-    <hyperlink ref="E88" display="docker1.png" r:id="rId324"/>
-    <hyperlink ref="F88" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId325"/>
-    <hyperlink ref="A89" display="hello.png" r:id="rId326"/>
-    <hyperlink ref="C89" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId327"/>
-    <hyperlink ref="E89" display="hello.png" r:id="rId328"/>
-    <hyperlink ref="F89" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId329"/>
-    <hyperlink ref="A90" display="newazure1.png" r:id="rId330"/>
-    <hyperlink ref="C90" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId331"/>
-    <hyperlink ref="E90" display="newazure1.png" r:id="rId332"/>
-    <hyperlink ref="F90" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId333"/>
-    <hyperlink ref="A91" display="newazure2.png" r:id="rId334"/>
-    <hyperlink ref="C91" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId335"/>
-    <hyperlink ref="E91" display="newazure2.png" r:id="rId336"/>
-    <hyperlink ref="F91" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId337"/>
-    <hyperlink ref="A92" display="newazure3.png" r:id="rId338"/>
-    <hyperlink ref="C92" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId339"/>
-    <hyperlink ref="E92" display="newazure3.png" r:id="rId340"/>
-    <hyperlink ref="F92" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId341"/>
-    <hyperlink ref="A93" display="newazure6.png" r:id="rId342"/>
-    <hyperlink ref="C93" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId343"/>
-    <hyperlink ref="E93" display="newazure6.png" r:id="rId344"/>
-    <hyperlink ref="F93" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId345"/>
-    <hyperlink ref="A94" display="newazure7.png" r:id="rId346"/>
-    <hyperlink ref="C94" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId347"/>
-    <hyperlink ref="E94" display="newazure7.png" r:id="rId348"/>
-    <hyperlink ref="F94" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId349"/>
-    <hyperlink ref="A95" display="newazure9.png" r:id="rId350"/>
-    <hyperlink ref="C95" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId351"/>
-    <hyperlink ref="E95" display="newazure9.png" r:id="rId352"/>
-    <hyperlink ref="F95" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId353"/>
-    <hyperlink ref="A96" display="nginx.png" r:id="rId354"/>
-    <hyperlink ref="C96" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId355"/>
-    <hyperlink ref="E96" display="nginx.png" r:id="rId356"/>
-    <hyperlink ref="F96" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId357"/>
-    <hyperlink ref="A97" display="quickstart.md" r:id="rId358"/>
-    <hyperlink ref="C97" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId359"/>
-    <hyperlink ref="E97" display="quickstart.md" r:id="rId360"/>
-    <hyperlink ref="F97" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId361"/>
-    <hyperlink ref="A98" display="app_compat.md" r:id="rId362"/>
-    <hyperlink ref="C98" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-tw.xlf" r:id="rId363"/>
-    <hyperlink ref="E98" display="app_compat.md" r:id="rId364"/>
-    <hyperlink ref="F98" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-tw.xlf" r:id="rId365"/>
-    <hyperlink ref="A99" display="powershell_overview.md" r:id="rId366"/>
-    <hyperlink ref="C99" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-tw.xlf" r:id="rId367"/>
-    <hyperlink ref="E99" display="powershell_overview.md" r:id="rId368"/>
-    <hyperlink ref="F99" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-tw.xlf" r:id="rId369"/>
-    <hyperlink ref="A100" display="ps_docker_comparison.md" r:id="rId370"/>
-    <hyperlink ref="C100" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-tw.xlf" r:id="rId371"/>
-    <hyperlink ref="E100" display="ps_docker_comparison.md" r:id="rId372"/>
-    <hyperlink ref="F100" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-tw.xlf" r:id="rId373"/>
-    <hyperlink ref="A101" display="TOC.md" r:id="rId374"/>
-    <hyperlink ref="C101" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf" r:id="rId375"/>
-    <hyperlink ref="E101" display="TOC.md" r:id="rId376"/>
-    <hyperlink ref="F101" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf" r:id="rId377"/>
-    <hyperlink ref="A102" display="walkthrough_compatibility.md" r:id="rId378"/>
-    <hyperlink ref="C102" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId379"/>
-    <hyperlink ref="E102" display="walkthrough_compatibility.md" r:id="rId380"/>
-    <hyperlink ref="F102" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId381"/>
+    <hyperlink ref="A57" display="walkthrough_compatibility.md" r:id="rId204"/>
+    <hyperlink ref="C57" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId205"/>
+    <hyperlink ref="E57" display="walkthrough_compatibility.md" r:id="rId206"/>
+    <hyperlink ref="F57" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId207"/>
+    <hyperlink ref="A58" display="walkthrough_export_import.md" r:id="rId208"/>
+    <hyperlink ref="C58" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-tw.xlf" r:id="rId209"/>
+    <hyperlink ref="E58" display="walkthrough_export_import.md" r:id="rId210"/>
+    <hyperlink ref="F58" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-tw.xlf" r:id="rId211"/>
+    <hyperlink ref="A59" display="walkthrough_install.md" r:id="rId212"/>
+    <hyperlink ref="C59" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-tw.xlf" r:id="rId213"/>
+    <hyperlink ref="E59" display="walkthrough_install.md" r:id="rId214"/>
+    <hyperlink ref="F59" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-tw.xlf" r:id="rId215"/>
+    <hyperlink ref="A60" display="walkthrough_powershell.md" r:id="rId216"/>
+    <hyperlink ref="C60" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-tw.xlf" r:id="rId217"/>
+    <hyperlink ref="E60" display="walkthrough_powershell.md" r:id="rId218"/>
+    <hyperlink ref="F60" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-tw.xlf" r:id="rId219"/>
+    <hyperlink ref="A61" display="walkthrough_virtual_switch.md" r:id="rId220"/>
+    <hyperlink ref="C61" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-tw.xlf" r:id="rId221"/>
+    <hyperlink ref="E61" display="walkthrough_virtual_switch.md" r:id="rId222"/>
+    <hyperlink ref="F61" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-tw.xlf" r:id="rId223"/>
+    <hyperlink ref="A62" display="walkthrough_vmconnect.md" r:id="rId224"/>
+    <hyperlink ref="C62" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-tw.xlf" r:id="rId225"/>
+    <hyperlink ref="E62" display="walkthrough_vmconnect.md" r:id="rId226"/>
+    <hyperlink ref="F62" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-tw.xlf" r:id="rId227"/>
+    <hyperlink ref="A63" display="TOC.md" r:id="rId228"/>
+    <hyperlink ref="C63" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId229"/>
+    <hyperlink ref="E63" display="TOC.md" r:id="rId230"/>
+    <hyperlink ref="F63" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId231"/>
+    <hyperlink ref="A64" display="checkpoints.md" r:id="rId232"/>
+    <hyperlink ref="C64" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-tw.xlf" r:id="rId233"/>
+    <hyperlink ref="E64" display="checkpoints.md" r:id="rId234"/>
+    <hyperlink ref="F64" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-tw.xlf" r:id="rId235"/>
+    <hyperlink ref="A65" display="export_import.md" r:id="rId236"/>
+    <hyperlink ref="C65" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-tw.xlf" r:id="rId237"/>
+    <hyperlink ref="E65" display="export_import.md" r:id="rId238"/>
+    <hyperlink ref="F65" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-tw.xlf" r:id="rId239"/>
+    <hyperlink ref="A66" display="HyperVManager-ConnectToHost.PNG" r:id="rId240"/>
+    <hyperlink ref="C66" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId241"/>
+    <hyperlink ref="A67" display="HyperVManager-ConnectToLocalHost.PNG" r:id="rId242"/>
+    <hyperlink ref="C67" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId243"/>
+    <hyperlink ref="A68" display="HyperVManager-ConnectToRemoteHost.PNG" r:id="rId244"/>
+    <hyperlink ref="C68" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId245"/>
+    <hyperlink ref="A69" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId246"/>
+    <hyperlink ref="C69" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId247"/>
+    <hyperlink ref="E69" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId248"/>
+    <hyperlink ref="F69" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId249"/>
+    <hyperlink ref="A70" display="migrating_vms.md" r:id="rId250"/>
+    <hyperlink ref="C70" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-tw.xlf" r:id="rId251"/>
+    <hyperlink ref="E70" display="migrating_vms.md" r:id="rId252"/>
+    <hyperlink ref="F70" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-tw.xlf" r:id="rId253"/>
+    <hyperlink ref="A71" display="remote_host_management.md" r:id="rId254"/>
+    <hyperlink ref="C71" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-tw.xlf" r:id="rId255"/>
+    <hyperlink ref="E71" display="remote_host_management.md" r:id="rId256"/>
+    <hyperlink ref="F71" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-tw.xlf" r:id="rId257"/>
+    <hyperlink ref="A72" display="troubleshooting.md" r:id="rId258"/>
+    <hyperlink ref="C72" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-tw.xlf" r:id="rId259"/>
+    <hyperlink ref="E72" display="troubleshooting.md" r:id="rId260"/>
+    <hyperlink ref="F72" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-tw.xlf" r:id="rId261"/>
+    <hyperlink ref="A73" display="user_guide_nav.md" r:id="rId262"/>
+    <hyperlink ref="C73" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-tw.xlf" r:id="rId263"/>
+    <hyperlink ref="E73" display="user_guide_nav.md" r:id="rId264"/>
+    <hyperlink ref="F73" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-tw.xlf" r:id="rId265"/>
+    <hyperlink ref="A74" display="vmsession.md" r:id="rId266"/>
+    <hyperlink ref="C74" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-tw.xlf" r:id="rId267"/>
+    <hyperlink ref="E74" display="vmsession.md" r:id="rId268"/>
+    <hyperlink ref="F74" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-tw.xlf" r:id="rId269"/>
+    <hyperlink ref="A75" display="about_overview.md" r:id="rId270"/>
+    <hyperlink ref="C75" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-tw.xlf" r:id="rId271"/>
+    <hyperlink ref="E75" display="about_overview.md" r:id="rId272"/>
+    <hyperlink ref="F75" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-tw.xlf" r:id="rId273"/>
+    <hyperlink ref="A76" display="container_ecosystem.md" r:id="rId274"/>
+    <hyperlink ref="C76" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-tw.xlf" r:id="rId275"/>
+    <hyperlink ref="E76" display="container_ecosystem.md" r:id="rId276"/>
+    <hyperlink ref="F76" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-tw.xlf" r:id="rId277"/>
+    <hyperlink ref="A77" display="faq.md" r:id="rId278"/>
+    <hyperlink ref="C77" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-tw.xlf" r:id="rId279"/>
+    <hyperlink ref="E77" display="faq.md" r:id="rId280"/>
+    <hyperlink ref="F77" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-tw.xlf" r:id="rId281"/>
+    <hyperlink ref="A78" display="containerEcosystem.png" r:id="rId282"/>
+    <hyperlink ref="C78" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId283"/>
+    <hyperlink ref="E78" display="containerEcosystem.png" r:id="rId284"/>
+    <hyperlink ref="F78" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId285"/>
+    <hyperlink ref="A79" display="containerfund.png" r:id="rId286"/>
+    <hyperlink ref="C79" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId287"/>
+    <hyperlink ref="E79" display="containerfund.png" r:id="rId288"/>
+    <hyperlink ref="F79" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId289"/>
+    <hyperlink ref="A80" display="work_in_progress.md" r:id="rId290"/>
+    <hyperlink ref="C80" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf" r:id="rId291"/>
+    <hyperlink ref="E80" display="work_in_progress.md" r:id="rId292"/>
+    <hyperlink ref="F80" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf" r:id="rId293"/>
+    <hyperlink ref="A81" display="EULA.md" r:id="rId294"/>
+    <hyperlink ref="C81" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId295"/>
+    <hyperlink ref="E81" display="EULA.md" r:id="rId296"/>
+    <hyperlink ref="F81" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId297"/>
+    <hyperlink ref="A82" display="azure_setup.md" r:id="rId298"/>
+    <hyperlink ref="C82" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-tw.xlf" r:id="rId299"/>
+    <hyperlink ref="E82" display="azure_setup.md" r:id="rId300"/>
+    <hyperlink ref="F82" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-tw.xlf" r:id="rId301"/>
+    <hyperlink ref="A83" display="container_setup.md" r:id="rId302"/>
+    <hyperlink ref="C83" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-tw.xlf" r:id="rId303"/>
+    <hyperlink ref="E83" display="container_setup.md" r:id="rId304"/>
+    <hyperlink ref="F83" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-tw.xlf" r:id="rId305"/>
+    <hyperlink ref="A84" display="inplace_setup.md" r:id="rId306"/>
+    <hyperlink ref="C84" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-tw.xlf" r:id="rId307"/>
+    <hyperlink ref="E84" display="inplace_setup.md" r:id="rId308"/>
+    <hyperlink ref="F84" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-tw.xlf" r:id="rId309"/>
+    <hyperlink ref="A85" display="manage_docker.md" r:id="rId310"/>
+    <hyperlink ref="C85" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-tw.xlf" r:id="rId311"/>
+    <hyperlink ref="E85" display="manage_docker.md" r:id="rId312"/>
+    <hyperlink ref="F85" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-tw.xlf" r:id="rId313"/>
+    <hyperlink ref="A86" display="manage_powershell.md" r:id="rId314"/>
+    <hyperlink ref="C86" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId315"/>
+    <hyperlink ref="E86" display="manage_powershell.md" r:id="rId316"/>
+    <hyperlink ref="F86" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId317"/>
+    <hyperlink ref="A87" display="cmd.png" r:id="rId318"/>
+    <hyperlink ref="C87" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId319"/>
+    <hyperlink ref="E87" display="cmd.png" r:id="rId320"/>
+    <hyperlink ref="F87" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId321"/>
+    <hyperlink ref="A88" display="containerhost2.png" r:id="rId322"/>
+    <hyperlink ref="C88" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId323"/>
+    <hyperlink ref="E88" display="containerhost2.png" r:id="rId324"/>
+    <hyperlink ref="F88" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId325"/>
+    <hyperlink ref="A89" display="docker1.png" r:id="rId326"/>
+    <hyperlink ref="C89" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId327"/>
+    <hyperlink ref="E89" display="docker1.png" r:id="rId328"/>
+    <hyperlink ref="F89" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId329"/>
+    <hyperlink ref="A90" display="hello.png" r:id="rId330"/>
+    <hyperlink ref="C90" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId331"/>
+    <hyperlink ref="E90" display="hello.png" r:id="rId332"/>
+    <hyperlink ref="F90" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId333"/>
+    <hyperlink ref="A91" display="newazure1.png" r:id="rId334"/>
+    <hyperlink ref="C91" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId335"/>
+    <hyperlink ref="E91" display="newazure1.png" r:id="rId336"/>
+    <hyperlink ref="F91" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId337"/>
+    <hyperlink ref="A92" display="newazure2.png" r:id="rId338"/>
+    <hyperlink ref="C92" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId339"/>
+    <hyperlink ref="E92" display="newazure2.png" r:id="rId340"/>
+    <hyperlink ref="F92" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId341"/>
+    <hyperlink ref="A93" display="newazure3.png" r:id="rId342"/>
+    <hyperlink ref="C93" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId343"/>
+    <hyperlink ref="E93" display="newazure3.png" r:id="rId344"/>
+    <hyperlink ref="F93" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId345"/>
+    <hyperlink ref="A94" display="newazure6.png" r:id="rId346"/>
+    <hyperlink ref="C94" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId347"/>
+    <hyperlink ref="E94" display="newazure6.png" r:id="rId348"/>
+    <hyperlink ref="F94" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId349"/>
+    <hyperlink ref="A95" display="newazure7.png" r:id="rId350"/>
+    <hyperlink ref="C95" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId351"/>
+    <hyperlink ref="E95" display="newazure7.png" r:id="rId352"/>
+    <hyperlink ref="F95" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId353"/>
+    <hyperlink ref="A96" display="newazure9.png" r:id="rId354"/>
+    <hyperlink ref="C96" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId355"/>
+    <hyperlink ref="E96" display="newazure9.png" r:id="rId356"/>
+    <hyperlink ref="F96" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId357"/>
+    <hyperlink ref="A97" display="nginx.png" r:id="rId358"/>
+    <hyperlink ref="C97" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId359"/>
+    <hyperlink ref="E97" display="nginx.png" r:id="rId360"/>
+    <hyperlink ref="F97" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId361"/>
+    <hyperlink ref="A98" display="quickstart.md" r:id="rId362"/>
+    <hyperlink ref="C98" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId363"/>
+    <hyperlink ref="E98" display="quickstart.md" r:id="rId364"/>
+    <hyperlink ref="F98" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId365"/>
+    <hyperlink ref="A99" display="app_compat.md" r:id="rId366"/>
+    <hyperlink ref="C99" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-tw.xlf" r:id="rId367"/>
+    <hyperlink ref="E99" display="app_compat.md" r:id="rId368"/>
+    <hyperlink ref="F99" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-tw.xlf" r:id="rId369"/>
+    <hyperlink ref="A100" display="powershell_overview.md" r:id="rId370"/>
+    <hyperlink ref="C100" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-tw.xlf" r:id="rId371"/>
+    <hyperlink ref="E100" display="powershell_overview.md" r:id="rId372"/>
+    <hyperlink ref="F100" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-tw.xlf" r:id="rId373"/>
+    <hyperlink ref="A101" display="ps_docker_comparison.md" r:id="rId374"/>
+    <hyperlink ref="C101" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-tw.xlf" r:id="rId375"/>
+    <hyperlink ref="E101" display="ps_docker_comparison.md" r:id="rId376"/>
+    <hyperlink ref="F101" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-tw.xlf" r:id="rId377"/>
+    <hyperlink ref="A102" display="TOC.md" r:id="rId378"/>
+    <hyperlink ref="C102" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf" r:id="rId379"/>
+    <hyperlink ref="E102" display="TOC.md" r:id="rId380"/>
+    <hyperlink ref="F102" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf" r:id="rId381"/>
     <hyperlink ref="A103" display="walkthrough_create_vm.md" r:id="rId382"/>
     <hyperlink ref="C103" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf" r:id="rId383"/>
     <hyperlink ref="E103" display="walkthrough_create_vm.md" r:id="rId384"/>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -1236,13 +1236,13 @@
     <t>2016-01-27 07:05:56</t>
   </si>
   <si>
-    <t>2016-01-27 06:56:20</t>
+    <t>2016-01-27 07:06:41</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 06:35:44</t>
+    <t>2016-01-28 02:42:47</t>
   </si>
   <si>
     <t>TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf</t>
@@ -1404,7 +1404,7 @@
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 06:35:57</t>
+    <t>2016-01-28 02:42:59</t>
   </si>
   <si>
     <t>0daa8871ae38daded4cd33ae5a526414dfe99a71.xlf</t>
@@ -1575,7 +1575,7 @@
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 06:36:09</t>
+    <t>2016-01-28 02:43:14</t>
   </si>
   <si>
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf</t>
@@ -1717,7 +1717,7 @@
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-01-27 06:36:21</t>
+    <t>2016-01-28 02:43:26</t>
   </si>
   <si>
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -858,7 +858,7 @@
     <t>2016-01-05 09:05:04</t>
   </si>
   <si>
-    <t>2016-02-22 08:48:32</t>
+    <t>2016-02-22 08:49:28</t>
   </si>
   <si>
     <t>Include</t>
@@ -1269,7 +1269,7 @@
     <t>2015-10-12 09:40:58</t>
   </si>
   <si>
-    <t>2016-02-22 08:48:45</t>
+    <t>2016-02-22 08:49:38</t>
   </si>
   <si>
     <t>hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.de-de.xlf</t>
@@ -1443,7 +1443,7 @@
     <t>2016-01-08 13:12:03</t>
   </si>
   <si>
-    <t>2016-02-22 08:48:57</t>
+    <t>2016-02-22 08:49:48</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.ja-jp.xlf</t>
@@ -1587,7 +1587,7 @@
     <t>2016-01-11 05:17:41</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:07</t>
+    <t>2016-02-22 08:49:58</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.zh-tw.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -858,7 +858,7 @@
     <t>2016-01-05 09:05:04</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:28</t>
+    <t>2016-02-22 08:50:29</t>
   </si>
   <si>
     <t>Include</t>
@@ -1269,7 +1269,7 @@
     <t>2015-10-12 09:40:58</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:38</t>
+    <t>2016-02-22 08:50:40</t>
   </si>
   <si>
     <t>hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.de-de.xlf</t>
@@ -1443,7 +1443,7 @@
     <t>2016-01-08 13:12:03</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:48</t>
+    <t>2016-02-22 08:50:50</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.ja-jp.xlf</t>
@@ -1587,7 +1587,7 @@
     <t>2016-01-11 05:17:41</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:58</t>
+    <t>2016-02-22 08:51:01</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.zh-tw.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -858,7 +858,7 @@
     <t>2016-01-05 09:05:04</t>
   </si>
   <si>
-    <t>2016-02-22 08:50:29</t>
+    <t>2016-02-22 08:58:35</t>
   </si>
   <si>
     <t>Include</t>
@@ -1269,7 +1269,7 @@
     <t>2015-10-12 09:40:58</t>
   </si>
   <si>
-    <t>2016-02-22 08:50:40</t>
+    <t>2016-02-22 08:58:45</t>
   </si>
   <si>
     <t>hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.de-de.xlf</t>
@@ -1443,7 +1443,7 @@
     <t>2016-01-08 13:12:03</t>
   </si>
   <si>
-    <t>2016-02-22 08:50:50</t>
+    <t>2016-02-22 08:58:57</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.ja-jp.xlf</t>
@@ -1587,7 +1587,7 @@
     <t>2016-01-11 05:17:41</t>
   </si>
   <si>
-    <t>2016-02-22 08:51:01</t>
+    <t>2016-02-22 08:59:06</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.zh-tw.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -339,13 +339,13 @@
     <t>about_overview.md</t>
   </si>
   <si>
+    <t>manage_powershell.md</t>
+  </si>
+  <si>
     <t>walkthrough_create_vm.md</t>
   </si>
   <si>
     <t>containers_welcome.md</t>
-  </si>
-  <si>
-    <t>manage_powershell.md</t>
   </si>
   <si>
     <t>.gitignore</t>
@@ -1221,6 +1221,12 @@
     <t>about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-cn.xlf</t>
   </si>
   <si>
+    <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 11:21:16</t>
+  </si>
+  <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf</t>
   </si>
   <si>
@@ -1228,12 +1234,6 @@
   </si>
   <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 11:21:16</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -3595,7 +3595,7 @@
         <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>76</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>76</v>
@@ -3618,15 +3618,15 @@
         <v>76</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>76</v>
@@ -3635,10 +3635,10 @@
         <v>76</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
@@ -6582,10 +6582,10 @@
     <hyperlink ref="A99" display="whats_new.md" r:id="rId99"/>
     <hyperlink ref="A100" display="walkthrough_compatibility.md" r:id="rId100"/>
     <hyperlink ref="A101" display="about_overview.md" r:id="rId101"/>
-    <hyperlink ref="A102" display="walkthrough_create_vm.md" r:id="rId102"/>
-    <hyperlink ref="A103" display="TOC.md" r:id="rId103"/>
-    <hyperlink ref="A104" display="containers_welcome.md" r:id="rId104"/>
-    <hyperlink ref="A105" display="manage_powershell.md" r:id="rId105"/>
+    <hyperlink ref="A102" display="manage_powershell.md" r:id="rId102"/>
+    <hyperlink ref="A103" display="walkthrough_create_vm.md" r:id="rId103"/>
+    <hyperlink ref="A104" display="TOC.md" r:id="rId104"/>
+    <hyperlink ref="A105" display="containers_welcome.md" r:id="rId105"/>
     <hyperlink ref="A106" display=".gitignore" r:id="rId106"/>
     <hyperlink ref="A107" display=".localization-config" r:id="rId107"/>
     <hyperlink ref="A108" display="localization.json" r:id="rId108"/>
@@ -9509,13 +9509,13 @@
         <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>399</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>279</v>
+        <v>400</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>107</v>
@@ -9532,22 +9532,22 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>76</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>280</v>
@@ -9558,22 +9558,22 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>76</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>280</v>
@@ -9590,16 +9590,16 @@
         <v>76</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>403</v>
+        <v>279</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>280</v>
@@ -12802,22 +12802,22 @@
     <hyperlink ref="F100" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf" r:id="rId369"/>
     <hyperlink ref="A101" display="about_overview.md" r:id="rId370"/>
     <hyperlink ref="C101" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-cn.xlf" r:id="rId371"/>
-    <hyperlink ref="A102" display="walkthrough_create_vm.md" r:id="rId372"/>
-    <hyperlink ref="C102" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId373"/>
-    <hyperlink ref="E102" display="walkthrough_create_vm.md" r:id="rId374"/>
-    <hyperlink ref="F102" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId375"/>
-    <hyperlink ref="A103" display="TOC.md" r:id="rId376"/>
-    <hyperlink ref="C103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId377"/>
-    <hyperlink ref="E103" display="TOC.md" r:id="rId378"/>
-    <hyperlink ref="F103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId379"/>
-    <hyperlink ref="A104" display="containers_welcome.md" r:id="rId380"/>
-    <hyperlink ref="C104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId381"/>
-    <hyperlink ref="E104" display="containers_welcome.md" r:id="rId382"/>
-    <hyperlink ref="F104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId383"/>
-    <hyperlink ref="A105" display="manage_powershell.md" r:id="rId384"/>
-    <hyperlink ref="C105" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId385"/>
-    <hyperlink ref="E105" display="manage_powershell.md" r:id="rId386"/>
-    <hyperlink ref="F105" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId387"/>
+    <hyperlink ref="A102" display="manage_powershell.md" r:id="rId372"/>
+    <hyperlink ref="C102" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId373"/>
+    <hyperlink ref="E102" display="manage_powershell.md" r:id="rId374"/>
+    <hyperlink ref="F102" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId375"/>
+    <hyperlink ref="A103" display="walkthrough_create_vm.md" r:id="rId376"/>
+    <hyperlink ref="C103" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId377"/>
+    <hyperlink ref="E103" display="walkthrough_create_vm.md" r:id="rId378"/>
+    <hyperlink ref="F103" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId379"/>
+    <hyperlink ref="A104" display="TOC.md" r:id="rId380"/>
+    <hyperlink ref="C104" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId381"/>
+    <hyperlink ref="E104" display="TOC.md" r:id="rId382"/>
+    <hyperlink ref="F104" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId383"/>
+    <hyperlink ref="A105" display="containers_welcome.md" r:id="rId384"/>
+    <hyperlink ref="C105" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId385"/>
+    <hyperlink ref="E105" display="containers_welcome.md" r:id="rId386"/>
+    <hyperlink ref="F105" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId387"/>
     <hyperlink ref="A106" display=".gitignore" r:id="rId388"/>
     <hyperlink ref="A107" display=".localization-config" r:id="rId389"/>
     <hyperlink ref="A108" display="localization.json" r:id="rId390"/>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>76</v>
@@ -15716,7 +15716,7 @@
         <v>452</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>453</v>
@@ -15802,7 +15802,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>76</v>
@@ -15814,7 +15814,7 @@
         <v>463</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>462</v>
@@ -15828,7 +15828,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>76</v>
@@ -15840,7 +15840,7 @@
         <v>466</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>467</v>
@@ -22004,7 +22004,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>76</v>
@@ -22016,7 +22016,7 @@
         <v>510</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>509</v>
@@ -22056,7 +22056,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>76</v>
@@ -22068,7 +22068,7 @@
         <v>514</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>513</v>
@@ -22082,7 +22082,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>76</v>
@@ -22094,7 +22094,7 @@
         <v>516</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>515</v>
@@ -28260,7 +28260,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>76</v>
@@ -28272,7 +28272,7 @@
         <v>558</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>557</v>
@@ -28312,7 +28312,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>76</v>
@@ -28324,7 +28324,7 @@
         <v>562</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>561</v>
@@ -28338,7 +28338,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>76</v>
@@ -28350,7 +28350,7 @@
         <v>564</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>563</v>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -1248,7 +1248,7 @@
     <t>EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 01:45:57</t>
+    <t>2016-03-03 09:48:18</t>
   </si>
   <si>
     <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf</t>
@@ -1392,7 +1392,7 @@
     <t>0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 01:46:11</t>
+    <t>2016-03-03 09:48:32</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.de-de.xlf</t>
@@ -1554,7 +1554,7 @@
     <t>TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 01:46:25</t>
+    <t>2016-03-03 09:48:44</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf</t>
@@ -1699,7 +1699,7 @@
     <t>TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 01:46:39</t>
+    <t>2016-03-03 09:48:58</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -333,6 +333,9 @@
     <t>about_overview.md</t>
   </si>
   <si>
+    <t>EULA.md</t>
+  </si>
+  <si>
     <t>walkthrough_compatibility.md</t>
   </si>
   <si>
@@ -340,9 +343,6 @@
   </si>
   <si>
     <t>containers_welcome.md</t>
-  </si>
-  <si>
-    <t>EULA.md</t>
   </si>
   <si>
     <t>manage_powershell.md</t>
@@ -1227,6 +1227,12 @@
     <t>about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-cn.xlf</t>
   </si>
   <si>
+    <t>EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-03 09:48:18</t>
+  </si>
+  <si>
     <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf</t>
   </si>
   <si>
@@ -1243,12 +1249,6 @@
   </si>
   <si>
     <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-03 09:48:18</t>
   </si>
   <si>
     <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf</t>
@@ -3570,16 +3570,16 @@
         <v>105</v>
       </c>
       <c r="B100" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="D100" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -3590,18 +3590,18 @@
         <v>14</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>14</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>14</v>
@@ -6606,11 +6606,11 @@
     <hyperlink ref="A97" display="supported_guest_os.md" r:id="rId97"/>
     <hyperlink ref="A98" display="whats_new.md" r:id="rId98"/>
     <hyperlink ref="A99" display="about_overview.md" r:id="rId99"/>
-    <hyperlink ref="A100" display="walkthrough_compatibility.md" r:id="rId100"/>
-    <hyperlink ref="A101" display="walkthrough_create_vm.md" r:id="rId101"/>
-    <hyperlink ref="A102" display="TOC.md" r:id="rId102"/>
-    <hyperlink ref="A103" display="containers_welcome.md" r:id="rId103"/>
-    <hyperlink ref="A104" display="EULA.md" r:id="rId104"/>
+    <hyperlink ref="A100" display="EULA.md" r:id="rId100"/>
+    <hyperlink ref="A101" display="walkthrough_compatibility.md" r:id="rId101"/>
+    <hyperlink ref="A102" display="walkthrough_create_vm.md" r:id="rId102"/>
+    <hyperlink ref="A103" display="TOC.md" r:id="rId103"/>
+    <hyperlink ref="A104" display="containers_welcome.md" r:id="rId104"/>
     <hyperlink ref="A105" display="manage_powershell.md" r:id="rId105"/>
     <hyperlink ref="A106" display="quickstart.md" r:id="rId106"/>
     <hyperlink ref="A107" display=".gitignore" r:id="rId107"/>
@@ -9487,13 +9487,13 @@
         <v>105</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>401</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>293</v>
+        <v>402</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>105</v>
@@ -9502,7 +9502,7 @@
         <v>401</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>402</v>
+        <v>281</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>282</v>
@@ -9528,7 +9528,7 @@
         <v>403</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>281</v>
+        <v>404</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>282</v>
@@ -9536,22 +9536,22 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>281</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>14</v>
@@ -9571,10 +9571,10 @@
         <v>406</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>293</v>
+        <v>407</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>406</v>
@@ -9594,16 +9594,16 @@
         <v>14</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>408</v>
+        <v>293</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>281</v>
@@ -12850,26 +12850,26 @@
     <hyperlink ref="C98" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.zh-cn.xlf" r:id="rId361"/>
     <hyperlink ref="A99" display="about_overview.md" r:id="rId362"/>
     <hyperlink ref="C99" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-cn.xlf" r:id="rId363"/>
-    <hyperlink ref="A100" display="walkthrough_compatibility.md" r:id="rId364"/>
-    <hyperlink ref="C100" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf" r:id="rId365"/>
-    <hyperlink ref="E100" display="walkthrough_compatibility.md" r:id="rId366"/>
-    <hyperlink ref="F100" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf" r:id="rId367"/>
-    <hyperlink ref="A101" display="walkthrough_create_vm.md" r:id="rId368"/>
-    <hyperlink ref="C101" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId369"/>
-    <hyperlink ref="E101" display="walkthrough_create_vm.md" r:id="rId370"/>
-    <hyperlink ref="F101" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId371"/>
-    <hyperlink ref="A102" display="TOC.md" r:id="rId372"/>
-    <hyperlink ref="C102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId373"/>
-    <hyperlink ref="E102" display="TOC.md" r:id="rId374"/>
-    <hyperlink ref="F102" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId375"/>
-    <hyperlink ref="A103" display="containers_welcome.md" r:id="rId376"/>
-    <hyperlink ref="C103" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId377"/>
-    <hyperlink ref="E103" display="containers_welcome.md" r:id="rId378"/>
-    <hyperlink ref="F103" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId379"/>
-    <hyperlink ref="A104" display="EULA.md" r:id="rId380"/>
-    <hyperlink ref="C104" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId381"/>
-    <hyperlink ref="E104" display="EULA.md" r:id="rId382"/>
-    <hyperlink ref="F104" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId383"/>
+    <hyperlink ref="A100" display="EULA.md" r:id="rId364"/>
+    <hyperlink ref="C100" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId365"/>
+    <hyperlink ref="E100" display="EULA.md" r:id="rId366"/>
+    <hyperlink ref="F100" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId367"/>
+    <hyperlink ref="A101" display="walkthrough_compatibility.md" r:id="rId368"/>
+    <hyperlink ref="C101" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf" r:id="rId369"/>
+    <hyperlink ref="E101" display="walkthrough_compatibility.md" r:id="rId370"/>
+    <hyperlink ref="F101" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf" r:id="rId371"/>
+    <hyperlink ref="A102" display="walkthrough_create_vm.md" r:id="rId372"/>
+    <hyperlink ref="C102" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId373"/>
+    <hyperlink ref="E102" display="walkthrough_create_vm.md" r:id="rId374"/>
+    <hyperlink ref="F102" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId375"/>
+    <hyperlink ref="A103" display="TOC.md" r:id="rId376"/>
+    <hyperlink ref="C103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId377"/>
+    <hyperlink ref="E103" display="TOC.md" r:id="rId378"/>
+    <hyperlink ref="F103" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId379"/>
+    <hyperlink ref="A104" display="containers_welcome.md" r:id="rId380"/>
+    <hyperlink ref="C104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId381"/>
+    <hyperlink ref="E104" display="containers_welcome.md" r:id="rId382"/>
+    <hyperlink ref="F104" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId383"/>
     <hyperlink ref="A105" display="manage_powershell.md" r:id="rId384"/>
     <hyperlink ref="C105" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf" r:id="rId385"/>
     <hyperlink ref="E105" display="manage_powershell.md" r:id="rId386"/>
@@ -14561,7 +14561,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>6</v>
@@ -14573,7 +14573,7 @@
         <v>416</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>425</v>
@@ -15735,7 +15735,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>14</v>
@@ -15747,7 +15747,7 @@
         <v>452</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>458</v>
@@ -15833,7 +15833,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>14</v>
@@ -15845,7 +15845,7 @@
         <v>452</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>465</v>
@@ -15859,7 +15859,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>14</v>
@@ -15871,7 +15871,7 @@
         <v>456</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>468</v>
@@ -20886,7 +20886,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>6</v>
@@ -20898,7 +20898,7 @@
         <v>474</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>485</v>
@@ -22034,7 +22034,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>14</v>
@@ -22046,7 +22046,7 @@
         <v>512</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>511</v>
@@ -22112,7 +22112,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>14</v>
@@ -22124,7 +22124,7 @@
         <v>517</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>516</v>
@@ -22138,7 +22138,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>14</v>
@@ -22150,7 +22150,7 @@
         <v>510</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>518</v>
@@ -27167,7 +27167,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>6</v>
@@ -27179,7 +27179,7 @@
         <v>522</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>533</v>
@@ -28315,7 +28315,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>14</v>
@@ -28327,7 +28327,7 @@
         <v>560</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>559</v>
@@ -28393,7 +28393,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>14</v>
@@ -28405,7 +28405,7 @@
         <v>560</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>564</v>
@@ -28419,7 +28419,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>14</v>
@@ -28431,7 +28431,7 @@
         <v>558</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>565</v>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1260">
   <si>
     <t>File Name</t>
   </si>
@@ -50,12 +50,12 @@
     <t>backup-azure-alternate-dpm-server.md</t>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>backup-azure-backup-cloud-as-tape.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>backup-azure-backup-exchange-server.md</t>
   </si>
   <si>
@@ -3023,12 +3023,18 @@
     <t>d347565919a93f869f400c8b59843249dd1f234d.png</t>
   </si>
   <si>
+    <t>backup-azure-alternate-dpm-server.bcc2c5562185291769fd481c4b867794637558e2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-13 05:21:46</t>
+  </si>
+  <si>
+    <t>2016-04-21 23:01:39</t>
+  </si>
+  <si>
     <t>backup-azure-backup-cloud-as-tape.863f64b956fc7ada5c5954a4395ee7b8769f2c8e.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 05:21:46</t>
-  </si>
-  <si>
     <t>2016-04-19 21:36:18</t>
   </si>
   <si>
@@ -3180,9 +3186,6 @@
   </si>
   <si>
     <t>architecture-overview.510d424469b6209b5f9e9c352102b869e4eb1a9c.es-es.xlf</t>
-  </si>
-  <si>
-    <t>backup-azure-alternate-dpm-server.bcc2c5562185291769fd481c4b867794637558e2.es-es.xlf</t>
   </si>
   <si>
     <t>backup-azure-backup-faq.c29a5a87ddc2cf999c94697b8dcdb8d0ee1c29cc.es-es.xlf</t>
@@ -3992,7 +3995,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
@@ -4003,7 +4006,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -4012,7 +4015,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>8</v>
@@ -4032,7 +4035,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>8</v>
@@ -4072,7 +4075,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>8</v>
@@ -4092,7 +4095,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>8</v>
@@ -4112,7 +4115,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>8</v>
@@ -4132,7 +4135,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>8</v>
@@ -4152,7 +4155,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
@@ -4172,7 +4175,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>8</v>
@@ -4192,7 +4195,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>8</v>
@@ -4212,7 +4215,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>8</v>
@@ -4232,7 +4235,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>8</v>
@@ -4252,7 +4255,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>8</v>
@@ -4272,7 +4275,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>8</v>
@@ -4292,7 +4295,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>8</v>
@@ -4312,7 +4315,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>8</v>
@@ -4332,7 +4335,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>8</v>
@@ -4352,7 +4355,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>8</v>
@@ -4372,7 +4375,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>8</v>
@@ -4392,7 +4395,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>8</v>
@@ -4412,7 +4415,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>8</v>
@@ -4432,7 +4435,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>8</v>
@@ -4452,7 +4455,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>8</v>
@@ -4472,7 +4475,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>8</v>
@@ -4492,7 +4495,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>8</v>
@@ -4512,7 +4515,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>8</v>
@@ -4532,7 +4535,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>8</v>
@@ -4552,7 +4555,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>8</v>
@@ -4572,7 +4575,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
@@ -4592,7 +4595,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>8</v>
@@ -4612,7 +4615,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>8</v>
@@ -4632,7 +4635,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>8</v>
@@ -4652,7 +4655,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>8</v>
@@ -4672,7 +4675,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>8</v>
@@ -4692,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>8</v>
@@ -4712,7 +4715,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>8</v>
@@ -4732,7 +4735,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>8</v>
@@ -4752,7 +4755,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
@@ -4772,7 +4775,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>8</v>
@@ -4792,7 +4795,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>8</v>
@@ -4812,7 +4815,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>8</v>
@@ -4832,7 +4835,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>8</v>
@@ -4852,7 +4855,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>8</v>
@@ -4892,7 +4895,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>8</v>
@@ -4912,7 +4915,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>8</v>
@@ -4932,7 +4935,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>8</v>
@@ -4952,7 +4955,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>8</v>
@@ -4972,7 +4975,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>8</v>
@@ -9232,7 +9235,7 @@
         <v>106</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E265" s="0" t="s">
         <v>106</v>
@@ -10252,7 +10255,7 @@
         <v>106</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E316" s="0" t="s">
         <v>106</v>
@@ -12472,7 +12475,7 @@
         <v>106</v>
       </c>
       <c r="D427" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E427" s="0" t="s">
         <v>106</v>
@@ -15575,7 +15578,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -34913,13 +34916,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>1002</v>
@@ -34928,7 +34931,7 @@
         <v>1003</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>1002</v>
@@ -34951,13 +34954,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>1005</v>
@@ -34966,13 +34969,13 @@
         <v>1003</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>1005</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>509</v>
@@ -34989,28 +34992,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>509</v>
@@ -35027,28 +35030,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>509</v>
@@ -35065,28 +35068,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>509</v>
@@ -35103,28 +35106,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>509</v>
@@ -35141,31 +35144,31 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>511</v>
@@ -35179,31 +35182,31 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>511</v>
@@ -35217,28 +35220,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>509</v>
@@ -35255,28 +35258,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>509</v>
@@ -35293,28 +35296,28 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>509</v>
@@ -35331,28 +35334,28 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>509</v>
@@ -35369,28 +35372,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>509</v>
@@ -35407,28 +35410,28 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>509</v>
@@ -35445,28 +35448,28 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>509</v>
@@ -35483,28 +35486,28 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>509</v>
@@ -35521,13 +35524,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>1021</v>
@@ -35536,13 +35539,13 @@
         <v>1003</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>1021</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>509</v>
@@ -35559,28 +35562,28 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>509</v>
@@ -35597,28 +35600,28 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>509</v>
@@ -35635,28 +35638,28 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>509</v>
@@ -35673,28 +35676,28 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>509</v>
@@ -35711,28 +35714,28 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>509</v>
@@ -35749,28 +35752,28 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>509</v>
@@ -35787,28 +35790,28 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>509</v>
@@ -35825,28 +35828,28 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>509</v>
@@ -35863,28 +35866,28 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>509</v>
@@ -35901,37 +35904,37 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>793</v>
+        <v>1032</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1031</v>
+        <v>1003</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>793</v>
+        <v>1032</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>509</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>786</v>
+        <v>509</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>509</v>
@@ -35939,28 +35942,28 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>834</v>
+        <v>793</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>834</v>
+        <v>793</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>1020</v>
+        <v>1034</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>509</v>
@@ -35969,7 +35972,7 @@
         <v>611</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>821</v>
+        <v>786</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>509</v>
@@ -35977,37 +35980,37 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>1003</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>1033</v>
+        <v>834</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>509</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>509</v>
+        <v>821</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>509</v>
@@ -36015,28 +36018,28 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>509</v>
@@ -36053,28 +36056,28 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>509</v>
@@ -36091,28 +36094,28 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>509</v>
@@ -36129,28 +36132,28 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>509</v>
@@ -36167,28 +36170,28 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>509</v>
@@ -36205,28 +36208,28 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>509</v>
@@ -36243,28 +36246,28 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>509</v>
@@ -36281,28 +36284,28 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>509</v>
@@ -36319,28 +36322,28 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>509</v>
@@ -36357,28 +36360,28 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>509</v>
@@ -36395,28 +36398,28 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>509</v>
@@ -36433,28 +36436,28 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>509</v>
@@ -36471,28 +36474,28 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>509</v>
@@ -36509,28 +36512,28 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>509</v>
@@ -36547,37 +36550,37 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>383</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>927</v>
+        <v>1049</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1031</v>
+        <v>1003</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>383</v>
+        <v>53</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>927</v>
+        <v>1049</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>509</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>925</v>
+        <v>509</v>
       </c>
       <c r="L45" s="0" t="s">
         <v>509</v>
@@ -36585,37 +36588,37 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>383</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1048</v>
+        <v>927</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1003</v>
+        <v>1033</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>54</v>
+        <v>383</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>1048</v>
+        <v>927</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>509</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>509</v>
+        <v>925</v>
       </c>
       <c r="L46" s="0" t="s">
         <v>509</v>
@@ -36623,28 +36626,28 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>509</v>
@@ -36661,28 +36664,28 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>509</v>
@@ -36699,28 +36702,28 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>509</v>
@@ -36729,7 +36732,7 @@
         <v>511</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="L49" s="0" t="s">
         <v>509</v>
@@ -36737,28 +36740,28 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>509</v>
@@ -36775,28 +36778,28 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>509</v>
@@ -36813,28 +36816,28 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>509</v>
+      <c r="F52" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>509</v>
+        <v>1055</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>510</v>
+        <v>1006</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>509</v>
@@ -36843,7 +36846,7 @@
         <v>511</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>509</v>
+        <v>562</v>
       </c>
       <c r="L52" s="0" t="s">
         <v>509</v>
@@ -36851,7 +36854,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>7</v>
@@ -36860,7 +36863,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>1003</v>
@@ -36898,7 +36901,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>1003</v>
@@ -36936,10 +36939,10 @@
         <v>8</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>509</v>
@@ -36974,10 +36977,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>509</v>
@@ -37012,10 +37015,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>1059</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>509</v>
@@ -37050,10 +37053,10 @@
         <v>8</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>509</v>
@@ -37088,10 +37091,10 @@
         <v>8</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>509</v>
@@ -37126,10 +37129,10 @@
         <v>8</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>509</v>
@@ -37164,10 +37167,10 @@
         <v>8</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>509</v>
@@ -37202,10 +37205,10 @@
         <v>8</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>509</v>
@@ -37240,10 +37243,10 @@
         <v>8</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>509</v>
@@ -37278,10 +37281,10 @@
         <v>8</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>509</v>
@@ -37316,10 +37319,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>509</v>
@@ -37354,10 +37357,10 @@
         <v>8</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>509</v>
@@ -37392,10 +37395,10 @@
         <v>8</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>509</v>
@@ -37430,10 +37433,10 @@
         <v>8</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>509</v>
@@ -37468,10 +37471,10 @@
         <v>8</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>509</v>
@@ -37506,10 +37509,10 @@
         <v>8</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>509</v>
@@ -37544,10 +37547,10 @@
         <v>8</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>509</v>
@@ -37582,10 +37585,10 @@
         <v>8</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>509</v>
@@ -37620,10 +37623,10 @@
         <v>8</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>509</v>
@@ -37658,10 +37661,10 @@
         <v>8</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>509</v>
@@ -37696,10 +37699,10 @@
         <v>8</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>509</v>
@@ -37734,10 +37737,10 @@
         <v>8</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>509</v>
@@ -37772,10 +37775,10 @@
         <v>8</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>509</v>
@@ -37810,10 +37813,10 @@
         <v>8</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>509</v>
@@ -37848,10 +37851,10 @@
         <v>8</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>509</v>
@@ -37886,10 +37889,10 @@
         <v>8</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>509</v>
@@ -37924,10 +37927,10 @@
         <v>8</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>509</v>
@@ -37962,10 +37965,10 @@
         <v>8</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>509</v>
@@ -38000,10 +38003,10 @@
         <v>8</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>509</v>
@@ -38038,10 +38041,10 @@
         <v>8</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>509</v>
@@ -38076,10 +38079,10 @@
         <v>8</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>509</v>
@@ -38114,10 +38117,10 @@
         <v>8</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>509</v>
@@ -38152,10 +38155,10 @@
         <v>8</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>509</v>
@@ -38190,10 +38193,10 @@
         <v>8</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>509</v>
@@ -38228,10 +38231,10 @@
         <v>8</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>509</v>
@@ -38266,10 +38269,10 @@
         <v>8</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>509</v>
@@ -38304,10 +38307,10 @@
         <v>8</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>509</v>
@@ -38342,10 +38345,10 @@
         <v>8</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>509</v>
@@ -38380,10 +38383,10 @@
         <v>8</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>509</v>
@@ -38418,10 +38421,10 @@
         <v>8</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>509</v>
@@ -38456,10 +38459,10 @@
         <v>8</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>509</v>
@@ -38494,10 +38497,10 @@
         <v>8</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>509</v>
@@ -38532,10 +38535,10 @@
         <v>8</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>509</v>
@@ -38570,10 +38573,10 @@
         <v>8</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>509</v>
@@ -38608,10 +38611,10 @@
         <v>8</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>509</v>
@@ -38646,19 +38649,19 @@
         <v>106</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I100" s="0" t="s">
         <v>509</v>
@@ -38687,7 +38690,7 @@
         <v>610</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F101" s="0" t="s">
         <v>509</v>
@@ -38725,7 +38728,7 @@
         <v>613</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>509</v>
@@ -38763,7 +38766,7 @@
         <v>614</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F103" s="0" t="s">
         <v>509</v>
@@ -38801,7 +38804,7 @@
         <v>615</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>509</v>
@@ -38839,7 +38842,7 @@
         <v>616</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>509</v>
@@ -38877,7 +38880,7 @@
         <v>617</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>509</v>
@@ -38915,7 +38918,7 @@
         <v>618</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>509</v>
@@ -38953,7 +38956,7 @@
         <v>619</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>509</v>
@@ -38991,7 +38994,7 @@
         <v>620</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>509</v>
@@ -39029,7 +39032,7 @@
         <v>621</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>509</v>
@@ -39067,7 +39070,7 @@
         <v>622</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>509</v>
@@ -39105,7 +39108,7 @@
         <v>623</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>509</v>
@@ -39143,7 +39146,7 @@
         <v>624</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>509</v>
@@ -39181,7 +39184,7 @@
         <v>626</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>509</v>
@@ -39219,7 +39222,7 @@
         <v>627</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>509</v>
@@ -39257,7 +39260,7 @@
         <v>628</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F116" s="0" t="s">
         <v>509</v>
@@ -39295,7 +39298,7 @@
         <v>629</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>509</v>
@@ -39333,7 +39336,7 @@
         <v>630</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>509</v>
@@ -39371,7 +39374,7 @@
         <v>632</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>509</v>
@@ -39409,7 +39412,7 @@
         <v>633</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>509</v>
@@ -39447,7 +39450,7 @@
         <v>634</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>509</v>
@@ -39485,7 +39488,7 @@
         <v>635</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>509</v>
@@ -39523,7 +39526,7 @@
         <v>636</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>509</v>
@@ -39561,7 +39564,7 @@
         <v>637</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>509</v>
@@ -39599,7 +39602,7 @@
         <v>639</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>509</v>
@@ -39637,7 +39640,7 @@
         <v>641</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>509</v>
@@ -39675,7 +39678,7 @@
         <v>643</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>509</v>
@@ -39713,7 +39716,7 @@
         <v>644</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F128" s="0" t="s">
         <v>509</v>
@@ -39751,7 +39754,7 @@
         <v>645</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F129" s="0" t="s">
         <v>509</v>
@@ -39789,7 +39792,7 @@
         <v>646</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>509</v>
@@ -39827,7 +39830,7 @@
         <v>647</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>509</v>
@@ -39865,7 +39868,7 @@
         <v>648</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F132" s="0" t="s">
         <v>509</v>
@@ -39903,7 +39906,7 @@
         <v>649</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F133" s="0" t="s">
         <v>509</v>
@@ -39941,7 +39944,7 @@
         <v>650</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F134" s="0" t="s">
         <v>509</v>
@@ -39979,7 +39982,7 @@
         <v>651</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>509</v>
@@ -40017,7 +40020,7 @@
         <v>653</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F136" s="0" t="s">
         <v>509</v>
@@ -40055,7 +40058,7 @@
         <v>654</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F137" s="0" t="s">
         <v>509</v>
@@ -40093,7 +40096,7 @@
         <v>655</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>509</v>
@@ -40131,7 +40134,7 @@
         <v>656</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F139" s="0" t="s">
         <v>509</v>
@@ -40169,7 +40172,7 @@
         <v>657</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F140" s="0" t="s">
         <v>509</v>
@@ -40207,7 +40210,7 @@
         <v>658</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F141" s="0" t="s">
         <v>509</v>
@@ -40245,7 +40248,7 @@
         <v>659</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F142" s="0" t="s">
         <v>509</v>
@@ -40283,7 +40286,7 @@
         <v>660</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F143" s="0" t="s">
         <v>509</v>
@@ -40321,7 +40324,7 @@
         <v>661</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>509</v>
@@ -40359,7 +40362,7 @@
         <v>662</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F145" s="0" t="s">
         <v>509</v>
@@ -40397,7 +40400,7 @@
         <v>663</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F146" s="0" t="s">
         <v>509</v>
@@ -40435,7 +40438,7 @@
         <v>664</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F147" s="0" t="s">
         <v>509</v>
@@ -40473,7 +40476,7 @@
         <v>665</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F148" s="0" t="s">
         <v>509</v>
@@ -40511,7 +40514,7 @@
         <v>666</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F149" s="0" t="s">
         <v>509</v>
@@ -40549,7 +40552,7 @@
         <v>667</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F150" s="0" t="s">
         <v>509</v>
@@ -40587,7 +40590,7 @@
         <v>668</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F151" s="0" t="s">
         <v>509</v>
@@ -40625,7 +40628,7 @@
         <v>669</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F152" s="0" t="s">
         <v>509</v>
@@ -40663,7 +40666,7 @@
         <v>670</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F153" s="0" t="s">
         <v>509</v>
@@ -40701,7 +40704,7 @@
         <v>671</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F154" s="0" t="s">
         <v>509</v>
@@ -40739,7 +40742,7 @@
         <v>672</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F155" s="0" t="s">
         <v>509</v>
@@ -40777,7 +40780,7 @@
         <v>673</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>509</v>
@@ -40815,7 +40818,7 @@
         <v>674</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>509</v>
@@ -40853,7 +40856,7 @@
         <v>675</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>509</v>
@@ -40891,7 +40894,7 @@
         <v>676</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F159" s="0" t="s">
         <v>509</v>
@@ -40929,7 +40932,7 @@
         <v>677</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F160" s="0" t="s">
         <v>509</v>
@@ -40967,7 +40970,7 @@
         <v>678</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F161" s="0" t="s">
         <v>509</v>
@@ -41005,7 +41008,7 @@
         <v>679</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F162" s="0" t="s">
         <v>509</v>
@@ -41043,7 +41046,7 @@
         <v>680</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>509</v>
@@ -41081,7 +41084,7 @@
         <v>681</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F164" s="0" t="s">
         <v>509</v>
@@ -41119,7 +41122,7 @@
         <v>682</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>509</v>
@@ -41157,7 +41160,7 @@
         <v>684</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F166" s="0" t="s">
         <v>509</v>
@@ -41195,7 +41198,7 @@
         <v>685</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>509</v>
@@ -41233,7 +41236,7 @@
         <v>686</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>509</v>
@@ -41271,7 +41274,7 @@
         <v>687</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F169" s="0" t="s">
         <v>509</v>
@@ -41309,7 +41312,7 @@
         <v>688</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F170" s="0" t="s">
         <v>509</v>
@@ -41347,7 +41350,7 @@
         <v>689</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F171" s="0" t="s">
         <v>509</v>
@@ -41385,7 +41388,7 @@
         <v>690</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>509</v>
@@ -41423,7 +41426,7 @@
         <v>691</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F173" s="0" t="s">
         <v>509</v>
@@ -41461,7 +41464,7 @@
         <v>692</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F174" s="0" t="s">
         <v>509</v>
@@ -41499,7 +41502,7 @@
         <v>693</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F175" s="0" t="s">
         <v>509</v>
@@ -41537,7 +41540,7 @@
         <v>694</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F176" s="0" t="s">
         <v>509</v>
@@ -41575,7 +41578,7 @@
         <v>695</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F177" s="0" t="s">
         <v>509</v>
@@ -41613,7 +41616,7 @@
         <v>696</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F178" s="0" t="s">
         <v>509</v>
@@ -41651,7 +41654,7 @@
         <v>697</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F179" s="0" t="s">
         <v>509</v>
@@ -41689,7 +41692,7 @@
         <v>698</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F180" s="0" t="s">
         <v>509</v>
@@ -41727,7 +41730,7 @@
         <v>699</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F181" s="0" t="s">
         <v>509</v>
@@ -41765,7 +41768,7 @@
         <v>700</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F182" s="0" t="s">
         <v>509</v>
@@ -41803,7 +41806,7 @@
         <v>701</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F183" s="0" t="s">
         <v>509</v>
@@ -41841,7 +41844,7 @@
         <v>702</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F184" s="0" t="s">
         <v>509</v>
@@ -41879,7 +41882,7 @@
         <v>703</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F185" s="0" t="s">
         <v>509</v>
@@ -41917,7 +41920,7 @@
         <v>705</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F186" s="0" t="s">
         <v>509</v>
@@ -41955,7 +41958,7 @@
         <v>707</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F187" s="0" t="s">
         <v>509</v>
@@ -41993,7 +41996,7 @@
         <v>708</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F188" s="0" t="s">
         <v>509</v>
@@ -42031,7 +42034,7 @@
         <v>709</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F189" s="0" t="s">
         <v>509</v>
@@ -42069,7 +42072,7 @@
         <v>710</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F190" s="0" t="s">
         <v>509</v>
@@ -42107,7 +42110,7 @@
         <v>711</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F191" s="0" t="s">
         <v>509</v>
@@ -42145,7 +42148,7 @@
         <v>712</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F192" s="0" t="s">
         <v>509</v>
@@ -42183,7 +42186,7 @@
         <v>713</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F193" s="0" t="s">
         <v>509</v>
@@ -42221,7 +42224,7 @@
         <v>714</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F194" s="0" t="s">
         <v>509</v>
@@ -42259,7 +42262,7 @@
         <v>715</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F195" s="0" t="s">
         <v>509</v>
@@ -42297,7 +42300,7 @@
         <v>716</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F196" s="0" t="s">
         <v>509</v>
@@ -42335,7 +42338,7 @@
         <v>717</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F197" s="0" t="s">
         <v>509</v>
@@ -42373,7 +42376,7 @@
         <v>718</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F198" s="0" t="s">
         <v>509</v>
@@ -42411,7 +42414,7 @@
         <v>719</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F199" s="0" t="s">
         <v>509</v>
@@ -42449,7 +42452,7 @@
         <v>720</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F200" s="0" t="s">
         <v>509</v>
@@ -42487,7 +42490,7 @@
         <v>721</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F201" s="0" t="s">
         <v>509</v>
@@ -42525,7 +42528,7 @@
         <v>722</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F202" s="0" t="s">
         <v>509</v>
@@ -42563,7 +42566,7 @@
         <v>724</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F203" s="0" t="s">
         <v>509</v>
@@ -42601,7 +42604,7 @@
         <v>726</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F204" s="0" t="s">
         <v>509</v>
@@ -42639,7 +42642,7 @@
         <v>727</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F205" s="0" t="s">
         <v>509</v>
@@ -42677,7 +42680,7 @@
         <v>729</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F206" s="0" t="s">
         <v>509</v>
@@ -42715,7 +42718,7 @@
         <v>731</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F207" s="0" t="s">
         <v>509</v>
@@ -42753,7 +42756,7 @@
         <v>733</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F208" s="0" t="s">
         <v>509</v>
@@ -42791,7 +42794,7 @@
         <v>735</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F209" s="0" t="s">
         <v>509</v>
@@ -42829,7 +42832,7 @@
         <v>736</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F210" s="0" t="s">
         <v>509</v>
@@ -42867,7 +42870,7 @@
         <v>737</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F211" s="0" t="s">
         <v>509</v>
@@ -42905,7 +42908,7 @@
         <v>738</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F212" s="0" t="s">
         <v>509</v>
@@ -42943,7 +42946,7 @@
         <v>739</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F213" s="0" t="s">
         <v>509</v>
@@ -42981,7 +42984,7 @@
         <v>740</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F214" s="0" t="s">
         <v>509</v>
@@ -43019,7 +43022,7 @@
         <v>741</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F215" s="0" t="s">
         <v>509</v>
@@ -43057,7 +43060,7 @@
         <v>742</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F216" s="0" t="s">
         <v>509</v>
@@ -43095,7 +43098,7 @@
         <v>743</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F217" s="0" t="s">
         <v>509</v>
@@ -43133,7 +43136,7 @@
         <v>744</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F218" s="0" t="s">
         <v>509</v>
@@ -43171,7 +43174,7 @@
         <v>745</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F219" s="0" t="s">
         <v>509</v>
@@ -43209,7 +43212,7 @@
         <v>747</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F220" s="0" t="s">
         <v>509</v>
@@ -43247,7 +43250,7 @@
         <v>748</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F221" s="0" t="s">
         <v>509</v>
@@ -43285,7 +43288,7 @@
         <v>749</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F222" s="0" t="s">
         <v>509</v>
@@ -43323,7 +43326,7 @@
         <v>750</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F223" s="0" t="s">
         <v>509</v>
@@ -43361,7 +43364,7 @@
         <v>751</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F224" s="0" t="s">
         <v>509</v>
@@ -43399,7 +43402,7 @@
         <v>752</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F225" s="0" t="s">
         <v>509</v>
@@ -43437,7 +43440,7 @@
         <v>753</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F226" s="0" t="s">
         <v>509</v>
@@ -43475,7 +43478,7 @@
         <v>754</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F227" s="0" t="s">
         <v>509</v>
@@ -43513,7 +43516,7 @@
         <v>755</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F228" s="0" t="s">
         <v>509</v>
@@ -43551,7 +43554,7 @@
         <v>755</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F229" s="0" t="s">
         <v>509</v>
@@ -43589,7 +43592,7 @@
         <v>756</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F230" s="0" t="s">
         <v>509</v>
@@ -43627,7 +43630,7 @@
         <v>757</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F231" s="0" t="s">
         <v>509</v>
@@ -43665,7 +43668,7 @@
         <v>758</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F232" s="0" t="s">
         <v>509</v>
@@ -43703,7 +43706,7 @@
         <v>759</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F233" s="0" t="s">
         <v>509</v>
@@ -43741,7 +43744,7 @@
         <v>760</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F234" s="0" t="s">
         <v>509</v>
@@ -43779,7 +43782,7 @@
         <v>761</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F235" s="0" t="s">
         <v>509</v>
@@ -43817,7 +43820,7 @@
         <v>763</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F236" s="0" t="s">
         <v>509</v>
@@ -43855,7 +43858,7 @@
         <v>764</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F237" s="0" t="s">
         <v>509</v>
@@ -43893,7 +43896,7 @@
         <v>765</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F238" s="0" t="s">
         <v>509</v>
@@ -43931,7 +43934,7 @@
         <v>766</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F239" s="0" t="s">
         <v>509</v>
@@ -43969,7 +43972,7 @@
         <v>767</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F240" s="0" t="s">
         <v>509</v>
@@ -44007,7 +44010,7 @@
         <v>768</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F241" s="0" t="s">
         <v>509</v>
@@ -44045,7 +44048,7 @@
         <v>769</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F242" s="0" t="s">
         <v>509</v>
@@ -44083,7 +44086,7 @@
         <v>770</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F243" s="0" t="s">
         <v>509</v>
@@ -44121,7 +44124,7 @@
         <v>771</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F244" s="0" t="s">
         <v>509</v>
@@ -44159,7 +44162,7 @@
         <v>772</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F245" s="0" t="s">
         <v>509</v>
@@ -44197,7 +44200,7 @@
         <v>773</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F246" s="0" t="s">
         <v>509</v>
@@ -44235,7 +44238,7 @@
         <v>775</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F247" s="0" t="s">
         <v>509</v>
@@ -44273,7 +44276,7 @@
         <v>776</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F248" s="0" t="s">
         <v>509</v>
@@ -44311,7 +44314,7 @@
         <v>777</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F249" s="0" t="s">
         <v>509</v>
@@ -44349,7 +44352,7 @@
         <v>778</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F250" s="0" t="s">
         <v>509</v>
@@ -44387,7 +44390,7 @@
         <v>779</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F251" s="0" t="s">
         <v>509</v>
@@ -44425,7 +44428,7 @@
         <v>780</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F252" s="0" t="s">
         <v>509</v>
@@ -44463,7 +44466,7 @@
         <v>781</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F253" s="0" t="s">
         <v>509</v>
@@ -44501,7 +44504,7 @@
         <v>782</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F254" s="0" t="s">
         <v>509</v>
@@ -44539,7 +44542,7 @@
         <v>783</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F255" s="0" t="s">
         <v>509</v>
@@ -44577,7 +44580,7 @@
         <v>784</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F256" s="0" t="s">
         <v>509</v>
@@ -44615,7 +44618,7 @@
         <v>639</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F257" s="0" t="s">
         <v>509</v>
@@ -44653,7 +44656,7 @@
         <v>722</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F258" s="0" t="s">
         <v>509</v>
@@ -44691,7 +44694,7 @@
         <v>724</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F259" s="0" t="s">
         <v>509</v>
@@ -44729,7 +44732,7 @@
         <v>726</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F260" s="0" t="s">
         <v>509</v>
@@ -44767,7 +44770,7 @@
         <v>785</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F261" s="0" t="s">
         <v>509</v>
@@ -44805,7 +44808,7 @@
         <v>787</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F262" s="0" t="s">
         <v>509</v>
@@ -44843,7 +44846,7 @@
         <v>788</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F263" s="0" t="s">
         <v>509</v>
@@ -44881,7 +44884,7 @@
         <v>789</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F264" s="0" t="s">
         <v>509</v>
@@ -44919,7 +44922,7 @@
         <v>790</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F265" s="0" t="s">
         <v>509</v>
@@ -44957,7 +44960,7 @@
         <v>791</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F266" s="0" t="s">
         <v>509</v>
@@ -44995,7 +44998,7 @@
         <v>792</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F267" s="0" t="s">
         <v>509</v>
@@ -45033,7 +45036,7 @@
         <v>794</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F268" s="0" t="s">
         <v>509</v>
@@ -45071,7 +45074,7 @@
         <v>795</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F269" s="0" t="s">
         <v>509</v>
@@ -45109,7 +45112,7 @@
         <v>796</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F270" s="0" t="s">
         <v>509</v>
@@ -45147,7 +45150,7 @@
         <v>797</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F271" s="0" t="s">
         <v>509</v>
@@ -45185,7 +45188,7 @@
         <v>798</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F272" s="0" t="s">
         <v>509</v>
@@ -45223,7 +45226,7 @@
         <v>799</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F273" s="0" t="s">
         <v>509</v>
@@ -45261,7 +45264,7 @@
         <v>800</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F274" s="0" t="s">
         <v>509</v>
@@ -45299,7 +45302,7 @@
         <v>801</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F275" s="0" t="s">
         <v>509</v>
@@ -45337,7 +45340,7 @@
         <v>802</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F276" s="0" t="s">
         <v>509</v>
@@ -45375,7 +45378,7 @@
         <v>803</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F277" s="0" t="s">
         <v>509</v>
@@ -45413,7 +45416,7 @@
         <v>805</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F278" s="0" t="s">
         <v>509</v>
@@ -45451,7 +45454,7 @@
         <v>806</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F279" s="0" t="s">
         <v>509</v>
@@ -45489,7 +45492,7 @@
         <v>807</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F280" s="0" t="s">
         <v>509</v>
@@ -45527,7 +45530,7 @@
         <v>808</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F281" s="0" t="s">
         <v>509</v>
@@ -45565,7 +45568,7 @@
         <v>809</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F282" s="0" t="s">
         <v>509</v>
@@ -45603,7 +45606,7 @@
         <v>810</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F283" s="0" t="s">
         <v>509</v>
@@ -45641,7 +45644,7 @@
         <v>811</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F284" s="0" t="s">
         <v>509</v>
@@ -45679,7 +45682,7 @@
         <v>812</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F285" s="0" t="s">
         <v>509</v>
@@ -45717,7 +45720,7 @@
         <v>813</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F286" s="0" t="s">
         <v>509</v>
@@ -45755,7 +45758,7 @@
         <v>814</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F287" s="0" t="s">
         <v>509</v>
@@ -45793,7 +45796,7 @@
         <v>703</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F288" s="0" t="s">
         <v>509</v>
@@ -45831,7 +45834,7 @@
         <v>707</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F289" s="0" t="s">
         <v>509</v>
@@ -45869,7 +45872,7 @@
         <v>708</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F290" s="0" t="s">
         <v>509</v>
@@ -45907,7 +45910,7 @@
         <v>709</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F291" s="0" t="s">
         <v>509</v>
@@ -45945,7 +45948,7 @@
         <v>711</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F292" s="0" t="s">
         <v>509</v>
@@ -45983,7 +45986,7 @@
         <v>712</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F293" s="0" t="s">
         <v>509</v>
@@ -46021,7 +46024,7 @@
         <v>815</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F294" s="0" t="s">
         <v>509</v>
@@ -46059,7 +46062,7 @@
         <v>713</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F295" s="0" t="s">
         <v>509</v>
@@ -46097,7 +46100,7 @@
         <v>714</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F296" s="0" t="s">
         <v>509</v>
@@ -46135,7 +46138,7 @@
         <v>715</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F297" s="0" t="s">
         <v>509</v>
@@ -46173,7 +46176,7 @@
         <v>716</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F298" s="0" t="s">
         <v>509</v>
@@ -46211,7 +46214,7 @@
         <v>718</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F299" s="0" t="s">
         <v>509</v>
@@ -46249,7 +46252,7 @@
         <v>719</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F300" s="0" t="s">
         <v>509</v>
@@ -46287,7 +46290,7 @@
         <v>720</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F301" s="0" t="s">
         <v>509</v>
@@ -46325,7 +46328,7 @@
         <v>721</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F302" s="0" t="s">
         <v>509</v>
@@ -46363,7 +46366,7 @@
         <v>816</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F303" s="0" t="s">
         <v>509</v>
@@ -46401,7 +46404,7 @@
         <v>818</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F304" s="0" t="s">
         <v>509</v>
@@ -46439,7 +46442,7 @@
         <v>820</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F305" s="0" t="s">
         <v>509</v>
@@ -46477,7 +46480,7 @@
         <v>822</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F306" s="0" t="s">
         <v>509</v>
@@ -46515,7 +46518,7 @@
         <v>823</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F307" s="0" t="s">
         <v>509</v>
@@ -46553,7 +46556,7 @@
         <v>824</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F308" s="0" t="s">
         <v>509</v>
@@ -46591,7 +46594,7 @@
         <v>825</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F309" s="0" t="s">
         <v>509</v>
@@ -46629,7 +46632,7 @@
         <v>826</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F310" s="0" t="s">
         <v>509</v>
@@ -46667,7 +46670,7 @@
         <v>827</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F311" s="0" t="s">
         <v>509</v>
@@ -46705,7 +46708,7 @@
         <v>828</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F312" s="0" t="s">
         <v>509</v>
@@ -46743,7 +46746,7 @@
         <v>829</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F313" s="0" t="s">
         <v>509</v>
@@ -46781,7 +46784,7 @@
         <v>830</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F314" s="0" t="s">
         <v>509</v>
@@ -46819,7 +46822,7 @@
         <v>831</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F315" s="0" t="s">
         <v>509</v>
@@ -46857,7 +46860,7 @@
         <v>832</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F316" s="0" t="s">
         <v>509</v>
@@ -46895,7 +46898,7 @@
         <v>833</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F317" s="0" t="s">
         <v>509</v>
@@ -46933,7 +46936,7 @@
         <v>835</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F318" s="0" t="s">
         <v>509</v>
@@ -46971,7 +46974,7 @@
         <v>836</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F319" s="0" t="s">
         <v>509</v>
@@ -47009,7 +47012,7 @@
         <v>837</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F320" s="0" t="s">
         <v>509</v>
@@ -47047,7 +47050,7 @@
         <v>838</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F321" s="0" t="s">
         <v>509</v>
@@ -47085,7 +47088,7 @@
         <v>839</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F322" s="0" t="s">
         <v>509</v>
@@ -47123,7 +47126,7 @@
         <v>840</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F323" s="0" t="s">
         <v>509</v>
@@ -47161,7 +47164,7 @@
         <v>841</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F324" s="0" t="s">
         <v>509</v>
@@ -47199,7 +47202,7 @@
         <v>842</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F325" s="0" t="s">
         <v>509</v>
@@ -47237,7 +47240,7 @@
         <v>844</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F326" s="0" t="s">
         <v>509</v>
@@ -47275,7 +47278,7 @@
         <v>845</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F327" s="0" t="s">
         <v>509</v>
@@ -47313,7 +47316,7 @@
         <v>846</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F328" s="0" t="s">
         <v>509</v>
@@ -47351,7 +47354,7 @@
         <v>847</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F329" s="0" t="s">
         <v>509</v>
@@ -47389,7 +47392,7 @@
         <v>848</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F330" s="0" t="s">
         <v>509</v>
@@ -47427,7 +47430,7 @@
         <v>849</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F331" s="0" t="s">
         <v>509</v>
@@ -47465,7 +47468,7 @@
         <v>850</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F332" s="0" t="s">
         <v>509</v>
@@ -47503,7 +47506,7 @@
         <v>726</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F333" s="0" t="s">
         <v>509</v>
@@ -47541,7 +47544,7 @@
         <v>851</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F334" s="0" t="s">
         <v>509</v>
@@ -47579,7 +47582,7 @@
         <v>852</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F335" s="0" t="s">
         <v>509</v>
@@ -47617,7 +47620,7 @@
         <v>854</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F336" s="0" t="s">
         <v>509</v>
@@ -47655,7 +47658,7 @@
         <v>855</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F337" s="0" t="s">
         <v>509</v>
@@ -47693,7 +47696,7 @@
         <v>856</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F338" s="0" t="s">
         <v>509</v>
@@ -47731,7 +47734,7 @@
         <v>857</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F339" s="0" t="s">
         <v>509</v>
@@ -47769,7 +47772,7 @@
         <v>858</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F340" s="0" t="s">
         <v>509</v>
@@ -47807,7 +47810,7 @@
         <v>859</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F341" s="0" t="s">
         <v>509</v>
@@ -47845,7 +47848,7 @@
         <v>860</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F342" s="0" t="s">
         <v>509</v>
@@ -47883,7 +47886,7 @@
         <v>861</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F343" s="0" t="s">
         <v>509</v>
@@ -47921,7 +47924,7 @@
         <v>862</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F344" s="0" t="s">
         <v>509</v>
@@ -47959,7 +47962,7 @@
         <v>727</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F345" s="0" t="s">
         <v>509</v>
@@ -47997,7 +48000,7 @@
         <v>731</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F346" s="0" t="s">
         <v>509</v>
@@ -48035,7 +48038,7 @@
         <v>722</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F347" s="0" t="s">
         <v>509</v>
@@ -48073,7 +48076,7 @@
         <v>724</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F348" s="0" t="s">
         <v>509</v>
@@ -48111,7 +48114,7 @@
         <v>726</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F349" s="0" t="s">
         <v>509</v>
@@ -48149,7 +48152,7 @@
         <v>727</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F350" s="0" t="s">
         <v>509</v>
@@ -48187,7 +48190,7 @@
         <v>729</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F351" s="0" t="s">
         <v>509</v>
@@ -48225,7 +48228,7 @@
         <v>731</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F352" s="0" t="s">
         <v>509</v>
@@ -48263,7 +48266,7 @@
         <v>722</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F353" s="0" t="s">
         <v>509</v>
@@ -48301,7 +48304,7 @@
         <v>724</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F354" s="0" t="s">
         <v>509</v>
@@ -48339,7 +48342,7 @@
         <v>726</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F355" s="0" t="s">
         <v>509</v>
@@ -48377,7 +48380,7 @@
         <v>852</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F356" s="0" t="s">
         <v>509</v>
@@ -48415,7 +48418,7 @@
         <v>854</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F357" s="0" t="s">
         <v>509</v>
@@ -48453,7 +48456,7 @@
         <v>855</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F358" s="0" t="s">
         <v>509</v>
@@ -48491,7 +48494,7 @@
         <v>856</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F359" s="0" t="s">
         <v>509</v>
@@ -48529,7 +48532,7 @@
         <v>857</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F360" s="0" t="s">
         <v>509</v>
@@ -48567,7 +48570,7 @@
         <v>727</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F361" s="0" t="s">
         <v>509</v>
@@ -48605,7 +48608,7 @@
         <v>731</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F362" s="0" t="s">
         <v>509</v>
@@ -48643,7 +48646,7 @@
         <v>863</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F363" s="0" t="s">
         <v>509</v>
@@ -48681,7 +48684,7 @@
         <v>865</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F364" s="0" t="s">
         <v>509</v>
@@ -48719,7 +48722,7 @@
         <v>745</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F365" s="0" t="s">
         <v>509</v>
@@ -48757,7 +48760,7 @@
         <v>866</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F366" s="0" t="s">
         <v>509</v>
@@ -48795,7 +48798,7 @@
         <v>868</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F367" s="0" t="s">
         <v>509</v>
@@ -48833,7 +48836,7 @@
         <v>869</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F368" s="0" t="s">
         <v>509</v>
@@ -48871,7 +48874,7 @@
         <v>870</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F369" s="0" t="s">
         <v>509</v>
@@ -48909,7 +48912,7 @@
         <v>871</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F370" s="0" t="s">
         <v>509</v>
@@ -48947,7 +48950,7 @@
         <v>872</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F371" s="0" t="s">
         <v>509</v>
@@ -48985,7 +48988,7 @@
         <v>873</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F372" s="0" t="s">
         <v>509</v>
@@ -49023,7 +49026,7 @@
         <v>874</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F373" s="0" t="s">
         <v>509</v>
@@ -49061,7 +49064,7 @@
         <v>875</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F374" s="0" t="s">
         <v>509</v>
@@ -49099,7 +49102,7 @@
         <v>876</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F375" s="0" t="s">
         <v>509</v>
@@ -49137,7 +49140,7 @@
         <v>877</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F376" s="0" t="s">
         <v>509</v>
@@ -49175,7 +49178,7 @@
         <v>878</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F377" s="0" t="s">
         <v>509</v>
@@ -49213,7 +49216,7 @@
         <v>879</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F378" s="0" t="s">
         <v>509</v>
@@ -49251,7 +49254,7 @@
         <v>880</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F379" s="0" t="s">
         <v>509</v>
@@ -49289,7 +49292,7 @@
         <v>881</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F380" s="0" t="s">
         <v>509</v>
@@ -49327,7 +49330,7 @@
         <v>882</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F381" s="0" t="s">
         <v>509</v>
@@ -49365,7 +49368,7 @@
         <v>883</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F382" s="0" t="s">
         <v>509</v>
@@ -49403,7 +49406,7 @@
         <v>884</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F383" s="0" t="s">
         <v>509</v>
@@ -49441,7 +49444,7 @@
         <v>885</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F384" s="0" t="s">
         <v>509</v>
@@ -49479,7 +49482,7 @@
         <v>887</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F385" s="0" t="s">
         <v>509</v>
@@ -49517,7 +49520,7 @@
         <v>889</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F386" s="0" t="s">
         <v>509</v>
@@ -49555,7 +49558,7 @@
         <v>891</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F387" s="0" t="s">
         <v>509</v>
@@ -49593,7 +49596,7 @@
         <v>892</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F388" s="0" t="s">
         <v>509</v>
@@ -49631,7 +49634,7 @@
         <v>893</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F389" s="0" t="s">
         <v>509</v>
@@ -49669,7 +49672,7 @@
         <v>894</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F390" s="0" t="s">
         <v>509</v>
@@ -49707,7 +49710,7 @@
         <v>895</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F391" s="0" t="s">
         <v>509</v>
@@ -49745,7 +49748,7 @@
         <v>896</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F392" s="0" t="s">
         <v>509</v>
@@ -49783,7 +49786,7 @@
         <v>780</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F393" s="0" t="s">
         <v>509</v>
@@ -49821,7 +49824,7 @@
         <v>897</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F394" s="0" t="s">
         <v>509</v>
@@ -49859,7 +49862,7 @@
         <v>783</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F395" s="0" t="s">
         <v>509</v>
@@ -49897,7 +49900,7 @@
         <v>898</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F396" s="0" t="s">
         <v>509</v>
@@ -49935,7 +49938,7 @@
         <v>639</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F397" s="0" t="s">
         <v>509</v>
@@ -49973,7 +49976,7 @@
         <v>885</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F398" s="0" t="s">
         <v>509</v>
@@ -50011,7 +50014,7 @@
         <v>899</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F399" s="0" t="s">
         <v>509</v>
@@ -50049,7 +50052,7 @@
         <v>901</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F400" s="0" t="s">
         <v>509</v>
@@ -50087,7 +50090,7 @@
         <v>902</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F401" s="0" t="s">
         <v>509</v>
@@ -50125,7 +50128,7 @@
         <v>903</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F402" s="0" t="s">
         <v>509</v>
@@ -50163,7 +50166,7 @@
         <v>904</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F403" s="0" t="s">
         <v>509</v>
@@ -50201,7 +50204,7 @@
         <v>887</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F404" s="0" t="s">
         <v>509</v>
@@ -50239,7 +50242,7 @@
         <v>905</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F405" s="0" t="s">
         <v>509</v>
@@ -50277,7 +50280,7 @@
         <v>892</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F406" s="0" t="s">
         <v>509</v>
@@ -50315,7 +50318,7 @@
         <v>893</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F407" s="0" t="s">
         <v>509</v>
@@ -50353,7 +50356,7 @@
         <v>906</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F408" s="0" t="s">
         <v>509</v>
@@ -50391,7 +50394,7 @@
         <v>773</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F409" s="0" t="s">
         <v>509</v>
@@ -50429,7 +50432,7 @@
         <v>907</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F410" s="0" t="s">
         <v>509</v>
@@ -50467,7 +50470,7 @@
         <v>896</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F411" s="0" t="s">
         <v>509</v>
@@ -50505,7 +50508,7 @@
         <v>908</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F412" s="0" t="s">
         <v>509</v>
@@ -50543,7 +50546,7 @@
         <v>909</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F413" s="0" t="s">
         <v>509</v>
@@ -50581,7 +50584,7 @@
         <v>910</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F414" s="0" t="s">
         <v>509</v>
@@ -50619,7 +50622,7 @@
         <v>911</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F415" s="0" t="s">
         <v>509</v>
@@ -50657,7 +50660,7 @@
         <v>912</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F416" s="0" t="s">
         <v>509</v>
@@ -50695,7 +50698,7 @@
         <v>913</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F417" s="0" t="s">
         <v>509</v>
@@ -50733,7 +50736,7 @@
         <v>914</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F418" s="0" t="s">
         <v>509</v>
@@ -50771,7 +50774,7 @@
         <v>915</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F419" s="0" t="s">
         <v>509</v>
@@ -50809,7 +50812,7 @@
         <v>917</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F420" s="0" t="s">
         <v>509</v>
@@ -50847,7 +50850,7 @@
         <v>918</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F421" s="0" t="s">
         <v>509</v>
@@ -50885,7 +50888,7 @@
         <v>919</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F422" s="0" t="s">
         <v>509</v>
@@ -50923,7 +50926,7 @@
         <v>920</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F423" s="0" t="s">
         <v>509</v>
@@ -50961,7 +50964,7 @@
         <v>921</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F424" s="0" t="s">
         <v>509</v>
@@ -50999,7 +51002,7 @@
         <v>922</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F425" s="0" t="s">
         <v>509</v>
@@ -51037,7 +51040,7 @@
         <v>924</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F426" s="0" t="s">
         <v>509</v>
@@ -51075,7 +51078,7 @@
         <v>926</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F427" s="0" t="s">
         <v>509</v>
@@ -51113,7 +51116,7 @@
         <v>928</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F428" s="0" t="s">
         <v>509</v>
@@ -51151,7 +51154,7 @@
         <v>929</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F429" s="0" t="s">
         <v>509</v>
@@ -51189,7 +51192,7 @@
         <v>930</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F430" s="0" t="s">
         <v>509</v>
@@ -51227,7 +51230,7 @@
         <v>931</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F431" s="0" t="s">
         <v>509</v>
@@ -51265,7 +51268,7 @@
         <v>932</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F432" s="0" t="s">
         <v>509</v>
@@ -51303,7 +51306,7 @@
         <v>933</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F433" s="0" t="s">
         <v>509</v>
@@ -51341,7 +51344,7 @@
         <v>934</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F434" s="0" t="s">
         <v>509</v>
@@ -51379,7 +51382,7 @@
         <v>935</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F435" s="0" t="s">
         <v>509</v>
@@ -51417,7 +51420,7 @@
         <v>936</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F436" s="0" t="s">
         <v>509</v>
@@ -51455,7 +51458,7 @@
         <v>937</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F437" s="0" t="s">
         <v>509</v>
@@ -51493,7 +51496,7 @@
         <v>938</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F438" s="0" t="s">
         <v>509</v>
@@ -51531,7 +51534,7 @@
         <v>940</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F439" s="0" t="s">
         <v>509</v>
@@ -51569,7 +51572,7 @@
         <v>941</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F440" s="0" t="s">
         <v>509</v>
@@ -51607,7 +51610,7 @@
         <v>942</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F441" s="0" t="s">
         <v>509</v>
@@ -51645,7 +51648,7 @@
         <v>943</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F442" s="0" t="s">
         <v>509</v>
@@ -51683,7 +51686,7 @@
         <v>944</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F443" s="0" t="s">
         <v>509</v>
@@ -51721,7 +51724,7 @@
         <v>945</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F444" s="0" t="s">
         <v>509</v>
@@ -51759,7 +51762,7 @@
         <v>946</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F445" s="0" t="s">
         <v>509</v>
@@ -51797,7 +51800,7 @@
         <v>947</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F446" s="0" t="s">
         <v>509</v>
@@ -51835,7 +51838,7 @@
         <v>948</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F447" s="0" t="s">
         <v>509</v>
@@ -51873,7 +51876,7 @@
         <v>949</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F448" s="0" t="s">
         <v>509</v>
@@ -51911,7 +51914,7 @@
         <v>950</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F449" s="0" t="s">
         <v>509</v>
@@ -51949,7 +51952,7 @@
         <v>952</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F450" s="0" t="s">
         <v>509</v>
@@ -51987,7 +51990,7 @@
         <v>953</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F451" s="0" t="s">
         <v>509</v>
@@ -52025,7 +52028,7 @@
         <v>954</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F452" s="0" t="s">
         <v>509</v>
@@ -52063,7 +52066,7 @@
         <v>955</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F453" s="0" t="s">
         <v>509</v>
@@ -52101,7 +52104,7 @@
         <v>956</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F454" s="0" t="s">
         <v>509</v>
@@ -52139,7 +52142,7 @@
         <v>958</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F455" s="0" t="s">
         <v>509</v>
@@ -52177,7 +52180,7 @@
         <v>960</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F456" s="0" t="s">
         <v>509</v>
@@ -52215,7 +52218,7 @@
         <v>961</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F457" s="0" t="s">
         <v>509</v>
@@ -52253,7 +52256,7 @@
         <v>962</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F458" s="0" t="s">
         <v>509</v>
@@ -52291,7 +52294,7 @@
         <v>964</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F459" s="0" t="s">
         <v>509</v>
@@ -52329,7 +52332,7 @@
         <v>966</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F460" s="0" t="s">
         <v>509</v>
@@ -52367,7 +52370,7 @@
         <v>968</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F461" s="0" t="s">
         <v>509</v>
@@ -52405,7 +52408,7 @@
         <v>970</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F462" s="0" t="s">
         <v>509</v>
@@ -52443,7 +52446,7 @@
         <v>971</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F463" s="0" t="s">
         <v>509</v>
@@ -52481,7 +52484,7 @@
         <v>973</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F464" s="0" t="s">
         <v>509</v>
@@ -52519,7 +52522,7 @@
         <v>975</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F465" s="0" t="s">
         <v>509</v>
@@ -52557,7 +52560,7 @@
         <v>976</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F466" s="0" t="s">
         <v>509</v>
@@ -52595,7 +52598,7 @@
         <v>977</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F467" s="0" t="s">
         <v>509</v>
@@ -52633,7 +52636,7 @@
         <v>978</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F468" s="0" t="s">
         <v>509</v>
@@ -52671,7 +52674,7 @@
         <v>979</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F469" s="0" t="s">
         <v>509</v>
@@ -52709,7 +52712,7 @@
         <v>980</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F470" s="0" t="s">
         <v>509</v>
@@ -52747,7 +52750,7 @@
         <v>981</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F471" s="0" t="s">
         <v>509</v>
@@ -52785,7 +52788,7 @@
         <v>982</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F472" s="0" t="s">
         <v>509</v>
@@ -52823,7 +52826,7 @@
         <v>983</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F473" s="0" t="s">
         <v>509</v>
@@ -52861,7 +52864,7 @@
         <v>722</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F474" s="0" t="s">
         <v>509</v>
@@ -52899,7 +52902,7 @@
         <v>724</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F475" s="0" t="s">
         <v>509</v>
@@ -52937,7 +52940,7 @@
         <v>726</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F476" s="0" t="s">
         <v>509</v>
@@ -52975,7 +52978,7 @@
         <v>856</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F477" s="0" t="s">
         <v>509</v>
@@ -53013,7 +53016,7 @@
         <v>727</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F478" s="0" t="s">
         <v>509</v>
@@ -53051,7 +53054,7 @@
         <v>731</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F479" s="0" t="s">
         <v>509</v>
@@ -53089,7 +53092,7 @@
         <v>984</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F480" s="0" t="s">
         <v>509</v>
@@ -53127,7 +53130,7 @@
         <v>986</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F481" s="0" t="s">
         <v>509</v>
@@ -53165,7 +53168,7 @@
         <v>722</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F482" s="0" t="s">
         <v>509</v>
@@ -53203,7 +53206,7 @@
         <v>726</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F483" s="0" t="s">
         <v>509</v>
@@ -53241,7 +53244,7 @@
         <v>984</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F484" s="0" t="s">
         <v>509</v>
@@ -53279,7 +53282,7 @@
         <v>722</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F485" s="0" t="s">
         <v>509</v>
@@ -53317,7 +53320,7 @@
         <v>726</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F486" s="0" t="s">
         <v>509</v>
@@ -53355,7 +53358,7 @@
         <v>988</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F487" s="0" t="s">
         <v>509</v>
@@ -53393,7 +53396,7 @@
         <v>990</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F488" s="0" t="s">
         <v>509</v>
@@ -53431,7 +53434,7 @@
         <v>991</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F489" s="0" t="s">
         <v>509</v>
@@ -53469,7 +53472,7 @@
         <v>993</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F490" s="0" t="s">
         <v>509</v>
@@ -53507,7 +53510,7 @@
         <v>994</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F491" s="0" t="s">
         <v>509</v>
@@ -53545,7 +53548,7 @@
         <v>996</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F492" s="0" t="s">
         <v>509</v>
@@ -53583,7 +53586,7 @@
         <v>997</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F493" s="0" t="s">
         <v>509</v>
@@ -53621,7 +53624,7 @@
         <v>998</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F494" s="0" t="s">
         <v>509</v>
@@ -53659,7 +53662,7 @@
         <v>999</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F495" s="0" t="s">
         <v>509</v>
@@ -53697,7 +53700,7 @@
         <v>1000</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F496" s="0" t="s">
         <v>509</v>
@@ -53735,7 +53738,7 @@
         <v>1001</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="F497" s="0" t="s">
         <v>509</v>
@@ -53761,553 +53764,554 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="backup-azure-backup-cloud-as-tape.md" r:id="rId2"/>
-    <hyperlink ref="F2" display="backup-azure-backup-cloud-as-tape.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="backup-azure-backup-exchange-server.md" r:id="rId4"/>
-    <hyperlink ref="F3" display="backup-azure-backup-exchange-server.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="backup-azure-backup-import-export.md" r:id="rId6"/>
-    <hyperlink ref="F4" display="backup-azure-backup-import-export.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="backup-azure-backup-sharepoint.md" r:id="rId8"/>
-    <hyperlink ref="F5" display="backup-azure-backup-sharepoint.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="backup-azure-backup-sql.md" r:id="rId10"/>
-    <hyperlink ref="F6" display="backup-azure-backup-sql.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="backup-azure-backup-windows-server.md" r:id="rId12"/>
-    <hyperlink ref="F7" display="backup-azure-backup-windows-server.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="backup-azure-dpm-introduction.md" r:id="rId14"/>
-    <hyperlink ref="F8" display="backup-azure-dpm-introduction.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="backup-azure-manage-vms.md" r:id="rId16"/>
-    <hyperlink ref="F9" display="backup-azure-manage-vms.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="backup-azure-manage-windows-server.md" r:id="rId18"/>
-    <hyperlink ref="F10" display="backup-azure-manage-windows-server.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="backup-azure-microsoft-azure-backup.md" r:id="rId20"/>
-    <hyperlink ref="F11" display="backup-azure-microsoft-azure-backup.md" r:id="rId21"/>
-    <hyperlink ref="A12" display="backup-azure-restore-vms.md" r:id="rId22"/>
-    <hyperlink ref="F12" display="backup-azure-restore-vms.md" r:id="rId23"/>
-    <hyperlink ref="A13" display="backup-azure-restore-windows-server.md" r:id="rId24"/>
-    <hyperlink ref="F13" display="backup-azure-restore-windows-server.md" r:id="rId25"/>
-    <hyperlink ref="A14" display="backup-azure-storage-redundancy-options.md" r:id="rId26"/>
-    <hyperlink ref="F14" display="backup-azure-storage-redundancy-options.md" r:id="rId27"/>
-    <hyperlink ref="A15" display="backup-azure-vms-automation.md" r:id="rId28"/>
-    <hyperlink ref="F15" display="backup-azure-vms-automation.md" r:id="rId29"/>
-    <hyperlink ref="A16" display="backup-azure-vms-encryption.md" r:id="rId30"/>
-    <hyperlink ref="F16" display="backup-azure-vms-encryption.md" r:id="rId31"/>
-    <hyperlink ref="A17" display="backup-azure-vms-first-look-arm.md" r:id="rId32"/>
-    <hyperlink ref="F17" display="backup-azure-vms-first-look-arm.md" r:id="rId33"/>
-    <hyperlink ref="A18" display="backup-azure-vms-first-look.md" r:id="rId34"/>
-    <hyperlink ref="F18" display="backup-azure-vms-first-look.md" r:id="rId35"/>
-    <hyperlink ref="A19" display="backup-azure-vms-introduction.md" r:id="rId36"/>
-    <hyperlink ref="F19" display="backup-azure-vms-introduction.md" r:id="rId37"/>
-    <hyperlink ref="A20" display="backup-azure-vms-prepare.md" r:id="rId38"/>
-    <hyperlink ref="F20" display="backup-azure-vms-prepare.md" r:id="rId39"/>
-    <hyperlink ref="A21" display="backup-azure-vms-troubleshoot.md" r:id="rId40"/>
-    <hyperlink ref="F21" display="backup-azure-vms-troubleshoot.md" r:id="rId41"/>
-    <hyperlink ref="A22" display="backup-azure-vms.md" r:id="rId42"/>
-    <hyperlink ref="F22" display="backup-azure-vms.md" r:id="rId43"/>
-    <hyperlink ref="A23" display="backup-client-automation.md" r:id="rId44"/>
-    <hyperlink ref="F23" display="backup-client-automation.md" r:id="rId45"/>
-    <hyperlink ref="A24" display="backup-configure-vault.md" r:id="rId46"/>
-    <hyperlink ref="F24" display="backup-configure-vault.md" r:id="rId47"/>
-    <hyperlink ref="A25" display="backup-dpm-automation.md" r:id="rId48"/>
-    <hyperlink ref="F25" display="backup-dpm-automation.md" r:id="rId49"/>
-    <hyperlink ref="A26" display="backup-introduction-to-azure-backup.md" r:id="rId50"/>
-    <hyperlink ref="F26" display="backup-introduction-to-azure-backup.md" r:id="rId51"/>
-    <hyperlink ref="A27" display="backup-try-azure-backup-in-10-mins.md" r:id="rId52"/>
-    <hyperlink ref="F27" display="backup-try-azure-backup-in-10-mins.md" r:id="rId53"/>
-    <hyperlink ref="A28" display="prereq-screen2.png" r:id="rId54"/>
-    <hyperlink ref="F28" display="prereq-screen2.png" r:id="rId55"/>
-    <hyperlink ref="A29" display="rs-vault-attributes.png" r:id="rId56"/>
-    <hyperlink ref="F29" display="rs-vault-attributes.png" r:id="rId57"/>
-    <hyperlink ref="A30" display="batch-account-create-portal.md" r:id="rId58"/>
-    <hyperlink ref="F30" display="batch-account-create-portal.md" r:id="rId59"/>
-    <hyperlink ref="A31" display="batch-api-basics.md" r:id="rId60"/>
-    <hyperlink ref="F31" display="batch-api-basics.md" r:id="rId61"/>
-    <hyperlink ref="A32" display="batch-application-packages.md" r:id="rId62"/>
-    <hyperlink ref="F32" display="batch-application-packages.md" r:id="rId63"/>
-    <hyperlink ref="A33" display="batch-automatic-scaling.md" r:id="rId64"/>
-    <hyperlink ref="F33" display="batch-automatic-scaling.md" r:id="rId65"/>
-    <hyperlink ref="A34" display="batch-dotnet-get-started.md" r:id="rId66"/>
-    <hyperlink ref="F34" display="batch-dotnet-get-started.md" r:id="rId67"/>
-    <hyperlink ref="A35" display="batch-efficient-list-queries.md" r:id="rId68"/>
-    <hyperlink ref="F35" display="batch-efficient-list-queries.md" r:id="rId69"/>
-    <hyperlink ref="A36" display="batch-hpc-solutions.md" r:id="rId70"/>
-    <hyperlink ref="F36" display="batch-hpc-solutions.md" r:id="rId71"/>
-    <hyperlink ref="A37" display="batch-job-prep-release.md" r:id="rId72"/>
-    <hyperlink ref="F37" display="batch-job-prep-release.md" r:id="rId73"/>
-    <hyperlink ref="A38" display="batch-management-dotnet.md" r:id="rId74"/>
-    <hyperlink ref="F38" display="batch-management-dotnet.md" r:id="rId75"/>
-    <hyperlink ref="A39" display="batch-mpi.md" r:id="rId76"/>
-    <hyperlink ref="F39" display="batch-mpi.md" r:id="rId77"/>
-    <hyperlink ref="A40" display="batch-parallel-node-tasks.md" r:id="rId78"/>
-    <hyperlink ref="F40" display="batch-parallel-node-tasks.md" r:id="rId79"/>
-    <hyperlink ref="A41" display="batch-powershell-cmdlets-get-started.md" r:id="rId80"/>
-    <hyperlink ref="F41" display="batch-powershell-cmdlets-get-started.md" r:id="rId81"/>
-    <hyperlink ref="A42" display="batch-quota-limit.md" r:id="rId82"/>
-    <hyperlink ref="F42" display="batch-quota-limit.md" r:id="rId83"/>
-    <hyperlink ref="A43" display="batch-technical-overview.md" r:id="rId84"/>
-    <hyperlink ref="F43" display="batch-technical-overview.md" r:id="rId85"/>
-    <hyperlink ref="A44" display="big-compute-resources.md" r:id="rId86"/>
-    <hyperlink ref="F44" display="big-compute-resources.md" r:id="rId87"/>
-    <hyperlink ref="A45" display="app_pkg_03.png" r:id="rId88"/>
-    <hyperlink ref="F45" display="app_pkg_03.png" r:id="rId89"/>
-    <hyperlink ref="A46" display="cloud-services-python-ptvs.md" r:id="rId90"/>
-    <hyperlink ref="F46" display="cloud-services-python-ptvs.md" r:id="rId91"/>
-    <hyperlink ref="A47" display="backup-create-vault-for-vms.md" r:id="rId92"/>
-    <hyperlink ref="F47" display="backup-create-vault-for-vms.md" r:id="rId93"/>
-    <hyperlink ref="A48" display="backup-create-vault-wgif.md" r:id="rId94"/>
-    <hyperlink ref="F48" display="backup-create-vault-wgif.md" r:id="rId95"/>
-    <hyperlink ref="A49" display="backup-create-vault.md" r:id="rId96"/>
-    <hyperlink ref="F49" display="backup-create-vault.md" r:id="rId97"/>
-    <hyperlink ref="A50" display="backup-download-credentials.md" r:id="rId98"/>
-    <hyperlink ref="F50" display="backup-download-credentials.md" r:id="rId99"/>
-    <hyperlink ref="A51" display="backup-install-agent.md" r:id="rId100"/>
-    <hyperlink ref="F51" display="backup-install-agent.md" r:id="rId101"/>
-    <hyperlink ref="A52" display="architecture-overview.md" r:id="rId102"/>
-    <hyperlink ref="A53" display="backup-azure-alternate-dpm-server.md" r:id="rId103"/>
-    <hyperlink ref="A54" display="backup-azure-backup-faq.md" r:id="rId104"/>
-    <hyperlink ref="A55" display="guidance-compute-3-tier-vm.md" r:id="rId105"/>
-    <hyperlink ref="A56" display="README.md" r:id="rId106"/>
-    <hyperlink ref="A57" display="community_overview.md" r:id="rId107"/>
-    <hyperlink ref="A58" display="TOC.md" r:id="rId108"/>
-    <hyperlink ref="A59" display="hyperv_on_windows_new.md" r:id="rId109"/>
-    <hyperlink ref="A60" display="supported_guest_os.md" r:id="rId110"/>
-    <hyperlink ref="A61" display="whats_new.md" r:id="rId111"/>
-    <hyperlink ref="A62" display="make_mgmt_servic.md" r:id="rId112"/>
-    <hyperlink ref="A63" display="powershell_snippets.md" r:id="rId113"/>
-    <hyperlink ref="A64" display="ECULA.md" r:id="rId114"/>
-    <hyperlink ref="A65" display="walkthrough.md" r:id="rId115"/>
-    <hyperlink ref="A66" display="walkthrough_checkpoints.md" r:id="rId116"/>
-    <hyperlink ref="A67" display="walkthrough_checkpoints1.md" r:id="rId117"/>
-    <hyperlink ref="A68" display="walkthrough_compatibility.md" r:id="rId118"/>
-    <hyperlink ref="A69" display="walkthrough_create_vm.md" r:id="rId119"/>
-    <hyperlink ref="A70" display="walkthrough_export_import.md" r:id="rId120"/>
-    <hyperlink ref="A71" display="walkthrough_install.md" r:id="rId121"/>
-    <hyperlink ref="A72" display="walkthrough_powershell.md" r:id="rId122"/>
-    <hyperlink ref="A73" display="walkthrough_virtual_switch.md" r:id="rId123"/>
-    <hyperlink ref="A74" display="walkthrough_vmconnect.md" r:id="rId124"/>
-    <hyperlink ref="A75" display="TOC.md" r:id="rId125"/>
-    <hyperlink ref="A76" display="checkpoints.md" r:id="rId126"/>
-    <hyperlink ref="A77" display="export_import.md" r:id="rId127"/>
-    <hyperlink ref="A78" display="migrating_vms.md" r:id="rId128"/>
-    <hyperlink ref="A79" display="remote_host_management.md" r:id="rId129"/>
-    <hyperlink ref="A80" display="troubleshooting.md" r:id="rId130"/>
-    <hyperlink ref="A81" display="user_guide_nav.md" r:id="rId131"/>
-    <hyperlink ref="A82" display="vmsession.md" r:id="rId132"/>
-    <hyperlink ref="A83" display="windows_welcome1.md" r:id="rId133"/>
-    <hyperlink ref="A84" display="about_overview.md" r:id="rId134"/>
-    <hyperlink ref="A85" display="container_ecosystem.md" r:id="rId135"/>
-    <hyperlink ref="A86" display="faq.md" r:id="rId136"/>
-    <hyperlink ref="A87" display="work_in_progress.md" r:id="rId137"/>
-    <hyperlink ref="A88" display="containers_welcome.md" r:id="rId138"/>
-    <hyperlink ref="A89" display="EULA.md" r:id="rId139"/>
-    <hyperlink ref="A90" display="azure_setup.md" r:id="rId140"/>
-    <hyperlink ref="A91" display="container_setup.md" r:id="rId141"/>
-    <hyperlink ref="A92" display="inplace_setup.md" r:id="rId142"/>
-    <hyperlink ref="A93" display="manage_docker.md" r:id="rId143"/>
-    <hyperlink ref="A94" display="manage_powershell.md" r:id="rId144"/>
-    <hyperlink ref="A95" display="quickstart.md" r:id="rId145"/>
-    <hyperlink ref="A96" display="app_compat.md" r:id="rId146"/>
-    <hyperlink ref="A97" display="powershell_overview.md" r:id="rId147"/>
-    <hyperlink ref="A98" display="ps_docker_comparison.md" r:id="rId148"/>
-    <hyperlink ref="A99" display="TOC.md" r:id="rId149"/>
-    <hyperlink ref="A100" display="backup-azure-backup-ibiza-faq.md" r:id="rId150"/>
-    <hyperlink ref="F100" display="backup-azure-backup-ibiza-faq.md" r:id="rId151"/>
-    <hyperlink ref="A101" display="add-external-dpm.png" r:id="rId152"/>
-    <hyperlink ref="A102" display="browse-external-dpm.png" r:id="rId153"/>
-    <hyperlink ref="A103" display="clear-external-dpm.png" r:id="rId154"/>
-    <hyperlink ref="A104" display="external-dpm-azurebackupagentversion.png" r:id="rId155"/>
-    <hyperlink ref="A105" display="external-dpm-credentials.png" r:id="rId156"/>
-    <hyperlink ref="A106" display="external-dpm-recovery-alternate-location.png" r:id="rId157"/>
-    <hyperlink ref="A107" display="external-dpm-recovery-notifications.png" r:id="rId158"/>
-    <hyperlink ref="A108" display="external-dpm-recovery-options-summary.png" r:id="rId159"/>
-    <hyperlink ref="A109" display="external-dpm-recovery-summary.png" r:id="rId160"/>
-    <hyperlink ref="A110" display="external-dpm-recoverypoint.png" r:id="rId161"/>
-    <hyperlink ref="A111" display="monitoring-recovery.png" r:id="rId162"/>
-    <hyperlink ref="A112" display="recover.png" r:id="rId163"/>
-    <hyperlink ref="A113" display="dailybackupschedule.png" r:id="rId164"/>
-    <hyperlink ref="A114" display="modify.png" r:id="rId165"/>
-    <hyperlink ref="A115" display="retentionpolicy.png" r:id="rId166"/>
-    <hyperlink ref="A116" display="samplescreen.png" r:id="rId167"/>
-    <hyperlink ref="A117" display="weeklybackupschedule.png" r:id="rId168"/>
-    <hyperlink ref="A118" display="choose-online-replication.png" r:id="rId169"/>
-    <hyperlink ref="A119" display="eseutil-error.png" r:id="rId170"/>
-    <hyperlink ref="A120" display="select-group-members.png" r:id="rId171"/>
-    <hyperlink ref="A121" display="specify-online-backup-schedule.png" r:id="rId172"/>
-    <hyperlink ref="A122" display="specify-online-protection-data.png" r:id="rId173"/>
-    <hyperlink ref="A123" display="specify-online-retention-policy.png" r:id="rId174"/>
-    <hyperlink ref="A124" display="Schedule.png" r:id="rId175"/>
-    <hyperlink ref="A125" display="Throttle-dialog.png" r:id="rId176"/>
-    <hyperlink ref="A126" display="azureportal.png" r:id="rId177"/>
-    <hyperlink ref="A127" display="backupnow.png" r:id="rId178"/>
-    <hyperlink ref="A128" display="complete.png" r:id="rId179"/>
-    <hyperlink ref="A129" display="dc.png" r:id="rId180"/>
-    <hyperlink ref="A130" display="dpmbackupnow.png" r:id="rId181"/>
-    <hyperlink ref="A131" display="dpmoffline.png" r:id="rId182"/>
-    <hyperlink ref="A132" display="importscreen.png" r:id="rId183"/>
-    <hyperlink ref="A133" display="opbackupnow.png" r:id="rId184"/>
-    <hyperlink ref="A134" display="psoutput.png" r:id="rId185"/>
-    <hyperlink ref="A135" display="choose-replica-creation-method.png" r:id="rId186"/>
-    <hyperlink ref="A136" display="consistency-check.png" r:id="rId187"/>
-    <hyperlink ref="A137" display="dpm-new-protection-tab.png" r:id="rId188"/>
-    <hyperlink ref="A138" display="dpm-sharepoint-protection12.png" r:id="rId189"/>
-    <hyperlink ref="A139" display="dpm-sharepoint-protection13.png" r:id="rId190"/>
-    <hyperlink ref="A140" display="dpm-sharepoint-protection14.png" r:id="rId191"/>
-    <hyperlink ref="A141" display="dpm-sharepoint-protection15.png" r:id="rId192"/>
-    <hyperlink ref="A142" display="dpm-sharepoint-protection4.png" r:id="rId193"/>
-    <hyperlink ref="A143" display="dpm-sharepoint-protection5.png" r:id="rId194"/>
-    <hyperlink ref="A144" display="dpm-sharepoint-protection6.png" r:id="rId195"/>
-    <hyperlink ref="A145" display="dpm-sharepoint-protection7.png" r:id="rId196"/>
-    <hyperlink ref="A146" display="dpm-sharepoint-protection8.png" r:id="rId197"/>
-    <hyperlink ref="A147" display="dpm-sharepoint-protection9.png" r:id="rId198"/>
-    <hyperlink ref="A148" display="online-replication.png" r:id="rId199"/>
-    <hyperlink ref="A149" display="recovery-monitoring.png" r:id="rId200"/>
-    <hyperlink ref="A150" display="recovery-options.png" r:id="rId201"/>
-    <hyperlink ref="A151" display="recovery-process.png" r:id="rId202"/>
-    <hyperlink ref="A152" display="recovery-summary.png" r:id="rId203"/>
-    <hyperlink ref="A153" display="review-recovery-selection.png" r:id="rId204"/>
-    <hyperlink ref="A154" display="select-data-protection-method1.png" r:id="rId205"/>
-    <hyperlink ref="A155" display="select-group-members2.png" r:id="rId206"/>
-    <hyperlink ref="A156" display="select-online-protection1.png" r:id="rId207"/>
-    <hyperlink ref="A157" display="select-protection-group-type.png" r:id="rId208"/>
-    <hyperlink ref="A158" display="select-recovery-type.png" r:id="rId209"/>
-    <hyperlink ref="A159" display="specify-online-backup-schedule.png" r:id="rId210"/>
-    <hyperlink ref="A160" display="specify-online-retention.png" r:id="rId211"/>
-    <hyperlink ref="A161" display="specify-short-term-goals2.png" r:id="rId212"/>
-    <hyperlink ref="A162" display="staging-location1.png" r:id="rId213"/>
-    <hyperlink ref="A163" display="staging-location2.png" r:id="rId214"/>
-    <hyperlink ref="A164" display="summary.png" r:id="rId215"/>
-    <hyperlink ref="A165" display="pg-consistent.png" r:id="rId216"/>
-    <hyperlink ref="A166" display="pg-databases.png" r:id="rId217"/>
-    <hyperlink ref="A167" display="pg-manual.png" r:id="rId218"/>
-    <hyperlink ref="A168" display="pg-name.png" r:id="rId219"/>
-    <hyperlink ref="A169" display="pg-retentionschedule.png" r:id="rId220"/>
-    <hyperlink ref="A170" display="pg-schedule.png" r:id="rId221"/>
-    <hyperlink ref="A171" display="pg-servers.png" r:id="rId222"/>
-    <hyperlink ref="A172" display="pg-shortterm.png" r:id="rId223"/>
-    <hyperlink ref="A173" display="pg-sqldatabases.png" r:id="rId224"/>
-    <hyperlink ref="A174" display="pg-storage.png" r:id="rId225"/>
-    <hyperlink ref="A175" display="pg-summary.png" r:id="rId226"/>
-    <hyperlink ref="A176" display="protection-group.png" r:id="rId227"/>
-    <hyperlink ref="A177" display="sqlbackup-azure.png" r:id="rId228"/>
-    <hyperlink ref="A178" display="sqlbackup-createrp.png" r:id="rId229"/>
-    <hyperlink ref="A179" display="sqlbackup-monitoring.png" r:id="rId230"/>
-    <hyperlink ref="A180" display="sqlbackup-recover.png" r:id="rId231"/>
-    <hyperlink ref="A181" display="sqlbackup-recoveroriginal.png" r:id="rId232"/>
-    <hyperlink ref="A182" display="sqlbackup-recoverying.png" r:id="rId233"/>
-    <hyperlink ref="A183" display="sqlbackup-recoverypoint.png" r:id="rId234"/>
-    <hyperlink ref="A184" display="sqlbackup-restorepoint.png" r:id="rId235"/>
-    <hyperlink ref="A185" display="anotherserver.png" r:id="rId236"/>
-    <hyperlink ref="A186" display="backupnow.png" r:id="rId237"/>
-    <hyperlink ref="A187" display="browseandsearch.png" r:id="rId238"/>
-    <hyperlink ref="A188" display="encryption.png" r:id="rId239"/>
-    <hyperlink ref="A189" display="initialbackup.png" r:id="rId240"/>
-    <hyperlink ref="A190" display="ircomplete.png" r:id="rId241"/>
-    <hyperlink ref="A191" display="items.png" r:id="rId242"/>
-    <hyperlink ref="A192" display="machinelist.png" r:id="rId243"/>
-    <hyperlink ref="A193" display="recoveroptions.png" r:id="rId244"/>
-    <hyperlink ref="A194" display="restorelocation.png" r:id="rId245"/>
-    <hyperlink ref="A195" display="result.png" r:id="rId246"/>
-    <hyperlink ref="A196" display="samemachine.png" r:id="rId247"/>
-    <hyperlink ref="A197" display="schedulebackup.png" r:id="rId248"/>
-    <hyperlink ref="A198" display="search.png" r:id="rId249"/>
-    <hyperlink ref="A199" display="searchitems.png" r:id="rId250"/>
-    <hyperlink ref="A200" display="selectfiles.png" r:id="rId251"/>
-    <hyperlink ref="A201" display="volanddate.png" r:id="rId252"/>
-    <hyperlink ref="A202" display="backup_vaultcreate.png" r:id="rId253"/>
-    <hyperlink ref="A203" display="backup_vaultslist.png" r:id="rId254"/>
-    <hyperlink ref="A204" display="creating-vault.png" r:id="rId255"/>
-    <hyperlink ref="A205" display="vault-policy-vm.png" r:id="rId256"/>
-    <hyperlink ref="A206" display="vmbackup-architecture.png" r:id="rId257"/>
-    <hyperlink ref="A207" display="vmbackup-instructions.png" r:id="rId258"/>
-    <hyperlink ref="A208" display="alert-body.png" r:id="rId259"/>
-    <hyperlink ref="A209" display="alert-header.png" r:id="rId260"/>
-    <hyperlink ref="A210" display="backup-job.png" r:id="rId261"/>
-    <hyperlink ref="A211" display="backup-now.png" r:id="rId262"/>
-    <hyperlink ref="A212" display="backup-vmdetails.png" r:id="rId263"/>
-    <hyperlink ref="A213" display="backup-vmpolicy.png" r:id="rId264"/>
-    <hyperlink ref="A214" display="checkbox.png" r:id="rId265"/>
-    <hyperlink ref="A215" display="confirm-stop-protection.png" r:id="rId266"/>
-    <hyperlink ref="A216" display="confirm-unregister.png" r:id="rId267"/>
-    <hyperlink ref="A217" display="created-job.png" r:id="rId268"/>
-    <hyperlink ref="A218" display="creating-job.png" r:id="rId269"/>
-    <hyperlink ref="A219" display="dashboard-protectedvms.png" r:id="rId270"/>
-    <hyperlink ref="A220" display="delete-backup-data.png" r:id="rId271"/>
-    <hyperlink ref="A221" display="delete-backup.png" r:id="rId272"/>
-    <hyperlink ref="A222" display="delete-data-success.png" r:id="rId273"/>
-    <hyperlink ref="A223" display="manage-policy-settings.png" r:id="rId274"/>
-    <hyperlink ref="A224" display="ops-logs-details-window.png" r:id="rId275"/>
-    <hyperlink ref="A225" display="ops-logs-details.png" r:id="rId276"/>
-    <hyperlink ref="A226" display="ops-logs-filter.png" r:id="rId277"/>
-    <hyperlink ref="A227" display="ops-logs.png" r:id="rId278"/>
-    <hyperlink ref="A228" display="protection-stopped-b.png" r:id="rId279"/>
-    <hyperlink ref="A229" display="protection-stopped-status.png" r:id="rId280"/>
-    <hyperlink ref="A230" display="reprotected-status.png" r:id="rId281"/>
-    <hyperlink ref="A231" display="stop-protect-success.png" r:id="rId282"/>
-    <hyperlink ref="A232" display="stop-protection.png" r:id="rId283"/>
-    <hyperlink ref="A233" display="unregister-button.png" r:id="rId284"/>
-    <hyperlink ref="A234" display="vm-type.png" r:id="rId285"/>
-    <hyperlink ref="A235" display="add-exclusion.png" r:id="rId286"/>
-    <hyperlink ref="A236" display="add-items-modify.png" r:id="rId287"/>
-    <hyperlink ref="A237" display="configure.png" r:id="rId288"/>
-    <hyperlink ref="A238" display="console-actions.png" r:id="rId289"/>
-    <hyperlink ref="A239" display="dashboard-tasks.png" r:id="rId290"/>
-    <hyperlink ref="A240" display="exclude-file-type.png" r:id="rId291"/>
-    <hyperlink ref="A241" display="exclude-jpg.png" r:id="rId292"/>
-    <hyperlink ref="A242" display="exclude-mp3.png" r:id="rId293"/>
-    <hyperlink ref="A243" display="exclusion-location.png" r:id="rId294"/>
-    <hyperlink ref="A244" display="exclusion-settings.png" r:id="rId295"/>
-    <hyperlink ref="A245" display="finish-exclusions.png" r:id="rId296"/>
-    <hyperlink ref="A246" display="ircomplete.png" r:id="rId297"/>
-    <hyperlink ref="A247" display="modify-or-stop-a-scheduled-backup.png" r:id="rId298"/>
-    <hyperlink ref="A248" display="protected-items.png" r:id="rId299"/>
-    <hyperlink ref="A249" display="qs-page.png" r:id="rId300"/>
-    <hyperlink ref="A250" display="registered-items-tasks.png" r:id="rId301"/>
-    <hyperlink ref="A251" display="registered-items.png" r:id="rId302"/>
-    <hyperlink ref="A252" display="rs-left-nav.png" r:id="rId303"/>
-    <hyperlink ref="A253" display="schedule-backup.png" r:id="rId304"/>
-    <hyperlink ref="A254" display="select-retention-policy-modify.png" r:id="rId305"/>
-    <hyperlink ref="A255" display="snap-in-search.png" r:id="rId306"/>
-    <hyperlink ref="A256" display="specify-backup-schedule-modify-close.png" r:id="rId307"/>
-    <hyperlink ref="A257" display="throttling-dialog.png" r:id="rId308"/>
-    <hyperlink ref="A258" display="backup_vaultcreate.png" r:id="rId309"/>
-    <hyperlink ref="A259" display="backup_vaultslist.png" r:id="rId310"/>
-    <hyperlink ref="A260" display="creating-vault.png" r:id="rId311"/>
-    <hyperlink ref="A261" display="downloadcenter.png" r:id="rId312"/>
-    <hyperlink ref="A262" display="downloadcenter1.png" r:id="rId313"/>
-    <hyperlink ref="A263" display="dpm-venus1.png" r:id="rId314"/>
-    <hyperlink ref="A264" display="03.png" r:id="rId315"/>
-    <hyperlink ref="A265" display="venus-installation-screen.png" r:id="rId316"/>
-    <hyperlink ref="A266" display="launch-screen2.png" r:id="rId317"/>
-    <hyperlink ref="A267" display="04.png" r:id="rId318"/>
-    <hyperlink ref="A268" display="security-screen.png" r:id="rId319"/>
-    <hyperlink ref="A269" display="space-screen.png" r:id="rId320"/>
-    <hyperlink ref="A270" display="01.png" r:id="rId321"/>
-    <hyperlink ref="A271" display="step1.png" r:id="rId322"/>
-    <hyperlink ref="A272" display="step2.png" r:id="rId323"/>
-    <hyperlink ref="A273" display="step3.png" r:id="rId324"/>
-    <hyperlink ref="A274" display="step4.png" r:id="rId325"/>
-    <hyperlink ref="A275" display="summary-screen.png" r:id="rId326"/>
-    <hyperlink ref="A276" display="update-opt-screen2.png" r:id="rId327"/>
-    <hyperlink ref="A277" display="create-restore-job.png" r:id="rId328"/>
-    <hyperlink ref="A278" display="protected-items.png" r:id="rId329"/>
-    <hyperlink ref="A279" display="recovery-points.png" r:id="rId330"/>
-    <hyperlink ref="A280" display="restore-cs-vnet.png" r:id="rId331"/>
-    <hyperlink ref="A281" display="restore-item.png" r:id="rId332"/>
-    <hyperlink ref="A282" display="restore-job-complete.png" r:id="rId333"/>
-    <hyperlink ref="A283" display="restore-job-created.png" r:id="rId334"/>
-    <hyperlink ref="A284" display="restore-sa.png" r:id="rId335"/>
-    <hyperlink ref="A285" display="select-date.png" r:id="rId336"/>
-    <hyperlink ref="A286" display="select-recovery-point.png" r:id="rId337"/>
-    <hyperlink ref="A287" display="select-subnet.png" r:id="rId338"/>
-    <hyperlink ref="A288" display="anotherserver.png" r:id="rId339"/>
-    <hyperlink ref="A289" display="browseandsearch.png" r:id="rId340"/>
-    <hyperlink ref="A290" display="encryption.png" r:id="rId341"/>
-    <hyperlink ref="A291" display="initialbackup.png" r:id="rId342"/>
-    <hyperlink ref="A292" display="items.png" r:id="rId343"/>
-    <hyperlink ref="A293" display="machinelist.png" r:id="rId344"/>
-    <hyperlink ref="A294" display="recover.png" r:id="rId345"/>
-    <hyperlink ref="A295" display="recoveroptions.png" r:id="rId346"/>
-    <hyperlink ref="A296" display="restorelocation.png" r:id="rId347"/>
-    <hyperlink ref="A297" display="result.png" r:id="rId348"/>
-    <hyperlink ref="A298" display="samemachine.png" r:id="rId349"/>
-    <hyperlink ref="A299" display="search.png" r:id="rId350"/>
-    <hyperlink ref="A300" display="searchitems.png" r:id="rId351"/>
-    <hyperlink ref="A301" display="selectfiles.png" r:id="rId352"/>
-    <hyperlink ref="A302" display="volanddate.png" r:id="rId353"/>
-    <hyperlink ref="A303" display="object-hierarchy.png" r:id="rId354"/>
-    <hyperlink ref="A304" display="how-it-works.png" r:id="rId355"/>
-    <hyperlink ref="A305" display="back-up-now.png" r:id="rId356"/>
-    <hyperlink ref="A306" display="backup-button.png" r:id="rId357"/>
-    <hyperlink ref="A307" display="backup-jobs-in-jobs-view.png" r:id="rId358"/>
-    <hyperlink ref="A308" display="backup-policy-daily-raw.png" r:id="rId359"/>
-    <hyperlink ref="A309" display="backup-policy-daily.png" r:id="rId360"/>
-    <hyperlink ref="A310" display="backup-policy-weekly.png" r:id="rId361"/>
-    <hyperlink ref="A311" display="backup-triggered.png" r:id="rId362"/>
-    <hyperlink ref="A312" display="browse-to-rs-vaults.png" r:id="rId363"/>
-    <hyperlink ref="A313" display="choose-storage-configuration.png" r:id="rId364"/>
-    <hyperlink ref="A314" display="discovering-new-vms.png" r:id="rId365"/>
-    <hyperlink ref="A315" display="enable-backup-settings.png" r:id="rId366"/>
-    <hyperlink ref="A316" display="initial-backup-not-run.png" r:id="rId367"/>
-    <hyperlink ref="A317" display="open-backup-jobs.png" r:id="rId368"/>
-    <hyperlink ref="A318" display="rs-vault-in-dashboard-backup-vms.png" r:id="rId369"/>
-    <hyperlink ref="A319" display="rs-vault-menu.png" r:id="rId370"/>
-    <hyperlink ref="A320" display="select-backup-scenario-one.png" r:id="rId371"/>
-    <hyperlink ref="A321" display="select-rs-backup-scenario-two.png" r:id="rId372"/>
-    <hyperlink ref="A322" display="select-vms-to-backup.png" r:id="rId373"/>
-    <hyperlink ref="A323" display="setting-rs-backup-policy.png" r:id="rId374"/>
-    <hyperlink ref="A324" display="vault-settings.png" r:id="rId375"/>
-    <hyperlink ref="A325" display="active-vault-demo.png" r:id="rId376"/>
-    <hyperlink ref="A326" display="backup-now-icon.png" r:id="rId377"/>
-    <hyperlink ref="A327" display="backup-vault-storage-options-border.png" r:id="rId378"/>
-    <hyperlink ref="A328" display="backup-vaultcreate.png" r:id="rId379"/>
-    <hyperlink ref="A329" display="BackupAzureVM.png" r:id="rId380"/>
-    <hyperlink ref="A330" display="configure-storage.png" r:id="rId381"/>
-    <hyperlink ref="A331" display="create-vault-demo-success.png" r:id="rId382"/>
-    <hyperlink ref="A332" display="create-vault-demo.png" r:id="rId383"/>
-    <hyperlink ref="A333" display="creating-vault.png" r:id="rId384"/>
-    <hyperlink ref="A334" display="discovery-complete.png" r:id="rId385"/>
-    <hyperlink ref="A335" display="firewall-01.png" r:id="rId386"/>
-    <hyperlink ref="A336" display="firewall-02.png" r:id="rId387"/>
-    <hyperlink ref="A337" display="firewall-03.png" r:id="rId388"/>
-    <hyperlink ref="A338" display="Ibiza-portal-backup01.png" r:id="rId389"/>
-    <hyperlink ref="A339" display="nsg-with-http-proxy.png" r:id="rId390"/>
-    <hyperlink ref="A340" display="protect-icon.png" r:id="rId391"/>
-    <hyperlink ref="A341" display="protect-inprogress.png" r:id="rId392"/>
-    <hyperlink ref="A342" display="protection-pending-border.png" r:id="rId393"/>
-    <hyperlink ref="A343" display="recovery-services-icon.png" r:id="rId394"/>
-    <hyperlink ref="A344" display="register-icon.png" r:id="rId395"/>
-    <hyperlink ref="A345" display="vault-policy-vm.png" r:id="rId396"/>
-    <hyperlink ref="A346" display="vmbackup-instructions.png" r:id="rId397"/>
-    <hyperlink ref="A347" display="backup_vaultcreate.png" r:id="rId398"/>
-    <hyperlink ref="A348" display="backup_vaultslist.png" r:id="rId399"/>
-    <hyperlink ref="A349" display="creating-vault.png" r:id="rId400"/>
-    <hyperlink ref="A350" display="vault-policy-vm.png" r:id="rId401"/>
-    <hyperlink ref="A351" display="vmbackup-architecture.png" r:id="rId402"/>
-    <hyperlink ref="A352" display="vmbackup-instructions.png" r:id="rId403"/>
-    <hyperlink ref="A353" display="backup_vaultcreate.png" r:id="rId404"/>
-    <hyperlink ref="A354" display="backup_vaultslist.png" r:id="rId405"/>
-    <hyperlink ref="A355" display="creating-vault.png" r:id="rId406"/>
-    <hyperlink ref="A356" display="firewall-01.png" r:id="rId407"/>
-    <hyperlink ref="A357" display="firewall-02.png" r:id="rId408"/>
-    <hyperlink ref="A358" display="firewall-03.png" r:id="rId409"/>
-    <hyperlink ref="A359" display="Ibiza-portal-backup01.png" r:id="rId410"/>
-    <hyperlink ref="A360" display="nsg-with-http-proxy.png" r:id="rId411"/>
-    <hyperlink ref="A361" display="vault-policy-vm.png" r:id="rId412"/>
-    <hyperlink ref="A362" display="vmbackup-instructions.png" r:id="rId413"/>
-    <hyperlink ref="A363" display="3-steps-for-backup.png" r:id="rId414"/>
-    <hyperlink ref="A364" display="choose-vault-list.png" r:id="rId415"/>
-    <hyperlink ref="A365" display="dashboard-protectedvms.png" r:id="rId416"/>
-    <hyperlink ref="A366" display="discover-button-only.png" r:id="rId417"/>
-    <hyperlink ref="A367" display="discovering-vms.png" r:id="rId418"/>
-    <hyperlink ref="A368" display="discovery-complete.png" r:id="rId419"/>
-    <hyperlink ref="A369" display="discovery-select-workload.png" r:id="rId420"/>
-    <hyperlink ref="A370" display="long-term-retention.png" r:id="rId421"/>
-    <hyperlink ref="A371" display="policy-retention.png" r:id="rId422"/>
-    <hyperlink ref="A372" display="policy-schedule.png" r:id="rId423"/>
-    <hyperlink ref="A373" display="protect-at-scale.png" r:id="rId424"/>
-    <hyperlink ref="A374" display="protect-backedupvm.png" r:id="rId425"/>
-    <hyperlink ref="A375" display="protect-configureprotection.png" r:id="rId426"/>
-    <hyperlink ref="A376" display="protect-inprogress.png" r:id="rId427"/>
-    <hyperlink ref="A377" display="register-button-only.png" r:id="rId428"/>
-    <hyperlink ref="A378" display="register-create-job.png" r:id="rId429"/>
-    <hyperlink ref="A379" display="register-status01.png" r:id="rId430"/>
-    <hyperlink ref="A380" display="register-status02.png" r:id="rId431"/>
-    <hyperlink ref="A381" display="select-workload.png" r:id="rId432"/>
-    <hyperlink ref="A382" display="vault-menu.png" r:id="rId433"/>
-    <hyperlink ref="A383" display="vault-quick-start.png" r:id="rId434"/>
-    <hyperlink ref="A384" display="installed-agent-listing.png" r:id="rId435"/>
-    <hyperlink ref="A385" display="agent.png" r:id="rId436"/>
-    <hyperlink ref="A386" display="backup-now.png" r:id="rId437"/>
-    <hyperlink ref="A387" display="change-properties.png" r:id="rId438"/>
-    <hyperlink ref="A388" display="configure-vault.png" r:id="rId439"/>
-    <hyperlink ref="A389" display="demo-vault-name.png" r:id="rId440"/>
-    <hyperlink ref="A390" display="initial-backup-process.png" r:id="rId441"/>
-    <hyperlink ref="A391" display="ircomplete.png" r:id="rId442"/>
-    <hyperlink ref="A392" display="recovery-services-select-vault.png" r:id="rId443"/>
-    <hyperlink ref="A393" display="rs-left-nav.png" r:id="rId444"/>
-    <hyperlink ref="A394" display="schedule-backup-close.png" r:id="rId445"/>
-    <hyperlink ref="A395" display="snap-in-search.png" r:id="rId446"/>
-    <hyperlink ref="A396" display="specify-backup-schedule-close.png" r:id="rId447"/>
-    <hyperlink ref="A397" display="throttling-dialog.png" r:id="rId448"/>
-    <hyperlink ref="A398" display="installed-agent-listing.png" r:id="rId449"/>
-    <hyperlink ref="A399" display="azure-backup-overview.png" r:id="rId450"/>
-    <hyperlink ref="A400" display="green.png" r:id="rId451"/>
-    <hyperlink ref="A401" display="table-key-2.png" r:id="rId452"/>
-    <hyperlink ref="A402" display="table-key.png" r:id="rId453"/>
-    <hyperlink ref="A403" display="yellow.png" r:id="rId454"/>
-    <hyperlink ref="A404" display="agent.png" r:id="rId455"/>
-    <hyperlink ref="A405" display="backup-now.png" r:id="rId456"/>
-    <hyperlink ref="A406" display="configure-vault.png" r:id="rId457"/>
-    <hyperlink ref="A407" display="demo-vault-name.png" r:id="rId458"/>
-    <hyperlink ref="A408" display="geo-redundant.png" r:id="rId459"/>
-    <hyperlink ref="A409" display="ircomplete.png" r:id="rId460"/>
-    <hyperlink ref="A410" display="quick-start-icon.png" r:id="rId461"/>
-    <hyperlink ref="A411" display="recovery-services-select-vault.png" r:id="rId462"/>
-    <hyperlink ref="A412" display="second-blade-backup.png" r:id="rId463"/>
-    <hyperlink ref="A413" display="snap-in-schedule-backup-closeup.png" r:id="rId464"/>
-    <hyperlink ref="A414" display="step-1.png" r:id="rId465"/>
-    <hyperlink ref="A415" display="step-2.png" r:id="rId466"/>
-    <hyperlink ref="A416" display="step-3.png" r:id="rId467"/>
-    <hyperlink ref="A417" display="step-4.png" r:id="rId468"/>
-    <hyperlink ref="A418" display="windows-machine-backup-process.png" r:id="rId469"/>
-    <hyperlink ref="A419" display="account_keys.PNG" r:id="rId470"/>
-    <hyperlink ref="A420" display="batch_acct_03.png" r:id="rId471"/>
-    <hyperlink ref="A421" display="batch_acct_04.png" r:id="rId472"/>
-    <hyperlink ref="A422" display="batch_acct_05.png" r:id="rId473"/>
-    <hyperlink ref="A423" display="batch_acct_portal.png" r:id="rId474"/>
-    <hyperlink ref="A424" display="marketplace_batch.PNG" r:id="rId475"/>
-    <hyperlink ref="A425" display="node-folder-structure.png" r:id="rId476"/>
-    <hyperlink ref="A426" display="app_pkg_01.png" r:id="rId477"/>
-    <hyperlink ref="A427" display="app_pkg_02.png" r:id="rId478"/>
-    <hyperlink ref="A428" display="app_pkg_04.png" r:id="rId479"/>
-    <hyperlink ref="A429" display="app_pkg_05.png" r:id="rId480"/>
-    <hyperlink ref="A430" display="app_pkg_06.png" r:id="rId481"/>
-    <hyperlink ref="A431" display="app_pkg_07.png" r:id="rId482"/>
-    <hyperlink ref="A432" display="app_pkg_08.png" r:id="rId483"/>
-    <hyperlink ref="A433" display="app_pkg_09.png" r:id="rId484"/>
-    <hyperlink ref="A434" display="app_pkg_10.png" r:id="rId485"/>
-    <hyperlink ref="A435" display="app_pkg_11.png" r:id="rId486"/>
-    <hyperlink ref="A436" display="app_pkg_12.png" r:id="rId487"/>
-    <hyperlink ref="A437" display="app_pkg_13.png" r:id="rId488"/>
-    <hyperlink ref="A438" display="batch_workflow_01_sm.png" r:id="rId489"/>
-    <hyperlink ref="A439" display="batch_workflow_02_sm.png" r:id="rId490"/>
-    <hyperlink ref="A440" display="batch_workflow_03_sm.png" r:id="rId491"/>
-    <hyperlink ref="A441" display="batch_workflow_04_sm.png" r:id="rId492"/>
-    <hyperlink ref="A442" display="batch_workflow_05_sm.png" r:id="rId493"/>
-    <hyperlink ref="A443" display="batch_workflow_06_sm.png" r:id="rId494"/>
-    <hyperlink ref="A444" display="batch_workflow_07_sm.png" r:id="rId495"/>
-    <hyperlink ref="A445" display="batch_workflow_minimal_sm.png" r:id="rId496"/>
-    <hyperlink ref="A446" display="batch_workflow_sm.png" r:id="rId497"/>
-    <hyperlink ref="A447" display="credentials_batch_sm.png" r:id="rId498"/>
-    <hyperlink ref="A448" display="credentials_storage_sm.png" r:id="rId499"/>
-    <hyperlink ref="A449" display="batch_proc.png" r:id="rId500"/>
-    <hyperlink ref="A450" display="burst_cluster.png" r:id="rId501"/>
-    <hyperlink ref="A451" display="coupled.png" r:id="rId502"/>
-    <hyperlink ref="A452" display="iaas_cluster.png" r:id="rId503"/>
-    <hyperlink ref="A453" display="parallel.png" r:id="rId504"/>
-    <hyperlink ref="A454" display="batchexplorer-01.png" r:id="rId505"/>
-    <hyperlink ref="A455" display="portal-01.png" r:id="rId506"/>
-    <hyperlink ref="A456" display="portal-02.png" r:id="rId507"/>
-    <hyperlink ref="A457" display="portal-03.png" r:id="rId508"/>
-    <hyperlink ref="A458" display="batch_mpi_01.png" r:id="rId509"/>
-    <hyperlink ref="A459" display="heat_map.png" r:id="rId510"/>
-    <hyperlink ref="A460" display="accountquota_portal.PNG" r:id="rId511"/>
-    <hyperlink ref="A461" display="tech_overview_01.png" r:id="rId512"/>
-    <hyperlink ref="A462" display="tech_overview_02.png" r:id="rId513"/>
-    <hyperlink ref="A463" display="compute-3-tier-vm.png" r:id="rId514"/>
-    <hyperlink ref="A464" display="add-new-or-existing-role.png" r:id="rId515"/>
-    <hyperlink ref="A465" display="new-project-cloud-service.png" r:id="rId516"/>
-    <hyperlink ref="A466" display="new-service-wizard.png" r:id="rId517"/>
-    <hyperlink ref="A467" display="publish-activity-log.png" r:id="rId518"/>
-    <hyperlink ref="A468" display="publish-create-cloud-service.png" r:id="rId519"/>
-    <hyperlink ref="A469" display="publish-remote-desktop-configuration.png" r:id="rId520"/>
-    <hyperlink ref="A470" display="publish-settings.png" r:id="rId521"/>
-    <hyperlink ref="A471" display="publish-sign-in.png" r:id="rId522"/>
-    <hyperlink ref="A472" display="startup.png" r:id="rId523"/>
-    <hyperlink ref="A473" display="worker.png" r:id="rId524"/>
-    <hyperlink ref="A474" display="backup_vaultcreate.png" r:id="rId525"/>
-    <hyperlink ref="A475" display="backup_vaultslist.png" r:id="rId526"/>
-    <hyperlink ref="A476" display="creating-vault.png" r:id="rId527"/>
-    <hyperlink ref="A477" display="Ibiza-portal-backup01.png" r:id="rId528"/>
-    <hyperlink ref="A478" display="vault-policy-vm.png" r:id="rId529"/>
-    <hyperlink ref="A479" display="vmbackup-instructions.png" r:id="rId530"/>
-    <hyperlink ref="A480" display="backupvaultstatus1.png" r:id="rId531"/>
-    <hyperlink ref="A481" display="create-vault-wgif.gif" r:id="rId532"/>
-    <hyperlink ref="A482" display="createvault1.png" r:id="rId533"/>
-    <hyperlink ref="A483" display="creatingvault1.png" r:id="rId534"/>
-    <hyperlink ref="A484" display="backupvaultstatus1.png" r:id="rId535"/>
-    <hyperlink ref="A485" display="createvault1.png" r:id="rId536"/>
-    <hyperlink ref="A486" display="creatingvault1.png" r:id="rId537"/>
-    <hyperlink ref="A487" display="grs.png" r:id="rId538"/>
-    <hyperlink ref="A488" display="lrs.png" r:id="rId539"/>
-    <hyperlink ref="A489" display="downloadvc.png" r:id="rId540"/>
-    <hyperlink ref="A490" display="quickview.png" r:id="rId541"/>
-    <hyperlink ref="A491" display="agent.png" r:id="rId542"/>
-    <hyperlink ref="A492" display="change.png" r:id="rId543"/>
-    <hyperlink ref="A493" display="configure.png" r:id="rId544"/>
-    <hyperlink ref="A494" display="encryption.png" r:id="rId545"/>
-    <hyperlink ref="A495" display="quickstart.png" r:id="rId546"/>
-    <hyperlink ref="A496" display="register.png" r:id="rId547"/>
-    <hyperlink ref="A497" display="vc.png" r:id="rId548"/>
+    <hyperlink ref="A2" display="backup-azure-alternate-dpm-server.md" r:id="rId2"/>
+    <hyperlink ref="F2" display="backup-azure-alternate-dpm-server.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="backup-azure-backup-cloud-as-tape.md" r:id="rId4"/>
+    <hyperlink ref="F3" display="backup-azure-backup-cloud-as-tape.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="backup-azure-backup-exchange-server.md" r:id="rId6"/>
+    <hyperlink ref="F4" display="backup-azure-backup-exchange-server.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="backup-azure-backup-import-export.md" r:id="rId8"/>
+    <hyperlink ref="F5" display="backup-azure-backup-import-export.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="backup-azure-backup-sharepoint.md" r:id="rId10"/>
+    <hyperlink ref="F6" display="backup-azure-backup-sharepoint.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="backup-azure-backup-sql.md" r:id="rId12"/>
+    <hyperlink ref="F7" display="backup-azure-backup-sql.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="backup-azure-backup-windows-server.md" r:id="rId14"/>
+    <hyperlink ref="F8" display="backup-azure-backup-windows-server.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="backup-azure-dpm-introduction.md" r:id="rId16"/>
+    <hyperlink ref="F9" display="backup-azure-dpm-introduction.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="backup-azure-manage-vms.md" r:id="rId18"/>
+    <hyperlink ref="F10" display="backup-azure-manage-vms.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="backup-azure-manage-windows-server.md" r:id="rId20"/>
+    <hyperlink ref="F11" display="backup-azure-manage-windows-server.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="backup-azure-microsoft-azure-backup.md" r:id="rId22"/>
+    <hyperlink ref="F12" display="backup-azure-microsoft-azure-backup.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="backup-azure-restore-vms.md" r:id="rId24"/>
+    <hyperlink ref="F13" display="backup-azure-restore-vms.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="backup-azure-restore-windows-server.md" r:id="rId26"/>
+    <hyperlink ref="F14" display="backup-azure-restore-windows-server.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="backup-azure-storage-redundancy-options.md" r:id="rId28"/>
+    <hyperlink ref="F15" display="backup-azure-storage-redundancy-options.md" r:id="rId29"/>
+    <hyperlink ref="A16" display="backup-azure-vms-automation.md" r:id="rId30"/>
+    <hyperlink ref="F16" display="backup-azure-vms-automation.md" r:id="rId31"/>
+    <hyperlink ref="A17" display="backup-azure-vms-encryption.md" r:id="rId32"/>
+    <hyperlink ref="F17" display="backup-azure-vms-encryption.md" r:id="rId33"/>
+    <hyperlink ref="A18" display="backup-azure-vms-first-look-arm.md" r:id="rId34"/>
+    <hyperlink ref="F18" display="backup-azure-vms-first-look-arm.md" r:id="rId35"/>
+    <hyperlink ref="A19" display="backup-azure-vms-first-look.md" r:id="rId36"/>
+    <hyperlink ref="F19" display="backup-azure-vms-first-look.md" r:id="rId37"/>
+    <hyperlink ref="A20" display="backup-azure-vms-introduction.md" r:id="rId38"/>
+    <hyperlink ref="F20" display="backup-azure-vms-introduction.md" r:id="rId39"/>
+    <hyperlink ref="A21" display="backup-azure-vms-prepare.md" r:id="rId40"/>
+    <hyperlink ref="F21" display="backup-azure-vms-prepare.md" r:id="rId41"/>
+    <hyperlink ref="A22" display="backup-azure-vms-troubleshoot.md" r:id="rId42"/>
+    <hyperlink ref="F22" display="backup-azure-vms-troubleshoot.md" r:id="rId43"/>
+    <hyperlink ref="A23" display="backup-azure-vms.md" r:id="rId44"/>
+    <hyperlink ref="F23" display="backup-azure-vms.md" r:id="rId45"/>
+    <hyperlink ref="A24" display="backup-client-automation.md" r:id="rId46"/>
+    <hyperlink ref="F24" display="backup-client-automation.md" r:id="rId47"/>
+    <hyperlink ref="A25" display="backup-configure-vault.md" r:id="rId48"/>
+    <hyperlink ref="F25" display="backup-configure-vault.md" r:id="rId49"/>
+    <hyperlink ref="A26" display="backup-dpm-automation.md" r:id="rId50"/>
+    <hyperlink ref="F26" display="backup-dpm-automation.md" r:id="rId51"/>
+    <hyperlink ref="A27" display="backup-introduction-to-azure-backup.md" r:id="rId52"/>
+    <hyperlink ref="F27" display="backup-introduction-to-azure-backup.md" r:id="rId53"/>
+    <hyperlink ref="A28" display="backup-try-azure-backup-in-10-mins.md" r:id="rId54"/>
+    <hyperlink ref="F28" display="backup-try-azure-backup-in-10-mins.md" r:id="rId55"/>
+    <hyperlink ref="A29" display="prereq-screen2.png" r:id="rId56"/>
+    <hyperlink ref="F29" display="prereq-screen2.png" r:id="rId57"/>
+    <hyperlink ref="A30" display="rs-vault-attributes.png" r:id="rId58"/>
+    <hyperlink ref="F30" display="rs-vault-attributes.png" r:id="rId59"/>
+    <hyperlink ref="A31" display="batch-account-create-portal.md" r:id="rId60"/>
+    <hyperlink ref="F31" display="batch-account-create-portal.md" r:id="rId61"/>
+    <hyperlink ref="A32" display="batch-api-basics.md" r:id="rId62"/>
+    <hyperlink ref="F32" display="batch-api-basics.md" r:id="rId63"/>
+    <hyperlink ref="A33" display="batch-application-packages.md" r:id="rId64"/>
+    <hyperlink ref="F33" display="batch-application-packages.md" r:id="rId65"/>
+    <hyperlink ref="A34" display="batch-automatic-scaling.md" r:id="rId66"/>
+    <hyperlink ref="F34" display="batch-automatic-scaling.md" r:id="rId67"/>
+    <hyperlink ref="A35" display="batch-dotnet-get-started.md" r:id="rId68"/>
+    <hyperlink ref="F35" display="batch-dotnet-get-started.md" r:id="rId69"/>
+    <hyperlink ref="A36" display="batch-efficient-list-queries.md" r:id="rId70"/>
+    <hyperlink ref="F36" display="batch-efficient-list-queries.md" r:id="rId71"/>
+    <hyperlink ref="A37" display="batch-hpc-solutions.md" r:id="rId72"/>
+    <hyperlink ref="F37" display="batch-hpc-solutions.md" r:id="rId73"/>
+    <hyperlink ref="A38" display="batch-job-prep-release.md" r:id="rId74"/>
+    <hyperlink ref="F38" display="batch-job-prep-release.md" r:id="rId75"/>
+    <hyperlink ref="A39" display="batch-management-dotnet.md" r:id="rId76"/>
+    <hyperlink ref="F39" display="batch-management-dotnet.md" r:id="rId77"/>
+    <hyperlink ref="A40" display="batch-mpi.md" r:id="rId78"/>
+    <hyperlink ref="F40" display="batch-mpi.md" r:id="rId79"/>
+    <hyperlink ref="A41" display="batch-parallel-node-tasks.md" r:id="rId80"/>
+    <hyperlink ref="F41" display="batch-parallel-node-tasks.md" r:id="rId81"/>
+    <hyperlink ref="A42" display="batch-powershell-cmdlets-get-started.md" r:id="rId82"/>
+    <hyperlink ref="F42" display="batch-powershell-cmdlets-get-started.md" r:id="rId83"/>
+    <hyperlink ref="A43" display="batch-quota-limit.md" r:id="rId84"/>
+    <hyperlink ref="F43" display="batch-quota-limit.md" r:id="rId85"/>
+    <hyperlink ref="A44" display="batch-technical-overview.md" r:id="rId86"/>
+    <hyperlink ref="F44" display="batch-technical-overview.md" r:id="rId87"/>
+    <hyperlink ref="A45" display="big-compute-resources.md" r:id="rId88"/>
+    <hyperlink ref="F45" display="big-compute-resources.md" r:id="rId89"/>
+    <hyperlink ref="A46" display="app_pkg_03.png" r:id="rId90"/>
+    <hyperlink ref="F46" display="app_pkg_03.png" r:id="rId91"/>
+    <hyperlink ref="A47" display="cloud-services-python-ptvs.md" r:id="rId92"/>
+    <hyperlink ref="F47" display="cloud-services-python-ptvs.md" r:id="rId93"/>
+    <hyperlink ref="A48" display="backup-create-vault-for-vms.md" r:id="rId94"/>
+    <hyperlink ref="F48" display="backup-create-vault-for-vms.md" r:id="rId95"/>
+    <hyperlink ref="A49" display="backup-create-vault-wgif.md" r:id="rId96"/>
+    <hyperlink ref="F49" display="backup-create-vault-wgif.md" r:id="rId97"/>
+    <hyperlink ref="A50" display="backup-create-vault.md" r:id="rId98"/>
+    <hyperlink ref="F50" display="backup-create-vault.md" r:id="rId99"/>
+    <hyperlink ref="A51" display="backup-download-credentials.md" r:id="rId100"/>
+    <hyperlink ref="F51" display="backup-download-credentials.md" r:id="rId101"/>
+    <hyperlink ref="A52" display="backup-install-agent.md" r:id="rId102"/>
+    <hyperlink ref="F52" display="backup-install-agent.md" r:id="rId103"/>
+    <hyperlink ref="A53" display="architecture-overview.md" r:id="rId104"/>
+    <hyperlink ref="A54" display="backup-azure-backup-faq.md" r:id="rId105"/>
+    <hyperlink ref="A55" display="guidance-compute-3-tier-vm.md" r:id="rId106"/>
+    <hyperlink ref="A56" display="README.md" r:id="rId107"/>
+    <hyperlink ref="A57" display="community_overview.md" r:id="rId108"/>
+    <hyperlink ref="A58" display="TOC.md" r:id="rId109"/>
+    <hyperlink ref="A59" display="hyperv_on_windows_new.md" r:id="rId110"/>
+    <hyperlink ref="A60" display="supported_guest_os.md" r:id="rId111"/>
+    <hyperlink ref="A61" display="whats_new.md" r:id="rId112"/>
+    <hyperlink ref="A62" display="make_mgmt_servic.md" r:id="rId113"/>
+    <hyperlink ref="A63" display="powershell_snippets.md" r:id="rId114"/>
+    <hyperlink ref="A64" display="ECULA.md" r:id="rId115"/>
+    <hyperlink ref="A65" display="walkthrough.md" r:id="rId116"/>
+    <hyperlink ref="A66" display="walkthrough_checkpoints.md" r:id="rId117"/>
+    <hyperlink ref="A67" display="walkthrough_checkpoints1.md" r:id="rId118"/>
+    <hyperlink ref="A68" display="walkthrough_compatibility.md" r:id="rId119"/>
+    <hyperlink ref="A69" display="walkthrough_create_vm.md" r:id="rId120"/>
+    <hyperlink ref="A70" display="walkthrough_export_import.md" r:id="rId121"/>
+    <hyperlink ref="A71" display="walkthrough_install.md" r:id="rId122"/>
+    <hyperlink ref="A72" display="walkthrough_powershell.md" r:id="rId123"/>
+    <hyperlink ref="A73" display="walkthrough_virtual_switch.md" r:id="rId124"/>
+    <hyperlink ref="A74" display="walkthrough_vmconnect.md" r:id="rId125"/>
+    <hyperlink ref="A75" display="TOC.md" r:id="rId126"/>
+    <hyperlink ref="A76" display="checkpoints.md" r:id="rId127"/>
+    <hyperlink ref="A77" display="export_import.md" r:id="rId128"/>
+    <hyperlink ref="A78" display="migrating_vms.md" r:id="rId129"/>
+    <hyperlink ref="A79" display="remote_host_management.md" r:id="rId130"/>
+    <hyperlink ref="A80" display="troubleshooting.md" r:id="rId131"/>
+    <hyperlink ref="A81" display="user_guide_nav.md" r:id="rId132"/>
+    <hyperlink ref="A82" display="vmsession.md" r:id="rId133"/>
+    <hyperlink ref="A83" display="windows_welcome1.md" r:id="rId134"/>
+    <hyperlink ref="A84" display="about_overview.md" r:id="rId135"/>
+    <hyperlink ref="A85" display="container_ecosystem.md" r:id="rId136"/>
+    <hyperlink ref="A86" display="faq.md" r:id="rId137"/>
+    <hyperlink ref="A87" display="work_in_progress.md" r:id="rId138"/>
+    <hyperlink ref="A88" display="containers_welcome.md" r:id="rId139"/>
+    <hyperlink ref="A89" display="EULA.md" r:id="rId140"/>
+    <hyperlink ref="A90" display="azure_setup.md" r:id="rId141"/>
+    <hyperlink ref="A91" display="container_setup.md" r:id="rId142"/>
+    <hyperlink ref="A92" display="inplace_setup.md" r:id="rId143"/>
+    <hyperlink ref="A93" display="manage_docker.md" r:id="rId144"/>
+    <hyperlink ref="A94" display="manage_powershell.md" r:id="rId145"/>
+    <hyperlink ref="A95" display="quickstart.md" r:id="rId146"/>
+    <hyperlink ref="A96" display="app_compat.md" r:id="rId147"/>
+    <hyperlink ref="A97" display="powershell_overview.md" r:id="rId148"/>
+    <hyperlink ref="A98" display="ps_docker_comparison.md" r:id="rId149"/>
+    <hyperlink ref="A99" display="TOC.md" r:id="rId150"/>
+    <hyperlink ref="A100" display="backup-azure-backup-ibiza-faq.md" r:id="rId151"/>
+    <hyperlink ref="F100" display="backup-azure-backup-ibiza-faq.md" r:id="rId152"/>
+    <hyperlink ref="A101" display="add-external-dpm.png" r:id="rId153"/>
+    <hyperlink ref="A102" display="browse-external-dpm.png" r:id="rId154"/>
+    <hyperlink ref="A103" display="clear-external-dpm.png" r:id="rId155"/>
+    <hyperlink ref="A104" display="external-dpm-azurebackupagentversion.png" r:id="rId156"/>
+    <hyperlink ref="A105" display="external-dpm-credentials.png" r:id="rId157"/>
+    <hyperlink ref="A106" display="external-dpm-recovery-alternate-location.png" r:id="rId158"/>
+    <hyperlink ref="A107" display="external-dpm-recovery-notifications.png" r:id="rId159"/>
+    <hyperlink ref="A108" display="external-dpm-recovery-options-summary.png" r:id="rId160"/>
+    <hyperlink ref="A109" display="external-dpm-recovery-summary.png" r:id="rId161"/>
+    <hyperlink ref="A110" display="external-dpm-recoverypoint.png" r:id="rId162"/>
+    <hyperlink ref="A111" display="monitoring-recovery.png" r:id="rId163"/>
+    <hyperlink ref="A112" display="recover.png" r:id="rId164"/>
+    <hyperlink ref="A113" display="dailybackupschedule.png" r:id="rId165"/>
+    <hyperlink ref="A114" display="modify.png" r:id="rId166"/>
+    <hyperlink ref="A115" display="retentionpolicy.png" r:id="rId167"/>
+    <hyperlink ref="A116" display="samplescreen.png" r:id="rId168"/>
+    <hyperlink ref="A117" display="weeklybackupschedule.png" r:id="rId169"/>
+    <hyperlink ref="A118" display="choose-online-replication.png" r:id="rId170"/>
+    <hyperlink ref="A119" display="eseutil-error.png" r:id="rId171"/>
+    <hyperlink ref="A120" display="select-group-members.png" r:id="rId172"/>
+    <hyperlink ref="A121" display="specify-online-backup-schedule.png" r:id="rId173"/>
+    <hyperlink ref="A122" display="specify-online-protection-data.png" r:id="rId174"/>
+    <hyperlink ref="A123" display="specify-online-retention-policy.png" r:id="rId175"/>
+    <hyperlink ref="A124" display="Schedule.png" r:id="rId176"/>
+    <hyperlink ref="A125" display="Throttle-dialog.png" r:id="rId177"/>
+    <hyperlink ref="A126" display="azureportal.png" r:id="rId178"/>
+    <hyperlink ref="A127" display="backupnow.png" r:id="rId179"/>
+    <hyperlink ref="A128" display="complete.png" r:id="rId180"/>
+    <hyperlink ref="A129" display="dc.png" r:id="rId181"/>
+    <hyperlink ref="A130" display="dpmbackupnow.png" r:id="rId182"/>
+    <hyperlink ref="A131" display="dpmoffline.png" r:id="rId183"/>
+    <hyperlink ref="A132" display="importscreen.png" r:id="rId184"/>
+    <hyperlink ref="A133" display="opbackupnow.png" r:id="rId185"/>
+    <hyperlink ref="A134" display="psoutput.png" r:id="rId186"/>
+    <hyperlink ref="A135" display="choose-replica-creation-method.png" r:id="rId187"/>
+    <hyperlink ref="A136" display="consistency-check.png" r:id="rId188"/>
+    <hyperlink ref="A137" display="dpm-new-protection-tab.png" r:id="rId189"/>
+    <hyperlink ref="A138" display="dpm-sharepoint-protection12.png" r:id="rId190"/>
+    <hyperlink ref="A139" display="dpm-sharepoint-protection13.png" r:id="rId191"/>
+    <hyperlink ref="A140" display="dpm-sharepoint-protection14.png" r:id="rId192"/>
+    <hyperlink ref="A141" display="dpm-sharepoint-protection15.png" r:id="rId193"/>
+    <hyperlink ref="A142" display="dpm-sharepoint-protection4.png" r:id="rId194"/>
+    <hyperlink ref="A143" display="dpm-sharepoint-protection5.png" r:id="rId195"/>
+    <hyperlink ref="A144" display="dpm-sharepoint-protection6.png" r:id="rId196"/>
+    <hyperlink ref="A145" display="dpm-sharepoint-protection7.png" r:id="rId197"/>
+    <hyperlink ref="A146" display="dpm-sharepoint-protection8.png" r:id="rId198"/>
+    <hyperlink ref="A147" display="dpm-sharepoint-protection9.png" r:id="rId199"/>
+    <hyperlink ref="A148" display="online-replication.png" r:id="rId200"/>
+    <hyperlink ref="A149" display="recovery-monitoring.png" r:id="rId201"/>
+    <hyperlink ref="A150" display="recovery-options.png" r:id="rId202"/>
+    <hyperlink ref="A151" display="recovery-process.png" r:id="rId203"/>
+    <hyperlink ref="A152" display="recovery-summary.png" r:id="rId204"/>
+    <hyperlink ref="A153" display="review-recovery-selection.png" r:id="rId205"/>
+    <hyperlink ref="A154" display="select-data-protection-method1.png" r:id="rId206"/>
+    <hyperlink ref="A155" display="select-group-members2.png" r:id="rId207"/>
+    <hyperlink ref="A156" display="select-online-protection1.png" r:id="rId208"/>
+    <hyperlink ref="A157" display="select-protection-group-type.png" r:id="rId209"/>
+    <hyperlink ref="A158" display="select-recovery-type.png" r:id="rId210"/>
+    <hyperlink ref="A159" display="specify-online-backup-schedule.png" r:id="rId211"/>
+    <hyperlink ref="A160" display="specify-online-retention.png" r:id="rId212"/>
+    <hyperlink ref="A161" display="specify-short-term-goals2.png" r:id="rId213"/>
+    <hyperlink ref="A162" display="staging-location1.png" r:id="rId214"/>
+    <hyperlink ref="A163" display="staging-location2.png" r:id="rId215"/>
+    <hyperlink ref="A164" display="summary.png" r:id="rId216"/>
+    <hyperlink ref="A165" display="pg-consistent.png" r:id="rId217"/>
+    <hyperlink ref="A166" display="pg-databases.png" r:id="rId218"/>
+    <hyperlink ref="A167" display="pg-manual.png" r:id="rId219"/>
+    <hyperlink ref="A168" display="pg-name.png" r:id="rId220"/>
+    <hyperlink ref="A169" display="pg-retentionschedule.png" r:id="rId221"/>
+    <hyperlink ref="A170" display="pg-schedule.png" r:id="rId222"/>
+    <hyperlink ref="A171" display="pg-servers.png" r:id="rId223"/>
+    <hyperlink ref="A172" display="pg-shortterm.png" r:id="rId224"/>
+    <hyperlink ref="A173" display="pg-sqldatabases.png" r:id="rId225"/>
+    <hyperlink ref="A174" display="pg-storage.png" r:id="rId226"/>
+    <hyperlink ref="A175" display="pg-summary.png" r:id="rId227"/>
+    <hyperlink ref="A176" display="protection-group.png" r:id="rId228"/>
+    <hyperlink ref="A177" display="sqlbackup-azure.png" r:id="rId229"/>
+    <hyperlink ref="A178" display="sqlbackup-createrp.png" r:id="rId230"/>
+    <hyperlink ref="A179" display="sqlbackup-monitoring.png" r:id="rId231"/>
+    <hyperlink ref="A180" display="sqlbackup-recover.png" r:id="rId232"/>
+    <hyperlink ref="A181" display="sqlbackup-recoveroriginal.png" r:id="rId233"/>
+    <hyperlink ref="A182" display="sqlbackup-recoverying.png" r:id="rId234"/>
+    <hyperlink ref="A183" display="sqlbackup-recoverypoint.png" r:id="rId235"/>
+    <hyperlink ref="A184" display="sqlbackup-restorepoint.png" r:id="rId236"/>
+    <hyperlink ref="A185" display="anotherserver.png" r:id="rId237"/>
+    <hyperlink ref="A186" display="backupnow.png" r:id="rId238"/>
+    <hyperlink ref="A187" display="browseandsearch.png" r:id="rId239"/>
+    <hyperlink ref="A188" display="encryption.png" r:id="rId240"/>
+    <hyperlink ref="A189" display="initialbackup.png" r:id="rId241"/>
+    <hyperlink ref="A190" display="ircomplete.png" r:id="rId242"/>
+    <hyperlink ref="A191" display="items.png" r:id="rId243"/>
+    <hyperlink ref="A192" display="machinelist.png" r:id="rId244"/>
+    <hyperlink ref="A193" display="recoveroptions.png" r:id="rId245"/>
+    <hyperlink ref="A194" display="restorelocation.png" r:id="rId246"/>
+    <hyperlink ref="A195" display="result.png" r:id="rId247"/>
+    <hyperlink ref="A196" display="samemachine.png" r:id="rId248"/>
+    <hyperlink ref="A197" display="schedulebackup.png" r:id="rId249"/>
+    <hyperlink ref="A198" display="search.png" r:id="rId250"/>
+    <hyperlink ref="A199" display="searchitems.png" r:id="rId251"/>
+    <hyperlink ref="A200" display="selectfiles.png" r:id="rId252"/>
+    <hyperlink ref="A201" display="volanddate.png" r:id="rId253"/>
+    <hyperlink ref="A202" display="backup_vaultcreate.png" r:id="rId254"/>
+    <hyperlink ref="A203" display="backup_vaultslist.png" r:id="rId255"/>
+    <hyperlink ref="A204" display="creating-vault.png" r:id="rId256"/>
+    <hyperlink ref="A205" display="vault-policy-vm.png" r:id="rId257"/>
+    <hyperlink ref="A206" display="vmbackup-architecture.png" r:id="rId258"/>
+    <hyperlink ref="A207" display="vmbackup-instructions.png" r:id="rId259"/>
+    <hyperlink ref="A208" display="alert-body.png" r:id="rId260"/>
+    <hyperlink ref="A209" display="alert-header.png" r:id="rId261"/>
+    <hyperlink ref="A210" display="backup-job.png" r:id="rId262"/>
+    <hyperlink ref="A211" display="backup-now.png" r:id="rId263"/>
+    <hyperlink ref="A212" display="backup-vmdetails.png" r:id="rId264"/>
+    <hyperlink ref="A213" display="backup-vmpolicy.png" r:id="rId265"/>
+    <hyperlink ref="A214" display="checkbox.png" r:id="rId266"/>
+    <hyperlink ref="A215" display="confirm-stop-protection.png" r:id="rId267"/>
+    <hyperlink ref="A216" display="confirm-unregister.png" r:id="rId268"/>
+    <hyperlink ref="A217" display="created-job.png" r:id="rId269"/>
+    <hyperlink ref="A218" display="creating-job.png" r:id="rId270"/>
+    <hyperlink ref="A219" display="dashboard-protectedvms.png" r:id="rId271"/>
+    <hyperlink ref="A220" display="delete-backup-data.png" r:id="rId272"/>
+    <hyperlink ref="A221" display="delete-backup.png" r:id="rId273"/>
+    <hyperlink ref="A222" display="delete-data-success.png" r:id="rId274"/>
+    <hyperlink ref="A223" display="manage-policy-settings.png" r:id="rId275"/>
+    <hyperlink ref="A224" display="ops-logs-details-window.png" r:id="rId276"/>
+    <hyperlink ref="A225" display="ops-logs-details.png" r:id="rId277"/>
+    <hyperlink ref="A226" display="ops-logs-filter.png" r:id="rId278"/>
+    <hyperlink ref="A227" display="ops-logs.png" r:id="rId279"/>
+    <hyperlink ref="A228" display="protection-stopped-b.png" r:id="rId280"/>
+    <hyperlink ref="A229" display="protection-stopped-status.png" r:id="rId281"/>
+    <hyperlink ref="A230" display="reprotected-status.png" r:id="rId282"/>
+    <hyperlink ref="A231" display="stop-protect-success.png" r:id="rId283"/>
+    <hyperlink ref="A232" display="stop-protection.png" r:id="rId284"/>
+    <hyperlink ref="A233" display="unregister-button.png" r:id="rId285"/>
+    <hyperlink ref="A234" display="vm-type.png" r:id="rId286"/>
+    <hyperlink ref="A235" display="add-exclusion.png" r:id="rId287"/>
+    <hyperlink ref="A236" display="add-items-modify.png" r:id="rId288"/>
+    <hyperlink ref="A237" display="configure.png" r:id="rId289"/>
+    <hyperlink ref="A238" display="console-actions.png" r:id="rId290"/>
+    <hyperlink ref="A239" display="dashboard-tasks.png" r:id="rId291"/>
+    <hyperlink ref="A240" display="exclude-file-type.png" r:id="rId292"/>
+    <hyperlink ref="A241" display="exclude-jpg.png" r:id="rId293"/>
+    <hyperlink ref="A242" display="exclude-mp3.png" r:id="rId294"/>
+    <hyperlink ref="A243" display="exclusion-location.png" r:id="rId295"/>
+    <hyperlink ref="A244" display="exclusion-settings.png" r:id="rId296"/>
+    <hyperlink ref="A245" display="finish-exclusions.png" r:id="rId297"/>
+    <hyperlink ref="A246" display="ircomplete.png" r:id="rId298"/>
+    <hyperlink ref="A247" display="modify-or-stop-a-scheduled-backup.png" r:id="rId299"/>
+    <hyperlink ref="A248" display="protected-items.png" r:id="rId300"/>
+    <hyperlink ref="A249" display="qs-page.png" r:id="rId301"/>
+    <hyperlink ref="A250" display="registered-items-tasks.png" r:id="rId302"/>
+    <hyperlink ref="A251" display="registered-items.png" r:id="rId303"/>
+    <hyperlink ref="A252" display="rs-left-nav.png" r:id="rId304"/>
+    <hyperlink ref="A253" display="schedule-backup.png" r:id="rId305"/>
+    <hyperlink ref="A254" display="select-retention-policy-modify.png" r:id="rId306"/>
+    <hyperlink ref="A255" display="snap-in-search.png" r:id="rId307"/>
+    <hyperlink ref="A256" display="specify-backup-schedule-modify-close.png" r:id="rId308"/>
+    <hyperlink ref="A257" display="throttling-dialog.png" r:id="rId309"/>
+    <hyperlink ref="A258" display="backup_vaultcreate.png" r:id="rId310"/>
+    <hyperlink ref="A259" display="backup_vaultslist.png" r:id="rId311"/>
+    <hyperlink ref="A260" display="creating-vault.png" r:id="rId312"/>
+    <hyperlink ref="A261" display="downloadcenter.png" r:id="rId313"/>
+    <hyperlink ref="A262" display="downloadcenter1.png" r:id="rId314"/>
+    <hyperlink ref="A263" display="dpm-venus1.png" r:id="rId315"/>
+    <hyperlink ref="A264" display="03.png" r:id="rId316"/>
+    <hyperlink ref="A265" display="venus-installation-screen.png" r:id="rId317"/>
+    <hyperlink ref="A266" display="launch-screen2.png" r:id="rId318"/>
+    <hyperlink ref="A267" display="04.png" r:id="rId319"/>
+    <hyperlink ref="A268" display="security-screen.png" r:id="rId320"/>
+    <hyperlink ref="A269" display="space-screen.png" r:id="rId321"/>
+    <hyperlink ref="A270" display="01.png" r:id="rId322"/>
+    <hyperlink ref="A271" display="step1.png" r:id="rId323"/>
+    <hyperlink ref="A272" display="step2.png" r:id="rId324"/>
+    <hyperlink ref="A273" display="step3.png" r:id="rId325"/>
+    <hyperlink ref="A274" display="step4.png" r:id="rId326"/>
+    <hyperlink ref="A275" display="summary-screen.png" r:id="rId327"/>
+    <hyperlink ref="A276" display="update-opt-screen2.png" r:id="rId328"/>
+    <hyperlink ref="A277" display="create-restore-job.png" r:id="rId329"/>
+    <hyperlink ref="A278" display="protected-items.png" r:id="rId330"/>
+    <hyperlink ref="A279" display="recovery-points.png" r:id="rId331"/>
+    <hyperlink ref="A280" display="restore-cs-vnet.png" r:id="rId332"/>
+    <hyperlink ref="A281" display="restore-item.png" r:id="rId333"/>
+    <hyperlink ref="A282" display="restore-job-complete.png" r:id="rId334"/>
+    <hyperlink ref="A283" display="restore-job-created.png" r:id="rId335"/>
+    <hyperlink ref="A284" display="restore-sa.png" r:id="rId336"/>
+    <hyperlink ref="A285" display="select-date.png" r:id="rId337"/>
+    <hyperlink ref="A286" display="select-recovery-point.png" r:id="rId338"/>
+    <hyperlink ref="A287" display="select-subnet.png" r:id="rId339"/>
+    <hyperlink ref="A288" display="anotherserver.png" r:id="rId340"/>
+    <hyperlink ref="A289" display="browseandsearch.png" r:id="rId341"/>
+    <hyperlink ref="A290" display="encryption.png" r:id="rId342"/>
+    <hyperlink ref="A291" display="initialbackup.png" r:id="rId343"/>
+    <hyperlink ref="A292" display="items.png" r:id="rId344"/>
+    <hyperlink ref="A293" display="machinelist.png" r:id="rId345"/>
+    <hyperlink ref="A294" display="recover.png" r:id="rId346"/>
+    <hyperlink ref="A295" display="recoveroptions.png" r:id="rId347"/>
+    <hyperlink ref="A296" display="restorelocation.png" r:id="rId348"/>
+    <hyperlink ref="A297" display="result.png" r:id="rId349"/>
+    <hyperlink ref="A298" display="samemachine.png" r:id="rId350"/>
+    <hyperlink ref="A299" display="search.png" r:id="rId351"/>
+    <hyperlink ref="A300" display="searchitems.png" r:id="rId352"/>
+    <hyperlink ref="A301" display="selectfiles.png" r:id="rId353"/>
+    <hyperlink ref="A302" display="volanddate.png" r:id="rId354"/>
+    <hyperlink ref="A303" display="object-hierarchy.png" r:id="rId355"/>
+    <hyperlink ref="A304" display="how-it-works.png" r:id="rId356"/>
+    <hyperlink ref="A305" display="back-up-now.png" r:id="rId357"/>
+    <hyperlink ref="A306" display="backup-button.png" r:id="rId358"/>
+    <hyperlink ref="A307" display="backup-jobs-in-jobs-view.png" r:id="rId359"/>
+    <hyperlink ref="A308" display="backup-policy-daily-raw.png" r:id="rId360"/>
+    <hyperlink ref="A309" display="backup-policy-daily.png" r:id="rId361"/>
+    <hyperlink ref="A310" display="backup-policy-weekly.png" r:id="rId362"/>
+    <hyperlink ref="A311" display="backup-triggered.png" r:id="rId363"/>
+    <hyperlink ref="A312" display="browse-to-rs-vaults.png" r:id="rId364"/>
+    <hyperlink ref="A313" display="choose-storage-configuration.png" r:id="rId365"/>
+    <hyperlink ref="A314" display="discovering-new-vms.png" r:id="rId366"/>
+    <hyperlink ref="A315" display="enable-backup-settings.png" r:id="rId367"/>
+    <hyperlink ref="A316" display="initial-backup-not-run.png" r:id="rId368"/>
+    <hyperlink ref="A317" display="open-backup-jobs.png" r:id="rId369"/>
+    <hyperlink ref="A318" display="rs-vault-in-dashboard-backup-vms.png" r:id="rId370"/>
+    <hyperlink ref="A319" display="rs-vault-menu.png" r:id="rId371"/>
+    <hyperlink ref="A320" display="select-backup-scenario-one.png" r:id="rId372"/>
+    <hyperlink ref="A321" display="select-rs-backup-scenario-two.png" r:id="rId373"/>
+    <hyperlink ref="A322" display="select-vms-to-backup.png" r:id="rId374"/>
+    <hyperlink ref="A323" display="setting-rs-backup-policy.png" r:id="rId375"/>
+    <hyperlink ref="A324" display="vault-settings.png" r:id="rId376"/>
+    <hyperlink ref="A325" display="active-vault-demo.png" r:id="rId377"/>
+    <hyperlink ref="A326" display="backup-now-icon.png" r:id="rId378"/>
+    <hyperlink ref="A327" display="backup-vault-storage-options-border.png" r:id="rId379"/>
+    <hyperlink ref="A328" display="backup-vaultcreate.png" r:id="rId380"/>
+    <hyperlink ref="A329" display="BackupAzureVM.png" r:id="rId381"/>
+    <hyperlink ref="A330" display="configure-storage.png" r:id="rId382"/>
+    <hyperlink ref="A331" display="create-vault-demo-success.png" r:id="rId383"/>
+    <hyperlink ref="A332" display="create-vault-demo.png" r:id="rId384"/>
+    <hyperlink ref="A333" display="creating-vault.png" r:id="rId385"/>
+    <hyperlink ref="A334" display="discovery-complete.png" r:id="rId386"/>
+    <hyperlink ref="A335" display="firewall-01.png" r:id="rId387"/>
+    <hyperlink ref="A336" display="firewall-02.png" r:id="rId388"/>
+    <hyperlink ref="A337" display="firewall-03.png" r:id="rId389"/>
+    <hyperlink ref="A338" display="Ibiza-portal-backup01.png" r:id="rId390"/>
+    <hyperlink ref="A339" display="nsg-with-http-proxy.png" r:id="rId391"/>
+    <hyperlink ref="A340" display="protect-icon.png" r:id="rId392"/>
+    <hyperlink ref="A341" display="protect-inprogress.png" r:id="rId393"/>
+    <hyperlink ref="A342" display="protection-pending-border.png" r:id="rId394"/>
+    <hyperlink ref="A343" display="recovery-services-icon.png" r:id="rId395"/>
+    <hyperlink ref="A344" display="register-icon.png" r:id="rId396"/>
+    <hyperlink ref="A345" display="vault-policy-vm.png" r:id="rId397"/>
+    <hyperlink ref="A346" display="vmbackup-instructions.png" r:id="rId398"/>
+    <hyperlink ref="A347" display="backup_vaultcreate.png" r:id="rId399"/>
+    <hyperlink ref="A348" display="backup_vaultslist.png" r:id="rId400"/>
+    <hyperlink ref="A349" display="creating-vault.png" r:id="rId401"/>
+    <hyperlink ref="A350" display="vault-policy-vm.png" r:id="rId402"/>
+    <hyperlink ref="A351" display="vmbackup-architecture.png" r:id="rId403"/>
+    <hyperlink ref="A352" display="vmbackup-instructions.png" r:id="rId404"/>
+    <hyperlink ref="A353" display="backup_vaultcreate.png" r:id="rId405"/>
+    <hyperlink ref="A354" display="backup_vaultslist.png" r:id="rId406"/>
+    <hyperlink ref="A355" display="creating-vault.png" r:id="rId407"/>
+    <hyperlink ref="A356" display="firewall-01.png" r:id="rId408"/>
+    <hyperlink ref="A357" display="firewall-02.png" r:id="rId409"/>
+    <hyperlink ref="A358" display="firewall-03.png" r:id="rId410"/>
+    <hyperlink ref="A359" display="Ibiza-portal-backup01.png" r:id="rId411"/>
+    <hyperlink ref="A360" display="nsg-with-http-proxy.png" r:id="rId412"/>
+    <hyperlink ref="A361" display="vault-policy-vm.png" r:id="rId413"/>
+    <hyperlink ref="A362" display="vmbackup-instructions.png" r:id="rId414"/>
+    <hyperlink ref="A363" display="3-steps-for-backup.png" r:id="rId415"/>
+    <hyperlink ref="A364" display="choose-vault-list.png" r:id="rId416"/>
+    <hyperlink ref="A365" display="dashboard-protectedvms.png" r:id="rId417"/>
+    <hyperlink ref="A366" display="discover-button-only.png" r:id="rId418"/>
+    <hyperlink ref="A367" display="discovering-vms.png" r:id="rId419"/>
+    <hyperlink ref="A368" display="discovery-complete.png" r:id="rId420"/>
+    <hyperlink ref="A369" display="discovery-select-workload.png" r:id="rId421"/>
+    <hyperlink ref="A370" display="long-term-retention.png" r:id="rId422"/>
+    <hyperlink ref="A371" display="policy-retention.png" r:id="rId423"/>
+    <hyperlink ref="A372" display="policy-schedule.png" r:id="rId424"/>
+    <hyperlink ref="A373" display="protect-at-scale.png" r:id="rId425"/>
+    <hyperlink ref="A374" display="protect-backedupvm.png" r:id="rId426"/>
+    <hyperlink ref="A375" display="protect-configureprotection.png" r:id="rId427"/>
+    <hyperlink ref="A376" display="protect-inprogress.png" r:id="rId428"/>
+    <hyperlink ref="A377" display="register-button-only.png" r:id="rId429"/>
+    <hyperlink ref="A378" display="register-create-job.png" r:id="rId430"/>
+    <hyperlink ref="A379" display="register-status01.png" r:id="rId431"/>
+    <hyperlink ref="A380" display="register-status02.png" r:id="rId432"/>
+    <hyperlink ref="A381" display="select-workload.png" r:id="rId433"/>
+    <hyperlink ref="A382" display="vault-menu.png" r:id="rId434"/>
+    <hyperlink ref="A383" display="vault-quick-start.png" r:id="rId435"/>
+    <hyperlink ref="A384" display="installed-agent-listing.png" r:id="rId436"/>
+    <hyperlink ref="A385" display="agent.png" r:id="rId437"/>
+    <hyperlink ref="A386" display="backup-now.png" r:id="rId438"/>
+    <hyperlink ref="A387" display="change-properties.png" r:id="rId439"/>
+    <hyperlink ref="A388" display="configure-vault.png" r:id="rId440"/>
+    <hyperlink ref="A389" display="demo-vault-name.png" r:id="rId441"/>
+    <hyperlink ref="A390" display="initial-backup-process.png" r:id="rId442"/>
+    <hyperlink ref="A391" display="ircomplete.png" r:id="rId443"/>
+    <hyperlink ref="A392" display="recovery-services-select-vault.png" r:id="rId444"/>
+    <hyperlink ref="A393" display="rs-left-nav.png" r:id="rId445"/>
+    <hyperlink ref="A394" display="schedule-backup-close.png" r:id="rId446"/>
+    <hyperlink ref="A395" display="snap-in-search.png" r:id="rId447"/>
+    <hyperlink ref="A396" display="specify-backup-schedule-close.png" r:id="rId448"/>
+    <hyperlink ref="A397" display="throttling-dialog.png" r:id="rId449"/>
+    <hyperlink ref="A398" display="installed-agent-listing.png" r:id="rId450"/>
+    <hyperlink ref="A399" display="azure-backup-overview.png" r:id="rId451"/>
+    <hyperlink ref="A400" display="green.png" r:id="rId452"/>
+    <hyperlink ref="A401" display="table-key-2.png" r:id="rId453"/>
+    <hyperlink ref="A402" display="table-key.png" r:id="rId454"/>
+    <hyperlink ref="A403" display="yellow.png" r:id="rId455"/>
+    <hyperlink ref="A404" display="agent.png" r:id="rId456"/>
+    <hyperlink ref="A405" display="backup-now.png" r:id="rId457"/>
+    <hyperlink ref="A406" display="configure-vault.png" r:id="rId458"/>
+    <hyperlink ref="A407" display="demo-vault-name.png" r:id="rId459"/>
+    <hyperlink ref="A408" display="geo-redundant.png" r:id="rId460"/>
+    <hyperlink ref="A409" display="ircomplete.png" r:id="rId461"/>
+    <hyperlink ref="A410" display="quick-start-icon.png" r:id="rId462"/>
+    <hyperlink ref="A411" display="recovery-services-select-vault.png" r:id="rId463"/>
+    <hyperlink ref="A412" display="second-blade-backup.png" r:id="rId464"/>
+    <hyperlink ref="A413" display="snap-in-schedule-backup-closeup.png" r:id="rId465"/>
+    <hyperlink ref="A414" display="step-1.png" r:id="rId466"/>
+    <hyperlink ref="A415" display="step-2.png" r:id="rId467"/>
+    <hyperlink ref="A416" display="step-3.png" r:id="rId468"/>
+    <hyperlink ref="A417" display="step-4.png" r:id="rId469"/>
+    <hyperlink ref="A418" display="windows-machine-backup-process.png" r:id="rId470"/>
+    <hyperlink ref="A419" display="account_keys.PNG" r:id="rId471"/>
+    <hyperlink ref="A420" display="batch_acct_03.png" r:id="rId472"/>
+    <hyperlink ref="A421" display="batch_acct_04.png" r:id="rId473"/>
+    <hyperlink ref="A422" display="batch_acct_05.png" r:id="rId474"/>
+    <hyperlink ref="A423" display="batch_acct_portal.png" r:id="rId475"/>
+    <hyperlink ref="A424" display="marketplace_batch.PNG" r:id="rId476"/>
+    <hyperlink ref="A425" display="node-folder-structure.png" r:id="rId477"/>
+    <hyperlink ref="A426" display="app_pkg_01.png" r:id="rId478"/>
+    <hyperlink ref="A427" display="app_pkg_02.png" r:id="rId479"/>
+    <hyperlink ref="A428" display="app_pkg_04.png" r:id="rId480"/>
+    <hyperlink ref="A429" display="app_pkg_05.png" r:id="rId481"/>
+    <hyperlink ref="A430" display="app_pkg_06.png" r:id="rId482"/>
+    <hyperlink ref="A431" display="app_pkg_07.png" r:id="rId483"/>
+    <hyperlink ref="A432" display="app_pkg_08.png" r:id="rId484"/>
+    <hyperlink ref="A433" display="app_pkg_09.png" r:id="rId485"/>
+    <hyperlink ref="A434" display="app_pkg_10.png" r:id="rId486"/>
+    <hyperlink ref="A435" display="app_pkg_11.png" r:id="rId487"/>
+    <hyperlink ref="A436" display="app_pkg_12.png" r:id="rId488"/>
+    <hyperlink ref="A437" display="app_pkg_13.png" r:id="rId489"/>
+    <hyperlink ref="A438" display="batch_workflow_01_sm.png" r:id="rId490"/>
+    <hyperlink ref="A439" display="batch_workflow_02_sm.png" r:id="rId491"/>
+    <hyperlink ref="A440" display="batch_workflow_03_sm.png" r:id="rId492"/>
+    <hyperlink ref="A441" display="batch_workflow_04_sm.png" r:id="rId493"/>
+    <hyperlink ref="A442" display="batch_workflow_05_sm.png" r:id="rId494"/>
+    <hyperlink ref="A443" display="batch_workflow_06_sm.png" r:id="rId495"/>
+    <hyperlink ref="A444" display="batch_workflow_07_sm.png" r:id="rId496"/>
+    <hyperlink ref="A445" display="batch_workflow_minimal_sm.png" r:id="rId497"/>
+    <hyperlink ref="A446" display="batch_workflow_sm.png" r:id="rId498"/>
+    <hyperlink ref="A447" display="credentials_batch_sm.png" r:id="rId499"/>
+    <hyperlink ref="A448" display="credentials_storage_sm.png" r:id="rId500"/>
+    <hyperlink ref="A449" display="batch_proc.png" r:id="rId501"/>
+    <hyperlink ref="A450" display="burst_cluster.png" r:id="rId502"/>
+    <hyperlink ref="A451" display="coupled.png" r:id="rId503"/>
+    <hyperlink ref="A452" display="iaas_cluster.png" r:id="rId504"/>
+    <hyperlink ref="A453" display="parallel.png" r:id="rId505"/>
+    <hyperlink ref="A454" display="batchexplorer-01.png" r:id="rId506"/>
+    <hyperlink ref="A455" display="portal-01.png" r:id="rId507"/>
+    <hyperlink ref="A456" display="portal-02.png" r:id="rId508"/>
+    <hyperlink ref="A457" display="portal-03.png" r:id="rId509"/>
+    <hyperlink ref="A458" display="batch_mpi_01.png" r:id="rId510"/>
+    <hyperlink ref="A459" display="heat_map.png" r:id="rId511"/>
+    <hyperlink ref="A460" display="accountquota_portal.PNG" r:id="rId512"/>
+    <hyperlink ref="A461" display="tech_overview_01.png" r:id="rId513"/>
+    <hyperlink ref="A462" display="tech_overview_02.png" r:id="rId514"/>
+    <hyperlink ref="A463" display="compute-3-tier-vm.png" r:id="rId515"/>
+    <hyperlink ref="A464" display="add-new-or-existing-role.png" r:id="rId516"/>
+    <hyperlink ref="A465" display="new-project-cloud-service.png" r:id="rId517"/>
+    <hyperlink ref="A466" display="new-service-wizard.png" r:id="rId518"/>
+    <hyperlink ref="A467" display="publish-activity-log.png" r:id="rId519"/>
+    <hyperlink ref="A468" display="publish-create-cloud-service.png" r:id="rId520"/>
+    <hyperlink ref="A469" display="publish-remote-desktop-configuration.png" r:id="rId521"/>
+    <hyperlink ref="A470" display="publish-settings.png" r:id="rId522"/>
+    <hyperlink ref="A471" display="publish-sign-in.png" r:id="rId523"/>
+    <hyperlink ref="A472" display="startup.png" r:id="rId524"/>
+    <hyperlink ref="A473" display="worker.png" r:id="rId525"/>
+    <hyperlink ref="A474" display="backup_vaultcreate.png" r:id="rId526"/>
+    <hyperlink ref="A475" display="backup_vaultslist.png" r:id="rId527"/>
+    <hyperlink ref="A476" display="creating-vault.png" r:id="rId528"/>
+    <hyperlink ref="A477" display="Ibiza-portal-backup01.png" r:id="rId529"/>
+    <hyperlink ref="A478" display="vault-policy-vm.png" r:id="rId530"/>
+    <hyperlink ref="A479" display="vmbackup-instructions.png" r:id="rId531"/>
+    <hyperlink ref="A480" display="backupvaultstatus1.png" r:id="rId532"/>
+    <hyperlink ref="A481" display="create-vault-wgif.gif" r:id="rId533"/>
+    <hyperlink ref="A482" display="createvault1.png" r:id="rId534"/>
+    <hyperlink ref="A483" display="creatingvault1.png" r:id="rId535"/>
+    <hyperlink ref="A484" display="backupvaultstatus1.png" r:id="rId536"/>
+    <hyperlink ref="A485" display="createvault1.png" r:id="rId537"/>
+    <hyperlink ref="A486" display="creatingvault1.png" r:id="rId538"/>
+    <hyperlink ref="A487" display="grs.png" r:id="rId539"/>
+    <hyperlink ref="A488" display="lrs.png" r:id="rId540"/>
+    <hyperlink ref="A489" display="downloadvc.png" r:id="rId541"/>
+    <hyperlink ref="A490" display="quickview.png" r:id="rId542"/>
+    <hyperlink ref="A491" display="agent.png" r:id="rId543"/>
+    <hyperlink ref="A492" display="change.png" r:id="rId544"/>
+    <hyperlink ref="A493" display="configure.png" r:id="rId545"/>
+    <hyperlink ref="A494" display="encryption.png" r:id="rId546"/>
+    <hyperlink ref="A495" display="quickstart.png" r:id="rId547"/>
+    <hyperlink ref="A496" display="register.png" r:id="rId548"/>
+    <hyperlink ref="A497" display="vc.png" r:id="rId549"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -54387,7 +54391,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -54425,7 +54429,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -54454,7 +54458,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -54463,7 +54467,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -54501,7 +54505,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -54539,7 +54543,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -54577,7 +54581,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -54615,7 +54619,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -54653,7 +54657,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -54691,7 +54695,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
@@ -54729,7 +54733,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
@@ -54767,7 +54771,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
@@ -54805,7 +54809,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
@@ -54843,7 +54847,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
@@ -54881,7 +54885,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
@@ -54919,7 +54923,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
@@ -54957,7 +54961,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
@@ -54995,7 +54999,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
@@ -55033,7 +55037,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>9</v>
@@ -55071,7 +55075,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
@@ -55109,7 +55113,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>9</v>
@@ -55147,7 +55151,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
@@ -55185,7 +55189,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
@@ -55223,7 +55227,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
@@ -55261,7 +55265,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
@@ -55299,7 +55303,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
@@ -55337,7 +55341,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>9</v>
@@ -55375,7 +55379,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
@@ -55413,7 +55417,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>9</v>
@@ -55451,7 +55455,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
@@ -55489,7 +55493,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
@@ -55527,7 +55531,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
@@ -55565,7 +55569,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>9</v>
@@ -55603,7 +55607,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
@@ -55641,7 +55645,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
@@ -55679,7 +55683,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
@@ -55717,7 +55721,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>9</v>
@@ -55755,7 +55759,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
@@ -55793,7 +55797,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>9</v>
@@ -55831,7 +55835,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>9</v>
@@ -55869,7 +55873,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>9</v>
@@ -55907,7 +55911,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>9</v>
@@ -55945,7 +55949,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>9</v>
@@ -55983,7 +55987,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>9</v>
@@ -56021,7 +56025,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>9</v>
@@ -56059,7 +56063,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
@@ -56097,7 +56101,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>56</v>
@@ -56135,7 +56139,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
@@ -56173,7 +56177,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
@@ -56211,7 +56215,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>9</v>
@@ -56249,7 +56253,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>9</v>
@@ -56287,7 +56291,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
@@ -56325,7 +56329,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>63</v>
@@ -56363,7 +56367,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>63</v>
@@ -56401,7 +56405,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>63</v>
@@ -56439,7 +56443,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>63</v>
@@ -56477,7 +56481,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>63</v>
@@ -56515,7 +56519,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>63</v>
@@ -56553,7 +56557,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>63</v>
@@ -56591,7 +56595,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>63</v>
@@ -56629,7 +56633,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>63</v>
@@ -56667,7 +56671,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>63</v>
@@ -56705,7 +56709,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>63</v>
@@ -56743,7 +56747,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>63</v>
@@ -56781,7 +56785,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>63</v>
@@ -56819,7 +56823,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>63</v>
@@ -56857,7 +56861,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>63</v>
@@ -56895,7 +56899,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>63</v>
@@ -56933,7 +56937,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>63</v>
@@ -56971,7 +56975,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>63</v>
@@ -57009,7 +57013,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>63</v>
@@ -57047,7 +57051,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>63</v>
@@ -57085,7 +57089,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>63</v>
@@ -57123,7 +57127,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>63</v>
@@ -57161,7 +57165,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>63</v>
@@ -57199,7 +57203,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>63</v>
@@ -57237,7 +57241,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>63</v>
@@ -57275,7 +57279,7 @@
         <v>8</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>63</v>
@@ -57313,7 +57317,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>63</v>
@@ -57351,7 +57355,7 @@
         <v>8</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>63</v>
@@ -57389,7 +57393,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>63</v>
@@ -57427,7 +57431,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>63</v>
@@ -57465,7 +57469,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>63</v>
@@ -57503,7 +57507,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>63</v>
@@ -57541,7 +57545,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>63</v>
@@ -57579,7 +57583,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>63</v>
@@ -57617,7 +57621,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>63</v>
@@ -57655,7 +57659,7 @@
         <v>8</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>63</v>
@@ -57693,7 +57697,7 @@
         <v>8</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>63</v>
@@ -57731,7 +57735,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>63</v>
@@ -57769,7 +57773,7 @@
         <v>8</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>63</v>
@@ -57807,7 +57811,7 @@
         <v>8</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>63</v>
@@ -57845,7 +57849,7 @@
         <v>8</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>63</v>
@@ -57883,7 +57887,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>63</v>
@@ -57921,7 +57925,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>63</v>
@@ -57959,7 +57963,7 @@
         <v>8</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>63</v>
@@ -57997,7 +58001,7 @@
         <v>106</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>107</v>
@@ -73235,7 +73239,7 @@
         <v>106</v>
       </c>
       <c r="D498" s="0" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>445</v>
@@ -73256,7 +73260,7 @@
         <v>611</v>
       </c>
       <c r="K498" s="0" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="L498" s="0" t="s">
         <v>509</v>
@@ -73273,7 +73277,7 @@
         <v>106</v>
       </c>
       <c r="D499" s="0" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>445</v>
@@ -73294,7 +73298,7 @@
         <v>611</v>
       </c>
       <c r="K499" s="0" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="L499" s="0" t="s">
         <v>509</v>
@@ -73311,7 +73315,7 @@
         <v>106</v>
       </c>
       <c r="D500" s="0" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>445</v>
@@ -73332,7 +73336,7 @@
         <v>611</v>
       </c>
       <c r="K500" s="0" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="L500" s="0" t="s">
         <v>509</v>
@@ -73349,7 +73353,7 @@
         <v>106</v>
       </c>
       <c r="D501" s="0" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>445</v>
@@ -73370,7 +73374,7 @@
         <v>611</v>
       </c>
       <c r="K501" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L501" s="0" t="s">
         <v>509</v>
@@ -73387,7 +73391,7 @@
         <v>106</v>
       </c>
       <c r="D502" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>445</v>
@@ -73408,7 +73412,7 @@
         <v>611</v>
       </c>
       <c r="K502" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L502" s="0" t="s">
         <v>509</v>
@@ -73425,7 +73429,7 @@
         <v>106</v>
       </c>
       <c r="D503" s="0" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>445</v>
@@ -73446,7 +73450,7 @@
         <v>611</v>
       </c>
       <c r="K503" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L503" s="0" t="s">
         <v>509</v>
@@ -73463,7 +73467,7 @@
         <v>106</v>
       </c>
       <c r="D504" s="0" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>445</v>
@@ -73484,7 +73488,7 @@
         <v>611</v>
       </c>
       <c r="K504" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L504" s="0" t="s">
         <v>509</v>
@@ -73501,7 +73505,7 @@
         <v>106</v>
       </c>
       <c r="D505" s="0" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>445</v>
@@ -73522,7 +73526,7 @@
         <v>611</v>
       </c>
       <c r="K505" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L505" s="0" t="s">
         <v>509</v>
@@ -73539,7 +73543,7 @@
         <v>106</v>
       </c>
       <c r="D506" s="0" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>445</v>
@@ -73560,7 +73564,7 @@
         <v>611</v>
       </c>
       <c r="K506" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="L506" s="0" t="s">
         <v>509</v>
@@ -73577,7 +73581,7 @@
         <v>106</v>
       </c>
       <c r="D507" s="0" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>445</v>
@@ -73598,7 +73602,7 @@
         <v>611</v>
       </c>
       <c r="K507" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="L507" s="0" t="s">
         <v>509</v>
@@ -73615,7 +73619,7 @@
         <v>106</v>
       </c>
       <c r="D508" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>445</v>
@@ -73636,7 +73640,7 @@
         <v>611</v>
       </c>
       <c r="K508" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L508" s="0" t="s">
         <v>509</v>
@@ -73653,7 +73657,7 @@
         <v>106</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>445</v>
@@ -73674,7 +73678,7 @@
         <v>611</v>
       </c>
       <c r="K509" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L509" s="0" t="s">
         <v>509</v>
@@ -73691,7 +73695,7 @@
         <v>106</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>445</v>
@@ -73712,7 +73716,7 @@
         <v>611</v>
       </c>
       <c r="K510" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L510" s="0" t="s">
         <v>509</v>
@@ -73729,7 +73733,7 @@
         <v>106</v>
       </c>
       <c r="D511" s="0" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>445</v>
@@ -73750,7 +73754,7 @@
         <v>611</v>
       </c>
       <c r="K511" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L511" s="0" t="s">
         <v>509</v>
@@ -73767,7 +73771,7 @@
         <v>106</v>
       </c>
       <c r="D512" s="0" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>445</v>
@@ -73788,7 +73792,7 @@
         <v>611</v>
       </c>
       <c r="K512" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="L512" s="0" t="s">
         <v>509</v>
@@ -73805,7 +73809,7 @@
         <v>106</v>
       </c>
       <c r="D513" s="0" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>445</v>
@@ -73826,7 +73830,7 @@
         <v>611</v>
       </c>
       <c r="K513" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="L513" s="0" t="s">
         <v>509</v>
@@ -73843,7 +73847,7 @@
         <v>106</v>
       </c>
       <c r="D514" s="0" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>445</v>
@@ -73864,7 +73868,7 @@
         <v>611</v>
       </c>
       <c r="K514" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="L514" s="0" t="s">
         <v>509</v>
@@ -73881,7 +73885,7 @@
         <v>106</v>
       </c>
       <c r="D515" s="0" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>445</v>
@@ -73902,7 +73906,7 @@
         <v>611</v>
       </c>
       <c r="K515" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="L515" s="0" t="s">
         <v>509</v>
@@ -73919,7 +73923,7 @@
         <v>106</v>
       </c>
       <c r="D516" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>445</v>
@@ -73940,7 +73944,7 @@
         <v>611</v>
       </c>
       <c r="K516" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="L516" s="0" t="s">
         <v>509</v>
@@ -73957,7 +73961,7 @@
         <v>106</v>
       </c>
       <c r="D517" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>445</v>
@@ -73978,7 +73982,7 @@
         <v>611</v>
       </c>
       <c r="K517" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="L517" s="0" t="s">
         <v>509</v>
@@ -73995,7 +73999,7 @@
         <v>106</v>
       </c>
       <c r="D518" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E518" s="2" t="s">
         <v>445</v>
@@ -74016,7 +74020,7 @@
         <v>611</v>
       </c>
       <c r="K518" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="L518" s="0" t="s">
         <v>509</v>
@@ -74033,7 +74037,7 @@
         <v>106</v>
       </c>
       <c r="D519" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E519" s="2" t="s">
         <v>445</v>
@@ -74054,7 +74058,7 @@
         <v>611</v>
       </c>
       <c r="K519" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="L519" s="0" t="s">
         <v>509</v>
@@ -74071,7 +74075,7 @@
         <v>106</v>
       </c>
       <c r="D520" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>445</v>
@@ -74092,7 +74096,7 @@
         <v>611</v>
       </c>
       <c r="K520" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L520" s="0" t="s">
         <v>509</v>
@@ -74109,7 +74113,7 @@
         <v>106</v>
       </c>
       <c r="D521" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>445</v>
@@ -74130,7 +74134,7 @@
         <v>611</v>
       </c>
       <c r="K521" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="L521" s="0" t="s">
         <v>509</v>
@@ -74147,7 +74151,7 @@
         <v>106</v>
       </c>
       <c r="D522" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>445</v>
@@ -74168,7 +74172,7 @@
         <v>611</v>
       </c>
       <c r="K522" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L522" s="0" t="s">
         <v>509</v>
@@ -74185,7 +74189,7 @@
         <v>106</v>
       </c>
       <c r="D523" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>445</v>
@@ -74206,7 +74210,7 @@
         <v>611</v>
       </c>
       <c r="K523" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L523" s="0" t="s">
         <v>509</v>
@@ -74223,7 +74227,7 @@
         <v>106</v>
       </c>
       <c r="D524" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>445</v>
@@ -74244,7 +74248,7 @@
         <v>611</v>
       </c>
       <c r="K524" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L524" s="0" t="s">
         <v>509</v>
@@ -74261,7 +74265,7 @@
         <v>106</v>
       </c>
       <c r="D525" s="0" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>445</v>
@@ -74282,7 +74286,7 @@
         <v>611</v>
       </c>
       <c r="K525" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L525" s="0" t="s">
         <v>509</v>
@@ -74299,7 +74303,7 @@
         <v>106</v>
       </c>
       <c r="D526" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>445</v>
@@ -74320,7 +74324,7 @@
         <v>611</v>
       </c>
       <c r="K526" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="L526" s="0" t="s">
         <v>509</v>
@@ -74337,7 +74341,7 @@
         <v>106</v>
       </c>
       <c r="D527" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>445</v>
@@ -74358,7 +74362,7 @@
         <v>611</v>
       </c>
       <c r="K527" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L527" s="0" t="s">
         <v>509</v>
@@ -74375,7 +74379,7 @@
         <v>106</v>
       </c>
       <c r="D528" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>445</v>
@@ -74396,7 +74400,7 @@
         <v>611</v>
       </c>
       <c r="K528" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="L528" s="0" t="s">
         <v>509</v>
@@ -74413,7 +74417,7 @@
         <v>106</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E529" s="2" t="s">
         <v>445</v>
@@ -74434,7 +74438,7 @@
         <v>611</v>
       </c>
       <c r="K529" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L529" s="0" t="s">
         <v>509</v>
@@ -74451,7 +74455,7 @@
         <v>106</v>
       </c>
       <c r="D530" s="0" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>445</v>
@@ -74472,7 +74476,7 @@
         <v>611</v>
       </c>
       <c r="K530" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L530" s="0" t="s">
         <v>509</v>
@@ -74489,7 +74493,7 @@
         <v>106</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>445</v>
@@ -74510,7 +74514,7 @@
         <v>611</v>
       </c>
       <c r="K531" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L531" s="0" t="s">
         <v>509</v>
@@ -74527,7 +74531,7 @@
         <v>106</v>
       </c>
       <c r="D532" s="0" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>445</v>
@@ -74548,7 +74552,7 @@
         <v>611</v>
       </c>
       <c r="K532" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="L532" s="0" t="s">
         <v>509</v>
@@ -74565,7 +74569,7 @@
         <v>106</v>
       </c>
       <c r="D533" s="0" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>445</v>
@@ -74586,7 +74590,7 @@
         <v>611</v>
       </c>
       <c r="K533" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="L533" s="0" t="s">
         <v>509</v>
@@ -74603,7 +74607,7 @@
         <v>106</v>
       </c>
       <c r="D534" s="0" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>445</v>
@@ -74624,7 +74628,7 @@
         <v>611</v>
       </c>
       <c r="K534" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L534" s="0" t="s">
         <v>509</v>
@@ -74641,7 +74645,7 @@
         <v>106</v>
       </c>
       <c r="D535" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>445</v>
@@ -74662,7 +74666,7 @@
         <v>611</v>
       </c>
       <c r="K535" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L535" s="0" t="s">
         <v>509</v>
@@ -74679,7 +74683,7 @@
         <v>106</v>
       </c>
       <c r="D536" s="0" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>445</v>
@@ -74700,7 +74704,7 @@
         <v>611</v>
       </c>
       <c r="K536" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L536" s="0" t="s">
         <v>509</v>
@@ -74717,7 +74721,7 @@
         <v>106</v>
       </c>
       <c r="D537" s="0" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>445</v>
@@ -74738,7 +74742,7 @@
         <v>611</v>
       </c>
       <c r="K537" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L537" s="0" t="s">
         <v>509</v>
@@ -74755,7 +74759,7 @@
         <v>106</v>
       </c>
       <c r="D538" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>445</v>
@@ -74776,7 +74780,7 @@
         <v>611</v>
       </c>
       <c r="K538" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L538" s="0" t="s">
         <v>509</v>
@@ -74793,7 +74797,7 @@
         <v>106</v>
       </c>
       <c r="D539" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>445</v>
@@ -74814,7 +74818,7 @@
         <v>611</v>
       </c>
       <c r="K539" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L539" s="0" t="s">
         <v>509</v>
@@ -74831,7 +74835,7 @@
         <v>106</v>
       </c>
       <c r="D540" s="0" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>445</v>
@@ -74852,7 +74856,7 @@
         <v>611</v>
       </c>
       <c r="K540" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="L540" s="0" t="s">
         <v>509</v>
@@ -74869,7 +74873,7 @@
         <v>106</v>
       </c>
       <c r="D541" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>445</v>
@@ -74890,7 +74894,7 @@
         <v>611</v>
       </c>
       <c r="K541" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="L541" s="0" t="s">
         <v>509</v>
@@ -74907,7 +74911,7 @@
         <v>106</v>
       </c>
       <c r="D542" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>445</v>
@@ -74928,7 +74932,7 @@
         <v>611</v>
       </c>
       <c r="K542" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L542" s="0" t="s">
         <v>509</v>
@@ -74945,7 +74949,7 @@
         <v>106</v>
       </c>
       <c r="D543" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>445</v>
@@ -74966,7 +74970,7 @@
         <v>611</v>
       </c>
       <c r="K543" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="L543" s="0" t="s">
         <v>509</v>
@@ -74983,7 +74987,7 @@
         <v>106</v>
       </c>
       <c r="D544" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>445</v>
@@ -75004,7 +75008,7 @@
         <v>611</v>
       </c>
       <c r="K544" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L544" s="0" t="s">
         <v>509</v>
@@ -75021,7 +75025,7 @@
         <v>106</v>
       </c>
       <c r="D545" s="0" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>445</v>
@@ -75042,7 +75046,7 @@
         <v>611</v>
       </c>
       <c r="K545" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L545" s="0" t="s">
         <v>509</v>
@@ -75059,7 +75063,7 @@
         <v>106</v>
       </c>
       <c r="D546" s="0" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>445</v>
@@ -75080,7 +75084,7 @@
         <v>611</v>
       </c>
       <c r="K546" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L546" s="0" t="s">
         <v>509</v>
@@ -75097,7 +75101,7 @@
         <v>106</v>
       </c>
       <c r="D547" s="0" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>445</v>
@@ -75118,7 +75122,7 @@
         <v>611</v>
       </c>
       <c r="K547" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L547" s="0" t="s">
         <v>509</v>
